--- a/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
@@ -642,8 +642,8 @@
     <numFmt numFmtId="174" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="178" formatCode="0.0E+00"/>
-    <numFmt numFmtId="179" formatCode="0.E+00"/>
+    <numFmt numFmtId="177" formatCode="0.0E+00"/>
+    <numFmt numFmtId="178" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1667,9 +1667,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1685,12 +1685,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,6 +1745,12 @@
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_CHFYCSTD#0017</v>
+        <v>_CHFYCSTD#0001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D18" s="16" t="str">
         <f>IF(HolidayCheck,JoinCalendar,LiborCalendar)</f>
-        <v>JoinHolidays(Switzerland,UnitedKingdom::Exchange)</v>
+        <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="M21" s="172" t="b">
         <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),2&amp;"D","f",FALSE,Trigger))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="173"/>
       <c r="O21" s="3"/>
@@ -2952,11 +2952,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42123</v>
+        <v>42124</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>6.301201606613102E-3</v>
+        <v>7.0017489442554971E-3</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-8.039807022126845E-3</v>
+        <v>-8.0388915983817325E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4552,7 +4552,7 @@
       <c r="B2" s="107"/>
       <c r="C2" s="107" t="str">
         <f>Deposits!I3</f>
-        <v>obj_002de#0029</v>
+        <v>obj_00247#0001</v>
       </c>
       <c r="D2" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E2" s="108">
         <f>_xll.qlRateHelperQuoteValue($C2,Trigger)</f>
-        <v>-4.0750000000000005E-3</v>
+        <v>-4.0249999999999999E-3</v>
       </c>
       <c r="F2" s="108"/>
       <c r="G2" s="58" t="b">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="J2" s="109">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>42123</v>
+        <v>42124</v>
       </c>
       <c r="K2" s="110">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="L2" s="57">
         <v>10</v>
@@ -4591,7 +4591,7 @@
       <c r="B3" s="107"/>
       <c r="C3" s="107" t="str">
         <f>Deposits!I4</f>
-        <v>obj_002e6#0007</v>
+        <v>obj_00245#0001</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="E3" s="108">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>-7.7200000000000003E-3</v>
+        <v>-7.6800000000000002E-3</v>
       </c>
       <c r="F3" s="108"/>
       <c r="G3" s="58" t="b">
@@ -4624,7 +4624,7 @@
       <c r="B4" s="107"/>
       <c r="C4" s="107" t="str">
         <f>Deposits!I5</f>
-        <v>obj_002e5#0007</v>
+        <v>obj_00244#0001</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="E4" s="108">
         <f>_xll.qlRateHelperQuoteValue($C4,Trigger)</f>
-        <v>-8.1100000000000009E-3</v>
+        <v>-8.0600000000000012E-3</v>
       </c>
       <c r="F4" s="108"/>
       <c r="G4" s="58" t="b">
@@ -4657,7 +4657,7 @@
       <c r="B5" s="107"/>
       <c r="C5" s="107" t="str">
         <f>Deposits!I6</f>
-        <v>obj_002e4#0007</v>
+        <v>obj_00243#0001</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E5" s="108">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>-8.2100000000000003E-3</v>
+        <v>-8.150000000000001E-3</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="58" t="b">
@@ -4690,7 +4690,7 @@
       <c r="B6" s="107"/>
       <c r="C6" s="107" t="str">
         <f>Deposits!I7</f>
-        <v>obj_002e3#0007</v>
+        <v>obj_00242#0001</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="E6" s="108">
         <f>_xll.qlRateHelperQuoteValue($C6,Trigger)</f>
-        <v>-8.150000000000001E-3</v>
+        <v>-8.1200000000000005E-3</v>
       </c>
       <c r="F6" s="108"/>
       <c r="G6" s="58" t="b">
@@ -4723,7 +4723,7 @@
       <c r="B7" s="107"/>
       <c r="C7" s="107" t="str">
         <f>Deposits!I8</f>
-        <v>obj_002e2#0007</v>
+        <v>obj_00241#0001</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E7" s="108">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>-8.0000000000000002E-3</v>
+        <v>-7.9400000000000009E-3</v>
       </c>
       <c r="F7" s="108"/>
       <c r="G7" s="58" t="b">
@@ -4756,7 +4756,7 @@
       <c r="B8" s="107"/>
       <c r="C8" s="107" t="str">
         <f>Deposits!I9</f>
-        <v>obj_002e1#0007</v>
+        <v>obj_00248#0001</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E8" s="108">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>-7.1860000000000005E-3</v>
+        <v>-7.0959999999999999E-3</v>
       </c>
       <c r="F8" s="108"/>
       <c r="G8" s="58" t="b">
@@ -4789,7 +4789,7 @@
       <c r="B9" s="107"/>
       <c r="C9" s="107" t="str">
         <f>Deposits!I10</f>
-        <v>obj_002df#0007</v>
+        <v>obj_00246#0001</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="E9" s="108">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>-6.0160000000000005E-3</v>
+        <v>-5.8460000000000005E-3</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="58" t="b">
@@ -4815,26 +4815,26 @@
       </c>
       <c r="K9" s="110">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>42496</v>
+        <v>42495</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="203" t="str">
+      <c r="B10" s="201" t="str">
         <f t="array" ref="B10:B51">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A10:$A51)</f>
         <v>K5</v>
       </c>
       <c r="C10" s="107" t="str">
         <f>Futures!H3</f>
-        <v>obj_00229#0006</v>
+        <v>obj_00265#0001</v>
       </c>
       <c r="D10" s="157" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
         <v>CHFFUT3MK5_Quote</v>
       </c>
-      <c r="E10" s="204" t="e">
+      <c r="E10" s="202" t="e">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
         <v>#NUM!</v>
       </c>
@@ -4864,12 +4864,12 @@
       <c r="A11" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="203" t="str">
+      <c r="B11" s="201" t="str">
         <v>M5</v>
       </c>
       <c r="C11" s="107" t="str">
         <f>Futures!H4</f>
-        <v>obj_00210#0008</v>
+        <v>obj_0025c#0001</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="E11" s="116">
         <f>_xll.qlRateHelperQuoteValue($C11,Trigger)</f>
-        <v>100.83500000000001</v>
+        <v>100.815</v>
       </c>
       <c r="F11" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C11,Trigger)</f>
@@ -4905,12 +4905,12 @@
       <c r="A12" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="203" t="str">
+      <c r="B12" s="201" t="str">
         <v>N5</v>
       </c>
       <c r="C12" s="107" t="str">
         <f>Futures!H5</f>
-        <v>obj_0021a#0006</v>
+        <v>obj_00256#0001</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -4946,12 +4946,12 @@
       <c r="A13" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="203" t="str">
+      <c r="B13" s="201" t="str">
         <v>Q5</v>
       </c>
       <c r="C13" s="107" t="str">
         <f>Futures!H6</f>
-        <v>obj_00222#0006</v>
+        <v>obj_0025b#0001</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -4987,12 +4987,12 @@
       <c r="A14" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="203" t="str">
+      <c r="B14" s="201" t="str">
         <v>U5</v>
       </c>
       <c r="C14" s="107" t="str">
         <f>Futures!H7</f>
-        <v>obj_0022a#0006</v>
+        <v>obj_00263#0001</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="E14" s="116">
         <f>_xll.qlRateHelperQuoteValue($C14,Trigger)</f>
-        <v>100.86500000000001</v>
+        <v>100.825</v>
       </c>
       <c r="F14" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C14,Trigger)</f>
@@ -5028,12 +5028,12 @@
       <c r="A15" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="203" t="str">
+      <c r="B15" s="201" t="str">
         <v>V5</v>
       </c>
       <c r="C15" s="107" t="str">
         <f>Futures!H8</f>
-        <v>obj_0021e#0006</v>
+        <v>obj_00249#0001</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5069,12 +5069,12 @@
       <c r="A16" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="203" t="str">
+      <c r="B16" s="201" t="str">
         <v>X5</v>
       </c>
       <c r="C16" s="107" t="str">
         <f>Futures!H9</f>
-        <v>obj_00231#0006</v>
+        <v>obj_00268#0001</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5110,12 +5110,12 @@
       <c r="A17" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="203" t="str">
+      <c r="B17" s="201" t="str">
         <v>Z5</v>
       </c>
       <c r="C17" s="107" t="str">
         <f>Futures!H10</f>
-        <v>obj_0021f#0006</v>
+        <v>obj_0026c#0001</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="E17" s="116">
         <f>_xll.qlRateHelperQuoteValue($C17,Trigger)</f>
-        <v>100.825</v>
+        <v>100.795</v>
       </c>
       <c r="F17" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C17,Trigger)</f>
@@ -5151,12 +5151,12 @@
       <c r="A18" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="203" t="str">
+      <c r="B18" s="201" t="str">
         <v>F6</v>
       </c>
       <c r="C18" s="107" t="str">
         <f>Futures!H11</f>
-        <v>obj_00230#0006</v>
+        <v>obj_0024b#0001</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5192,12 +5192,12 @@
       <c r="A19" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="203" t="str">
+      <c r="B19" s="201" t="str">
         <v>G6</v>
       </c>
       <c r="C19" s="107" t="str">
         <f>Futures!H12</f>
-        <v>obj_0021c#0006</v>
+        <v>obj_00254#0001</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5233,12 +5233,12 @@
       <c r="A20" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="203" t="str">
+      <c r="B20" s="201" t="str">
         <v>H6</v>
       </c>
       <c r="C20" s="107" t="str">
         <f>Futures!H13</f>
-        <v>obj_00239#0006</v>
+        <v>obj_0026f#0001</v>
       </c>
       <c r="D20" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="E20" s="116">
         <f>_xll.qlRateHelperQuoteValue($C20,Trigger)</f>
-        <v>100.77500000000001</v>
+        <v>100.73500000000001</v>
       </c>
       <c r="F20" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C20,Trigger)</f>
@@ -5274,12 +5274,12 @@
       <c r="A21" s="141" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="203" t="str">
+      <c r="B21" s="201" t="str">
         <v>J6</v>
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!H14</f>
-        <v>obj_00219#0006</v>
+        <v>obj_00271#0001</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5315,12 +5315,12 @@
       <c r="A22" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="203" t="str">
+      <c r="B22" s="201" t="str">
         <v>M6</v>
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!H15</f>
-        <v>obj_00234#0006</v>
+        <v>obj_00272#0001</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="E22" s="116">
         <f>_xll.qlRateHelperQuoteValue($C22,Trigger)</f>
-        <v>100.72</v>
+        <v>100.685</v>
       </c>
       <c r="F22" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C22,Trigger)</f>
@@ -5356,12 +5356,12 @@
       <c r="A23" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="203" t="str">
+      <c r="B23" s="201" t="str">
         <v>U6</v>
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!H16</f>
-        <v>obj_00232#0006</v>
+        <v>obj_0026a#0001</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="E23" s="116">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>100.67</v>
+        <v>100.63</v>
       </c>
       <c r="F23" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5397,12 +5397,12 @@
       <c r="A24" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="203" t="str">
+      <c r="B24" s="201" t="str">
         <v>Z6</v>
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!H17</f>
-        <v>obj_00226#0006</v>
+        <v>obj_00252#0001</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="E24" s="116">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>100.61000000000001</v>
+        <v>100.575</v>
       </c>
       <c r="F24" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5438,12 +5438,12 @@
       <c r="A25" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="203" t="str">
+      <c r="B25" s="201" t="str">
         <v>H7</v>
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!H18</f>
-        <v>obj_00215#0006</v>
+        <v>obj_00267#0001</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="E25" s="116">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>100.55000000000001</v>
+        <v>100.52000000000001</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5479,12 +5479,12 @@
       <c r="A26" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="203" t="str">
+      <c r="B26" s="201" t="str">
         <v>M7</v>
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!H19</f>
-        <v>obj_00224#0006</v>
+        <v>obj_0024e#0001</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="E26" s="116">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>100.485</v>
+        <v>100.45</v>
       </c>
       <c r="F26" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5520,12 +5520,12 @@
       <c r="A27" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="203" t="str">
+      <c r="B27" s="201" t="str">
         <v>U7</v>
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!H20</f>
-        <v>obj_00235#0006</v>
+        <v>obj_00255#0001</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="E27" s="116">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
-        <v>100.41500000000001</v>
+        <v>100.38</v>
       </c>
       <c r="F27" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger)</f>
@@ -5561,12 +5561,12 @@
       <c r="A28" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B28" s="203" t="str">
+      <c r="B28" s="201" t="str">
         <v>Z7</v>
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!H21</f>
-        <v>obj_00211#0006</v>
+        <v>obj_00250#0001</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="E28" s="116">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>100.325</v>
+        <v>100.30000000000001</v>
       </c>
       <c r="F28" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
@@ -5602,12 +5602,12 @@
       <c r="A29" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B29" s="203" t="str">
+      <c r="B29" s="201" t="str">
         <v>H8</v>
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!H22</f>
-        <v>obj_00228#0006</v>
+        <v>obj_00251#0001</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="E29" s="116">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>100.235</v>
+        <v>100.21000000000001</v>
       </c>
       <c r="F29" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
@@ -5643,12 +5643,12 @@
       <c r="A30" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="203" t="str">
+      <c r="B30" s="201" t="str">
         <v>M8</v>
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!H23</f>
-        <v>obj_00217#0006</v>
+        <v>obj_0025f#0001</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E30" s="116">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
-        <v>100.13499999999999</v>
+        <v>100.11</v>
       </c>
       <c r="F30" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger)</f>
@@ -5684,12 +5684,12 @@
       <c r="A31" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="203" t="str">
+      <c r="B31" s="201" t="str">
         <v>U8</v>
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!H24</f>
-        <v>obj_00237#0006</v>
+        <v>obj_00259#0001</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5725,12 +5725,12 @@
       <c r="A32" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B32" s="203" t="str">
+      <c r="B32" s="201" t="str">
         <v>Z8</v>
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!H25</f>
-        <v>obj_00214#0006</v>
+        <v>obj_0026d#0001</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5766,12 +5766,12 @@
       <c r="A33" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="203" t="str">
+      <c r="B33" s="201" t="str">
         <v>H9</v>
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!H26</f>
-        <v>obj_00216#0006</v>
+        <v>obj_0024a#0001</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5807,12 +5807,12 @@
       <c r="A34" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="203" t="str">
+      <c r="B34" s="201" t="str">
         <v>M9</v>
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!H27</f>
-        <v>obj_0021d#0006</v>
+        <v>obj_00270#0001</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5848,12 +5848,12 @@
       <c r="A35" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B35" s="203" t="str">
+      <c r="B35" s="201" t="str">
         <v>U9</v>
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!H28</f>
-        <v>obj_00238#0006</v>
+        <v>obj_00253#0001</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5889,12 +5889,12 @@
       <c r="A36" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="203" t="str">
+      <c r="B36" s="201" t="str">
         <v>Z9</v>
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!H29</f>
-        <v>obj_00213#0006</v>
+        <v>obj_0026b#0001</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5930,12 +5930,12 @@
       <c r="A37" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="203" t="str">
+      <c r="B37" s="201" t="str">
         <v>H0</v>
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!H30</f>
-        <v>obj_00227#0006</v>
+        <v>obj_00257#0001</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -5971,12 +5971,12 @@
       <c r="A38" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="203" t="str">
+      <c r="B38" s="201" t="str">
         <v>M0</v>
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!H31</f>
-        <v>obj_0022c#0006</v>
+        <v>obj_00258#0001</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -6012,12 +6012,12 @@
       <c r="A39" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="203" t="str">
+      <c r="B39" s="201" t="str">
         <v>U0</v>
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!H32</f>
-        <v>obj_00212#0006</v>
+        <v>obj_0025e#0001</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6053,12 +6053,12 @@
       <c r="A40" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B40" s="203" t="str">
+      <c r="B40" s="201" t="str">
         <v>Z0</v>
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!H33</f>
-        <v>obj_0021b#0006</v>
+        <v>obj_00264#0001</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6094,12 +6094,12 @@
       <c r="A41" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="203" t="str">
+      <c r="B41" s="201" t="str">
         <v>H1</v>
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!H34</f>
-        <v>obj_00221#0006</v>
+        <v>obj_0024f#0001</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6135,12 +6135,12 @@
       <c r="A42" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B42" s="203" t="str">
+      <c r="B42" s="201" t="str">
         <v>M1</v>
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!H35</f>
-        <v>obj_00225#0006</v>
+        <v>obj_0024d#0001</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6176,12 +6176,12 @@
       <c r="A43" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="203" t="str">
+      <c r="B43" s="201" t="str">
         <v>U1</v>
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!H36</f>
-        <v>obj_00218#0006</v>
+        <v>obj_00260#0001</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6217,12 +6217,12 @@
       <c r="A44" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="203" t="str">
+      <c r="B44" s="201" t="str">
         <v>Z1</v>
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!H37</f>
-        <v>obj_00220#0006</v>
+        <v>obj_0025a#0001</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6258,12 +6258,12 @@
       <c r="A45" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="203" t="str">
+      <c r="B45" s="201" t="str">
         <v>H2</v>
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!H38</f>
-        <v>obj_0022d#0006</v>
+        <v>obj_0026e#0001</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6299,12 +6299,12 @@
       <c r="A46" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="203" t="str">
+      <c r="B46" s="201" t="str">
         <v>M2</v>
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!H39</f>
-        <v>obj_00223#0006</v>
+        <v>obj_0024c#0001</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6340,12 +6340,12 @@
       <c r="A47" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B47" s="203" t="str">
+      <c r="B47" s="201" t="str">
         <v>U2</v>
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!H40</f>
-        <v>obj_0022e#0006</v>
+        <v>obj_00261#0001</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6381,12 +6381,12 @@
       <c r="A48" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B48" s="203" t="str">
+      <c r="B48" s="201" t="str">
         <v>Z2</v>
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!H41</f>
-        <v>obj_0022b#0006</v>
+        <v>obj_00266#0001</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6422,12 +6422,12 @@
       <c r="A49" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="203" t="str">
+      <c r="B49" s="201" t="str">
         <v>H3</v>
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!H42</f>
-        <v>obj_00233#0006</v>
+        <v>obj_00262#0001</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6463,12 +6463,12 @@
       <c r="A50" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="203" t="str">
+      <c r="B50" s="201" t="str">
         <v>M3</v>
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!H43</f>
-        <v>obj_00236#0006</v>
+        <v>obj_00269#0001</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6504,12 +6504,12 @@
       <c r="A51" s="141" t="b">
         <v>1</v>
       </c>
-      <c r="B51" s="203" t="str">
+      <c r="B51" s="201" t="str">
         <v>U3</v>
       </c>
       <c r="C51" s="111" t="str">
         <f>Futures!H44</f>
-        <v>obj_0022f#0006</v>
+        <v>obj_0025d#0001</v>
       </c>
       <c r="D51" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6547,7 +6547,7 @@
       <c r="B52" s="107"/>
       <c r="C52" s="157" t="str">
         <f>Swaps!K5</f>
-        <v>obj_002b3#0045</v>
+        <v>obj_0021a#0001</v>
       </c>
       <c r="D52" s="157" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="E52" s="158">
         <f>_xll.qlRateHelperQuoteValue($C52,Trigger)</f>
-        <v>-7.2750000000000002E-3</v>
+        <v>-7.0500000000000007E-3</v>
       </c>
       <c r="F52" s="158">
         <f>_xll.qlSwapRateHelperSpread($C52,Trigger)</f>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K52" s="161">
         <f>_xll.qlRateHelperLatestDate($C52,Trigger)</f>
-        <v>42496</v>
+        <v>42495</v>
       </c>
       <c r="M52" s="119"/>
     </row>
@@ -6585,7 +6585,7 @@
       <c r="B53" s="107"/>
       <c r="C53" s="107" t="str">
         <f>Swaps!K6</f>
-        <v>obj_002b2#0010</v>
+        <v>obj_00222#0001</v>
       </c>
       <c r="D53" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6624,7 +6624,7 @@
       <c r="B54" s="107"/>
       <c r="C54" s="107" t="str">
         <f>Swaps!K7</f>
-        <v>obj_002cb#0010</v>
+        <v>obj_00240#0001</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6663,7 +6663,7 @@
       <c r="B55" s="107"/>
       <c r="C55" s="107" t="str">
         <f>Swaps!K8</f>
-        <v>obj_002cd#0010</v>
+        <v>obj_0022f#0001</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6702,7 +6702,7 @@
       <c r="B56" s="107"/>
       <c r="C56" s="107" t="str">
         <f>Swaps!K9</f>
-        <v>obj_002ce#0010</v>
+        <v>obj_0021e#0001</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="E56" s="108">
         <f>_xll.qlRateHelperQuoteValue($C56,Trigger)</f>
-        <v>-6.4749999999999999E-3</v>
+        <v>-6.1750000000000008E-3</v>
       </c>
       <c r="F56" s="108">
         <f>_xll.qlSwapRateHelperSpread($C56,Trigger)</f>
@@ -6740,7 +6740,7 @@
       <c r="B57" s="107"/>
       <c r="C57" s="107" t="str">
         <f>Swaps!K10</f>
-        <v>obj_002cc#0010</v>
+        <v>obj_00220#0001</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="E57" s="108">
         <f>_xll.qlRateHelperQuoteValue($C57,Trigger)</f>
-        <v>-5.3749999999999996E-3</v>
+        <v>-5.0750000000000005E-3</v>
       </c>
       <c r="F57" s="108">
         <f>_xll.qlSwapRateHelperSpread($C57,Trigger)</f>
@@ -6780,7 +6780,7 @@
       <c r="B58" s="107"/>
       <c r="C58" s="107" t="str">
         <f>Swaps!K11</f>
-        <v>obj_002c4#0010</v>
+        <v>obj_00237#0001</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="E58" s="108">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>-4.15E-3</v>
+        <v>-3.8250000000000007E-3</v>
       </c>
       <c r="F58" s="108">
         <f>_xll.qlSwapRateHelperSpread($C58,Trigger)</f>
@@ -6820,7 +6820,7 @@
       <c r="B59" s="107"/>
       <c r="C59" s="107" t="str">
         <f>Swaps!K12</f>
-        <v>obj_002d2#0010</v>
+        <v>obj_00221#0001</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E59" s="108">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>-2.9000000000000002E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="F59" s="108">
         <f>_xll.qlSwapRateHelperSpread($C59,Trigger)</f>
@@ -6860,7 +6860,7 @@
       <c r="B60" s="107"/>
       <c r="C60" s="107" t="str">
         <f>Swaps!K13</f>
-        <v>obj_002b8#0010</v>
+        <v>obj_00238#0001</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="E60" s="108">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>-1.7000000000000001E-3</v>
+        <v>-1.25E-3</v>
       </c>
       <c r="F60" s="108">
         <f>_xll.qlSwapRateHelperSpread($C60,Trigger)</f>
@@ -6900,7 +6900,7 @@
       <c r="B61" s="107"/>
       <c r="C61" s="107" t="str">
         <f>Swaps!K14</f>
-        <v>obj_002c3#0010</v>
+        <v>obj_00228#0001</v>
       </c>
       <c r="D61" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="E61" s="108">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>-6.2500000000000001E-4</v>
+        <v>-1.7500000000000003E-4</v>
       </c>
       <c r="F61" s="108">
         <f>_xll.qlSwapRateHelperSpread($C61,Trigger)</f>
@@ -6940,7 +6940,7 @@
       <c r="B62" s="107"/>
       <c r="C62" s="107" t="str">
         <f>Swaps!K15</f>
-        <v>obj_002b5#0010</v>
+        <v>obj_00217#0001</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="E62" s="108">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>3.0000000000000003E-4</v>
+        <v>7.5000000000000012E-4</v>
       </c>
       <c r="F62" s="108">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -6980,7 +6980,7 @@
       <c r="B63" s="107"/>
       <c r="C63" s="107" t="str">
         <f>Swaps!K16</f>
-        <v>obj_002b9#0010</v>
+        <v>obj_0023d#0001</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="E63" s="108">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>1.0500000000000002E-3</v>
+        <v>1.5249999999999999E-3</v>
       </c>
       <c r="F63" s="108">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7020,7 +7020,7 @@
       <c r="B64" s="107"/>
       <c r="C64" s="107" t="str">
         <f>Swaps!K17</f>
-        <v>obj_002b6#0010</v>
+        <v>obj_00224#0001</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="E64" s="108">
         <f>_xll.qlRateHelperQuoteValue($C64,Trigger)</f>
-        <v>1.6750000000000001E-3</v>
+        <v>2.1750000000000003E-3</v>
       </c>
       <c r="F64" s="108">
         <f>_xll.qlSwapRateHelperSpread($C64,Trigger)</f>
@@ -7060,7 +7060,7 @@
       <c r="B65" s="107"/>
       <c r="C65" s="107" t="str">
         <f>Swaps!K18</f>
-        <v>obj_002bd#0010</v>
+        <v>obj_00226#0001</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="E65" s="108">
         <f>_xll.qlRateHelperQuoteValue($C65,Trigger)</f>
-        <v>2.2250000000000004E-3</v>
+        <v>2.7500000000000003E-3</v>
       </c>
       <c r="F65" s="108">
         <f>_xll.qlSwapRateHelperSpread($C65,Trigger)</f>
@@ -7100,7 +7100,7 @@
       <c r="B66" s="107"/>
       <c r="C66" s="107" t="str">
         <f>Swaps!K19</f>
-        <v>obj_002bc#0010</v>
+        <v>obj_0023f#0001</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>2.725E-3</v>
+        <v>3.2750000000000001E-3</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -7140,7 +7140,7 @@
       <c r="B67" s="107"/>
       <c r="C67" s="107" t="str">
         <f>Swaps!K20</f>
-        <v>obj_002cf#0010</v>
+        <v>obj_00227#0001</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7180,7 +7180,7 @@
       <c r="B68" s="107"/>
       <c r="C68" s="107" t="str">
         <f>Swaps!K21</f>
-        <v>obj_002be#0010</v>
+        <v>obj_0023b#0001</v>
       </c>
       <c r="D68" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7220,7 +7220,7 @@
       <c r="B69" s="107"/>
       <c r="C69" s="107" t="str">
         <f>Swaps!K22</f>
-        <v>obj_002c2#0010</v>
+        <v>obj_0022e#0001</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="E69" s="108">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>3.9000000000000003E-3</v>
+        <v>4.4749999999999998E-3</v>
       </c>
       <c r="F69" s="108">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7260,7 +7260,7 @@
       <c r="B70" s="107"/>
       <c r="C70" s="107" t="str">
         <f>Swaps!K23</f>
-        <v>obj_002ca#0010</v>
+        <v>obj_0021d#0001</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7300,7 +7300,7 @@
       <c r="B71" s="107"/>
       <c r="C71" s="107" t="str">
         <f>Swaps!K24</f>
-        <v>obj_002bf#0010</v>
+        <v>obj_00239#0001</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7340,7 +7340,7 @@
       <c r="B72" s="107"/>
       <c r="C72" s="107" t="str">
         <f>Swaps!K25</f>
-        <v>obj_002b7#0010</v>
+        <v>obj_0022a#0001</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7380,7 +7380,7 @@
       <c r="B73" s="107"/>
       <c r="C73" s="107" t="str">
         <f>Swaps!K26</f>
-        <v>obj_002c8#0010</v>
+        <v>obj_0022c#0001</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7420,7 +7420,7 @@
       <c r="B74" s="107"/>
       <c r="C74" s="107" t="str">
         <f>Swaps!K27</f>
-        <v>obj_002d3#0010</v>
+        <v>obj_00215#0001</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="E74" s="108">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>5.1249999999999993E-3</v>
+        <v>5.6750000000000012E-3</v>
       </c>
       <c r="F74" s="108">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7460,7 +7460,7 @@
       <c r="B75" s="107"/>
       <c r="C75" s="107" t="str">
         <f>Swaps!K28</f>
-        <v>obj_002bb#0010</v>
+        <v>obj_0022d#0001</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7500,7 +7500,7 @@
       <c r="B76" s="107"/>
       <c r="C76" s="107" t="str">
         <f>Swaps!K29</f>
-        <v>obj_002d0#0010</v>
+        <v>obj_00216#0001</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7540,7 +7540,7 @@
       <c r="B77" s="107"/>
       <c r="C77" s="107" t="str">
         <f>Swaps!K30</f>
-        <v>obj_002c5#0010</v>
+        <v>obj_00234#0001</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7580,7 +7580,7 @@
       <c r="B78" s="107"/>
       <c r="C78" s="107" t="str">
         <f>Swaps!K31</f>
-        <v>obj_002b4#0010</v>
+        <v>obj_00223#0001</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7620,7 +7620,7 @@
       <c r="B79" s="107"/>
       <c r="C79" s="107" t="str">
         <f>Swaps!K32</f>
-        <v>obj_002d1#0010</v>
+        <v>obj_0023c#0001</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7628,7 +7628,7 @@
       </c>
       <c r="E79" s="108">
         <f>_xll.qlRateHelperQuoteValue($C79,Trigger)</f>
-        <v>5.7250000000000001E-3</v>
+        <v>6.4000000000000012E-3</v>
       </c>
       <c r="F79" s="108">
         <f>_xll.qlSwapRateHelperSpread($C79,Trigger)</f>
@@ -7660,7 +7660,7 @@
       <c r="B80" s="107"/>
       <c r="C80" s="107" t="str">
         <f>Swaps!K33</f>
-        <v>obj_002c1#0010</v>
+        <v>obj_00230#0001</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7700,7 +7700,7 @@
       <c r="B81" s="107"/>
       <c r="C81" s="107" t="str">
         <f>Swaps!K34</f>
-        <v>obj_002c0#0010</v>
+        <v>obj_00232#0001</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7740,7 +7740,7 @@
       <c r="B82" s="107"/>
       <c r="C82" s="107" t="str">
         <f>Swaps!K35</f>
-        <v>obj_002c6#0010</v>
+        <v>obj_0021b#0001</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7780,7 +7780,7 @@
       <c r="B83" s="107"/>
       <c r="C83" s="107" t="str">
         <f>Swaps!K36</f>
-        <v>obj_002b0#0010</v>
+        <v>obj_00233#0001</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7820,7 +7820,7 @@
       <c r="B84" s="107"/>
       <c r="C84" s="107" t="str">
         <f>Swaps!K37</f>
-        <v>obj_002b1#0010</v>
+        <v>obj_0021c#0001</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="E84" s="108">
         <f>_xll.qlRateHelperQuoteValue($C84,Trigger)</f>
-        <v>6.025E-3</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="F84" s="108">
         <f>_xll.qlSwapRateHelperSpread($C84,Trigger)</f>
@@ -7860,7 +7860,7 @@
       <c r="B85" s="107"/>
       <c r="C85" s="107" t="str">
         <f>Swaps!K38</f>
-        <v>obj_002c9#0010</v>
+        <v>obj_0023e#0001</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="E85" s="108">
         <f>_xll.qlRateHelperQuoteValue($C85,Trigger)</f>
-        <v>6.1250000000000002E-3</v>
+        <v>6.8500000000000002E-3</v>
       </c>
       <c r="F85" s="108">
         <f>_xll.qlSwapRateHelperSpread($C85,Trigger)</f>
@@ -7900,7 +7900,7 @@
       <c r="B86" s="107"/>
       <c r="C86" s="107" t="str">
         <f>Swaps!K39</f>
-        <v>obj_002af#0010</v>
+        <v>obj_00229#0001</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E86" s="108">
         <f>_xll.qlRateHelperQuoteValue($C86,Trigger)</f>
-        <v>6.0750000000000005E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F86" s="108">
         <f>_xll.qlSwapRateHelperSpread($C86,Trigger)</f>
@@ -7940,7 +7940,7 @@
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="str">
         <f>Swaps!K40</f>
-        <v>obj_002c7#0010</v>
+        <v>obj_00218#0001</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="E87" s="108">
         <f>_xll.qlRateHelperQuoteValue($C87,Trigger)</f>
-        <v>5.7250000000000001E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="F87" s="108">
         <f>_xll.qlSwapRateHelperSpread($C87,Trigger)</f>
@@ -7980,7 +7980,7 @@
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="str">
         <f>Swaps!K41</f>
-        <v>obj_002ba#0010</v>
+        <v>obj_00235#0001</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -9491,10 +9491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="207" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="175"/>
+      <c r="B1" s="208"/>
       <c r="D1" s="150" t="s">
         <v>52</v>
       </c>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="J1" s="68">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>-4.1316206061092469E-3</v>
+        <v>-4.0809255913416579E-3</v>
       </c>
       <c r="O1" s="151"/>
     </row>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D2" s="69" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_002de</v>
+        <v>obj_00247</v>
       </c>
       <c r="E2" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="F2" s="70">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>-4.0750000000000005E-3</v>
+        <v>-4.0249999999999999E-3</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9542,14 +9542,14 @@
       </c>
       <c r="H2" s="78">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42123</v>
+        <v>42124</v>
       </c>
       <c r="I2" s="79">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="J2" s="68">
-        <v>-4.1316206061092469E-3</v>
+        <v>-4.0809255913416579E-3</v>
       </c>
       <c r="M2" s="154"/>
       <c r="O2" s="154"/>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="69" t="str">
-        <v>obj_002e6</v>
+        <v>obj_00245</v>
       </c>
       <c r="E3" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F3" s="70">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>-7.7200000000000003E-3</v>
+        <v>-7.6800000000000002E-3</v>
       </c>
       <c r="G3" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9588,7 +9588,7 @@
         <v>42130</v>
       </c>
       <c r="J3" s="68">
-        <v>-5.9794633773778685E-3</v>
+        <v>-5.9338376584560223E-3</v>
       </c>
       <c r="M3" s="154"/>
       <c r="O3" s="154"/>
@@ -9604,7 +9604,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="69" t="str">
-        <v>obj_002e5</v>
+        <v>obj_00244</v>
       </c>
       <c r="E4" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="F4" s="70">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>-8.1100000000000009E-3</v>
+        <v>-8.0600000000000012E-3</v>
       </c>
       <c r="G4" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9627,7 +9627,7 @@
         <v>42136</v>
       </c>
       <c r="J4" s="68">
-        <v>-7.045534501384022E-3</v>
+        <v>-7.0853641952678707E-3</v>
       </c>
       <c r="M4" s="154"/>
       <c r="V4" s="119"/>
@@ -9642,7 +9642,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="69" t="str">
-        <v>obj_002e4</v>
+        <v>obj_00243</v>
       </c>
       <c r="E5" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="F5" s="70">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>-8.2100000000000003E-3</v>
+        <v>-8.150000000000001E-3</v>
       </c>
       <c r="G5" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9665,7 +9665,7 @@
         <v>42160</v>
       </c>
       <c r="J5" s="68">
-        <v>-7.8963528890024816E-3</v>
+        <v>-7.8907009165448891E-3</v>
       </c>
       <c r="M5" s="154"/>
       <c r="V5" s="119"/>
@@ -9681,7 +9681,7 @@
         <v/>
       </c>
       <c r="D6" s="69" t="str">
-        <v>obj_002e3</v>
+        <v>obj_00242</v>
       </c>
       <c r="E6" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="F6" s="70">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>-8.150000000000001E-3</v>
+        <v>-8.1200000000000005E-3</v>
       </c>
       <c r="G6" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9704,7 +9704,7 @@
         <v>42191</v>
       </c>
       <c r="J6" s="68">
-        <v>-8.039807022126845E-3</v>
+        <v>-8.0388915983817325E-3</v>
       </c>
       <c r="M6" s="154"/>
       <c r="V6" s="119"/>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="69" t="str">
-        <v>obj_002e2</v>
+        <v>obj_00241</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="F7" s="70">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>-8.0000000000000002E-3</v>
+        <v>-7.9400000000000009E-3</v>
       </c>
       <c r="G7" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9736,7 +9736,7 @@
         <v>42221</v>
       </c>
       <c r="J7" s="68">
-        <v>-7.9695408767877212E-3</v>
+        <v>-7.9298376861791278E-3</v>
       </c>
       <c r="M7" s="154"/>
       <c r="V7" s="119"/>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="str">
-        <v>obj_002e1</v>
+        <v>obj_00248</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="F8" s="70">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>-7.1860000000000005E-3</v>
+        <v>-7.0959999999999999E-3</v>
       </c>
       <c r="G8" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9768,7 +9768,7 @@
         <v>42313</v>
       </c>
       <c r="J8" s="68">
-        <v>-7.2478162657029889E-3</v>
+        <v>-7.1641318721047597E-3</v>
       </c>
       <c r="M8" s="154"/>
       <c r="O8" s="154"/>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="69" t="str">
-        <v>obj_0021f</v>
+        <v>obj_0026c</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="F9" s="70">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>-8.2500000000000906E-3</v>
+        <v>-7.9500000000001236E-3</v>
       </c>
       <c r="G9" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9801,7 +9801,7 @@
         <v>42445</v>
       </c>
       <c r="J9" s="68">
-        <v>-7.6570893686250816E-3</v>
+        <v>-7.4939111552748319E-3</v>
       </c>
       <c r="M9" s="154"/>
       <c r="O9" s="154"/>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="69" t="str">
-        <v>obj_002df</v>
+        <v>obj_00246</v>
       </c>
       <c r="E10" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="F10" s="70">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>-6.0160000000000005E-3</v>
+        <v>-5.8460000000000005E-3</v>
       </c>
       <c r="G10" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9831,10 +9831,10 @@
       </c>
       <c r="I10" s="79">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42496</v>
+        <v>42495</v>
       </c>
       <c r="J10" s="68">
-        <v>-6.1111487156928317E-3</v>
+        <v>-5.9397353206459124E-3</v>
       </c>
       <c r="M10" s="154"/>
       <c r="O10" s="154"/>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="69" t="str">
-        <v>obj_00239</v>
+        <v>obj_0026f</v>
       </c>
       <c r="E11" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="F11" s="70">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>-7.7500000000001457E-3</v>
+        <v>-7.3500000000001897E-3</v>
       </c>
       <c r="G11" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9867,7 +9867,7 @@
         <v>42537</v>
       </c>
       <c r="J11" s="68">
-        <v>-7.7033873808144094E-3</v>
+        <v>-7.4861545757254544E-3</v>
       </c>
       <c r="M11" s="154"/>
       <c r="O11" s="154"/>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="69" t="str">
-        <v>obj_00234</v>
+        <v>obj_00272</v>
       </c>
       <c r="E12" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F12" s="70">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>-7.2000000000000952E-3</v>
+        <v>-6.8500000000000227E-3</v>
       </c>
       <c r="G12" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9900,7 +9900,7 @@
         <v>42628</v>
       </c>
       <c r="J12" s="68">
-        <v>-7.5993638164994701E-3</v>
+        <v>-7.3584102007585089E-3</v>
       </c>
       <c r="M12" s="154"/>
       <c r="O12" s="154"/>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="69" t="str">
-        <v>obj_00232</v>
+        <v>obj_0026a</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="F13" s="70">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>-6.5999999999999392E-3</v>
+        <v>-6.2999999999999723E-3</v>
       </c>
       <c r="G13" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9933,7 +9933,7 @@
         <v>42725</v>
       </c>
       <c r="J13" s="68">
-        <v>-7.4554418264819438E-3</v>
+        <v>-7.2040701372820225E-3</v>
       </c>
       <c r="M13" s="154"/>
       <c r="O13" s="154"/>
@@ -9943,7 +9943,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="str">
-        <v>obj_00226</v>
+        <v>obj_00252</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="F14" s="70">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>-6.1000000000002164E-3</v>
+        <v>-5.7499999999999218E-3</v>
       </c>
       <c r="G14" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9966,7 +9966,7 @@
         <v>42815</v>
       </c>
       <c r="J14" s="68">
-        <v>-7.2907887833894786E-3</v>
+        <v>-7.0256311627385805E-3</v>
       </c>
       <c r="M14" s="154"/>
       <c r="O14" s="154"/>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="69" t="str">
-        <v>obj_00215</v>
+        <v>obj_00267</v>
       </c>
       <c r="E15" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="F15" s="70">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>-5.5000000000000604E-3</v>
+        <v>-5.2000000000000934E-3</v>
       </c>
       <c r="G15" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9999,7 +9999,7 @@
         <v>42901</v>
       </c>
       <c r="J15" s="68">
-        <v>-7.0982003835795499E-3</v>
+        <v>-6.8289228764347116E-3</v>
       </c>
       <c r="M15" s="154"/>
       <c r="O15" s="154"/>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="69" t="str">
-        <v>obj_002cc</v>
+        <v>obj_00220</v>
       </c>
       <c r="E16" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="F16" s="70">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>-5.3500000000000006E-3</v>
+        <v>-5.0750000000000005E-3</v>
       </c>
       <c r="G16" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10032,7 +10032,7 @@
         <v>43228</v>
       </c>
       <c r="J16" s="68">
-        <v>-5.3693054709991108E-3</v>
+        <v>-5.0933837393836185E-3</v>
       </c>
       <c r="M16" s="154"/>
       <c r="V16" s="119"/>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="str">
-        <v>obj_002c4</v>
+        <v>obj_00237</v>
       </c>
       <c r="E17" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F17" s="70">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>-4.1000000000000003E-3</v>
+        <v>-3.8250000000000007E-3</v>
       </c>
       <c r="G17" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10064,7 +10064,7 @@
         <v>43592</v>
       </c>
       <c r="J17" s="68">
-        <v>-4.1243786036822645E-3</v>
+        <v>-3.8472736337399347E-3</v>
       </c>
       <c r="M17" s="154"/>
       <c r="O17" s="154"/>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="str">
-        <v>obj_002d2</v>
+        <v>obj_00221</v>
       </c>
       <c r="E18" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="F18" s="70">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>-2.8500000000000001E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="G18" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10098,7 +10098,7 @@
         <v>43956</v>
       </c>
       <c r="J18" s="68">
-        <v>-2.8741804330896696E-3</v>
+        <v>-2.5214778642928168E-3</v>
       </c>
       <c r="M18" s="154"/>
       <c r="O18" s="154"/>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="69" t="str">
-        <v>obj_002b8</v>
+        <v>obj_00238</v>
       </c>
       <c r="E19" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="F19" s="70">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>-1.65E-3</v>
+        <v>-1.25E-3</v>
       </c>
       <c r="G19" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10132,7 +10132,7 @@
         <v>44321</v>
       </c>
       <c r="J19" s="68">
-        <v>-1.6725787090679217E-3</v>
+        <v>-1.2687014681861176E-3</v>
       </c>
       <c r="M19" s="154"/>
       <c r="O19" s="154"/>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="str">
-        <v>obj_002c3</v>
+        <v>obj_00228</v>
       </c>
       <c r="E20" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F20" s="70">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>-5.7499999999999999E-4</v>
+        <v>-1.7500000000000003E-4</v>
       </c>
       <c r="G20" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10166,7 +10166,7 @@
         <v>44686</v>
       </c>
       <c r="J20" s="68">
-        <v>-5.9203299089994146E-4</v>
+        <v>-1.8707572656888387E-4</v>
       </c>
       <c r="M20" s="154"/>
       <c r="O20" s="154"/>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="69" t="str">
-        <v>obj_002b5</v>
+        <v>obj_00217</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="F21" s="70">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>3.4999999999999994E-4</v>
+        <v>7.5000000000000012E-4</v>
       </c>
       <c r="G21" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10200,7 +10200,7 @@
         <v>45051</v>
       </c>
       <c r="J21" s="68">
-        <v>3.413827742843532E-4</v>
+        <v>7.4720195537834801E-4</v>
       </c>
       <c r="M21" s="154"/>
       <c r="O21" s="154"/>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="str">
-        <v>obj_002b9</v>
+        <v>obj_0023d</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="F22" s="70">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.5249999999999999E-3</v>
       </c>
       <c r="G22" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10234,7 +10234,7 @@
         <v>45419</v>
       </c>
       <c r="J22" s="68">
-        <v>1.1006777313333144E-3</v>
+        <v>1.5324012892468666E-3</v>
       </c>
       <c r="M22" s="154"/>
       <c r="O22" s="154"/>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="str">
-        <v>obj_002b6</v>
+        <v>obj_00224</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="F23" s="70">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.7250000000000002E-3</v>
+        <v>2.1750000000000003E-3</v>
       </c>
       <c r="G23" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10268,7 +10268,7 @@
         <v>45783</v>
       </c>
       <c r="J23" s="68">
-        <v>1.7355898657369839E-3</v>
+        <v>2.1934208108488353E-3</v>
       </c>
       <c r="M23" s="154"/>
       <c r="O23" s="154"/>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="69" t="str">
-        <v>obj_002bd</v>
+        <v>obj_00226</v>
       </c>
       <c r="E24" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="F24" s="70">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.2750000000000005E-3</v>
+        <v>2.7500000000000003E-3</v>
       </c>
       <c r="G24" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10301,7 +10301,7 @@
         <v>46147</v>
       </c>
       <c r="J24" s="68">
-        <v>2.2960528684671236E-3</v>
+        <v>2.7801272985689238E-3</v>
       </c>
       <c r="M24" s="154"/>
       <c r="O24" s="154"/>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="69" t="str">
-        <v>obj_002bc</v>
+        <v>obj_0023f</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="F25" s="70">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.7750000000000001E-3</v>
+        <v>3.2750000000000001E-3</v>
       </c>
       <c r="G25" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10334,7 +10334,7 @@
         <v>46512</v>
       </c>
       <c r="J25" s="68">
-        <v>2.8072128067069433E-3</v>
+        <v>3.3177102727595643E-3</v>
       </c>
       <c r="M25" s="154"/>
       <c r="O25" s="154"/>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="69" t="str">
-        <v>obj_002c2</v>
+        <v>obj_0022e</v>
       </c>
       <c r="E26" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="F26" s="70">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.9500000000000004E-3</v>
+        <v>4.4749999999999998E-3</v>
       </c>
       <c r="G26" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10367,7 +10367,7 @@
         <v>47610</v>
       </c>
       <c r="J26" s="68">
-        <v>4.0147996887461559E-3</v>
+        <v>4.5529600129128548E-3</v>
       </c>
       <c r="M26" s="154"/>
       <c r="O26" s="154"/>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="str">
-        <v>obj_002d3</v>
+        <v>obj_00215</v>
       </c>
       <c r="E27" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="F27" s="70">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>5.1750000000000008E-3</v>
+        <v>5.6750000000000012E-3</v>
       </c>
       <c r="G27" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10400,7 +10400,7 @@
         <v>49437</v>
       </c>
       <c r="J27" s="68">
-        <v>5.2858547409039584E-3</v>
+        <v>5.799048327862575E-3</v>
       </c>
       <c r="M27" s="154"/>
       <c r="O27" s="154"/>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="69" t="str">
-        <v>obj_002d1</v>
+        <v>obj_0023c</v>
       </c>
       <c r="E28" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="F28" s="70">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>5.7750000000000015E-3</v>
+        <v>6.4000000000000012E-3</v>
       </c>
       <c r="G28" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10433,7 +10433,7 @@
         <v>51264</v>
       </c>
       <c r="J28" s="68">
-        <v>5.9067965178513388E-3</v>
+        <v>6.5566435213750282E-3</v>
       </c>
       <c r="M28" s="154"/>
       <c r="O28" s="154"/>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="69" t="str">
-        <v>obj_002b1</v>
+        <v>obj_0021c</v>
       </c>
       <c r="E29" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="F29" s="70">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>6.0750000000000005E-3</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="G29" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10466,7 +10466,7 @@
         <v>53087</v>
       </c>
       <c r="J29" s="68">
-        <v>6.2118112170349892E-3</v>
+        <v>6.9157780624053084E-3</v>
       </c>
       <c r="M29" s="154"/>
       <c r="O29" s="154"/>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="69" t="str">
-        <v>obj_002c9</v>
+        <v>obj_0023e</v>
       </c>
       <c r="E30" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="F30" s="70">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>6.1749999999999991E-3</v>
+        <v>6.8500000000000002E-3</v>
       </c>
       <c r="G30" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10498,7 +10498,7 @@
         <v>54913</v>
       </c>
       <c r="J30" s="68">
-        <v>6.301201606613102E-3</v>
+        <v>7.0017489442554971E-3</v>
       </c>
       <c r="M30" s="154"/>
       <c r="O30" s="154"/>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="69" t="str">
-        <v>obj_002af</v>
+        <v>obj_00229</v>
       </c>
       <c r="E31" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="F31" s="70">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>6.1250000000000002E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="G31" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10530,7 +10530,7 @@
         <v>56739</v>
       </c>
       <c r="J31" s="68">
-        <v>6.2258431450668561E-3</v>
+        <v>6.9218057102448018E-3</v>
       </c>
       <c r="M31" s="154"/>
       <c r="O31" s="154"/>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D32" s="69" t="str">
-        <v>obj_002c7</v>
+        <v>obj_00218</v>
       </c>
       <c r="E32" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="F32" s="70">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>5.7750000000000015E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="G32" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10562,7 +10562,7 @@
         <v>60392</v>
       </c>
       <c r="J32" s="68">
-        <v>5.8014983954659937E-3</v>
+        <v>6.4860106467074501E-3</v>
       </c>
       <c r="M32" s="154"/>
       <c r="O32" s="154"/>
@@ -13333,23 +13333,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205"/>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="196" t="s">
+      <c r="A1" s="203"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="196" t="str">
+      <c r="I1" s="194" t="str">
         <f>Currency&amp;"_YC"&amp;$H$1&amp;"RH"</f>
         <v>CHF_YCSTDRH</v>
       </c>
-      <c r="J1" s="197"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="185"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="183"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -13384,317 +13384,317 @@
         <f>_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
-      <c r="K2" s="199"/>
+      <c r="K2" s="197"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="205" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="207">
-        <v>0</v>
-      </c>
-      <c r="D3" s="207" t="s">
+      <c r="C3" s="205">
+        <v>0</v>
+      </c>
+      <c r="D3" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="207" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="207" t="s">
+      <c r="E3" s="205" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="208" t="str">
+      <c r="G3" s="206" t="str">
         <f>_xll.qlIborIndex(,,A3,C3,Currency,Calendar,D3,E3,F3,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002d4#0012</v>
-      </c>
-      <c r="H3" s="208" t="str">
+        <v>obj_00219#0001</v>
+      </c>
+      <c r="H3" s="206" t="str">
         <f>PROPER(Currency)&amp;"Tois"&amp;"LastFixing"&amp;QuoteSuffix</f>
         <v>ChfToisLastFixing_Quote</v>
       </c>
-      <c r="I3" s="208" t="str">
+      <c r="I3" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002de#0029</v>
+        <v>obj_00247#0001</v>
       </c>
       <c r="J3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
         <v/>
       </c>
-      <c r="K3" s="199"/>
-      <c r="M3" s="202"/>
+      <c r="K3" s="197"/>
+      <c r="M3" s="200"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="207">
+      <c r="C4" s="205">
         <v>2</v>
       </c>
-      <c r="D4" s="207" t="s">
+      <c r="D4" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="207" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="207" t="s">
+      <c r="E4" s="205" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="208" t="str">
+      <c r="G4" s="206" t="str">
         <f>_xll.qlIborIndex(,,A4,C4,Currency,Calendar,D4,E4,F4,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002db#0006</v>
-      </c>
-      <c r="H4" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B4&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_00225#0001</v>
+      </c>
+      <c r="H4" s="206" t="str">
+        <f t="shared" ref="H4:H10" si="0">PROPER(Currency)&amp;FamilyName&amp;B4&amp;"LastFixing"&amp;QuoteSuffix</f>
         <v>ChfLiborSNLastFixing_Quote</v>
       </c>
-      <c r="I4" s="208" t="str">
+      <c r="I4" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002e6#0007</v>
+        <v>obj_00245#0001</v>
       </c>
       <c r="J4" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
         <v/>
       </c>
-      <c r="K4" s="199"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="207">
+      <c r="C5" s="205">
         <v>2</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="207" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="207" t="s">
+      <c r="E5" s="205" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="208" t="str">
+      <c r="G5" s="206" t="str">
         <f>_xll.qlIborIndex(,,A5,C5,Currency,Calendar,D5,E5,F5,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002da#0006</v>
-      </c>
-      <c r="H5" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B5&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_0022b#0001</v>
+      </c>
+      <c r="H5" s="206" t="str">
+        <f t="shared" si="0"/>
         <v>ChfLiborSWLastFixing_Quote</v>
       </c>
-      <c r="I5" s="208" t="str">
+      <c r="I5" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002e5#0007</v>
+        <v>obj_00244#0001</v>
       </c>
       <c r="J5" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
         <v/>
       </c>
-      <c r="K5" s="199"/>
+      <c r="K5" s="197"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="207">
+      <c r="C6" s="205">
         <v>2</v>
       </c>
-      <c r="D6" s="207" t="s">
+      <c r="D6" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="207" t="s">
+      <c r="E6" s="205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="208" t="str">
+      <c r="G6" s="206" t="str">
         <f>_xll.qlIborIndex(,,A6,C6,Currency,Calendar,D6,E6,F6,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002d8#0006</v>
-      </c>
-      <c r="H6" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B6&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_00231#0001</v>
+      </c>
+      <c r="H6" s="206" t="str">
+        <f t="shared" si="0"/>
         <v>ChfLibor1MLastFixing_Quote</v>
       </c>
-      <c r="I6" s="208" t="str">
+      <c r="I6" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002e4#0007</v>
+        <v>obj_00243#0001</v>
       </c>
       <c r="J6" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
         <v/>
       </c>
-      <c r="K6" s="199"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="207">
+      <c r="C7" s="205">
         <v>2</v>
       </c>
-      <c r="D7" s="207" t="s">
+      <c r="D7" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="207" t="s">
+      <c r="E7" s="205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="208" t="str">
+      <c r="G7" s="206" t="str">
         <f>_xll.qlIborIndex(,,A7,C7,Currency,Calendar,D7,E7,F7,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002d7#0006</v>
-      </c>
-      <c r="H7" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B7&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_00236#0001</v>
+      </c>
+      <c r="H7" s="206" t="str">
+        <f t="shared" si="0"/>
         <v>ChfLibor2MLastFixing_Quote</v>
       </c>
-      <c r="I7" s="208" t="str">
+      <c r="I7" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002e3#0007</v>
+        <v>obj_00242#0001</v>
       </c>
       <c r="J7" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
         <v/>
       </c>
-      <c r="K7" s="199"/>
+      <c r="K7" s="197"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="207">
+      <c r="C8" s="205">
         <v>2</v>
       </c>
-      <c r="D8" s="207" t="s">
+      <c r="D8" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="207" t="s">
+      <c r="E8" s="205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="208" t="str">
+      <c r="G8" s="206" t="str">
         <f>_xll.qlIborIndex(,,A8,C8,Currency,Calendar,D8,E8,F8,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002d6#0006</v>
-      </c>
-      <c r="H8" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B8&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_0023a#0001</v>
+      </c>
+      <c r="H8" s="206" t="str">
+        <f t="shared" si="0"/>
         <v>ChfLibor3MLastFixing_Quote</v>
       </c>
-      <c r="I8" s="208" t="str">
+      <c r="I8" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002e2#0007</v>
+        <v>obj_00241#0001</v>
       </c>
       <c r="J8" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
         <v/>
       </c>
-      <c r="K8" s="199"/>
+      <c r="K8" s="197"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="207">
+      <c r="C9" s="205">
         <v>2</v>
       </c>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="207" t="s">
+      <c r="E9" s="205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="208" t="str">
+      <c r="G9" s="206" t="str">
         <f>_xll.qlIborIndex(,,A9,C9,Currency,Calendar,D9,E9,F9,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002d5#0006</v>
-      </c>
-      <c r="H9" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B9&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_00214#0001</v>
+      </c>
+      <c r="H9" s="206" t="str">
+        <f t="shared" si="0"/>
         <v>ChfLibor6MLastFixing_Quote</v>
       </c>
-      <c r="I9" s="208" t="str">
+      <c r="I9" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002e1#0007</v>
+        <v>obj_00248#0001</v>
       </c>
       <c r="J9" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
         <v/>
       </c>
-      <c r="K9" s="199"/>
+      <c r="K9" s="197"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="207">
+      <c r="C10" s="205">
         <v>2</v>
       </c>
-      <c r="D10" s="207" t="s">
+      <c r="D10" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="207" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="207" t="s">
+      <c r="E10" s="205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="208" t="str">
+      <c r="G10" s="206" t="str">
         <f>_xll.qlIborIndex(,,A10,C10,Currency,Calendar,D10,E10,F10,,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002dc#0006</v>
-      </c>
-      <c r="H10" s="208" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;B10&amp;"LastFixing"&amp;QuoteSuffix</f>
+        <v>obj_0021f#0001</v>
+      </c>
+      <c r="H10" s="206" t="str">
+        <f t="shared" si="0"/>
         <v>ChfLibor1YLastFixing_Quote</v>
       </c>
-      <c r="I10" s="208" t="str">
+      <c r="I10" s="206" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_002df#0007</v>
+        <v>obj_00246#0001</v>
       </c>
       <c r="J10" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
         <v/>
       </c>
-      <c r="K10" s="199"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="206"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -13810,12 +13810,12 @@
         <v>CHFFUT3MK5_Quote</v>
       </c>
       <c r="G3" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" ref="G3:G44" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H3" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0006</v>
+        <v>obj_00265#0001</v>
       </c>
       <c r="I3" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -13847,12 +13847,12 @@
         <v>CHFFUT3MM5_Quote</v>
       </c>
       <c r="G4" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D4&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H4" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00210#0008</v>
+        <v>obj_0025c#0001</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -13884,12 +13884,12 @@
         <v>CHFFUT3MN5_Quote</v>
       </c>
       <c r="G5" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D5&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="H5" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021a#0006</v>
+        <v>obj_00256#0001</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -13918,12 +13918,12 @@
         <v>CHFFUT3MQ5_Quote</v>
       </c>
       <c r="G6" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D6&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="H6" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00222#0006</v>
+        <v>obj_0025b#0001</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -13952,12 +13952,12 @@
         <v>CHFFUT3MU5_Quote</v>
       </c>
       <c r="G7" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D7&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H7" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0006</v>
+        <v>obj_00263#0001</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -13986,12 +13986,12 @@
         <v>CHFFUT3MV5_Quote</v>
       </c>
       <c r="G8" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D8&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="H8" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021e#0006</v>
+        <v>obj_00249#0001</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -14020,12 +14020,12 @@
         <v>CHFFUT3MX5_Quote</v>
       </c>
       <c r="G9" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D9&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="H9" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00231#0006</v>
+        <v>obj_00268#0001</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -14054,12 +14054,12 @@
         <v>CHFFUT3MZ5_Quote</v>
       </c>
       <c r="G10" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D10&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021f#0006</v>
+        <v>obj_0026c#0001</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -14088,12 +14088,12 @@
         <v>CHFFUT3MF6_Quote</v>
       </c>
       <c r="G11" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D11&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="H11" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00230#0006</v>
+        <v>obj_0024b#0001</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -14122,12 +14122,12 @@
         <v>CHFFUT3MG6_Quote</v>
       </c>
       <c r="G12" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D12&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="H12" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021c#0006</v>
+        <v>obj_00254#0001</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -14156,12 +14156,12 @@
         <v>CHFFUT3MH6_Quote</v>
       </c>
       <c r="G13" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D13&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H13" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00239#0006</v>
+        <v>obj_0026f#0001</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -14190,12 +14190,12 @@
         <v>CHFFUT3MJ6_Quote</v>
       </c>
       <c r="G14" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D14&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="H14" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00219#0006</v>
+        <v>obj_00271#0001</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -14224,12 +14224,12 @@
         <v>CHFFUT3MM6_Quote</v>
       </c>
       <c r="G15" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D15&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H15" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00234#0006</v>
+        <v>obj_00272#0001</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -14258,12 +14258,12 @@
         <v>CHFFUT3MU6_Quote</v>
       </c>
       <c r="G16" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D16&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H16" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0006</v>
+        <v>obj_0026a#0001</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -14292,12 +14292,12 @@
         <v>CHFFUT3MZ6_Quote</v>
       </c>
       <c r="G17" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D17&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H17" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00226#0006</v>
+        <v>obj_00252#0001</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -14326,12 +14326,12 @@
         <v>CHFFUT3MH7_Quote</v>
       </c>
       <c r="G18" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D18&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H18" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00215#0006</v>
+        <v>obj_00267#0001</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -14360,12 +14360,12 @@
         <v>CHFFUT3MM7_Quote</v>
       </c>
       <c r="G19" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D19&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H19" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00224#0006</v>
+        <v>obj_0024e#0001</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -14394,12 +14394,12 @@
         <v>CHFFUT3MU7_Quote</v>
       </c>
       <c r="G20" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D20&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H20" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00235#0006</v>
+        <v>obj_00255#0001</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -14428,12 +14428,12 @@
         <v>CHFFUT3MZ7_Quote</v>
       </c>
       <c r="G21" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D21&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H21" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00211#0006</v>
+        <v>obj_00250#0001</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -14462,12 +14462,12 @@
         <v>CHFFUT3MH8_Quote</v>
       </c>
       <c r="G22" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D22&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H22" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0006</v>
+        <v>obj_00251#0001</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -14496,12 +14496,12 @@
         <v>CHFFUT3MM8_Quote</v>
       </c>
       <c r="G23" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D23&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H23" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00217#0006</v>
+        <v>obj_0025f#0001</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -14530,12 +14530,12 @@
         <v>CHFFUT3MU8_Quote</v>
       </c>
       <c r="G24" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D24&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H24" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00237#0006</v>
+        <v>obj_00259#0001</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -14564,12 +14564,12 @@
         <v>CHFFUT3MZ8_Quote</v>
       </c>
       <c r="G25" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D25&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H25" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00214#0006</v>
+        <v>obj_0026d#0001</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -14598,12 +14598,12 @@
         <v>CHFFUT3MH9_Quote</v>
       </c>
       <c r="G26" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D26&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H26" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00216#0006</v>
+        <v>obj_0024a#0001</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -14632,12 +14632,12 @@
         <v>CHFFUT3MM9_Quote</v>
       </c>
       <c r="G27" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D27&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H27" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021d#0006</v>
+        <v>obj_00270#0001</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -14666,12 +14666,12 @@
         <v>CHFFUT3MU9_Quote</v>
       </c>
       <c r="G28" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D28&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H28" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00238#0006</v>
+        <v>obj_00253#0001</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -14700,12 +14700,12 @@
         <v>CHFFUT3MZ9_Quote</v>
       </c>
       <c r="G29" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D29&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H29" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00213#0006</v>
+        <v>obj_0026b#0001</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -14734,12 +14734,12 @@
         <v>CHFFUT3MH0_Quote</v>
       </c>
       <c r="G30" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D30&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H30" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0006</v>
+        <v>obj_00257#0001</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -14768,12 +14768,12 @@
         <v>CHFFUT3MM0_Quote</v>
       </c>
       <c r="G31" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D31&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H31" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022c#0006</v>
+        <v>obj_00258#0001</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -14802,12 +14802,12 @@
         <v>CHFFUT3MU0_Quote</v>
       </c>
       <c r="G32" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D32&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H32" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00212#0006</v>
+        <v>obj_0025e#0001</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -14836,12 +14836,12 @@
         <v>CHFFUT3MZ0_Quote</v>
       </c>
       <c r="G33" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D33&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H33" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021b#0006</v>
+        <v>obj_00264#0001</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -14870,12 +14870,12 @@
         <v>CHFFUT3MH1_Quote</v>
       </c>
       <c r="G34" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D34&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H34" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00221#0006</v>
+        <v>obj_0024f#0001</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -14896,20 +14896,20 @@
         <v>M1</v>
       </c>
       <c r="E35" s="129" t="str">
-        <f t="shared" ref="E35:E44" si="2">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>ChfLibor3M</v>
       </c>
       <c r="F35" s="130" t="str">
-        <f t="shared" ref="F35:F44" si="3">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
+        <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
         <v>CHFFUT3MM1_Quote</v>
       </c>
       <c r="G35" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="2"/>
         <v>CHFFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H35" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00225#0006</v>
+        <v>obj_0024d#0001</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -14930,20 +14930,20 @@
         <v>U1</v>
       </c>
       <c r="E36" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F36" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MU1_Quote</v>
+      </c>
+      <c r="G36" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F36" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MU1_Quote</v>
-      </c>
-      <c r="G36" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D36&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H36" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00218#0006</v>
+        <v>obj_00260#0001</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -14964,20 +14964,20 @@
         <v>Z1</v>
       </c>
       <c r="E37" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F37" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MZ1_Quote</v>
+      </c>
+      <c r="G37" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F37" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MZ1_Quote</v>
-      </c>
-      <c r="G37" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D37&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H37" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00220#0006</v>
+        <v>obj_0025a#0001</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -14998,20 +14998,20 @@
         <v>H2</v>
       </c>
       <c r="E38" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F38" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MH2_Quote</v>
+      </c>
+      <c r="G38" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F38" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MH2_Quote</v>
-      </c>
-      <c r="G38" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D38&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H38" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022d#0006</v>
+        <v>obj_0026e#0001</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -15032,20 +15032,20 @@
         <v>M2</v>
       </c>
       <c r="E39" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F39" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MM2_Quote</v>
+      </c>
+      <c r="G39" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F39" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MM2_Quote</v>
-      </c>
-      <c r="G39" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D39&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H39" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00223#0006</v>
+        <v>obj_0024c#0001</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -15066,20 +15066,20 @@
         <v>U2</v>
       </c>
       <c r="E40" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F40" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MU2_Quote</v>
+      </c>
+      <c r="G40" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F40" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MU2_Quote</v>
-      </c>
-      <c r="G40" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D40&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="H40" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022e#0006</v>
+        <v>obj_00261#0001</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -15099,20 +15099,20 @@
         <v>Z2</v>
       </c>
       <c r="E41" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F41" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MZ2_Quote</v>
+      </c>
+      <c r="G41" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F41" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MZ2_Quote</v>
-      </c>
-      <c r="G41" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D41&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="H41" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0006</v>
+        <v>obj_00266#0001</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -15132,20 +15132,20 @@
         <v>H3</v>
       </c>
       <c r="E42" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F42" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MH3_Quote</v>
+      </c>
+      <c r="G42" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F42" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MH3_Quote</v>
-      </c>
-      <c r="G42" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D42&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="H42" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00233#0006</v>
+        <v>obj_00262#0001</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -15165,20 +15165,20 @@
         <v>M3</v>
       </c>
       <c r="E43" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F43" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MM3_Quote</v>
+      </c>
+      <c r="G43" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F43" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MM3_Quote</v>
-      </c>
-      <c r="G43" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D43&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="H43" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00236#0006</v>
+        <v>obj_00269#0001</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -15198,20 +15198,20 @@
         <v>U3</v>
       </c>
       <c r="E44" s="129" t="str">
+        <f t="shared" si="3"/>
+        <v>ChfLibor3M</v>
+      </c>
+      <c r="F44" s="130" t="str">
+        <f t="shared" si="4"/>
+        <v>CHFFUT3MU3_Quote</v>
+      </c>
+      <c r="G44" s="152" t="str">
         <f t="shared" si="2"/>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="F44" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>CHFFUT3MU3_Quote</v>
-      </c>
-      <c r="G44" s="152" t="str">
-        <f>Currency&amp;"FUT"&amp;$E$1&amp;$D44&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="H44" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022f#0006</v>
+        <v>obj_0025d#0001</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -15268,31 +15268,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="188"/>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="190" t="str">
+      <c r="A1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="188" t="str">
         <f>IndexTenor</f>
         <v>6M</v>
       </c>
-      <c r="I1" s="190" t="str">
+      <c r="I1" s="188" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>CHF_YCSTDRH</v>
       </c>
-      <c r="J1" s="191" t="str">
+      <c r="J1" s="189" t="str">
         <f>I1&amp;"_Swaps.xml"</f>
         <v>CHF_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="K1" s="189" t="e">
+      <c r="K1" s="187" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="L1" s="189"/>
-      <c r="M1" s="192"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="190"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
@@ -15340,16 +15340,16 @@
       <c r="J3" s="59"/>
       <c r="K3" s="139" t="str">
         <f>_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001db#0018</v>
+        <v>obj_00213#0001</v>
       </c>
       <c r="L3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
         <v/>
       </c>
       <c r="M3" s="136"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
     </row>
     <row r="4" spans="1:17" s="57" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="60"/>
@@ -15365,9 +15365,9 @@
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
       <c r="M4" s="136"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
@@ -15386,14 +15386,14 @@
         <v>6L</v>
       </c>
       <c r="F5" s="133" t="str">
-        <f t="shared" ref="F5:F68" si="0">IF(UPPER(LEFT($D5))="A","Annual",IF(UPPER(LEFT($D5))="S","Semiannual","--"))</f>
+        <f t="shared" ref="F5:F41" si="0">IF(UPPER(LEFT($D5))="A","Annual",IF(UPPER(LEFT($D5))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
       <c r="G5" s="133" t="s">
         <v>103</v>
       </c>
       <c r="H5" s="133" t="str">
-        <f t="shared" ref="H5:H68" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
+        <f t="shared" ref="H5:H41" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="I5" s="142">
@@ -15405,14 +15405,14 @@
       </c>
       <c r="K5" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b3#0045</v>
+        <v>obj_0021a#0001</v>
       </c>
       <c r="L5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
         <v/>
       </c>
       <c r="M5" s="138"/>
-      <c r="O5" s="194"/>
+      <c r="O5" s="192"/>
       <c r="P5" s="146"/>
       <c r="Q5" s="146"/>
     </row>
@@ -15450,14 +15450,14 @@
       </c>
       <c r="K6" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b2#0010</v>
+        <v>obj_00222#0001</v>
       </c>
       <c r="L6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
         <v/>
       </c>
       <c r="M6" s="138"/>
-      <c r="O6" s="194"/>
+      <c r="O6" s="192"/>
       <c r="P6" s="146"/>
       <c r="Q6" s="146"/>
     </row>
@@ -15495,14 +15495,14 @@
       </c>
       <c r="K7" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002cb#0010</v>
+        <v>obj_00240#0001</v>
       </c>
       <c r="L7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
         <v/>
       </c>
       <c r="M7" s="138"/>
-      <c r="O7" s="194"/>
+      <c r="O7" s="192"/>
       <c r="P7" s="146"/>
       <c r="Q7" s="146"/>
     </row>
@@ -15540,14 +15540,14 @@
       </c>
       <c r="K8" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002cd#0010</v>
+        <v>obj_0022f#0001</v>
       </c>
       <c r="L8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
         <v/>
       </c>
       <c r="M8" s="138"/>
-      <c r="O8" s="194"/>
+      <c r="O8" s="192"/>
       <c r="P8" s="146"/>
       <c r="Q8" s="146"/>
     </row>
@@ -15585,14 +15585,14 @@
       </c>
       <c r="K9" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ce#0010</v>
+        <v>obj_0021e#0001</v>
       </c>
       <c r="L9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
         <v/>
       </c>
       <c r="M9" s="138"/>
-      <c r="O9" s="194"/>
+      <c r="O9" s="192"/>
       <c r="P9" s="146"/>
       <c r="Q9" s="146"/>
     </row>
@@ -15630,16 +15630,16 @@
       </c>
       <c r="K10" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002cc#0010</v>
+        <v>obj_00220#0001</v>
       </c>
       <c r="L10" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
         <v/>
       </c>
       <c r="M10" s="138"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
@@ -15675,16 +15675,16 @@
       </c>
       <c r="K11" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c4#0010</v>
+        <v>obj_00237#0001</v>
       </c>
       <c r="L11" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
         <v/>
       </c>
       <c r="M11" s="138"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="176"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
@@ -15720,16 +15720,16 @@
       </c>
       <c r="K12" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002d2#0010</v>
+        <v>obj_00221#0001</v>
       </c>
       <c r="L12" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
         <v/>
       </c>
       <c r="M12" s="138"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
@@ -15765,14 +15765,14 @@
       </c>
       <c r="K13" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b8#0010</v>
+        <v>obj_00238#0001</v>
       </c>
       <c r="L13" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
         <v/>
       </c>
       <c r="M13" s="138"/>
-      <c r="O13" s="194"/>
+      <c r="O13" s="192"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
@@ -15808,14 +15808,14 @@
       </c>
       <c r="K14" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c3#0010</v>
+        <v>obj_00228#0001</v>
       </c>
       <c r="L14" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
         <v/>
       </c>
       <c r="M14" s="138"/>
-      <c r="O14" s="194"/>
+      <c r="O14" s="192"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
@@ -15851,14 +15851,14 @@
       </c>
       <c r="K15" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b5#0010</v>
+        <v>obj_00217#0001</v>
       </c>
       <c r="L15" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
         <v/>
       </c>
       <c r="M15" s="138"/>
-      <c r="O15" s="194"/>
+      <c r="O15" s="192"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
@@ -15894,14 +15894,14 @@
       </c>
       <c r="K16" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b9#0010</v>
+        <v>obj_0023d#0001</v>
       </c>
       <c r="L16" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
         <v/>
       </c>
       <c r="M16" s="138"/>
-      <c r="O16" s="194"/>
+      <c r="O16" s="192"/>
     </row>
     <row r="17" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
@@ -15937,14 +15937,14 @@
       </c>
       <c r="K17" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b6#0010</v>
+        <v>obj_00224#0001</v>
       </c>
       <c r="L17" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
         <v/>
       </c>
       <c r="M17" s="138"/>
-      <c r="O17" s="194"/>
+      <c r="O17" s="192"/>
     </row>
     <row r="18" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
@@ -15980,14 +15980,14 @@
       </c>
       <c r="K18" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002bd#0010</v>
+        <v>obj_00226#0001</v>
       </c>
       <c r="L18" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
         <v/>
       </c>
       <c r="M18" s="138"/>
-      <c r="O18" s="194"/>
+      <c r="O18" s="192"/>
     </row>
     <row r="19" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
@@ -16023,14 +16023,14 @@
       </c>
       <c r="K19" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002bc#0010</v>
+        <v>obj_0023f#0001</v>
       </c>
       <c r="L19" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
         <v/>
       </c>
       <c r="M19" s="138"/>
-      <c r="O19" s="194"/>
+      <c r="O19" s="192"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
@@ -16066,14 +16066,14 @@
       </c>
       <c r="K20" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002cf#0010</v>
+        <v>obj_00227#0001</v>
       </c>
       <c r="L20" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
         <v/>
       </c>
       <c r="M20" s="138"/>
-      <c r="O20" s="194"/>
+      <c r="O20" s="192"/>
     </row>
     <row r="21" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
@@ -16109,14 +16109,14 @@
       </c>
       <c r="K21" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002be#0010</v>
+        <v>obj_0023b#0001</v>
       </c>
       <c r="L21" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
         <v/>
       </c>
       <c r="M21" s="138"/>
-      <c r="O21" s="194"/>
+      <c r="O21" s="192"/>
     </row>
     <row r="22" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
@@ -16152,14 +16152,14 @@
       </c>
       <c r="K22" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c2#0010</v>
+        <v>obj_0022e#0001</v>
       </c>
       <c r="L22" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
         <v/>
       </c>
       <c r="M22" s="138"/>
-      <c r="O22" s="194"/>
+      <c r="O22" s="192"/>
     </row>
     <row r="23" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
@@ -16195,14 +16195,14 @@
       </c>
       <c r="K23" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ca#0010</v>
+        <v>obj_0021d#0001</v>
       </c>
       <c r="L23" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
         <v/>
       </c>
       <c r="M23" s="138"/>
-      <c r="O23" s="194"/>
+      <c r="O23" s="192"/>
     </row>
     <row r="24" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
@@ -16238,14 +16238,14 @@
       </c>
       <c r="K24" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002bf#0010</v>
+        <v>obj_00239#0001</v>
       </c>
       <c r="L24" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
         <v/>
       </c>
       <c r="M24" s="138"/>
-      <c r="O24" s="194"/>
+      <c r="O24" s="192"/>
     </row>
     <row r="25" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
@@ -16281,14 +16281,14 @@
       </c>
       <c r="K25" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b7#0010</v>
+        <v>obj_0022a#0001</v>
       </c>
       <c r="L25" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
         <v/>
       </c>
       <c r="M25" s="138"/>
-      <c r="O25" s="194"/>
+      <c r="O25" s="192"/>
     </row>
     <row r="26" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
@@ -16324,14 +16324,14 @@
       </c>
       <c r="K26" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c8#0010</v>
+        <v>obj_0022c#0001</v>
       </c>
       <c r="L26" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
         <v/>
       </c>
       <c r="M26" s="138"/>
-      <c r="O26" s="194"/>
+      <c r="O26" s="192"/>
     </row>
     <row r="27" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
@@ -16367,14 +16367,14 @@
       </c>
       <c r="K27" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002d3#0010</v>
+        <v>obj_00215#0001</v>
       </c>
       <c r="L27" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
         <v/>
       </c>
       <c r="M27" s="138"/>
-      <c r="O27" s="194"/>
+      <c r="O27" s="192"/>
     </row>
     <row r="28" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
@@ -16410,14 +16410,14 @@
       </c>
       <c r="K28" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002bb#0010</v>
+        <v>obj_0022d#0001</v>
       </c>
       <c r="L28" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
         <v/>
       </c>
       <c r="M28" s="138"/>
-      <c r="O28" s="194"/>
+      <c r="O28" s="192"/>
     </row>
     <row r="29" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
@@ -16453,14 +16453,14 @@
       </c>
       <c r="K29" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002d0#0010</v>
+        <v>obj_00216#0001</v>
       </c>
       <c r="L29" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
         <v/>
       </c>
       <c r="M29" s="138"/>
-      <c r="O29" s="194"/>
+      <c r="O29" s="192"/>
     </row>
     <row r="30" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
@@ -16496,14 +16496,14 @@
       </c>
       <c r="K30" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c5#0010</v>
+        <v>obj_00234#0001</v>
       </c>
       <c r="L30" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
         <v/>
       </c>
       <c r="M30" s="138"/>
-      <c r="O30" s="194"/>
+      <c r="O30" s="192"/>
     </row>
     <row r="31" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
@@ -16539,14 +16539,14 @@
       </c>
       <c r="K31" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b4#0010</v>
+        <v>obj_00223#0001</v>
       </c>
       <c r="L31" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
         <v/>
       </c>
       <c r="M31" s="138"/>
-      <c r="O31" s="194"/>
+      <c r="O31" s="192"/>
     </row>
     <row r="32" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
@@ -16582,14 +16582,14 @@
       </c>
       <c r="K32" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002d1#0010</v>
+        <v>obj_0023c#0001</v>
       </c>
       <c r="L32" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
         <v/>
       </c>
       <c r="M32" s="138"/>
-      <c r="O32" s="194"/>
+      <c r="O32" s="192"/>
     </row>
     <row r="33" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
@@ -16625,14 +16625,14 @@
       </c>
       <c r="K33" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c1#0010</v>
+        <v>obj_00230#0001</v>
       </c>
       <c r="L33" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
         <v/>
       </c>
       <c r="M33" s="138"/>
-      <c r="O33" s="194"/>
+      <c r="O33" s="192"/>
     </row>
     <row r="34" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
@@ -16668,14 +16668,14 @@
       </c>
       <c r="K34" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c0#0010</v>
+        <v>obj_00232#0001</v>
       </c>
       <c r="L34" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
         <v/>
       </c>
       <c r="M34" s="138"/>
-      <c r="O34" s="194"/>
+      <c r="O34" s="192"/>
     </row>
     <row r="35" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
@@ -16711,14 +16711,14 @@
       </c>
       <c r="K35" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c6#0010</v>
+        <v>obj_0021b#0001</v>
       </c>
       <c r="L35" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
         <v/>
       </c>
       <c r="M35" s="138"/>
-      <c r="O35" s="194"/>
+      <c r="O35" s="192"/>
     </row>
     <row r="36" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
@@ -16754,14 +16754,14 @@
       </c>
       <c r="K36" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b0#0010</v>
+        <v>obj_00233#0001</v>
       </c>
       <c r="L36" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
         <v/>
       </c>
       <c r="M36" s="138"/>
-      <c r="O36" s="194"/>
+      <c r="O36" s="192"/>
     </row>
     <row r="37" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
@@ -16797,14 +16797,14 @@
       </c>
       <c r="K37" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002b1#0010</v>
+        <v>obj_0021c#0001</v>
       </c>
       <c r="L37" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
         <v/>
       </c>
       <c r="M37" s="138"/>
-      <c r="O37" s="194"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
@@ -16840,14 +16840,14 @@
       </c>
       <c r="K38" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c9#0010</v>
+        <v>obj_0023e#0001</v>
       </c>
       <c r="L38" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
         <v/>
       </c>
       <c r="M38" s="138"/>
-      <c r="O38" s="194"/>
+      <c r="O38" s="192"/>
     </row>
     <row r="39" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
@@ -16883,14 +16883,14 @@
       </c>
       <c r="K39" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002af#0010</v>
+        <v>obj_00229#0001</v>
       </c>
       <c r="L39" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
         <v/>
       </c>
       <c r="M39" s="138"/>
-      <c r="O39" s="194"/>
+      <c r="O39" s="192"/>
     </row>
     <row r="40" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
@@ -16926,14 +16926,14 @@
       </c>
       <c r="K40" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002c7#0010</v>
+        <v>obj_00218#0001</v>
       </c>
       <c r="L40" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
         <v/>
       </c>
       <c r="M40" s="138"/>
-      <c r="O40" s="194"/>
+      <c r="O40" s="192"/>
     </row>
     <row r="41" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
@@ -16969,14 +16969,14 @@
       </c>
       <c r="K41" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ba#0010</v>
+        <v>obj_00235#0001</v>
       </c>
       <c r="L41" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
         <v/>
       </c>
       <c r="M41" s="138"/>
-      <c r="O41" s="194"/>
+      <c r="O41" s="192"/>
     </row>
     <row r="42" spans="1:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
@@ -16994,684 +16994,684 @@
       <c r="M42" s="147"/>
     </row>
     <row r="43" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="177"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="183"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="184"/>
+      <c r="A43" s="175"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="176"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="178"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="181"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="182"/>
     </row>
     <row r="44" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="177"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="183"/>
-      <c r="N44" s="184"/>
-      <c r="O44" s="184"/>
+      <c r="A44" s="175"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="181"/>
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
     </row>
     <row r="45" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="177"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="183"/>
-      <c r="N45" s="184"/>
-      <c r="O45" s="184"/>
+      <c r="A45" s="175"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="181"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
     </row>
     <row r="46" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="177"/>
-      <c r="B46" s="178"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="179"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="182"/>
-      <c r="M46" s="183"/>
-      <c r="N46" s="184"/>
-      <c r="O46" s="184"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="178"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="182"/>
     </row>
     <row r="47" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="177"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="179"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="184"/>
-      <c r="O47" s="184"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="178"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="181"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
     </row>
     <row r="48" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="177"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="179"/>
-      <c r="J48" s="180"/>
-      <c r="K48" s="181"/>
-      <c r="L48" s="182"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="184"/>
-      <c r="O48" s="184"/>
+      <c r="A48" s="175"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="177"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="181"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="182"/>
     </row>
     <row r="49" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="177"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="181"/>
-      <c r="L49" s="182"/>
-      <c r="M49" s="183"/>
-      <c r="N49" s="184"/>
-      <c r="O49" s="184"/>
+      <c r="A49" s="175"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="178"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="181"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
     </row>
     <row r="50" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="182"/>
-      <c r="M50" s="183"/>
-      <c r="N50" s="184"/>
-      <c r="O50" s="184"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="181"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="182"/>
     </row>
     <row r="51" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="177"/>
-      <c r="B51" s="178"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="181"/>
-      <c r="L51" s="182"/>
-      <c r="M51" s="183"/>
-      <c r="N51" s="184"/>
-      <c r="O51" s="184"/>
+      <c r="A51" s="175"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="178"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="181"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
     </row>
     <row r="52" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="177"/>
-      <c r="B52" s="178"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="177"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="179"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="183"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="184"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="177"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="181"/>
+      <c r="N52" s="182"/>
+      <c r="O52" s="182"/>
     </row>
     <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="177"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="177"/>
-      <c r="H53" s="177"/>
-      <c r="I53" s="179"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="181"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="183"/>
-      <c r="N53" s="184"/>
-      <c r="O53" s="184"/>
+      <c r="A53" s="175"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="178"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="181"/>
+      <c r="N53" s="182"/>
+      <c r="O53" s="182"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="177"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="179"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="181"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="184"/>
-      <c r="O54" s="184"/>
+      <c r="A54" s="175"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="181"/>
+      <c r="N54" s="182"/>
+      <c r="O54" s="182"/>
     </row>
     <row r="55" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="177"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="181"/>
-      <c r="L55" s="182"/>
-      <c r="M55" s="183"/>
-      <c r="N55" s="184"/>
-      <c r="O55" s="184"/>
+      <c r="A55" s="175"/>
+      <c r="B55" s="176"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="175"/>
+      <c r="G55" s="175"/>
+      <c r="H55" s="175"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="181"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="182"/>
     </row>
     <row r="56" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="177"/>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="177"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="181"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="183"/>
-      <c r="N56" s="184"/>
-      <c r="O56" s="184"/>
+      <c r="A56" s="175"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="175"/>
+      <c r="G56" s="175"/>
+      <c r="H56" s="175"/>
+      <c r="I56" s="177"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="181"/>
+      <c r="N56" s="182"/>
+      <c r="O56" s="182"/>
     </row>
     <row r="57" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="177"/>
-      <c r="B57" s="178"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="177"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="181"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="183"/>
-      <c r="N57" s="184"/>
-      <c r="O57" s="184"/>
+      <c r="A57" s="175"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="175"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="178"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="181"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="182"/>
     </row>
     <row r="58" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="177"/>
-      <c r="B58" s="178"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="177"/>
-      <c r="G58" s="177"/>
-      <c r="H58" s="177"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="181"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="183"/>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
+      <c r="A58" s="175"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="175"/>
+      <c r="H58" s="175"/>
+      <c r="I58" s="177"/>
+      <c r="J58" s="178"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="181"/>
+      <c r="N58" s="182"/>
+      <c r="O58" s="182"/>
     </row>
     <row r="59" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="177"/>
-      <c r="B59" s="178"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="177"/>
-      <c r="G59" s="177"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="179"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="181"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="183"/>
-      <c r="N59" s="184"/>
-      <c r="O59" s="184"/>
+      <c r="A59" s="175"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="175"/>
+      <c r="G59" s="175"/>
+      <c r="H59" s="175"/>
+      <c r="I59" s="177"/>
+      <c r="J59" s="178"/>
+      <c r="K59" s="179"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="181"/>
+      <c r="N59" s="182"/>
+      <c r="O59" s="182"/>
     </row>
     <row r="60" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="177"/>
-      <c r="B60" s="178"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="177"/>
-      <c r="G60" s="177"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="181"/>
-      <c r="L60" s="182"/>
-      <c r="M60" s="183"/>
-      <c r="N60" s="184"/>
-      <c r="O60" s="184"/>
+      <c r="A60" s="175"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="175"/>
+      <c r="H60" s="175"/>
+      <c r="I60" s="177"/>
+      <c r="J60" s="178"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="181"/>
+      <c r="N60" s="182"/>
+      <c r="O60" s="182"/>
     </row>
     <row r="61" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="177"/>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="177"/>
-      <c r="G61" s="177"/>
-      <c r="H61" s="177"/>
-      <c r="I61" s="179"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="181"/>
-      <c r="L61" s="182"/>
-      <c r="M61" s="183"/>
-      <c r="N61" s="184"/>
-      <c r="O61" s="184"/>
+      <c r="A61" s="175"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="175"/>
+      <c r="H61" s="175"/>
+      <c r="I61" s="177"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="181"/>
+      <c r="N61" s="182"/>
+      <c r="O61" s="182"/>
     </row>
     <row r="62" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="177"/>
-      <c r="B62" s="178"/>
-      <c r="C62" s="178"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="177"/>
-      <c r="G62" s="177"/>
-      <c r="H62" s="177"/>
-      <c r="I62" s="179"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="181"/>
-      <c r="L62" s="182"/>
-      <c r="M62" s="183"/>
-      <c r="N62" s="184"/>
-      <c r="O62" s="184"/>
+      <c r="A62" s="175"/>
+      <c r="B62" s="176"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="176"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="177"/>
+      <c r="J62" s="178"/>
+      <c r="K62" s="179"/>
+      <c r="L62" s="180"/>
+      <c r="M62" s="181"/>
+      <c r="N62" s="182"/>
+      <c r="O62" s="182"/>
     </row>
     <row r="63" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="177"/>
-      <c r="B63" s="178"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="177"/>
-      <c r="G63" s="177"/>
-      <c r="H63" s="177"/>
-      <c r="I63" s="179"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="181"/>
-      <c r="L63" s="182"/>
-      <c r="M63" s="183"/>
-      <c r="N63" s="184"/>
-      <c r="O63" s="184"/>
+      <c r="A63" s="175"/>
+      <c r="B63" s="176"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="176"/>
+      <c r="F63" s="175"/>
+      <c r="G63" s="175"/>
+      <c r="H63" s="175"/>
+      <c r="I63" s="177"/>
+      <c r="J63" s="178"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="180"/>
+      <c r="M63" s="181"/>
+      <c r="N63" s="182"/>
+      <c r="O63" s="182"/>
     </row>
     <row r="64" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="177"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="177"/>
-      <c r="G64" s="177"/>
-      <c r="H64" s="177"/>
-      <c r="I64" s="179"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="181"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="183"/>
-      <c r="N64" s="184"/>
-      <c r="O64" s="184"/>
+      <c r="A64" s="175"/>
+      <c r="B64" s="176"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="176"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
+      <c r="I64" s="177"/>
+      <c r="J64" s="178"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="181"/>
+      <c r="N64" s="182"/>
+      <c r="O64" s="182"/>
     </row>
     <row r="65" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="177"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="178"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="177"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="183"/>
-      <c r="N65" s="184"/>
-      <c r="O65" s="184"/>
+      <c r="A65" s="175"/>
+      <c r="B65" s="176"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="176"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="175"/>
+      <c r="H65" s="175"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="181"/>
+      <c r="N65" s="182"/>
+      <c r="O65" s="182"/>
     </row>
     <row r="66" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="177"/>
-      <c r="B66" s="178"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="177"/>
-      <c r="G66" s="177"/>
-      <c r="H66" s="177"/>
-      <c r="I66" s="179"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="181"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="183"/>
-      <c r="N66" s="184"/>
-      <c r="O66" s="184"/>
+      <c r="A66" s="175"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="176"/>
+      <c r="D66" s="176"/>
+      <c r="E66" s="176"/>
+      <c r="F66" s="175"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
+      <c r="I66" s="177"/>
+      <c r="J66" s="178"/>
+      <c r="K66" s="179"/>
+      <c r="L66" s="180"/>
+      <c r="M66" s="181"/>
+      <c r="N66" s="182"/>
+      <c r="O66" s="182"/>
     </row>
     <row r="67" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="177"/>
-      <c r="B67" s="178"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="177"/>
-      <c r="G67" s="177"/>
-      <c r="H67" s="177"/>
-      <c r="I67" s="179"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="181"/>
-      <c r="L67" s="182"/>
-      <c r="M67" s="183"/>
-      <c r="N67" s="184"/>
-      <c r="O67" s="184"/>
+      <c r="A67" s="175"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="176"/>
+      <c r="F67" s="175"/>
+      <c r="G67" s="175"/>
+      <c r="H67" s="175"/>
+      <c r="I67" s="177"/>
+      <c r="J67" s="178"/>
+      <c r="K67" s="179"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="181"/>
+      <c r="N67" s="182"/>
+      <c r="O67" s="182"/>
     </row>
     <row r="68" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="177"/>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="177"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="179"/>
-      <c r="J68" s="180"/>
-      <c r="K68" s="181"/>
-      <c r="L68" s="182"/>
-      <c r="M68" s="183"/>
-      <c r="N68" s="184"/>
-      <c r="O68" s="184"/>
+      <c r="A68" s="175"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="176"/>
+      <c r="D68" s="176"/>
+      <c r="E68" s="176"/>
+      <c r="F68" s="175"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="175"/>
+      <c r="I68" s="177"/>
+      <c r="J68" s="178"/>
+      <c r="K68" s="179"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="181"/>
+      <c r="N68" s="182"/>
+      <c r="O68" s="182"/>
     </row>
     <row r="69" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="177"/>
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="177"/>
-      <c r="G69" s="177"/>
-      <c r="H69" s="177"/>
-      <c r="I69" s="179"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="182"/>
-      <c r="M69" s="183"/>
-      <c r="N69" s="184"/>
-      <c r="O69" s="184"/>
+      <c r="A69" s="175"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
+      <c r="I69" s="177"/>
+      <c r="J69" s="178"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="181"/>
+      <c r="N69" s="182"/>
+      <c r="O69" s="182"/>
     </row>
     <row r="70" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="177"/>
-      <c r="B70" s="178"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="178"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="177"/>
-      <c r="G70" s="177"/>
-      <c r="H70" s="177"/>
-      <c r="I70" s="179"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="181"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="183"/>
-      <c r="N70" s="184"/>
-      <c r="O70" s="184"/>
+      <c r="A70" s="175"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="176"/>
+      <c r="D70" s="176"/>
+      <c r="E70" s="176"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="175"/>
+      <c r="H70" s="175"/>
+      <c r="I70" s="177"/>
+      <c r="J70" s="178"/>
+      <c r="K70" s="179"/>
+      <c r="L70" s="180"/>
+      <c r="M70" s="181"/>
+      <c r="N70" s="182"/>
+      <c r="O70" s="182"/>
     </row>
     <row r="71" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="177"/>
-      <c r="B71" s="178"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="177"/>
-      <c r="H71" s="177"/>
-      <c r="I71" s="179"/>
-      <c r="J71" s="180"/>
-      <c r="K71" s="181"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="183"/>
-      <c r="N71" s="184"/>
-      <c r="O71" s="184"/>
+      <c r="A71" s="175"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="176"/>
+      <c r="D71" s="176"/>
+      <c r="E71" s="176"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="177"/>
+      <c r="J71" s="178"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
+      <c r="M71" s="181"/>
+      <c r="N71" s="182"/>
+      <c r="O71" s="182"/>
     </row>
     <row r="72" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="177"/>
-      <c r="B72" s="178"/>
-      <c r="C72" s="178"/>
-      <c r="D72" s="178"/>
-      <c r="E72" s="178"/>
-      <c r="F72" s="177"/>
-      <c r="G72" s="177"/>
-      <c r="H72" s="177"/>
-      <c r="I72" s="179"/>
-      <c r="J72" s="180"/>
-      <c r="K72" s="181"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="183"/>
-      <c r="N72" s="184"/>
-      <c r="O72" s="184"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="176"/>
+      <c r="D72" s="176"/>
+      <c r="E72" s="176"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="175"/>
+      <c r="H72" s="175"/>
+      <c r="I72" s="177"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="179"/>
+      <c r="L72" s="180"/>
+      <c r="M72" s="181"/>
+      <c r="N72" s="182"/>
+      <c r="O72" s="182"/>
     </row>
     <row r="73" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="177"/>
-      <c r="B73" s="178"/>
-      <c r="C73" s="178"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="178"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="177"/>
-      <c r="H73" s="177"/>
-      <c r="I73" s="179"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="182"/>
-      <c r="M73" s="183"/>
-      <c r="N73" s="184"/>
-      <c r="O73" s="184"/>
+      <c r="A73" s="175"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="176"/>
+      <c r="D73" s="176"/>
+      <c r="E73" s="176"/>
+      <c r="F73" s="175"/>
+      <c r="G73" s="175"/>
+      <c r="H73" s="175"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="181"/>
+      <c r="N73" s="182"/>
+      <c r="O73" s="182"/>
     </row>
     <row r="74" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="177"/>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
-      <c r="D74" s="178"/>
-      <c r="E74" s="178"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="179"/>
-      <c r="J74" s="180"/>
-      <c r="K74" s="181"/>
-      <c r="L74" s="182"/>
-      <c r="M74" s="183"/>
-      <c r="N74" s="184"/>
-      <c r="O74" s="184"/>
+      <c r="A74" s="175"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="176"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="176"/>
+      <c r="F74" s="175"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="175"/>
+      <c r="I74" s="177"/>
+      <c r="J74" s="178"/>
+      <c r="K74" s="179"/>
+      <c r="L74" s="180"/>
+      <c r="M74" s="181"/>
+      <c r="N74" s="182"/>
+      <c r="O74" s="182"/>
     </row>
     <row r="75" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="177"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="179"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="181"/>
-      <c r="L75" s="182"/>
-      <c r="M75" s="183"/>
-      <c r="N75" s="184"/>
-      <c r="O75" s="184"/>
+      <c r="A75" s="175"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="176"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="176"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175"/>
+      <c r="H75" s="175"/>
+      <c r="I75" s="177"/>
+      <c r="J75" s="178"/>
+      <c r="K75" s="179"/>
+      <c r="L75" s="180"/>
+      <c r="M75" s="181"/>
+      <c r="N75" s="182"/>
+      <c r="O75" s="182"/>
     </row>
     <row r="76" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="177"/>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="180"/>
-      <c r="K76" s="181"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="183"/>
-      <c r="N76" s="184"/>
-      <c r="O76" s="184"/>
+      <c r="A76" s="175"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="176"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175"/>
+      <c r="H76" s="175"/>
+      <c r="I76" s="177"/>
+      <c r="J76" s="178"/>
+      <c r="K76" s="179"/>
+      <c r="L76" s="180"/>
+      <c r="M76" s="181"/>
+      <c r="N76" s="182"/>
+      <c r="O76" s="182"/>
     </row>
     <row r="77" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="177"/>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="177"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="177"/>
-      <c r="I77" s="179"/>
-      <c r="J77" s="180"/>
-      <c r="K77" s="181"/>
-      <c r="L77" s="182"/>
-      <c r="M77" s="183"/>
-      <c r="N77" s="184"/>
-      <c r="O77" s="184"/>
+      <c r="A77" s="175"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
+      <c r="E77" s="176"/>
+      <c r="F77" s="175"/>
+      <c r="G77" s="175"/>
+      <c r="H77" s="175"/>
+      <c r="I77" s="177"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="179"/>
+      <c r="L77" s="180"/>
+      <c r="M77" s="181"/>
+      <c r="N77" s="182"/>
+      <c r="O77" s="182"/>
     </row>
     <row r="78" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="177"/>
-      <c r="B78" s="178"/>
-      <c r="C78" s="178"/>
-      <c r="D78" s="178"/>
-      <c r="E78" s="178"/>
-      <c r="F78" s="177"/>
-      <c r="G78" s="177"/>
-      <c r="H78" s="177"/>
-      <c r="I78" s="179"/>
-      <c r="J78" s="180"/>
-      <c r="K78" s="181"/>
-      <c r="L78" s="182"/>
-      <c r="M78" s="183"/>
-      <c r="N78" s="184"/>
-      <c r="O78" s="184"/>
+      <c r="A78" s="175"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="175"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="175"/>
+      <c r="I78" s="177"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="180"/>
+      <c r="M78" s="181"/>
+      <c r="N78" s="182"/>
+      <c r="O78" s="182"/>
     </row>
     <row r="79" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="177"/>
-      <c r="B79" s="178"/>
-      <c r="C79" s="178"/>
-      <c r="D79" s="178"/>
-      <c r="E79" s="178"/>
-      <c r="F79" s="177"/>
-      <c r="G79" s="177"/>
-      <c r="H79" s="177"/>
-      <c r="I79" s="179"/>
-      <c r="J79" s="180"/>
-      <c r="K79" s="181"/>
-      <c r="L79" s="182"/>
-      <c r="M79" s="183"/>
-      <c r="N79" s="184"/>
-      <c r="O79" s="184"/>
+      <c r="A79" s="175"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
+      <c r="E79" s="176"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175"/>
+      <c r="I79" s="177"/>
+      <c r="J79" s="178"/>
+      <c r="K79" s="179"/>
+      <c r="L79" s="180"/>
+      <c r="M79" s="181"/>
+      <c r="N79" s="182"/>
+      <c r="O79" s="182"/>
     </row>
     <row r="80" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="185"/>
-      <c r="B80" s="185"/>
-      <c r="C80" s="185"/>
-      <c r="D80" s="185"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="185"/>
-      <c r="G80" s="185"/>
-      <c r="H80" s="185"/>
-      <c r="I80" s="185"/>
-      <c r="J80" s="185"/>
-      <c r="K80" s="186"/>
-      <c r="L80" s="186"/>
-      <c r="M80" s="186"/>
-      <c r="N80" s="184"/>
-      <c r="O80" s="184"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="183"/>
+      <c r="C80" s="183"/>
+      <c r="D80" s="183"/>
+      <c r="E80" s="183"/>
+      <c r="F80" s="183"/>
+      <c r="G80" s="183"/>
+      <c r="H80" s="183"/>
+      <c r="I80" s="183"/>
+      <c r="J80" s="183"/>
+      <c r="K80" s="184"/>
+      <c r="L80" s="184"/>
+      <c r="M80" s="184"/>
+      <c r="N80" s="182"/>
+      <c r="O80" s="182"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="184"/>
-      <c r="B81" s="184"/>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="184"/>
-      <c r="F81" s="184"/>
-      <c r="G81" s="184"/>
-      <c r="H81" s="184"/>
-      <c r="I81" s="184"/>
-      <c r="J81" s="184"/>
-      <c r="K81" s="187"/>
-      <c r="L81" s="184"/>
-      <c r="M81" s="184"/>
-      <c r="N81" s="184"/>
-      <c r="O81" s="184"/>
+      <c r="A81" s="182"/>
+      <c r="B81" s="182"/>
+      <c r="C81" s="182"/>
+      <c r="D81" s="182"/>
+      <c r="E81" s="182"/>
+      <c r="F81" s="182"/>
+      <c r="G81" s="182"/>
+      <c r="H81" s="182"/>
+      <c r="I81" s="182"/>
+      <c r="J81" s="182"/>
+      <c r="K81" s="185"/>
+      <c r="L81" s="182"/>
+      <c r="M81" s="182"/>
+      <c r="N81" s="182"/>
+      <c r="O81" s="182"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="184"/>
-      <c r="B82" s="184"/>
-      <c r="C82" s="184"/>
-      <c r="D82" s="184"/>
-      <c r="E82" s="184"/>
-      <c r="F82" s="184"/>
-      <c r="G82" s="184"/>
-      <c r="H82" s="184"/>
-      <c r="I82" s="184"/>
-      <c r="J82" s="184"/>
-      <c r="K82" s="187"/>
-      <c r="L82" s="184"/>
-      <c r="M82" s="184"/>
-      <c r="N82" s="184"/>
-      <c r="O82" s="184"/>
+      <c r="A82" s="182"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
+      <c r="F82" s="182"/>
+      <c r="G82" s="182"/>
+      <c r="H82" s="182"/>
+      <c r="I82" s="182"/>
+      <c r="J82" s="182"/>
+      <c r="K82" s="185"/>
+      <c r="L82" s="182"/>
+      <c r="M82" s="182"/>
+      <c r="N82" s="182"/>
+      <c r="O82" s="182"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="8055" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="8055" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -1693,18 +1693,11 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1727,8 +1720,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2094,20 +2094,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="3.28515625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="2.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="45.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="2" customWidth="1"/>
@@ -2117,7 +2118,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Apr 27 2015 15:18:19</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Apr 22 2015 09:39:09</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2482,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="24">
-        <v>42129.377268518518</v>
+        <v>42129.441504629627</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2608,7 +2609,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_CHFYCSTD#0033</v>
+        <v>_CHFYCSTD#0000</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2986,7 +2987,7 @@
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>7.4686916125012688E-3</v>
+        <v>7.3128173294271844E-3</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-8.5537014448569832E-3</v>
+        <v>-8.5126059349452648E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4581,11 +4582,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203"/>
+      <c r="A2" s="200"/>
       <c r="B2" s="156"/>
       <c r="C2" s="156" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0024d#0007</v>
+        <v>obj_0022f#0000</v>
       </c>
       <c r="D2" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4616,11 +4617,11 @@
       <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204"/>
+      <c r="A3" s="201"/>
       <c r="B3" s="107"/>
       <c r="C3" s="107" t="str">
         <f>Deposits!E4</f>
-        <v>obj_003ca#0004</v>
+        <v>obj_00222#0000</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4651,11 +4652,11 @@
       <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="107"/>
       <c r="C4" s="107" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00252#0007</v>
+        <v>obj_0022e#0000</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4685,11 +4686,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="107"/>
       <c r="C5" s="107" t="str">
         <f>Deposits!E6</f>
-        <v>obj_00251#0007</v>
+        <v>obj_0022c#0000</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4719,11 +4720,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="107"/>
       <c r="C6" s="107" t="str">
         <f>Deposits!E7</f>
-        <v>obj_00250#0007</v>
+        <v>obj_0022b#0000</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4753,11 +4754,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00253#0007</v>
+        <v>obj_00230#0000</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4787,11 +4788,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="204"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="107"/>
       <c r="C8" s="107" t="str">
         <f>Deposits!E9</f>
-        <v>obj_0024e#0007</v>
+        <v>obj_00231#0000</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4821,11 +4822,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107" t="str">
         <f>Deposits!E10</f>
-        <v>obj_0024f#0007</v>
+        <v>obj_0022a#0000</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4855,11 +4856,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="205"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="111"/>
       <c r="C10" s="111" t="str">
         <f>Deposits!E11</f>
-        <v>obj_0024c#0007</v>
+        <v>obj_0022d#0000</v>
       </c>
       <c r="D10" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4889,16 +4890,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="202" t="b">
+      <c r="A11" s="199" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="202" t="str">
+      <c r="B11" s="199" t="str">
         <f t="array" ref="B11:B52">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A11:$A52)</f>
         <v>K5</v>
       </c>
       <c r="C11" s="107" t="str">
         <f>Futures!H3</f>
-        <v>obj_00261#0000</v>
+        <v>obj_00238#0000</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4939,7 +4940,7 @@
       </c>
       <c r="C12" s="107" t="str">
         <f>Futures!H4</f>
-        <v>obj_00256#0000</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -4947,7 +4948,7 @@
       </c>
       <c r="E12" s="116">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>100.84</v>
+        <v>100.83500000000001</v>
       </c>
       <c r="F12" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C12,Trigger)</f>
@@ -5021,7 +5022,7 @@
       </c>
       <c r="C14" s="107" t="str">
         <f>Futures!H6</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_00261#0000</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5062,7 +5063,7 @@
       </c>
       <c r="C15" s="107" t="str">
         <f>Futures!H7</f>
-        <v>obj_00275#0000</v>
+        <v>obj_0027b#0000</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5070,7 +5071,7 @@
       </c>
       <c r="E15" s="116">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>100.86500000000001</v>
+        <v>100.855</v>
       </c>
       <c r="F15" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C15,Trigger)</f>
@@ -5103,7 +5104,7 @@
       </c>
       <c r="C16" s="107" t="str">
         <f>Futures!H8</f>
-        <v>obj_00267#0000</v>
+        <v>obj_00239#0000</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5144,7 +5145,7 @@
       </c>
       <c r="C17" s="107" t="str">
         <f>Futures!H9</f>
-        <v>obj_0026e#0000</v>
+        <v>obj_00265#0000</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5185,7 +5186,7 @@
       </c>
       <c r="C18" s="107" t="str">
         <f>Futures!H10</f>
-        <v>obj_00262#0000</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5193,7 +5194,7 @@
       </c>
       <c r="E18" s="116">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>100.845</v>
+        <v>100.83500000000001</v>
       </c>
       <c r="F18" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C18,Trigger)</f>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="C19" s="107" t="str">
         <f>Futures!H11</f>
-        <v>obj_00270#0000</v>
+        <v>obj_00244#0000</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5267,7 +5268,7 @@
       </c>
       <c r="C20" s="107" t="str">
         <f>Futures!H12</f>
-        <v>obj_00255#0000</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="D20" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5308,7 +5309,7 @@
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!H13</f>
-        <v>obj_00273#0000</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="E21" s="116">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>100.795</v>
+        <v>100.785</v>
       </c>
       <c r="F21" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5349,7 +5350,7 @@
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!H14</f>
-        <v>obj_00258#0000</v>
+        <v>obj_00279#0000</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5390,7 +5391,7 @@
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!H15</f>
-        <v>obj_0025e#0000</v>
+        <v>obj_00255#0000</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5398,7 +5399,7 @@
       </c>
       <c r="E23" s="116">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>100.73500000000001</v>
+        <v>100.72499999999999</v>
       </c>
       <c r="F23" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5431,7 +5432,7 @@
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!H16</f>
-        <v>obj_00257#0000</v>
+        <v>obj_00259#0000</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5439,7 +5440,7 @@
       </c>
       <c r="E24" s="116">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>100.67500000000001</v>
+        <v>100.66499999999999</v>
       </c>
       <c r="F24" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5472,7 +5473,7 @@
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!H17</f>
-        <v>obj_00271#0000</v>
+        <v>obj_00268#0000</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5480,7 +5481,7 @@
       </c>
       <c r="E25" s="116">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>100.61500000000001</v>
+        <v>100.61000000000001</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5513,7 +5514,7 @@
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!H18</f>
-        <v>obj_0026a#0000</v>
+        <v>obj_0026c#0000</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5521,7 +5522,7 @@
       </c>
       <c r="E26" s="116">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>100.55500000000001</v>
+        <v>100.55000000000001</v>
       </c>
       <c r="F26" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5554,7 +5555,7 @@
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!H19</f>
-        <v>obj_00259#0000</v>
+        <v>obj_00264#0000</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5595,7 +5596,7 @@
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!H20</f>
-        <v>obj_0025a#0000</v>
+        <v>obj_00237#0000</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5636,7 +5637,7 @@
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!H21</f>
-        <v>obj_00268#0000</v>
+        <v>obj_00243#0000</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5677,7 +5678,7 @@
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!H22</f>
-        <v>obj_00278#0000</v>
+        <v>obj_00245#0000</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5718,7 +5719,7 @@
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!H23</f>
-        <v>obj_00265#0000</v>
+        <v>obj_0025a#0000</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5759,7 +5760,7 @@
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!H24</f>
-        <v>obj_0026d#0000</v>
+        <v>obj_00260#0000</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5800,7 +5801,7 @@
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!H25</f>
-        <v>obj_0026b#0000</v>
+        <v>obj_00271#0000</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5841,7 +5842,7 @@
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!H26</f>
-        <v>obj_0026c#0000</v>
+        <v>obj_00275#0000</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5882,7 +5883,7 @@
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!H27</f>
-        <v>obj_00276#0000</v>
+        <v>obj_0027f#0000</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5923,7 +5924,7 @@
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!H28</f>
-        <v>obj_00274#0000</v>
+        <v>obj_0025b#0000</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5964,7 +5965,7 @@
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!H29</f>
-        <v>obj_0025d#0000</v>
+        <v>obj_0026b#0000</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -6005,7 +6006,7 @@
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!H30</f>
-        <v>obj_00264#0000</v>
+        <v>obj_00270#0000</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -6046,7 +6047,7 @@
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!H31</f>
-        <v>obj_00277#0000</v>
+        <v>obj_0023b#0000</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6087,7 +6088,7 @@
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!H32</f>
-        <v>obj_00260#0000</v>
+        <v>obj_00280#0000</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6128,7 +6129,7 @@
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!H33</f>
-        <v>obj_0025c#0000</v>
+        <v>obj_0024a#0000</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6169,7 +6170,7 @@
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!H34</f>
-        <v>obj_00263#0000</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6210,7 +6211,7 @@
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!H35</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00240#0000</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6251,7 +6252,7 @@
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!H36</f>
-        <v>obj_00269#0000</v>
+        <v>obj_0024b#0000</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6292,7 +6293,7 @@
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!H37</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_0026d#0000</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6333,7 +6334,7 @@
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!H38</f>
-        <v>obj_0026f#0000</v>
+        <v>obj_0023a#0000</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6374,7 +6375,7 @@
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!H39</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_00276#0000</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6415,7 +6416,7 @@
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!H40</f>
-        <v>obj_00279#0000</v>
+        <v>obj_0024c#0000</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!H41</f>
-        <v>obj_00266#0000</v>
+        <v>obj_0027a#0000</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6497,7 +6498,7 @@
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!H42</f>
-        <v>obj_00272#0000</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6538,7 +6539,7 @@
       </c>
       <c r="C51" s="107" t="str">
         <f>Futures!H43</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_00266#0000</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6579,7 +6580,7 @@
       </c>
       <c r="C52" s="111" t="str">
         <f>Futures!H44</f>
-        <v>obj_0025b#0000</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="D52" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6613,11 +6614,11 @@
       <c r="L52" s="118"/>
     </row>
     <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="203"/>
+      <c r="A53" s="200"/>
       <c r="B53" s="156"/>
       <c r="C53" s="156" t="str">
         <f>Swaps!K5</f>
-        <v>obj_003cb#0000</v>
+        <v>obj_00229#0000</v>
       </c>
       <c r="D53" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6651,11 +6652,11 @@
       <c r="M53" s="119"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="204"/>
+      <c r="A54" s="201"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00232#0001</v>
+        <v>obj_0026f#0000</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6663,7 +6664,7 @@
       </c>
       <c r="E54" s="108">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>-7.3000000000000001E-3</v>
+        <v>-7.2750000000000002E-3</v>
       </c>
       <c r="F54" s="108">
         <f>_xll.qlSwapRateHelperSpread($C54,Trigger)</f>
@@ -6689,11 +6690,11 @@
       <c r="M54" s="119"/>
     </row>
     <row r="55" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="204"/>
+      <c r="A55" s="201"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00249#0001</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6727,11 +6728,11 @@
       <c r="M55" s="119"/>
     </row>
     <row r="56" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="204"/>
+      <c r="A56" s="201"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00246#0001</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6765,11 +6766,11 @@
       <c r="M56" s="119"/>
     </row>
     <row r="57" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="204"/>
+      <c r="A57" s="201"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00242#0001</v>
+        <v>obj_0025d#0000</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6803,11 +6804,11 @@
       <c r="M57" s="119"/>
     </row>
     <row r="58" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="204"/>
+      <c r="A58" s="201"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00227#0001</v>
+        <v>obj_00232#0000</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6815,14 +6816,14 @@
       </c>
       <c r="E58" s="108">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>-6.5250000000000004E-3</v>
+        <v>-6.5750000000000001E-3</v>
       </c>
       <c r="F58" s="108">
         <f>_xll.qlSwapRateHelperSpread($C58,Trigger)</f>
         <v>0</v>
       </c>
       <c r="G58" s="58" t="b">
-        <f t="shared" ref="G53:G117" si="0">IF(ISERROR(E58),FALSE,TRUE)</f>
+        <f t="shared" ref="G58:G90" si="0">IF(ISERROR(E58),FALSE,TRUE)</f>
         <v>1</v>
       </c>
       <c r="H58" s="58">
@@ -6843,11 +6844,11 @@
       <c r="O58" s="162"/>
     </row>
     <row r="59" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="204"/>
+      <c r="A59" s="201"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00244#0001</v>
+        <v>obj_00274#0000</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6855,7 +6856,7 @@
       </c>
       <c r="E59" s="108">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>-5.3249999999999999E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="F59" s="108">
         <f>_xll.qlSwapRateHelperSpread($C59,Trigger)</f>
@@ -6883,11 +6884,11 @@
       <c r="O59" s="162"/>
     </row>
     <row r="60" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="204"/>
+      <c r="A60" s="201"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0022c#0001</v>
+        <v>obj_00277#0000</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6895,7 +6896,7 @@
       </c>
       <c r="E60" s="108">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>-3.9250000000000005E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="F60" s="108">
         <f>_xll.qlSwapRateHelperSpread($C60,Trigger)</f>
@@ -6923,11 +6924,11 @@
       <c r="O60" s="162"/>
     </row>
     <row r="61" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="204"/>
+      <c r="A61" s="201"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00247#0001</v>
+        <v>obj_0025e#0000</v>
       </c>
       <c r="D61" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6935,7 +6936,7 @@
       </c>
       <c r="E61" s="108">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>-2.4750000000000002E-3</v>
+        <v>-2.5500000000000002E-3</v>
       </c>
       <c r="F61" s="108">
         <f>_xll.qlSwapRateHelperSpread($C61,Trigger)</f>
@@ -6963,11 +6964,11 @@
       <c r="O61" s="162"/>
     </row>
     <row r="62" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="204"/>
+      <c r="A62" s="201"/>
       <c r="B62" s="107"/>
       <c r="C62" s="107" t="str">
         <f>Swaps!K14</f>
-        <v>obj_0022f#0001</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -6975,7 +6976,7 @@
       </c>
       <c r="E62" s="108">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>-1.1250000000000001E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F62" s="108">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -7003,11 +7004,11 @@
       <c r="O62" s="162"/>
     </row>
     <row r="63" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="204"/>
+      <c r="A63" s="201"/>
       <c r="B63" s="107"/>
       <c r="C63" s="107" t="str">
         <f>Swaps!K15</f>
-        <v>obj_0022e#0001</v>
+        <v>obj_00262#0000</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7015,7 +7016,7 @@
       </c>
       <c r="E63" s="108">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>5.0000000000000009E-5</v>
+        <v>-2.5000000000000022E-5</v>
       </c>
       <c r="F63" s="108">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7043,11 +7044,11 @@
       <c r="O63" s="162"/>
     </row>
     <row r="64" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="204"/>
+      <c r="A64" s="201"/>
       <c r="B64" s="107"/>
       <c r="C64" s="107" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0022a#0001</v>
+        <v>obj_0024d#0000</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7055,7 +7056,7 @@
       </c>
       <c r="E64" s="108">
         <f>_xll.qlRateHelperQuoteValue($C64,Trigger)</f>
-        <v>1.0750000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F64" s="108">
         <f>_xll.qlSwapRateHelperSpread($C64,Trigger)</f>
@@ -7083,11 +7084,11 @@
       <c r="O64" s="162"/>
     </row>
     <row r="65" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="204"/>
+      <c r="A65" s="201"/>
       <c r="B65" s="107"/>
       <c r="C65" s="107" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00226#0001</v>
+        <v>obj_00263#0000</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7095,7 +7096,7 @@
       </c>
       <c r="E65" s="108">
         <f>_xll.qlRateHelperQuoteValue($C65,Trigger)</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="F65" s="108">
         <f>_xll.qlSwapRateHelperSpread($C65,Trigger)</f>
@@ -7123,11 +7124,11 @@
       <c r="O65" s="162"/>
     </row>
     <row r="66" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="204"/>
+      <c r="A66" s="201"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00237#0001</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7135,7 +7136,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5250000000000008E-3</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -7163,11 +7164,11 @@
       <c r="O66" s="162"/>
     </row>
     <row r="67" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="204"/>
+      <c r="A67" s="201"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0023f#0001</v>
+        <v>obj_0027c#0000</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7175,7 +7176,7 @@
       </c>
       <c r="E67" s="108">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>3.1749999999999999E-3</v>
+        <v>3.1000000000000003E-3</v>
       </c>
       <c r="F67" s="108">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7203,11 +7204,11 @@
       <c r="O67" s="162"/>
     </row>
     <row r="68" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="204"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00243#0001</v>
+        <v>obj_00273#0000</v>
       </c>
       <c r="D68" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7215,7 +7216,7 @@
       </c>
       <c r="E68" s="108">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>3.7000000000000002E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F68" s="108">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7243,11 +7244,11 @@
       <c r="O68" s="162"/>
     </row>
     <row r="69" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="204"/>
+      <c r="A69" s="201"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0022b#0001</v>
+        <v>obj_00267#0000</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7283,11 +7284,11 @@
       <c r="O69" s="162"/>
     </row>
     <row r="70" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="204"/>
+      <c r="A70" s="201"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00223#0001</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7323,11 +7324,11 @@
       <c r="O70" s="162"/>
     </row>
     <row r="71" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="204"/>
+      <c r="A71" s="201"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00228#0001</v>
+        <v>obj_00257#0000</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7335,7 +7336,7 @@
       </c>
       <c r="E71" s="108">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F71" s="108">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7363,11 +7364,11 @@
       <c r="O71" s="162"/>
     </row>
     <row r="72" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="204"/>
+      <c r="A72" s="201"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00224#0001</v>
+        <v>obj_00252#0000</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7403,11 +7404,11 @@
       <c r="O72" s="162"/>
     </row>
     <row r="73" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="204"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00248#0001</v>
+        <v>obj_00272#0000</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7443,11 +7444,11 @@
       <c r="O73" s="162"/>
     </row>
     <row r="74" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="204"/>
+      <c r="A74" s="201"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00233#0001</v>
+        <v>obj_00269#0000</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7483,11 +7484,11 @@
       <c r="O74" s="162"/>
     </row>
     <row r="75" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="204"/>
+      <c r="A75" s="201"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00238#0001</v>
+        <v>obj_0023d#0000</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7523,11 +7524,11 @@
       <c r="O75" s="162"/>
     </row>
     <row r="76" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="204"/>
+      <c r="A76" s="201"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107" t="str">
         <f>Swaps!K28</f>
-        <v>obj_0023b#0001</v>
+        <v>obj_00233#0000</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7535,7 +7536,7 @@
       </c>
       <c r="E76" s="108">
         <f>_xll.qlRateHelperQuoteValue($C76,Trigger)</f>
-        <v>6.1000000000000013E-3</v>
+        <v>5.9750000000000003E-3</v>
       </c>
       <c r="F76" s="108">
         <f>_xll.qlSwapRateHelperSpread($C76,Trigger)</f>
@@ -7563,11 +7564,11 @@
       <c r="O76" s="162"/>
     </row>
     <row r="77" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="204"/>
+      <c r="A77" s="201"/>
       <c r="B77" s="107"/>
       <c r="C77" s="107" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00225#0001</v>
+        <v>obj_0026a#0000</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7603,11 +7604,11 @@
       <c r="O77" s="162"/>
     </row>
     <row r="78" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="204"/>
+      <c r="A78" s="201"/>
       <c r="B78" s="107"/>
       <c r="C78" s="107" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0023e#0001</v>
+        <v>obj_0023e#0000</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7643,11 +7644,11 @@
       <c r="O78" s="162"/>
     </row>
     <row r="79" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="204"/>
+      <c r="A79" s="201"/>
       <c r="B79" s="107"/>
       <c r="C79" s="107" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00239#0001</v>
+        <v>obj_0027d#0000</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7683,11 +7684,11 @@
       <c r="O79" s="162"/>
     </row>
     <row r="80" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="204"/>
+      <c r="A80" s="201"/>
       <c r="B80" s="107"/>
       <c r="C80" s="107" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00220#0001</v>
+        <v>obj_0027e#0000</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7723,11 +7724,11 @@
       <c r="O80" s="162"/>
     </row>
     <row r="81" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="204"/>
+      <c r="A81" s="201"/>
       <c r="B81" s="107"/>
       <c r="C81" s="107" t="str">
         <f>Swaps!K33</f>
-        <v>obj_0023a#0001</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7735,7 +7736,7 @@
       </c>
       <c r="E81" s="108">
         <f>_xll.qlRateHelperQuoteValue($C81,Trigger)</f>
-        <v>6.8250000000000012E-3</v>
+        <v>6.6749999999999995E-3</v>
       </c>
       <c r="F81" s="108">
         <f>_xll.qlSwapRateHelperSpread($C81,Trigger)</f>
@@ -7763,11 +7764,11 @@
       <c r="O81" s="162"/>
     </row>
     <row r="82" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="204"/>
+      <c r="A82" s="201"/>
       <c r="B82" s="107"/>
       <c r="C82" s="107" t="str">
         <f>Swaps!K34</f>
-        <v>obj_00245#0001</v>
+        <v>obj_0025c#0000</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7803,11 +7804,11 @@
       <c r="O82" s="162"/>
     </row>
     <row r="83" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="204"/>
+      <c r="A83" s="201"/>
       <c r="B83" s="107"/>
       <c r="C83" s="107" t="str">
         <f>Swaps!K35</f>
-        <v>obj_0024a#0001</v>
+        <v>obj_00246#0000</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7843,11 +7844,11 @@
       <c r="O83" s="162"/>
     </row>
     <row r="84" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="204"/>
+      <c r="A84" s="201"/>
       <c r="B84" s="107"/>
       <c r="C84" s="107" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0021f#0001</v>
+        <v>obj_00236#0000</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7883,11 +7884,11 @@
       <c r="O84" s="162"/>
     </row>
     <row r="85" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="204"/>
+      <c r="A85" s="201"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00222#0001</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7923,11 +7924,11 @@
       <c r="O85" s="162"/>
     </row>
     <row r="86" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="204"/>
+      <c r="A86" s="201"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00236#0001</v>
+        <v>obj_0023f#0000</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -7935,7 +7936,7 @@
       </c>
       <c r="E86" s="108">
         <f>_xll.qlRateHelperQuoteValue($C86,Trigger)</f>
-        <v>7.1999999999999998E-3</v>
+        <v>7.0500000000000007E-3</v>
       </c>
       <c r="F86" s="108">
         <f>_xll.qlSwapRateHelperSpread($C86,Trigger)</f>
@@ -7963,11 +7964,11 @@
       <c r="O86" s="162"/>
     </row>
     <row r="87" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="204"/>
+      <c r="A87" s="201"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00229#0001</v>
+        <v>obj_00234#0000</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -7975,7 +7976,7 @@
       </c>
       <c r="E87" s="108">
         <f>_xll.qlRateHelperQuoteValue($C87,Trigger)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>7.150000000000001E-3</v>
       </c>
       <c r="F87" s="108">
         <f>_xll.qlSwapRateHelperSpread($C87,Trigger)</f>
@@ -8003,11 +8004,11 @@
       <c r="O87" s="162"/>
     </row>
     <row r="88" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="204"/>
+      <c r="A88" s="201"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0024b#0001</v>
+        <v>obj_00278#0000</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8015,7 +8016,7 @@
       </c>
       <c r="E88" s="108">
         <f>_xll.qlRateHelperQuoteValue($C88,Trigger)</f>
-        <v>7.2500000000000012E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="F88" s="108">
         <f>_xll.qlSwapRateHelperSpread($C88,Trigger)</f>
@@ -8043,11 +8044,11 @@
       <c r="O88" s="162"/>
     </row>
     <row r="89" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="204"/>
+      <c r="A89" s="201"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107" t="str">
         <f>Swaps!K41</f>
-        <v>obj_0022d#0001</v>
+        <v>obj_00235#0000</v>
       </c>
       <c r="D89" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8055,7 +8056,7 @@
       </c>
       <c r="E89" s="108">
         <f>_xll.qlRateHelperQuoteValue($C89,Trigger)</f>
-        <v>6.8999999999999999E-3</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="F89" s="108">
         <f>_xll.qlSwapRateHelperSpread($C89,Trigger)</f>
@@ -8082,11 +8083,11 @@
       <c r="M89" s="119"/>
     </row>
     <row r="90" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="206"/>
-      <c r="B90" s="207"/>
+      <c r="A90" s="203"/>
+      <c r="B90" s="204"/>
       <c r="C90" s="111" t="str">
         <f>Swaps!K42</f>
-        <v>obj_0023d#0001</v>
+        <v>obj_0026e#0000</v>
       </c>
       <c r="D90" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8232,8 +8233,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8260,10 +8261,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="206"/>
       <c r="D1" s="150" t="s">
         <v>51</v>
       </c>
@@ -8295,7 +8296,7 @@
       </c>
       <c r="D2" s="69" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00252</v>
+        <v>obj_0022e</v>
       </c>
       <c r="E2" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -8334,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="69" t="str">
-        <v>obj_00251</v>
+        <v>obj_0022c</v>
       </c>
       <c r="E3" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -8373,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="69" t="str">
-        <v>obj_00250</v>
+        <v>obj_0022b</v>
       </c>
       <c r="E4" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -8411,7 +8412,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="69" t="str">
-        <v>obj_00253</v>
+        <v>obj_00230</v>
       </c>
       <c r="E5" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -8450,7 +8451,7 @@
         <v/>
       </c>
       <c r="D6" s="69" t="str">
-        <v>obj_00256</v>
+        <v>obj_0024f</v>
       </c>
       <c r="E6" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -8482,7 +8483,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="69" t="str">
-        <v>obj_00275</v>
+        <v>obj_0027b</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -8490,7 +8491,7 @@
       </c>
       <c r="F7" s="70">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>-8.6500000000000465E-3</v>
+        <v>-8.5500000000000576E-3</v>
       </c>
       <c r="G7" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8505,7 +8506,7 @@
         <v>42354</v>
       </c>
       <c r="J7" s="68">
-        <v>-8.5537014448569832E-3</v>
+        <v>-8.5126059349452648E-3</v>
       </c>
       <c r="M7" s="154"/>
       <c r="V7" s="119"/>
@@ -8514,7 +8515,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="str">
-        <v>obj_00262</v>
+        <v>obj_00242</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -8537,7 +8538,7 @@
         <v>42445</v>
       </c>
       <c r="J8" s="68">
-        <v>-8.5310141973778415E-3</v>
+        <v>-8.5017531538845812E-3</v>
       </c>
       <c r="M8" s="154"/>
       <c r="O8" s="154"/>
@@ -8547,7 +8548,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="69" t="str">
-        <v>obj_00273</v>
+        <v>obj_00256</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -8570,7 +8571,7 @@
         <v>42537</v>
       </c>
       <c r="J9" s="68">
-        <v>-8.4038394451810602E-3</v>
+        <v>-8.3811764801293275E-3</v>
       </c>
       <c r="M9" s="154"/>
       <c r="O9" s="154"/>
@@ -8580,7 +8581,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="69" t="str">
-        <v>obj_0025e</v>
+        <v>obj_00255</v>
       </c>
       <c r="E10" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -8603,7 +8604,7 @@
         <v>42628</v>
       </c>
       <c r="J10" s="68">
-        <v>-8.2120569366482335E-3</v>
+        <v>-8.1935138182113124E-3</v>
       </c>
       <c r="M10" s="154"/>
       <c r="O10" s="154"/>
@@ -8613,7 +8614,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="69" t="str">
-        <v>obj_00257</v>
+        <v>obj_00259</v>
       </c>
       <c r="E11" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -8621,7 +8622,7 @@
       </c>
       <c r="F11" s="70">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>-6.6999999999999282E-3</v>
+        <v>-6.6499999999998227E-3</v>
       </c>
       <c r="G11" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8636,7 +8637,7 @@
         <v>42725</v>
       </c>
       <c r="J11" s="68">
-        <v>-7.9843417860946762E-3</v>
+        <v>-7.960604332663726E-3</v>
       </c>
       <c r="M11" s="154"/>
       <c r="O11" s="154"/>
@@ -8646,7 +8647,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="69" t="str">
-        <v>obj_00227</v>
+        <v>obj_00232</v>
       </c>
       <c r="E12" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -8654,7 +8655,7 @@
       </c>
       <c r="F12" s="70">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>-6.5500000000000003E-3</v>
+        <v>-6.5750000000000001E-3</v>
       </c>
       <c r="G12" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8669,7 +8670,7 @@
         <v>42863</v>
       </c>
       <c r="J12" s="68">
-        <v>-6.5724120156975541E-3</v>
+        <v>-6.5973309271152364E-3</v>
       </c>
       <c r="M12" s="154"/>
       <c r="O12" s="154"/>
@@ -8679,7 +8680,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="69" t="str">
-        <v>obj_00244</v>
+        <v>obj_00274</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -8687,7 +8688,7 @@
       </c>
       <c r="F13" s="70">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>-5.3500000000000006E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="G13" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8702,7 +8703,7 @@
         <v>43228</v>
       </c>
       <c r="J13" s="68">
-        <v>-5.373899976151654E-3</v>
+        <v>-5.4238980940520282E-3</v>
       </c>
       <c r="M13" s="154"/>
       <c r="O13" s="154"/>
@@ -8712,7 +8713,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="str">
-        <v>obj_0022c</v>
+        <v>obj_00277</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -8720,7 +8721,7 @@
       </c>
       <c r="F14" s="70">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>-3.9250000000000005E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8735,7 +8736,7 @@
         <v>43592</v>
       </c>
       <c r="J14" s="68">
-        <v>-3.9492253687160748E-3</v>
+        <v>-4.0243562302814733E-3</v>
       </c>
       <c r="M14" s="154"/>
       <c r="O14" s="154"/>
@@ -8745,7 +8746,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="69" t="str">
-        <v>obj_00247</v>
+        <v>obj_0025e</v>
       </c>
       <c r="E15" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -8753,7 +8754,7 @@
       </c>
       <c r="F15" s="70">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>-2.4750000000000002E-3</v>
+        <v>-2.5500000000000002E-3</v>
       </c>
       <c r="G15" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8768,7 +8769,7 @@
         <v>43958</v>
       </c>
       <c r="J15" s="68">
-        <v>-2.4954166344136157E-3</v>
+        <v>-2.5707294657833224E-3</v>
       </c>
       <c r="M15" s="154"/>
       <c r="O15" s="154"/>
@@ -8778,7 +8779,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="69" t="str">
-        <v>obj_0022f</v>
+        <v>obj_00254</v>
       </c>
       <c r="E16" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -8786,7 +8787,7 @@
       </c>
       <c r="F16" s="70">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>-1.1250000000000001E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="G16" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8801,7 +8802,7 @@
         <v>44323</v>
       </c>
       <c r="J16" s="68">
-        <v>-1.13992745726018E-3</v>
+        <v>-1.215436613707425E-3</v>
       </c>
       <c r="M16" s="154"/>
       <c r="V16" s="119"/>
@@ -8810,7 +8811,7 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="str">
-        <v>obj_0022e</v>
+        <v>obj_00262</v>
       </c>
       <c r="E17" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -8818,7 +8819,7 @@
       </c>
       <c r="F17" s="70">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>5.0000000000000009E-5</v>
+        <v>-2.5000000000000022E-5</v>
       </c>
       <c r="G17" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8833,7 +8834,7 @@
         <v>44690</v>
       </c>
       <c r="J17" s="68">
-        <v>4.4354656831483601E-5</v>
+        <v>-3.1322532516669299E-5</v>
       </c>
       <c r="M17" s="154"/>
       <c r="O17" s="154"/>
@@ -8844,7 +8845,7 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="str">
-        <v>obj_0022a</v>
+        <v>obj_0024d</v>
       </c>
       <c r="E18" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -8852,7 +8853,7 @@
       </c>
       <c r="F18" s="70">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.0750000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G18" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8867,7 +8868,7 @@
         <v>45054</v>
       </c>
       <c r="J18" s="68">
-        <v>1.0815477804602804E-3</v>
+        <v>1.0057196268690868E-3</v>
       </c>
       <c r="M18" s="154"/>
       <c r="O18" s="154"/>
@@ -8878,7 +8879,7 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="69" t="str">
-        <v>obj_00226</v>
+        <v>obj_00263</v>
       </c>
       <c r="E19" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F19" s="70">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="G19" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8901,7 +8902,7 @@
         <v>45419</v>
       </c>
       <c r="J19" s="68">
-        <v>1.9443829551049467E-3</v>
+        <v>1.8684511432659849E-3</v>
       </c>
       <c r="M19" s="154"/>
       <c r="O19" s="154"/>
@@ -8912,7 +8913,7 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="str">
-        <v>obj_00237</v>
+        <v>obj_00248</v>
       </c>
       <c r="E20" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -8920,7 +8921,7 @@
       </c>
       <c r="F20" s="70">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5250000000000008E-3</v>
       </c>
       <c r="G20" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8935,7 +8936,7 @@
         <v>45784</v>
       </c>
       <c r="J20" s="68">
-        <v>2.632098914575109E-3</v>
+        <v>2.5560677599115894E-3</v>
       </c>
       <c r="M20" s="154"/>
       <c r="O20" s="154"/>
@@ -8946,7 +8947,7 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="69" t="str">
-        <v>obj_0023f</v>
+        <v>obj_0027c</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -8954,7 +8955,7 @@
       </c>
       <c r="F21" s="70">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>3.1749999999999999E-3</v>
+        <v>3.1000000000000003E-3</v>
       </c>
       <c r="G21" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8969,7 +8970,7 @@
         <v>46149</v>
       </c>
       <c r="J21" s="68">
-        <v>3.2196956307272316E-3</v>
+        <v>3.1435766427240081E-3</v>
       </c>
       <c r="M21" s="154"/>
       <c r="O21" s="154"/>
@@ -8980,7 +8981,7 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="str">
-        <v>obj_00243</v>
+        <v>obj_00273</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -8988,7 +8989,7 @@
       </c>
       <c r="F22" s="70">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>3.7000000000000002E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G22" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -9003,7 +9004,7 @@
         <v>46514</v>
       </c>
       <c r="J22" s="68">
-        <v>3.758041669079898E-3</v>
+        <v>3.655941879437592E-3</v>
       </c>
       <c r="M22" s="154"/>
       <c r="O22" s="154"/>
@@ -9014,7 +9015,7 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="str">
-        <v>obj_00228</v>
+        <v>obj_00257</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -9022,7 +9023,7 @@
       </c>
       <c r="F23" s="70">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G23" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -9037,7 +9038,7 @@
         <v>47610</v>
       </c>
       <c r="J23" s="68">
-        <v>4.9945603012644512E-3</v>
+        <v>4.8921334190461336E-3</v>
       </c>
       <c r="M23" s="154"/>
       <c r="O23" s="154"/>
@@ -9047,7 +9048,7 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="69" t="str">
-        <v>obj_0023b</v>
+        <v>obj_00233</v>
       </c>
       <c r="E24" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -9055,7 +9056,7 @@
       </c>
       <c r="F24" s="70">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>6.1000000000000013E-3</v>
+        <v>5.9750000000000003E-3</v>
       </c>
       <c r="G24" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -9070,7 +9071,7 @@
         <v>49437</v>
       </c>
       <c r="J24" s="68">
-        <v>6.2412293280410622E-3</v>
+        <v>6.1117364840823415E-3</v>
       </c>
       <c r="M24" s="154"/>
       <c r="O24" s="154"/>
@@ -9080,7 +9081,7 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="69" t="str">
-        <v>obj_0023a</v>
+        <v>obj_0024e</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -9088,7 +9089,7 @@
       </c>
       <c r="F25" s="70">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>6.8250000000000012E-3</v>
+        <v>6.6749999999999995E-3</v>
       </c>
       <c r="G25" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -9103,7 +9104,7 @@
         <v>51264</v>
       </c>
       <c r="J25" s="68">
-        <v>6.9988180422781007E-3</v>
+        <v>6.8417795562666335E-3</v>
       </c>
       <c r="M25" s="154"/>
       <c r="O25" s="154"/>
@@ -9113,7 +9114,7 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="69" t="str">
-        <v>obj_00236</v>
+        <v>obj_0023f</v>
       </c>
       <c r="E26" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -9121,7 +9122,7 @@
       </c>
       <c r="F26" s="70">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.1999999999999998E-3</v>
+        <v>7.0500000000000007E-3</v>
       </c>
       <c r="G26" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -9136,7 +9137,7 @@
         <v>53090</v>
       </c>
       <c r="J26" s="68">
-        <v>7.385065664322326E-3</v>
+        <v>7.2283846799324038E-3</v>
       </c>
       <c r="M26" s="154"/>
       <c r="O26" s="154"/>
@@ -9146,7 +9147,7 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="str">
-        <v>obj_00229</v>
+        <v>obj_00234</v>
       </c>
       <c r="E27" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -9154,7 +9155,7 @@
       </c>
       <c r="F27" s="70">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>7.150000000000001E-3</v>
       </c>
       <c r="G27" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -9169,7 +9170,7 @@
         <v>54917</v>
       </c>
       <c r="J27" s="68">
-        <v>7.4686916125012688E-3</v>
+        <v>7.3128173294271844E-3</v>
       </c>
       <c r="M27" s="154"/>
       <c r="O27" s="154"/>
@@ -9179,7 +9180,7 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="69" t="str">
-        <v>obj_0024b</v>
+        <v>obj_00278</v>
       </c>
       <c r="E28" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -9187,7 +9188,7 @@
       </c>
       <c r="F28" s="70">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>7.2500000000000012E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="G28" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -9202,7 +9203,7 @@
         <v>56741</v>
       </c>
       <c r="J28" s="68">
-        <v>7.3856894188778863E-3</v>
+        <v>7.2308737281247927E-3</v>
       </c>
       <c r="M28" s="154"/>
       <c r="O28" s="154"/>
@@ -9212,7 +9213,7 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="69" t="str">
-        <v>obj_0022d</v>
+        <v>obj_00235</v>
       </c>
       <c r="E29" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -9220,7 +9221,7 @@
       </c>
       <c r="F29" s="70">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>6.8999999999999999E-3</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="G29" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9235,7 +9236,7 @@
         <v>60394</v>
       </c>
       <c r="J29" s="68">
-        <v>6.9422367139806663E-3</v>
+        <v>6.7900464924713485E-3</v>
       </c>
       <c r="M29" s="154"/>
       <c r="O29" s="154"/>
@@ -12096,7 +12097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208"/>
+      <c r="A1" s="207"/>
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
       <c r="D1" s="189"/>
@@ -12106,7 +12107,7 @@
       <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209"/>
+      <c r="A2" s="208"/>
       <c r="B2" s="56" t="s">
         <v>117</v>
       </c>
@@ -12124,21 +12125,21 @@
       <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="209"/>
-      <c r="B3" s="197" t="s">
+      <c r="A3" s="208"/>
+      <c r="B3" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="198" t="str">
+      <c r="C3" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00230#0017</v>
-      </c>
-      <c r="D3" s="198" t="str">
-        <f>UPPER(Currency)&amp;B3&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00220#0000</v>
+      </c>
+      <c r="D3" s="197" t="str">
+        <f t="shared" ref="D3:D11" si="0">UPPER(Currency)&amp;B3&amp;"D"&amp;QuoteSuffix</f>
         <v>CHFOND_Quote</v>
       </c>
-      <c r="E3" s="198" t="str">
+      <c r="E3" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0024d#0007</v>
+        <v>obj_0022f#0000</v>
       </c>
       <c r="F3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12147,41 +12148,41 @@
       <c r="G3" s="192"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="209"/>
-      <c r="B4" s="197" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="198" t="str">
+      <c r="C4" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c9#0004</v>
-      </c>
-      <c r="D4" s="198" t="str">
-        <f>UPPER(Currency)&amp;B4&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_0021e#0000</v>
+      </c>
+      <c r="D4" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHFTND_Quote</v>
       </c>
-      <c r="E4" s="198" t="str">
+      <c r="E4" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_003ca#0004</v>
+        <v>obj_00222#0000</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="192"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="197" t="s">
+      <c r="A5" s="208"/>
+      <c r="B5" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="198" t="str">
+      <c r="C5" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023c#0005</v>
-      </c>
-      <c r="D5" s="198" t="str">
-        <f>UPPER(Currency)&amp;B5&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00227#0000</v>
+      </c>
+      <c r="D5" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHFSND_Quote</v>
       </c>
-      <c r="E5" s="198" t="str">
+      <c r="E5" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00252#0007</v>
+        <v>obj_0022e#0000</v>
       </c>
       <c r="F5" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12190,21 +12191,21 @@
       <c r="G5" s="192"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="209"/>
-      <c r="B6" s="197" t="s">
+      <c r="A6" s="208"/>
+      <c r="B6" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="198" t="str">
+      <c r="C6" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00221#0005</v>
-      </c>
-      <c r="D6" s="198" t="str">
-        <f>UPPER(Currency)&amp;B6&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00226#0000</v>
+      </c>
+      <c r="D6" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHFSWD_Quote</v>
       </c>
-      <c r="E6" s="198" t="str">
+      <c r="E6" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00251#0007</v>
+        <v>obj_0022c#0000</v>
       </c>
       <c r="F6" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -12213,21 +12214,21 @@
       <c r="G6" s="192"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="209"/>
-      <c r="B7" s="197" t="s">
+      <c r="A7" s="208"/>
+      <c r="B7" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="198" t="str">
+      <c r="C7" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00231#0005</v>
-      </c>
-      <c r="D7" s="198" t="str">
-        <f>UPPER(Currency)&amp;B7&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00225#0000</v>
+      </c>
+      <c r="D7" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHF1MD_Quote</v>
       </c>
-      <c r="E7" s="198" t="str">
+      <c r="E7" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00250#0007</v>
+        <v>obj_0022b#0000</v>
       </c>
       <c r="F7" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -12236,21 +12237,21 @@
       <c r="G7" s="192"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="209"/>
-      <c r="B8" s="197" t="s">
+      <c r="A8" s="208"/>
+      <c r="B8" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="198" t="str">
+      <c r="C8" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00240#0005</v>
-      </c>
-      <c r="D8" s="198" t="str">
-        <f>UPPER(Currency)&amp;B8&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00224#0000</v>
+      </c>
+      <c r="D8" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHF2MD_Quote</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00253#0007</v>
+        <v>obj_00230#0000</v>
       </c>
       <c r="F8" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12259,21 +12260,21 @@
       <c r="G8" s="192"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="209"/>
-      <c r="B9" s="197" t="s">
+      <c r="A9" s="208"/>
+      <c r="B9" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="198" t="str">
+      <c r="C9" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00234#0005</v>
-      </c>
-      <c r="D9" s="198" t="str">
-        <f>UPPER(Currency)&amp;B9&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00223#0000</v>
+      </c>
+      <c r="D9" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHF3MD_Quote</v>
       </c>
-      <c r="E9" s="198" t="str">
+      <c r="E9" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0024e#0007</v>
+        <v>obj_00231#0000</v>
       </c>
       <c r="F9" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12282,21 +12283,21 @@
       <c r="G9" s="192"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="209"/>
-      <c r="B10" s="197" t="s">
+      <c r="A10" s="208"/>
+      <c r="B10" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="198" t="str">
+      <c r="C10" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00235#0005</v>
-      </c>
-      <c r="D10" s="198" t="str">
-        <f>UPPER(Currency)&amp;B10&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_00221#0000</v>
+      </c>
+      <c r="D10" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHF6MD_Quote</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0024f#0007</v>
+        <v>obj_0022a#0000</v>
       </c>
       <c r="F10" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12305,21 +12306,21 @@
       <c r="G10" s="192"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="209"/>
-      <c r="B11" s="197" t="s">
+      <c r="A11" s="208"/>
+      <c r="B11" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="198" t="str">
+      <c r="C11" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00241#0005</v>
-      </c>
-      <c r="D11" s="198" t="str">
-        <f>UPPER(Currency)&amp;B11&amp;"D"&amp;QuoteSuffix</f>
+        <v>obj_0021f#0000</v>
+      </c>
+      <c r="D11" s="197" t="str">
+        <f t="shared" si="0"/>
         <v>CHF1YD_Quote</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0024c#0007</v>
+        <v>obj_0022d#0000</v>
       </c>
       <c r="F11" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -12328,7 +12329,7 @@
       <c r="G11" s="192"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="193"/>
       <c r="C12" s="193"/>
       <c r="D12" s="193"/>
@@ -12403,10 +12404,7 @@
       <c r="G2" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="121" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H44,SerializationPath&amp;H1,FileOverwrite,Serialize),"---")</f>
-        <v>---</v>
-      </c>
+      <c r="H2" s="121"/>
       <c r="I2" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(H2)</f>
         <v/>
@@ -12439,7 +12437,7 @@
       </c>
       <c r="H3" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00261#0000</v>
+        <v>obj_00238#0000</v>
       </c>
       <c r="I3" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -12476,7 +12474,7 @@
       </c>
       <c r="H4" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00256#0000</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -12547,7 +12545,7 @@
       </c>
       <c r="H6" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_00261#0000</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -12581,7 +12579,7 @@
       </c>
       <c r="H7" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00275#0000</v>
+        <v>obj_0027b#0000</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -12615,7 +12613,7 @@
       </c>
       <c r="H8" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00267#0000</v>
+        <v>obj_00239#0000</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -12649,7 +12647,7 @@
       </c>
       <c r="H9" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026e#0000</v>
+        <v>obj_00265#0000</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -12683,7 +12681,7 @@
       </c>
       <c r="H10" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00262#0000</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -12717,7 +12715,7 @@
       </c>
       <c r="H11" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00270#0000</v>
+        <v>obj_00244#0000</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -12751,7 +12749,7 @@
       </c>
       <c r="H12" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00255#0000</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -12785,7 +12783,7 @@
       </c>
       <c r="H13" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00273#0000</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -12819,7 +12817,7 @@
       </c>
       <c r="H14" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00258#0000</v>
+        <v>obj_00279#0000</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -12853,7 +12851,7 @@
       </c>
       <c r="H15" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025e#0000</v>
+        <v>obj_00255#0000</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -12887,7 +12885,7 @@
       </c>
       <c r="H16" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00257#0000</v>
+        <v>obj_00259#0000</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -12921,7 +12919,7 @@
       </c>
       <c r="H17" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00271#0000</v>
+        <v>obj_00268#0000</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -12955,7 +12953,7 @@
       </c>
       <c r="H18" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026a#0000</v>
+        <v>obj_0026c#0000</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -12989,7 +12987,7 @@
       </c>
       <c r="H19" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00259#0000</v>
+        <v>obj_00264#0000</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -13023,7 +13021,7 @@
       </c>
       <c r="H20" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025a#0000</v>
+        <v>obj_00237#0000</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -13057,7 +13055,7 @@
       </c>
       <c r="H21" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00268#0000</v>
+        <v>obj_00243#0000</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -13091,7 +13089,7 @@
       </c>
       <c r="H22" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00278#0000</v>
+        <v>obj_00245#0000</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -13125,7 +13123,7 @@
       </c>
       <c r="H23" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00265#0000</v>
+        <v>obj_0025a#0000</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -13159,7 +13157,7 @@
       </c>
       <c r="H24" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026d#0000</v>
+        <v>obj_00260#0000</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -13193,7 +13191,7 @@
       </c>
       <c r="H25" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026b#0000</v>
+        <v>obj_00271#0000</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -13227,7 +13225,7 @@
       </c>
       <c r="H26" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026c#0000</v>
+        <v>obj_00275#0000</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -13261,7 +13259,7 @@
       </c>
       <c r="H27" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00276#0000</v>
+        <v>obj_0027f#0000</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -13295,7 +13293,7 @@
       </c>
       <c r="H28" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00274#0000</v>
+        <v>obj_0025b#0000</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -13329,7 +13327,7 @@
       </c>
       <c r="H29" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025d#0000</v>
+        <v>obj_0026b#0000</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -13363,7 +13361,7 @@
       </c>
       <c r="H30" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00264#0000</v>
+        <v>obj_00270#0000</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -13397,7 +13395,7 @@
       </c>
       <c r="H31" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00277#0000</v>
+        <v>obj_0023b#0000</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -13431,7 +13429,7 @@
       </c>
       <c r="H32" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00260#0000</v>
+        <v>obj_00280#0000</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -13465,7 +13463,7 @@
       </c>
       <c r="H33" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025c#0000</v>
+        <v>obj_0024a#0000</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -13499,7 +13497,7 @@
       </c>
       <c r="H34" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00263#0000</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -13533,7 +13531,7 @@
       </c>
       <c r="H35" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00240#0000</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -13567,7 +13565,7 @@
       </c>
       <c r="H36" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00269#0000</v>
+        <v>obj_0024b#0000</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -13601,7 +13599,7 @@
       </c>
       <c r="H37" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_0026d#0000</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -13635,7 +13633,7 @@
       </c>
       <c r="H38" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026f#0000</v>
+        <v>obj_0023a#0000</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -13669,7 +13667,7 @@
       </c>
       <c r="H39" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_00276#0000</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -13703,7 +13701,7 @@
       </c>
       <c r="H40" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00279#0000</v>
+        <v>obj_0024c#0000</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -13736,7 +13734,7 @@
       </c>
       <c r="H41" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00266#0000</v>
+        <v>obj_0027a#0000</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -13769,7 +13767,7 @@
       </c>
       <c r="H42" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00272#0000</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -13802,7 +13800,7 @@
       </c>
       <c r="H43" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_00266#0000</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -13835,7 +13833,7 @@
       </c>
       <c r="H44" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025b#0000</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -13867,9 +13865,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13905,7 +13901,7 @@
         <v>6M</v>
       </c>
       <c r="I1" s="185"/>
-      <c r="J1" s="201"/>
+      <c r="J1" s="198"/>
       <c r="K1" s="184"/>
       <c r="L1" s="184"/>
       <c r="M1" s="186"/>
@@ -13933,10 +13929,7 @@
       <c r="J2" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="121" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K42,SerializationPath&amp;J1,FileOverwrite,Serialize),"---")</f>
-        <v>---</v>
-      </c>
+      <c r="K2" s="121"/>
       <c r="L2" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K2)</f>
         <v/>
@@ -13956,7 +13949,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="139" t="str">
         <f>_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021e#0001</v>
+        <v>obj_00228#0000</v>
       </c>
       <c r="L3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -14020,7 +14013,7 @@
       </c>
       <c r="K5" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cb#0000</v>
+        <v>obj_00229#0000</v>
       </c>
       <c r="L5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -14066,7 +14059,7 @@
       </c>
       <c r="K6" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0001</v>
+        <v>obj_0026f#0000</v>
       </c>
       <c r="L6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14110,7 +14103,7 @@
       </c>
       <c r="K7" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00249#0001</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="L7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14154,7 +14147,7 @@
       </c>
       <c r="K8" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00246#0001</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="L8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14198,7 +14191,7 @@
       </c>
       <c r="K9" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00242#0001</v>
+        <v>obj_0025d#0000</v>
       </c>
       <c r="L9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14242,7 +14235,7 @@
       </c>
       <c r="K10" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0001</v>
+        <v>obj_00232#0000</v>
       </c>
       <c r="L10" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14286,7 +14279,7 @@
       </c>
       <c r="K11" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00244#0001</v>
+        <v>obj_00274#0000</v>
       </c>
       <c r="L11" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14330,7 +14323,7 @@
       </c>
       <c r="K12" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022c#0001</v>
+        <v>obj_00277#0000</v>
       </c>
       <c r="L12" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -14374,7 +14367,7 @@
       </c>
       <c r="K13" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00247#0001</v>
+        <v>obj_0025e#0000</v>
       </c>
       <c r="L13" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -14417,7 +14410,7 @@
       </c>
       <c r="K14" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022f#0001</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="L14" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -14460,7 +14453,7 @@
       </c>
       <c r="K15" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022e#0001</v>
+        <v>obj_00262#0000</v>
       </c>
       <c r="L15" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -14503,7 +14496,7 @@
       </c>
       <c r="K16" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0001</v>
+        <v>obj_0024d#0000</v>
       </c>
       <c r="L16" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -14546,7 +14539,7 @@
       </c>
       <c r="K17" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00226#0001</v>
+        <v>obj_00263#0000</v>
       </c>
       <c r="L17" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -14589,7 +14582,7 @@
       </c>
       <c r="K18" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00237#0001</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="L18" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -14632,7 +14625,7 @@
       </c>
       <c r="K19" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023f#0001</v>
+        <v>obj_0027c#0000</v>
       </c>
       <c r="L19" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -14675,7 +14668,7 @@
       </c>
       <c r="K20" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00243#0001</v>
+        <v>obj_00273#0000</v>
       </c>
       <c r="L20" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -14718,7 +14711,7 @@
       </c>
       <c r="K21" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0001</v>
+        <v>obj_00267#0000</v>
       </c>
       <c r="L21" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -14761,7 +14754,7 @@
       </c>
       <c r="K22" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00223#0001</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="L22" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -14804,7 +14797,7 @@
       </c>
       <c r="K23" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0001</v>
+        <v>obj_00257#0000</v>
       </c>
       <c r="L23" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -14847,7 +14840,7 @@
       </c>
       <c r="K24" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00224#0001</v>
+        <v>obj_00252#0000</v>
       </c>
       <c r="L24" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -14890,7 +14883,7 @@
       </c>
       <c r="K25" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00248#0001</v>
+        <v>obj_00272#0000</v>
       </c>
       <c r="L25" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -14933,7 +14926,7 @@
       </c>
       <c r="K26" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00233#0001</v>
+        <v>obj_00269#0000</v>
       </c>
       <c r="L26" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -14976,7 +14969,7 @@
       </c>
       <c r="K27" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00238#0001</v>
+        <v>obj_0023d#0000</v>
       </c>
       <c r="L27" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15019,7 +15012,7 @@
       </c>
       <c r="K28" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023b#0001</v>
+        <v>obj_00233#0000</v>
       </c>
       <c r="L28" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15062,7 +15055,7 @@
       </c>
       <c r="K29" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00225#0001</v>
+        <v>obj_0026a#0000</v>
       </c>
       <c r="L29" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15105,7 +15098,7 @@
       </c>
       <c r="K30" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023e#0001</v>
+        <v>obj_0023e#0000</v>
       </c>
       <c r="L30" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15148,7 +15141,7 @@
       </c>
       <c r="K31" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00239#0001</v>
+        <v>obj_0027d#0000</v>
       </c>
       <c r="L31" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15191,7 +15184,7 @@
       </c>
       <c r="K32" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00220#0001</v>
+        <v>obj_0027e#0000</v>
       </c>
       <c r="L32" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15234,7 +15227,7 @@
       </c>
       <c r="K33" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023a#0001</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="L33" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15277,7 +15270,7 @@
       </c>
       <c r="K34" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00245#0001</v>
+        <v>obj_0025c#0000</v>
       </c>
       <c r="L34" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -15320,7 +15313,7 @@
       </c>
       <c r="K35" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024a#0001</v>
+        <v>obj_00246#0000</v>
       </c>
       <c r="L35" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -15363,7 +15356,7 @@
       </c>
       <c r="K36" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021f#0001</v>
+        <v>obj_00236#0000</v>
       </c>
       <c r="L36" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -15406,7 +15399,7 @@
       </c>
       <c r="K37" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00222#0001</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="L37" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -15449,7 +15442,7 @@
       </c>
       <c r="K38" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00236#0001</v>
+        <v>obj_0023f#0000</v>
       </c>
       <c r="L38" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -15492,7 +15485,7 @@
       </c>
       <c r="K39" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0001</v>
+        <v>obj_00234#0000</v>
       </c>
       <c r="L39" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -15535,7 +15528,7 @@
       </c>
       <c r="K40" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024b#0001</v>
+        <v>obj_00278#0000</v>
       </c>
       <c r="L40" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -15578,7 +15571,7 @@
       </c>
       <c r="K41" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022d#0001</v>
+        <v>obj_00235#0000</v>
       </c>
       <c r="L41" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -15621,7 +15614,7 @@
       </c>
       <c r="K42" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$3,$I42,B42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023d#0001</v>
+        <v>obj_0026e#0000</v>
       </c>
       <c r="L42" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
@@ -1720,15 +1720,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2118,7 +2118,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Apr 22 2015 09:39:09</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2483,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="24">
-        <v>42129.441504629627</v>
+        <v>42130.460162037038</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2983,11 +2983,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42129</v>
+        <v>42130</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>7.3128173294271844E-3</v>
+        <v>0.83739855629855786</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3029,11 +3029,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>60394</v>
+        <v>60395</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-8.5126059349452648E-3</v>
+        <v>-8.2542728599243123E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4586,7 +4586,7 @@
       <c r="B2" s="156"/>
       <c r="C2" s="156" t="str">
         <f>Deposits!E3</f>
-        <v>obj_0022f#0000</v>
+        <v>obj_00233#0000</v>
       </c>
       <c r="D2" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4608,11 +4608,11 @@
       </c>
       <c r="J2" s="159">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>42129</v>
+        <v>42130</v>
       </c>
       <c r="K2" s="160">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="L2" s="57"/>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="B3" s="107"/>
       <c r="C3" s="107" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00222#0000</v>
+        <v>obj_0022c#0000</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4643,11 +4643,11 @@
       </c>
       <c r="J3" s="109">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="K3" s="110">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="L3" s="57"/>
     </row>
@@ -4656,7 +4656,7 @@
       <c r="B4" s="107"/>
       <c r="C4" s="107" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0022e#0000</v>
+        <v>obj_0023a#0000</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="E4" s="108">
         <f>_xll.qlRateHelperQuoteValue($C4,Trigger)</f>
-        <v>-7.7000000000000002E-3</v>
+        <v>-7.6500000000000005E-3</v>
       </c>
       <c r="F4" s="108"/>
       <c r="G4" s="58" t="b">
@@ -4678,11 +4678,11 @@
       </c>
       <c r="J4" s="109">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K4" s="110">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
       <c r="B5" s="107"/>
       <c r="C5" s="107" t="str">
         <f>Deposits!E6</f>
-        <v>obj_0022c#0000</v>
+        <v>obj_00236#0000</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="E5" s="108">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>-8.1000000000000013E-3</v>
+        <v>-8.0800000000000004E-3</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="58" t="b">
@@ -4712,11 +4712,11 @@
       </c>
       <c r="J5" s="109">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K5" s="110">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>42138</v>
+        <v>42139</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
       <c r="B6" s="107"/>
       <c r="C6" s="107" t="str">
         <f>Deposits!E7</f>
-        <v>obj_0022b#0000</v>
+        <v>obj_00234#0000</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="J6" s="109">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K6" s="110">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
@@ -4758,7 +4758,7 @@
       <c r="B7" s="107"/>
       <c r="C7" s="107" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00230#0000</v>
+        <v>obj_00235#0000</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="E7" s="108">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>-8.1200000000000005E-3</v>
+        <v>-8.09E-3</v>
       </c>
       <c r="F7" s="108"/>
       <c r="G7" s="58" t="b">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="J7" s="109">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K7" s="110">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>42192</v>
+        <v>42193</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
       <c r="B8" s="107"/>
       <c r="C8" s="107" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00231#0000</v>
+        <v>obj_00237#0000</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="E8" s="108">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>-7.9500000000000005E-3</v>
+        <v>-7.9299999999999995E-3</v>
       </c>
       <c r="F8" s="108"/>
       <c r="G8" s="58" t="b">
@@ -4814,11 +4814,11 @@
       </c>
       <c r="J8" s="109">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K8" s="110">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>42223</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4826,7 +4826,7 @@
       <c r="B9" s="107"/>
       <c r="C9" s="107" t="str">
         <f>Deposits!E10</f>
-        <v>obj_0022a#0000</v>
+        <v>obj_00238#0000</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="E9" s="108">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>-7.1159999999999999E-3</v>
+        <v>-7.0759999999999998E-3</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="58" t="b">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="J9" s="109">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K9" s="110">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
@@ -4860,7 +4860,7 @@
       <c r="B10" s="111"/>
       <c r="C10" s="111" t="str">
         <f>Deposits!E11</f>
-        <v>obj_0022d#0000</v>
+        <v>obj_00239#0000</v>
       </c>
       <c r="D10" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="E10" s="112">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
-        <v>-5.8760000000000001E-3</v>
+        <v>-5.8960000000000002E-3</v>
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="113" t="b">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="J10" s="114">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K10" s="115">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="C11" s="107" t="str">
         <f>Futures!H3</f>
-        <v>obj_00238#0000</v>
+        <v>obj_0023b#0000</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C12" s="107" t="str">
         <f>Futures!H4</f>
-        <v>obj_0024f#0000</v>
+        <v>obj_00269#0000</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="E12" s="116">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>100.83500000000001</v>
+        <v>0</v>
       </c>
       <c r="F12" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C12,Trigger)</f>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="C13" s="107" t="str">
         <f>Futures!H5</f>
-        <v>obj_0025f#0000</v>
+        <v>obj_0026a#0000</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C14" s="107" t="str">
         <f>Futures!H6</f>
-        <v>obj_00261#0000</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C15" s="107" t="str">
         <f>Futures!H7</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_00287#0000</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="E15" s="116">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>100.855</v>
+        <v>0</v>
       </c>
       <c r="F15" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C15,Trigger)</f>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C16" s="107" t="str">
         <f>Futures!H8</f>
-        <v>obj_00239#0000</v>
+        <v>obj_00243#0000</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C17" s="107" t="str">
         <f>Futures!H9</f>
-        <v>obj_00265#0000</v>
+        <v>obj_00260#0000</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C18" s="107" t="str">
         <f>Futures!H10</f>
-        <v>obj_00242#0000</v>
+        <v>obj_0026d#0000</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E18" s="116">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>100.83500000000001</v>
+        <v>0</v>
       </c>
       <c r="F18" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C18,Trigger)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="C19" s="107" t="str">
         <f>Futures!H11</f>
-        <v>obj_00244#0000</v>
+        <v>obj_00259#0000</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="C20" s="107" t="str">
         <f>Futures!H12</f>
-        <v>obj_00249#0000</v>
+        <v>obj_00245#0000</v>
       </c>
       <c r="D20" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!H13</f>
-        <v>obj_00256#0000</v>
+        <v>obj_00289#0000</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="E21" s="116">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>100.785</v>
+        <v>0</v>
       </c>
       <c r="F21" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!H14</f>
-        <v>obj_00279#0000</v>
+        <v>obj_0027e#0000</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!H15</f>
-        <v>obj_00255#0000</v>
+        <v>obj_0025f#0000</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="E23" s="116">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>100.72499999999999</v>
+        <v>0</v>
       </c>
       <c r="F23" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!H16</f>
-        <v>obj_00259#0000</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="E24" s="116">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>100.66499999999999</v>
+        <v>0</v>
       </c>
       <c r="F24" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!H17</f>
-        <v>obj_00268#0000</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="E25" s="116">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>100.61000000000001</v>
+        <v>0</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!H18</f>
-        <v>obj_0026c#0000</v>
+        <v>obj_0027d#0000</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="E26" s="116">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>100.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="F26" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!H19</f>
-        <v>obj_00264#0000</v>
+        <v>obj_00278#0000</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="E27" s="116">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
-        <v>100.48</v>
+        <v>0</v>
       </c>
       <c r="F27" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger)</f>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!H20</f>
-        <v>obj_00237#0000</v>
+        <v>obj_00283#0000</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="E28" s="116">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>100.41</v>
+        <v>0</v>
       </c>
       <c r="F28" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!H21</f>
-        <v>obj_00243#0000</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="E29" s="116">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>100.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="F29" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!H22</f>
-        <v>obj_00245#0000</v>
+        <v>obj_0025e#0000</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="E30" s="116">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
-        <v>100.24000000000001</v>
+        <v>0</v>
       </c>
       <c r="F30" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger)</f>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!H23</f>
-        <v>obj_0025a#0000</v>
+        <v>obj_0026e#0000</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="E31" s="116">
         <f>_xll.qlRateHelperQuoteValue($C31,Trigger)</f>
-        <v>100.14000000000001</v>
+        <v>0</v>
       </c>
       <c r="F31" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger)</f>
@@ -5760,19 +5760,19 @@
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!H24</f>
-        <v>obj_00260#0000</v>
+        <v>obj_00240#0000</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
         <v>CHFFUT3MU8_Quote</v>
       </c>
-      <c r="E32" s="116" t="e">
+      <c r="E32" s="116">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F32" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F32" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G32" s="58" t="b">
         <v>1</v>
@@ -5801,19 +5801,19 @@
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!H25</f>
-        <v>obj_00271#0000</v>
+        <v>obj_00257#0000</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
         <v>CHFFUT3MZ8_Quote</v>
       </c>
-      <c r="E33" s="116" t="e">
+      <c r="E33" s="116">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F33" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F33" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G33" s="58" t="b">
         <v>1</v>
@@ -5842,19 +5842,19 @@
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!H26</f>
-        <v>obj_00275#0000</v>
+        <v>obj_0024a#0000</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
         <v>CHFFUT3MH9_Quote</v>
       </c>
-      <c r="E34" s="116" t="e">
+      <c r="E34" s="116">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F34" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F34" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G34" s="58" t="b">
         <v>1</v>
@@ -5883,19 +5883,19 @@
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!H27</f>
-        <v>obj_0027f#0000</v>
+        <v>obj_00279#0000</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
         <v>CHFFUT3MM9_Quote</v>
       </c>
-      <c r="E35" s="116" t="e">
+      <c r="E35" s="116">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F35" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F35" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G35" s="58" t="b">
         <v>1</v>
@@ -5924,19 +5924,19 @@
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!H28</f>
-        <v>obj_0025b#0000</v>
+        <v>obj_00273#0000</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
         <v>CHFFUT3MU9_Quote</v>
       </c>
-      <c r="E36" s="116" t="e">
+      <c r="E36" s="116">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F36" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F36" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G36" s="58" t="b">
         <v>1</v>
@@ -5965,19 +5965,19 @@
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!H29</f>
-        <v>obj_0026b#0000</v>
+        <v>obj_0025c#0000</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
         <v>CHFFUT3MZ9_Quote</v>
       </c>
-      <c r="E37" s="116" t="e">
+      <c r="E37" s="116">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F37" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F37" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G37" s="58" t="b">
         <v>1</v>
@@ -6006,19 +6006,19 @@
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!H30</f>
-        <v>obj_00270#0000</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
         <v>CHFFUT3MH0_Quote</v>
       </c>
-      <c r="E38" s="116" t="e">
+      <c r="E38" s="116">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F38" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F38" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G38" s="58" t="b">
         <v>1</v>
@@ -6047,19 +6047,19 @@
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!H31</f>
-        <v>obj_0023b#0000</v>
+        <v>obj_00271#0000</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
         <v>CHFFUT3MM0_Quote</v>
       </c>
-      <c r="E39" s="116" t="e">
+      <c r="E39" s="116">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F39" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F39" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G39" s="58" t="b">
         <v>1</v>
@@ -6088,19 +6088,19 @@
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!H32</f>
-        <v>obj_00280#0000</v>
+        <v>obj_00262#0000</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
         <v>CHFFUT3MU0_Quote</v>
       </c>
-      <c r="E40" s="116" t="e">
+      <c r="E40" s="116">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F40" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F40" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G40" s="58" t="b">
         <v>1</v>
@@ -6129,19 +6129,19 @@
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!H33</f>
-        <v>obj_0024a#0000</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
         <v>CHFFUT3MZ0_Quote</v>
       </c>
-      <c r="E41" s="116" t="e">
+      <c r="E41" s="116">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F41" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F41" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G41" s="58" t="b">
         <v>1</v>
@@ -6170,19 +6170,19 @@
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!H34</f>
-        <v>obj_00250#0000</v>
+        <v>obj_0023e#0000</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
         <v>CHFFUT3MH1_Quote</v>
       </c>
-      <c r="E42" s="116" t="e">
+      <c r="E42" s="116">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F42" s="108" t="e">
+        <v>0</v>
+      </c>
+      <c r="F42" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="G42" s="58" t="b">
         <v>1</v>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!H35</f>
-        <v>obj_00240#0000</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!H36</f>
-        <v>obj_0024b#0000</v>
+        <v>obj_00272#0000</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!H37</f>
-        <v>obj_0026d#0000</v>
+        <v>obj_00266#0000</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!H38</f>
-        <v>obj_0023a#0000</v>
+        <v>obj_0024d#0000</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!H39</f>
-        <v>obj_00276#0000</v>
+        <v>obj_00270#0000</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!H40</f>
-        <v>obj_0024c#0000</v>
+        <v>obj_0025a#0000</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!H41</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_00267#0000</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!H42</f>
-        <v>obj_00251#0000</v>
+        <v>obj_00246#0000</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C51" s="107" t="str">
         <f>Futures!H43</f>
-        <v>obj_00266#0000</v>
+        <v>obj_00281#0000</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="C52" s="111" t="str">
         <f>Futures!H44</f>
-        <v>obj_00241#0000</v>
+        <v>obj_00244#0000</v>
       </c>
       <c r="D52" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6618,7 +6618,7 @@
       <c r="B53" s="156"/>
       <c r="C53" s="156" t="str">
         <f>Swaps!K5</f>
-        <v>obj_00229#0000</v>
+        <v>obj_00232#0000</v>
       </c>
       <c r="D53" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="J53" s="159">
         <f>_xll.qlRateHelperEarliestDate($C53,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K53" s="160">
         <f>_xll.qlRateHelperLatestDate($C53,Trigger)</f>
@@ -6656,7 +6656,7 @@
       <c r="B54" s="107"/>
       <c r="C54" s="107" t="str">
         <f>Swaps!K6</f>
-        <v>obj_0026f#0000</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E54" s="108">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>-7.2750000000000002E-3</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="F54" s="108">
         <f>_xll.qlSwapRateHelperSpread($C54,Trigger)</f>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="J54" s="109">
         <f>_xll.qlRateHelperEarliestDate($C54,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K54" s="110">
         <f>_xll.qlRateHelperLatestDate($C54,Trigger)</f>
@@ -6694,7 +6694,7 @@
       <c r="B55" s="107"/>
       <c r="C55" s="107" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00247#0000</v>
+        <v>obj_00284#0000</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="J55" s="109">
         <f>_xll.qlRateHelperEarliestDate($C55,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K55" s="110">
         <f>_xll.qlRateHelperLatestDate($C55,Trigger)</f>
@@ -6732,7 +6732,7 @@
       <c r="B56" s="107"/>
       <c r="C56" s="107" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00253#0000</v>
+        <v>obj_00255#0000</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6757,11 +6757,11 @@
       </c>
       <c r="J56" s="109">
         <f>_xll.qlRateHelperEarliestDate($C56,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K56" s="110">
         <f>_xll.qlRateHelperLatestDate($C56,Trigger)</f>
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="M56" s="119"/>
     </row>
@@ -6770,7 +6770,7 @@
       <c r="B57" s="107"/>
       <c r="C57" s="107" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0025d#0000</v>
+        <v>obj_0027c#0000</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6795,11 +6795,11 @@
       </c>
       <c r="J57" s="109">
         <f>_xll.qlRateHelperEarliestDate($C57,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K57" s="110">
         <f>_xll.qlRateHelperLatestDate($C57,Trigger)</f>
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="M57" s="119"/>
     </row>
@@ -6808,7 +6808,7 @@
       <c r="B58" s="107"/>
       <c r="C58" s="107" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00232#0000</v>
+        <v>obj_0024c#0000</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="E58" s="108">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>-6.5750000000000001E-3</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="F58" s="108">
         <f>_xll.qlSwapRateHelperSpread($C58,Trigger)</f>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J58" s="109">
         <f>_xll.qlRateHelperEarliestDate($C58,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K58" s="110">
         <f>_xll.qlRateHelperLatestDate($C58,Trigger)</f>
@@ -6848,7 +6848,7 @@
       <c r="B59" s="107"/>
       <c r="C59" s="107" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00274#0000</v>
+        <v>obj_0026c#0000</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E59" s="108">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>-5.4000000000000003E-3</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="F59" s="108">
         <f>_xll.qlSwapRateHelperSpread($C59,Trigger)</f>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="J59" s="109">
         <f>_xll.qlRateHelperEarliestDate($C59,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K59" s="110">
         <f>_xll.qlRateHelperLatestDate($C59,Trigger)</f>
@@ -6888,7 +6888,7 @@
       <c r="B60" s="107"/>
       <c r="C60" s="107" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00277#0000</v>
+        <v>obj_00275#0000</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="E60" s="108">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.7499999999999999E-3</v>
       </c>
       <c r="F60" s="108">
         <f>_xll.qlSwapRateHelperSpread($C60,Trigger)</f>
@@ -6914,11 +6914,11 @@
       </c>
       <c r="J60" s="109">
         <f>_xll.qlRateHelperEarliestDate($C60,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K60" s="110">
         <f>_xll.qlRateHelperLatestDate($C60,Trigger)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="M60" s="119"/>
       <c r="O60" s="162"/>
@@ -6928,7 +6928,7 @@
       <c r="B61" s="107"/>
       <c r="C61" s="107" t="str">
         <f>Swaps!K13</f>
-        <v>obj_0025e#0000</v>
+        <v>obj_00265#0000</v>
       </c>
       <c r="D61" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="E61" s="108">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>-2.5500000000000002E-3</v>
+        <v>-2.2750000000000001E-3</v>
       </c>
       <c r="F61" s="108">
         <f>_xll.qlSwapRateHelperSpread($C61,Trigger)</f>
@@ -6954,11 +6954,11 @@
       </c>
       <c r="J61" s="109">
         <f>_xll.qlRateHelperEarliestDate($C61,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K61" s="110">
         <f>_xll.qlRateHelperLatestDate($C61,Trigger)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="M61" s="119"/>
       <c r="O61" s="162"/>
@@ -6968,7 +6968,7 @@
       <c r="B62" s="107"/>
       <c r="C62" s="107" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00277#0000</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E62" s="108">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>-1.1999999999999999E-3</v>
+        <v>-8.7499999999999991E-4</v>
       </c>
       <c r="F62" s="108">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -6994,11 +6994,11 @@
       </c>
       <c r="J62" s="109">
         <f>_xll.qlRateHelperEarliestDate($C62,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K62" s="110">
         <f>_xll.qlRateHelperLatestDate($C62,Trigger)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="M62" s="119"/>
       <c r="O62" s="162"/>
@@ -7008,7 +7008,7 @@
       <c r="B63" s="107"/>
       <c r="C63" s="107" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00262#0000</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E63" s="108">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>-2.5000000000000022E-5</v>
+        <v>3.4999999999999994E-4</v>
       </c>
       <c r="F63" s="108">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="J63" s="109">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K63" s="110">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
@@ -7048,7 +7048,7 @@
       <c r="B64" s="107"/>
       <c r="C64" s="107" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0024d#0000</v>
+        <v>obj_0027b#0000</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="E64" s="108">
         <f>_xll.qlRateHelperQuoteValue($C64,Trigger)</f>
-        <v>1E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F64" s="108">
         <f>_xll.qlSwapRateHelperSpread($C64,Trigger)</f>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="J64" s="109">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K64" s="110">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
@@ -7088,7 +7088,7 @@
       <c r="B65" s="107"/>
       <c r="C65" s="107" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00263#0000</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="E65" s="108">
         <f>_xll.qlRateHelperQuoteValue($C65,Trigger)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.2750000000000001E-3</v>
       </c>
       <c r="F65" s="108">
         <f>_xll.qlSwapRateHelperSpread($C65,Trigger)</f>
@@ -7114,11 +7114,11 @@
       </c>
       <c r="J65" s="109">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K65" s="110">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="M65" s="119"/>
       <c r="O65" s="162"/>
@@ -7128,7 +7128,7 @@
       <c r="B66" s="107"/>
       <c r="C66" s="107" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00248#0000</v>
+        <v>obj_0023d#0000</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>2.5250000000000008E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -7154,11 +7154,11 @@
       </c>
       <c r="J66" s="109">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K66" s="110">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="M66" s="119"/>
       <c r="O66" s="162"/>
@@ -7168,7 +7168,7 @@
       <c r="B67" s="107"/>
       <c r="C67" s="107" t="str">
         <f>Swaps!K19</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="E67" s="108">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>3.1000000000000003E-3</v>
+        <v>3.5750000000000005E-3</v>
       </c>
       <c r="F67" s="108">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7194,11 +7194,11 @@
       </c>
       <c r="J67" s="109">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K67" s="110">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="M67" s="119"/>
       <c r="O67" s="162"/>
@@ -7208,7 +7208,7 @@
       <c r="B68" s="107"/>
       <c r="C68" s="107" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00273#0000</v>
+        <v>obj_00282#0000</v>
       </c>
       <c r="D68" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="E68" s="108">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>3.5999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="F68" s="108">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7234,11 +7234,11 @@
       </c>
       <c r="J68" s="109">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K68" s="110">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>46514</v>
+        <v>46517</v>
       </c>
       <c r="M68" s="119"/>
       <c r="O68" s="162"/>
@@ -7248,7 +7248,7 @@
       <c r="B69" s="107"/>
       <c r="C69" s="107" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00267#0000</v>
+        <v>obj_0026b#0000</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="J69" s="109">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K69" s="110">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
@@ -7288,7 +7288,7 @@
       <c r="B70" s="107"/>
       <c r="C70" s="107" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00258#0000</v>
+        <v>obj_0023f#0000</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="J70" s="109">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K70" s="110">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
@@ -7328,7 +7328,7 @@
       <c r="B71" s="107"/>
       <c r="C71" s="107" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00257#0000</v>
+        <v>obj_00285#0000</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E71" s="108">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F71" s="108">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7354,11 +7354,11 @@
       </c>
       <c r="J71" s="109">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K71" s="110">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>47610</v>
+        <v>47611</v>
       </c>
       <c r="M71" s="119"/>
       <c r="O71" s="162"/>
@@ -7368,7 +7368,7 @@
       <c r="B72" s="107"/>
       <c r="C72" s="107" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00252#0000</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7394,11 +7394,11 @@
       </c>
       <c r="J72" s="109">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K72" s="110">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>47975</v>
+        <v>47976</v>
       </c>
       <c r="M72" s="119"/>
       <c r="O72" s="162"/>
@@ -7408,7 +7408,7 @@
       <c r="B73" s="107"/>
       <c r="C73" s="107" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00272#0000</v>
+        <v>obj_00261#0000</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7434,11 +7434,11 @@
       </c>
       <c r="J73" s="109">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K73" s="110">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>48341</v>
+        <v>48344</v>
       </c>
       <c r="M73" s="119"/>
       <c r="O73" s="162"/>
@@ -7448,7 +7448,7 @@
       <c r="B74" s="107"/>
       <c r="C74" s="107" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00269#0000</v>
+        <v>obj_0026f#0000</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="J74" s="109">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K74" s="110">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
@@ -7488,7 +7488,7 @@
       <c r="B75" s="107"/>
       <c r="C75" s="107" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0023d#0000</v>
+        <v>obj_00288#0000</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="J75" s="109">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K75" s="110">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
@@ -7528,7 +7528,7 @@
       <c r="B76" s="107"/>
       <c r="C76" s="107" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00233#0000</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="E76" s="108">
         <f>_xll.qlRateHelperQuoteValue($C76,Trigger)</f>
-        <v>5.9750000000000003E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="F76" s="108">
         <f>_xll.qlSwapRateHelperSpread($C76,Trigger)</f>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="J76" s="109">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K76" s="110">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
@@ -7568,7 +7568,7 @@
       <c r="B77" s="107"/>
       <c r="C77" s="107" t="str">
         <f>Swaps!K29</f>
-        <v>obj_0026a#0000</v>
+        <v>obj_00274#0000</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7594,11 +7594,11 @@
       </c>
       <c r="J77" s="109">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K77" s="110">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>49802</v>
+        <v>49803</v>
       </c>
       <c r="M77" s="119"/>
       <c r="O77" s="162"/>
@@ -7608,7 +7608,7 @@
       <c r="B78" s="107"/>
       <c r="C78" s="107" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0023e#0000</v>
+        <v>obj_0027f#0000</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7634,11 +7634,11 @@
       </c>
       <c r="J78" s="109">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K78" s="110">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>50167</v>
+        <v>50168</v>
       </c>
       <c r="M78" s="119"/>
       <c r="O78" s="162"/>
@@ -7648,7 +7648,7 @@
       <c r="B79" s="107"/>
       <c r="C79" s="107" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_0024b#0000</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7674,11 +7674,11 @@
       </c>
       <c r="J79" s="109">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K79" s="110">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>50532</v>
+        <v>50535</v>
       </c>
       <c r="M79" s="119"/>
       <c r="O79" s="162"/>
@@ -7688,7 +7688,7 @@
       <c r="B80" s="107"/>
       <c r="C80" s="107" t="str">
         <f>Swaps!K32</f>
-        <v>obj_0027e#0000</v>
+        <v>obj_00252#0000</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="J80" s="109">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K80" s="110">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
@@ -7728,7 +7728,7 @@
       <c r="B81" s="107"/>
       <c r="C81" s="107" t="str">
         <f>Swaps!K33</f>
-        <v>obj_0024e#0000</v>
+        <v>obj_00280#0000</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="E81" s="108">
         <f>_xll.qlRateHelperQuoteValue($C81,Trigger)</f>
-        <v>6.6749999999999995E-3</v>
+        <v>7.2250000000000005E-3</v>
       </c>
       <c r="F81" s="108">
         <f>_xll.qlSwapRateHelperSpread($C81,Trigger)</f>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="J81" s="109">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K81" s="110">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
@@ -7768,7 +7768,7 @@
       <c r="B82" s="107"/>
       <c r="C82" s="107" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0025c#0000</v>
+        <v>obj_0025b#0000</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7794,11 +7794,11 @@
       </c>
       <c r="J82" s="109">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K82" s="110">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>51628</v>
+        <v>51629</v>
       </c>
       <c r="M82" s="119"/>
       <c r="O82" s="162"/>
@@ -7808,7 +7808,7 @@
       <c r="B83" s="107"/>
       <c r="C83" s="107" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00246#0000</v>
+        <v>obj_00264#0000</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7834,11 +7834,11 @@
       </c>
       <c r="J83" s="109">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K83" s="110">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>51993</v>
+        <v>51994</v>
       </c>
       <c r="M83" s="119"/>
       <c r="O83" s="162"/>
@@ -7848,7 +7848,7 @@
       <c r="B84" s="107"/>
       <c r="C84" s="107" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00236#0000</v>
+        <v>obj_00263#0000</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7874,11 +7874,11 @@
       </c>
       <c r="J84" s="109">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K84" s="110">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>52358</v>
+        <v>52359</v>
       </c>
       <c r="M84" s="119"/>
       <c r="O84" s="162"/>
@@ -7888,7 +7888,7 @@
       <c r="B85" s="107"/>
       <c r="C85" s="107" t="str">
         <f>Swaps!K37</f>
-        <v>obj_0023c#0000</v>
+        <v>obj_00276#0000</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="J85" s="109">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K85" s="110">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
@@ -7928,7 +7928,7 @@
       <c r="B86" s="107"/>
       <c r="C86" s="107" t="str">
         <f>Swaps!K38</f>
-        <v>obj_0023f#0000</v>
+        <v>obj_00268#0000</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="E86" s="108">
         <f>_xll.qlRateHelperQuoteValue($C86,Trigger)</f>
-        <v>7.0500000000000007E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="F86" s="108">
         <f>_xll.qlSwapRateHelperSpread($C86,Trigger)</f>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="J86" s="109">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K86" s="110">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
@@ -7968,7 +7968,7 @@
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00234#0000</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="E87" s="108">
         <f>_xll.qlRateHelperQuoteValue($C87,Trigger)</f>
-        <v>7.150000000000001E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F87" s="108">
         <f>_xll.qlSwapRateHelperSpread($C87,Trigger)</f>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="J87" s="109">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K87" s="110">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
@@ -8008,7 +8008,7 @@
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="str">
         <f>Swaps!K40</f>
-        <v>obj_00278#0000</v>
+        <v>obj_0025d#0000</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="E88" s="108">
         <f>_xll.qlRateHelperQuoteValue($C88,Trigger)</f>
-        <v>7.0999999999999995E-3</v>
+        <v>7.6500000000000014E-3</v>
       </c>
       <c r="F88" s="108">
         <f>_xll.qlSwapRateHelperSpread($C88,Trigger)</f>
@@ -8034,11 +8034,11 @@
       </c>
       <c r="J88" s="109">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K88" s="110">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>56741</v>
+        <v>56744</v>
       </c>
       <c r="M88" s="119"/>
       <c r="O88" s="162"/>
@@ -8048,7 +8048,7 @@
       <c r="B89" s="107"/>
       <c r="C89" s="107" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00235#0000</v>
+        <v>obj_0027a#0000</v>
       </c>
       <c r="D89" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="E89" s="108">
         <f>_xll.qlRateHelperQuoteValue($C89,Trigger)</f>
-        <v>6.7500000000000008E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="F89" s="108">
         <f>_xll.qlSwapRateHelperSpread($C89,Trigger)</f>
@@ -8074,11 +8074,11 @@
       </c>
       <c r="J89" s="109">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K89" s="110">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>60394</v>
+        <v>60395</v>
       </c>
       <c r="M89" s="119"/>
     </row>
@@ -8087,7 +8087,7 @@
       <c r="B90" s="204"/>
       <c r="C90" s="111" t="str">
         <f>Swaps!K42</f>
-        <v>obj_0026e#0000</v>
+        <v>obj_00286#0000</v>
       </c>
       <c r="D90" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8113,11 +8113,11 @@
       </c>
       <c r="J90" s="114">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K90" s="115">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>64046</v>
+        <v>64047</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8244,7 +8244,7 @@
     <col min="3" max="3" width="2.7109375" style="57" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="77" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="27.5703125" style="77" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.7109375" style="77" customWidth="1"/>
+    <col min="6" max="6" width="10" style="77" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="77" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="57" bestFit="1" customWidth="1"/>
@@ -8261,10 +8261,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="209"/>
       <c r="D1" s="150" t="s">
         <v>51</v>
       </c>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="J1" s="68">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>-7.8070279366364327E-3</v>
+        <v>-7.756497240968694E-3</v>
       </c>
       <c r="O1" s="151"/>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="D2" s="69" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0022e</v>
+        <v>obj_0023a</v>
       </c>
       <c r="E2" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="F2" s="70">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>-7.7000000000000002E-3</v>
+        <v>-7.6500000000000005E-3</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8312,14 +8312,14 @@
       </c>
       <c r="H2" s="78">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I2" s="79">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="J2" s="68">
-        <v>-7.8070279366364327E-3</v>
+        <v>-7.756497240968694E-3</v>
       </c>
       <c r="M2" s="154"/>
       <c r="O2" s="154"/>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="69" t="str">
-        <v>obj_0022c</v>
+        <v>obj_00236</v>
       </c>
       <c r="E3" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="F3" s="70">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>-8.1000000000000013E-3</v>
+        <v>-8.0800000000000004E-3</v>
       </c>
       <c r="G3" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8351,14 +8351,14 @@
       </c>
       <c r="H3" s="78">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I3" s="79">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42138</v>
+        <v>42139</v>
       </c>
       <c r="J3" s="68">
-        <v>-8.1228981654771909E-3</v>
+        <v>-8.0958950357108827E-3</v>
       </c>
       <c r="M3" s="154"/>
       <c r="O3" s="154"/>
@@ -8374,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="69" t="str">
-        <v>obj_0022b</v>
+        <v>obj_00234</v>
       </c>
       <c r="E4" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -8390,14 +8390,14 @@
       </c>
       <c r="H4" s="78">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I4" s="79">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
         <v>42163</v>
       </c>
       <c r="J4" s="68">
-        <v>-8.2582783492624722E-3</v>
+        <v>-8.2542728599243123E-3</v>
       </c>
       <c r="M4" s="154"/>
       <c r="V4" s="119"/>
@@ -8412,7 +8412,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="69" t="str">
-        <v>obj_00230</v>
+        <v>obj_00235</v>
       </c>
       <c r="E5" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="F5" s="70">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>-8.1200000000000005E-3</v>
+        <v>-8.09E-3</v>
       </c>
       <c r="G5" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8428,14 +8428,14 @@
       </c>
       <c r="H5" s="78">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I5" s="79">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42192</v>
+        <v>42193</v>
       </c>
       <c r="J5" s="68">
-        <v>-8.2247508390873737E-3</v>
+        <v>-8.1936551296653889E-3</v>
       </c>
       <c r="M5" s="154"/>
       <c r="V5" s="119"/>
@@ -8451,7 +8451,7 @@
         <v/>
       </c>
       <c r="D6" s="69" t="str">
-        <v>obj_0024f</v>
+        <v>obj_00269</v>
       </c>
       <c r="E6" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="F6" s="70">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>-8.3500000000000796E-3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8474,7 +8474,7 @@
         <v>42264</v>
       </c>
       <c r="J6" s="68">
-        <v>-8.4026680676391793E-3</v>
+        <v>0.61731424240852228</v>
       </c>
       <c r="M6" s="154"/>
       <c r="V6" s="119"/>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="69" t="str">
-        <v>obj_0027b</v>
+        <v>obj_00287</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="F7" s="70">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>-8.5500000000000576E-3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8506,7 +8506,7 @@
         <v>42354</v>
       </c>
       <c r="J7" s="68">
-        <v>-8.5126059349452648E-3</v>
+        <v>0.72852087329427939</v>
       </c>
       <c r="M7" s="154"/>
       <c r="V7" s="119"/>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="str">
-        <v>obj_00242</v>
+        <v>obj_0026d</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="F8" s="70">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>-8.3500000000000796E-3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8538,7 +8538,7 @@
         <v>42445</v>
       </c>
       <c r="J8" s="68">
-        <v>-8.5017531538845812E-3</v>
+        <v>0.77919454938758481</v>
       </c>
       <c r="M8" s="154"/>
       <c r="O8" s="154"/>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="69" t="str">
-        <v>obj_00256</v>
+        <v>obj_00289</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="F9" s="70">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>-7.8499999999999126E-3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8571,7 +8571,7 @@
         <v>42537</v>
       </c>
       <c r="J9" s="68">
-        <v>-8.3811764801293275E-3</v>
+        <v>0.80715554598660133</v>
       </c>
       <c r="M9" s="154"/>
       <c r="O9" s="154"/>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="69" t="str">
-        <v>obj_00255</v>
+        <v>obj_0025f</v>
       </c>
       <c r="E10" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="F10" s="70">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>-7.2499999999999787E-3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8604,7 +8604,7 @@
         <v>42628</v>
       </c>
       <c r="J10" s="68">
-        <v>-8.1935138182113124E-3</v>
+        <v>0.82459394123761198</v>
       </c>
       <c r="M10" s="154"/>
       <c r="O10" s="154"/>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="69" t="str">
-        <v>obj_00259</v>
+        <v>obj_00247</v>
       </c>
       <c r="E11" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="F11" s="70">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>-6.6499999999998227E-3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8637,7 +8637,7 @@
         <v>42725</v>
       </c>
       <c r="J11" s="68">
-        <v>-7.960604332663726E-3</v>
+        <v>0.83739855629855786</v>
       </c>
       <c r="M11" s="154"/>
       <c r="O11" s="154"/>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="69" t="str">
-        <v>obj_00232</v>
+        <v>obj_0024c</v>
       </c>
       <c r="E12" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="F12" s="70">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>-6.5750000000000001E-3</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="G12" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8663,14 +8663,14 @@
       </c>
       <c r="H12" s="78">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I12" s="79">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>42863</v>
       </c>
       <c r="J12" s="68">
-        <v>-6.5973309271152364E-3</v>
+        <v>-4.637037881941114E-3</v>
       </c>
       <c r="M12" s="154"/>
       <c r="O12" s="154"/>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="69" t="str">
-        <v>obj_00274</v>
+        <v>obj_0026c</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="F13" s="70">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>-5.4000000000000003E-3</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="G13" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8696,14 +8696,14 @@
       </c>
       <c r="H13" s="78">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I13" s="79">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>43228</v>
       </c>
       <c r="J13" s="68">
-        <v>-5.4238980940520282E-3</v>
+        <v>-4.2530882791292461E-3</v>
       </c>
       <c r="M13" s="154"/>
       <c r="O13" s="154"/>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="str">
-        <v>obj_00277</v>
+        <v>obj_00275</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="F14" s="70">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.7499999999999999E-3</v>
       </c>
       <c r="G14" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8729,14 +8729,14 @@
       </c>
       <c r="H14" s="78">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I14" s="79">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="J14" s="68">
-        <v>-4.0243562302814733E-3</v>
+        <v>-3.2462847963328134E-3</v>
       </c>
       <c r="M14" s="154"/>
       <c r="O14" s="154"/>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="69" t="str">
-        <v>obj_0025e</v>
+        <v>obj_00265</v>
       </c>
       <c r="E15" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="F15" s="70">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>-2.5500000000000002E-3</v>
+        <v>-2.2750000000000001E-3</v>
       </c>
       <c r="G15" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8762,14 +8762,14 @@
       </c>
       <c r="H15" s="78">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I15" s="79">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="J15" s="68">
-        <v>-2.5707294657833224E-3</v>
+        <v>-2.0371743385366602E-3</v>
       </c>
       <c r="M15" s="154"/>
       <c r="O15" s="154"/>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="69" t="str">
-        <v>obj_00254</v>
+        <v>obj_00277</v>
       </c>
       <c r="E16" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="F16" s="70">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>-1.1999999999999999E-3</v>
+        <v>-8.7499999999999991E-4</v>
       </c>
       <c r="G16" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8795,14 +8795,14 @@
       </c>
       <c r="H16" s="78">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I16" s="79">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="J16" s="68">
-        <v>-1.215436613707425E-3</v>
+        <v>-8.0527243003075232E-4</v>
       </c>
       <c r="M16" s="154"/>
       <c r="V16" s="119"/>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="str">
-        <v>obj_00262</v>
+        <v>obj_00250</v>
       </c>
       <c r="E17" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F17" s="70">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>-2.5000000000000022E-5</v>
+        <v>3.4999999999999994E-4</v>
       </c>
       <c r="G17" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8827,14 +8827,14 @@
       </c>
       <c r="H17" s="78">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I17" s="79">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>44690</v>
       </c>
       <c r="J17" s="68">
-        <v>-3.1322532516669299E-5</v>
+        <v>3.1850384689562588E-4</v>
       </c>
       <c r="M17" s="154"/>
       <c r="O17" s="154"/>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="str">
-        <v>obj_0024d</v>
+        <v>obj_0027b</v>
       </c>
       <c r="E18" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F18" s="70">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G18" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H18" s="78">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I18" s="79">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>45054</v>
       </c>
       <c r="J18" s="68">
-        <v>1.0057196268690868E-3</v>
+        <v>1.3093887386317171E-3</v>
       </c>
       <c r="M18" s="154"/>
       <c r="O18" s="154"/>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="69" t="str">
-        <v>obj_00263</v>
+        <v>obj_00256</v>
       </c>
       <c r="E19" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="F19" s="70">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.2750000000000001E-3</v>
       </c>
       <c r="G19" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8895,14 +8895,14 @@
       </c>
       <c r="H19" s="78">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I19" s="79">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="J19" s="68">
-        <v>1.8684511432659849E-3</v>
+        <v>2.1524046972604058E-3</v>
       </c>
       <c r="M19" s="154"/>
       <c r="O19" s="154"/>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="str">
-        <v>obj_00248</v>
+        <v>obj_0023d</v>
       </c>
       <c r="E20" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="F20" s="70">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.5250000000000008E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="G20" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8929,14 +8929,14 @@
       </c>
       <c r="H20" s="78">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I20" s="79">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="J20" s="68">
-        <v>2.5560677599115894E-3</v>
+        <v>2.8634021355880097E-3</v>
       </c>
       <c r="M20" s="154"/>
       <c r="O20" s="154"/>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="69" t="str">
-        <v>obj_0027c</v>
+        <v>obj_00242</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="F21" s="70">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>3.1000000000000003E-3</v>
+        <v>3.5750000000000005E-3</v>
       </c>
       <c r="G21" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8963,14 +8963,14 @@
       </c>
       <c r="H21" s="78">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I21" s="79">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="J21" s="68">
-        <v>3.1435766427240081E-3</v>
+        <v>3.4358262398558027E-3</v>
       </c>
       <c r="M21" s="154"/>
       <c r="O21" s="154"/>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="str">
-        <v>obj_00273</v>
+        <v>obj_00282</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="F22" s="70">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>3.5999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="G22" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8997,14 +8997,14 @@
       </c>
       <c r="H22" s="78">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I22" s="79">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46514</v>
+        <v>46517</v>
       </c>
       <c r="J22" s="68">
-        <v>3.655941879437592E-3</v>
+        <v>3.9638026737529621E-3</v>
       </c>
       <c r="M22" s="154"/>
       <c r="O22" s="154"/>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="str">
-        <v>obj_00257</v>
+        <v>obj_00285</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="F23" s="70">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="G23" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -9031,14 +9031,14 @@
       </c>
       <c r="H23" s="78">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I23" s="79">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47610</v>
+        <v>47611</v>
       </c>
       <c r="J23" s="68">
-        <v>4.8921334190461336E-3</v>
+        <v>5.191166410214553E-3</v>
       </c>
       <c r="M23" s="154"/>
       <c r="O23" s="154"/>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="69" t="str">
-        <v>obj_00233</v>
+        <v>obj_00253</v>
       </c>
       <c r="E24" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="F24" s="70">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>5.9750000000000003E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="G24" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -9064,14 +9064,14 @@
       </c>
       <c r="H24" s="78">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I24" s="79">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>49437</v>
       </c>
       <c r="J24" s="68">
-        <v>6.1117364840823415E-3</v>
+        <v>6.4518054341542678E-3</v>
       </c>
       <c r="M24" s="154"/>
       <c r="O24" s="154"/>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="69" t="str">
-        <v>obj_0024e</v>
+        <v>obj_00280</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="F25" s="70">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>6.6749999999999995E-3</v>
+        <v>7.2250000000000005E-3</v>
       </c>
       <c r="G25" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -9097,14 +9097,14 @@
       </c>
       <c r="H25" s="78">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I25" s="79">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>51264</v>
       </c>
       <c r="J25" s="68">
-        <v>6.8417795562666335E-3</v>
+        <v>7.2290947412320568E-3</v>
       </c>
       <c r="M25" s="154"/>
       <c r="O25" s="154"/>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="69" t="str">
-        <v>obj_0023f</v>
+        <v>obj_00268</v>
       </c>
       <c r="E26" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="F26" s="70">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.0500000000000007E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="G26" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -9130,14 +9130,14 @@
       </c>
       <c r="H26" s="78">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I26" s="79">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>53090</v>
       </c>
       <c r="J26" s="68">
-        <v>7.2283846799324038E-3</v>
+        <v>7.6357209346565678E-3</v>
       </c>
       <c r="M26" s="154"/>
       <c r="O26" s="154"/>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="str">
-        <v>obj_00234</v>
+        <v>obj_00258</v>
       </c>
       <c r="E27" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F27" s="70">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>7.150000000000001E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="G27" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -9163,14 +9163,14 @@
       </c>
       <c r="H27" s="78">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I27" s="79">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>54917</v>
       </c>
       <c r="J27" s="68">
-        <v>7.3128173294271844E-3</v>
+        <v>7.7386548826515831E-3</v>
       </c>
       <c r="M27" s="154"/>
       <c r="O27" s="154"/>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="69" t="str">
-        <v>obj_00278</v>
+        <v>obj_0025d</v>
       </c>
       <c r="E28" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="F28" s="70">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>7.0999999999999995E-3</v>
+        <v>7.6500000000000014E-3</v>
       </c>
       <c r="G28" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -9196,14 +9196,14 @@
       </c>
       <c r="H28" s="78">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I28" s="79">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56741</v>
+        <v>56744</v>
       </c>
       <c r="J28" s="68">
-        <v>7.2308737281247927E-3</v>
+        <v>7.6721248616938749E-3</v>
       </c>
       <c r="M28" s="154"/>
       <c r="O28" s="154"/>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="69" t="str">
-        <v>obj_00235</v>
+        <v>obj_0027a</v>
       </c>
       <c r="E29" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F29" s="70">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>6.7500000000000008E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="G29" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H29" s="78">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I29" s="79">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60394</v>
+        <v>60395</v>
       </c>
       <c r="J29" s="68">
-        <v>6.7900464924713485E-3</v>
+        <v>7.2533850281748065E-3</v>
       </c>
       <c r="M29" s="154"/>
       <c r="O29" s="154"/>
@@ -12097,7 +12097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207"/>
+      <c r="A1" s="205"/>
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
       <c r="D1" s="189"/>
@@ -12107,7 +12107,7 @@
       <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208"/>
+      <c r="A2" s="206"/>
       <c r="B2" s="56" t="s">
         <v>117</v>
       </c>
@@ -12125,13 +12125,13 @@
       <c r="G2" s="192"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="208"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="196" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00220#0000</v>
+        <v>obj_0022b#0000</v>
       </c>
       <c r="D3" s="197" t="str">
         <f t="shared" ref="D3:D11" si="0">UPPER(Currency)&amp;B3&amp;"D"&amp;QuoteSuffix</f>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="E3" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022f#0000</v>
+        <v>obj_00233#0000</v>
       </c>
       <c r="F3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12148,13 +12148,13 @@
       <c r="G3" s="192"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="196" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021e#0000</v>
+        <v>obj_00229#0000</v>
       </c>
       <c r="D4" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12162,19 +12162,19 @@
       </c>
       <c r="E4" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00222#0000</v>
+        <v>obj_0022c#0000</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="192"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="196" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0000</v>
+        <v>obj_00230#0000</v>
       </c>
       <c r="D5" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="E5" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022e#0000</v>
+        <v>obj_0023a#0000</v>
       </c>
       <c r="F5" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12191,13 +12191,13 @@
       <c r="G5" s="192"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="208"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="196" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00226#0000</v>
+        <v>obj_0022f#0000</v>
       </c>
       <c r="D6" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="E6" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022c#0000</v>
+        <v>obj_00236#0000</v>
       </c>
       <c r="F6" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -12214,13 +12214,13 @@
       <c r="G6" s="192"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="196" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00225#0000</v>
+        <v>obj_0022e#0000</v>
       </c>
       <c r="D7" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="E7" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022b#0000</v>
+        <v>obj_00234#0000</v>
       </c>
       <c r="F7" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -12237,13 +12237,13 @@
       <c r="G7" s="192"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="208"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="196" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00224#0000</v>
+        <v>obj_00228#0000</v>
       </c>
       <c r="D8" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="E8" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00230#0000</v>
+        <v>obj_00235#0000</v>
       </c>
       <c r="F8" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12260,13 +12260,13 @@
       <c r="G8" s="192"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="196" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00223#0000</v>
+        <v>obj_0022d#0000</v>
       </c>
       <c r="D9" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="E9" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00231#0000</v>
+        <v>obj_00237#0000</v>
       </c>
       <c r="F9" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12283,13 +12283,13 @@
       <c r="G9" s="192"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00221#0000</v>
+        <v>obj_00227#0000</v>
       </c>
       <c r="D10" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="E10" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022a#0000</v>
+        <v>obj_00238#0000</v>
       </c>
       <c r="F10" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12306,13 +12306,13 @@
       <c r="G10" s="192"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="208"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="196" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021f#0000</v>
+        <v>obj_0022a#0000</v>
       </c>
       <c r="D11" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="E11" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022d#0000</v>
+        <v>obj_00239#0000</v>
       </c>
       <c r="F11" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -12329,7 +12329,7 @@
       <c r="G11" s="192"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="209"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="193"/>
       <c r="C12" s="193"/>
       <c r="D12" s="193"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="H3" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00238#0000</v>
+        <v>obj_0023b#0000</v>
       </c>
       <c r="I3" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="H4" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024f#0000</v>
+        <v>obj_00269#0000</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H5" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025f#0000</v>
+        <v>obj_0026a#0000</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="H6" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00261#0000</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="H7" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_00287#0000</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="H8" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00239#0000</v>
+        <v>obj_00243#0000</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="H9" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00265#0000</v>
+        <v>obj_00260#0000</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="H10" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00242#0000</v>
+        <v>obj_0026d#0000</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="H11" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00244#0000</v>
+        <v>obj_00259#0000</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="H12" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00249#0000</v>
+        <v>obj_00245#0000</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="H13" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00256#0000</v>
+        <v>obj_00289#0000</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="H14" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00279#0000</v>
+        <v>obj_0027e#0000</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="H15" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00255#0000</v>
+        <v>obj_0025f#0000</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="H16" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00259#0000</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="H17" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00268#0000</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="H18" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026c#0000</v>
+        <v>obj_0027d#0000</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="H19" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00264#0000</v>
+        <v>obj_00278#0000</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="H20" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00237#0000</v>
+        <v>obj_00283#0000</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="H21" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00243#0000</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="H22" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00245#0000</v>
+        <v>obj_0025e#0000</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="H23" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025a#0000</v>
+        <v>obj_0026e#0000</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="H24" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00260#0000</v>
+        <v>obj_00240#0000</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="H25" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00271#0000</v>
+        <v>obj_00257#0000</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="H26" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00275#0000</v>
+        <v>obj_0024a#0000</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="H27" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027f#0000</v>
+        <v>obj_00279#0000</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="H28" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025b#0000</v>
+        <v>obj_00273#0000</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="H29" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026b#0000</v>
+        <v>obj_0025c#0000</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="H30" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00270#0000</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="H31" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023b#0000</v>
+        <v>obj_00271#0000</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="H32" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00280#0000</v>
+        <v>obj_00262#0000</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="H33" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024a#0000</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="H34" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00250#0000</v>
+        <v>obj_0023e#0000</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="H35" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00240#0000</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="H36" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024b#0000</v>
+        <v>obj_00272#0000</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="H37" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026d#0000</v>
+        <v>obj_00266#0000</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="H38" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023a#0000</v>
+        <v>obj_0024d#0000</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="H39" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00276#0000</v>
+        <v>obj_00270#0000</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="H40" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024c#0000</v>
+        <v>obj_0025a#0000</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="H41" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_00267#0000</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="H42" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00251#0000</v>
+        <v>obj_00246#0000</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="H43" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00266#0000</v>
+        <v>obj_00281#0000</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="H44" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00241#0000</v>
+        <v>obj_00244#0000</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -13949,7 +13949,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="139" t="str">
         <f>_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0000</v>
+        <v>obj_00231#0000</v>
       </c>
       <c r="L3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="K5" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0000</v>
+        <v>obj_00232#0000</v>
       </c>
       <c r="L5" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="K6" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026f#0000</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="L6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="K7" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00247#0000</v>
+        <v>obj_00284#0000</v>
       </c>
       <c r="L7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="K8" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00253#0000</v>
+        <v>obj_00255#0000</v>
       </c>
       <c r="L8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="K9" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025d#0000</v>
+        <v>obj_0027c#0000</v>
       </c>
       <c r="L9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="K10" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0000</v>
+        <v>obj_0024c#0000</v>
       </c>
       <c r="L10" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="K11" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00274#0000</v>
+        <v>obj_0026c#0000</v>
       </c>
       <c r="L11" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14323,7 +14323,7 @@
       </c>
       <c r="K12" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00277#0000</v>
+        <v>obj_00275#0000</v>
       </c>
       <c r="L12" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="K13" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025e#0000</v>
+        <v>obj_00265#0000</v>
       </c>
       <c r="L13" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="K14" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00277#0000</v>
       </c>
       <c r="L14" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="K15" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00262#0000</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="L15" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="K16" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024d#0000</v>
+        <v>obj_0027b#0000</v>
       </c>
       <c r="L16" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -14539,7 +14539,7 @@
       </c>
       <c r="K17" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00263#0000</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="L17" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="K18" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00248#0000</v>
+        <v>obj_0023d#0000</v>
       </c>
       <c r="L18" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="K19" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="L19" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="K20" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00273#0000</v>
+        <v>obj_00282#0000</v>
       </c>
       <c r="L20" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="K21" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00267#0000</v>
+        <v>obj_0026b#0000</v>
       </c>
       <c r="L21" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -14754,7 +14754,7 @@
       </c>
       <c r="K22" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00258#0000</v>
+        <v>obj_0023f#0000</v>
       </c>
       <c r="L22" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="K23" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00257#0000</v>
+        <v>obj_00285#0000</v>
       </c>
       <c r="L23" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="K24" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00252#0000</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="L24" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="K25" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00272#0000</v>
+        <v>obj_00261#0000</v>
       </c>
       <c r="L25" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="K26" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00269#0000</v>
+        <v>obj_0026f#0000</v>
       </c>
       <c r="L26" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="K27" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023d#0000</v>
+        <v>obj_00288#0000</v>
       </c>
       <c r="L27" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="K28" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00233#0000</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="L28" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="K29" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026a#0000</v>
+        <v>obj_00274#0000</v>
       </c>
       <c r="L29" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="K30" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023e#0000</v>
+        <v>obj_0027f#0000</v>
       </c>
       <c r="L30" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="K31" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_0024b#0000</v>
       </c>
       <c r="L31" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="K32" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027e#0000</v>
+        <v>obj_00252#0000</v>
       </c>
       <c r="L32" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="K33" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024e#0000</v>
+        <v>obj_00280#0000</v>
       </c>
       <c r="L33" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="K34" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025c#0000</v>
+        <v>obj_0025b#0000</v>
       </c>
       <c r="L34" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="K35" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00246#0000</v>
+        <v>obj_00264#0000</v>
       </c>
       <c r="L35" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="K36" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00236#0000</v>
+        <v>obj_00263#0000</v>
       </c>
       <c r="L36" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="K37" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023c#0000</v>
+        <v>obj_00276#0000</v>
       </c>
       <c r="L37" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="K38" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023f#0000</v>
+        <v>obj_00268#0000</v>
       </c>
       <c r="L38" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="K39" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00234#0000</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="L39" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="K40" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00278#0000</v>
+        <v>obj_0025d#0000</v>
       </c>
       <c r="L40" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="K41" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00235#0000</v>
+        <v>obj_0027a#0000</v>
       </c>
       <c r="L41" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="K42" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$3,$I42,B42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026e#0000</v>
+        <v>obj_00286#0000</v>
       </c>
       <c r="L42" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
@@ -58,6 +58,7 @@
     <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3112,9 +3113,9 @@
         <f>[1]Libor!$D$14</f>
         <v>CHFSTD#0000</v>
       </c>
-      <c r="D26" s="6" t="b">
+      <c r="D26" s="6" t="e">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>

--- a/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15240" windowHeight="8055" tabRatio="726"/>
+    <workbookView xWindow="18330" yWindow="-15" windowWidth="18390" windowHeight="10800" tabRatio="726" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,6 @@
     <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -628,7 +627,7 @@
     <numFmt numFmtId="177" formatCode="0.0E+00"/>
     <numFmt numFmtId="178" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +761,12 @@
       <b/>
       <u/>
       <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -1279,7 +1284,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1730,6 +1735,12 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2095,7 +2106,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2119,7 +2130,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  6 2015 11:54:37</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2484,7 +2495,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="24">
-        <v>42130.460162037038</v>
+        <v>42131.492037037038</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2610,7 +2621,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_CHFYCSTD#0000</v>
+        <v>_CHFYCSTD#0019</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2984,11 +2995,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>0.83739855629855786</v>
+        <v>9.6435905033565063E-3</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3030,11 +3041,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>60395</v>
+        <v>60398</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-8.2542728599243123E-3</v>
+        <v>-8.2084419626768292E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3113,9 +3124,9 @@
         <f>[1]Libor!$D$14</f>
         <v>CHFSTD#0000</v>
       </c>
-      <c r="D26" s="6" t="e">
+      <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4587,7 +4598,7 @@
       <c r="B2" s="156"/>
       <c r="C2" s="156" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00233#0000</v>
+        <v>obj_00235#0004</v>
       </c>
       <c r="D2" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4598,8 +4609,8 @@
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="F2" s="157"/>
-      <c r="G2" s="158" t="b">
-        <v>0</v>
+      <c r="G2" s="58" t="b">
+        <v>1</v>
       </c>
       <c r="H2" s="158">
         <v>10</v>
@@ -4609,11 +4620,11 @@
       </c>
       <c r="J2" s="159">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="K2" s="160">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="L2" s="57"/>
     </row>
@@ -4622,7 +4633,7 @@
       <c r="B3" s="107"/>
       <c r="C3" s="107" t="str">
         <f>Deposits!E4</f>
-        <v>obj_0022c#0000</v>
+        <v>obj_00230#0004</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4630,11 +4641,11 @@
       </c>
       <c r="E3" s="108">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>-8.0000000000000002E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="F3" s="108"/>
       <c r="G3" s="58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="58">
         <v>10</v>
@@ -4644,11 +4655,11 @@
       </c>
       <c r="J3" s="109">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="K3" s="110">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="L3" s="57"/>
     </row>
@@ -4657,7 +4668,7 @@
       <c r="B4" s="107"/>
       <c r="C4" s="107" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0023a#0000</v>
+        <v>obj_00237#0004</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4679,11 +4690,11 @@
       </c>
       <c r="J4" s="109">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K4" s="110">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>42135</v>
+        <v>42136</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,7 +4702,7 @@
       <c r="B5" s="107"/>
       <c r="C5" s="107" t="str">
         <f>Deposits!E6</f>
-        <v>obj_00236#0000</v>
+        <v>obj_00236#0004</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4699,7 +4710,7 @@
       </c>
       <c r="E5" s="108">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>-8.0800000000000004E-3</v>
+        <v>-8.0600000000000012E-3</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="58" t="b">
@@ -4713,11 +4724,11 @@
       </c>
       <c r="J5" s="109">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K5" s="110">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>42139</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4725,7 +4736,7 @@
       <c r="B6" s="107"/>
       <c r="C6" s="107" t="str">
         <f>Deposits!E7</f>
-        <v>obj_00234#0000</v>
+        <v>obj_00238#0004</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4747,11 +4758,11 @@
       </c>
       <c r="J6" s="109">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K6" s="110">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>42163</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,7 +4770,7 @@
       <c r="B7" s="107"/>
       <c r="C7" s="107" t="str">
         <f>Deposits!E8</f>
-        <v>obj_00235#0000</v>
+        <v>obj_0023a#0004</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4781,11 +4792,11 @@
       </c>
       <c r="J7" s="109">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K7" s="110">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>42193</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4793,7 +4804,7 @@
       <c r="B8" s="107"/>
       <c r="C8" s="107" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00237#0000</v>
+        <v>obj_00239#0004</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4815,11 +4826,11 @@
       </c>
       <c r="J8" s="109">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K8" s="110">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>42226</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4827,7 +4838,7 @@
       <c r="B9" s="107"/>
       <c r="C9" s="107" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00238#0000</v>
+        <v>obj_00233#0004</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4849,11 +4860,11 @@
       </c>
       <c r="J9" s="109">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K9" s="110">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>42317</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4861,7 +4872,7 @@
       <c r="B10" s="111"/>
       <c r="C10" s="111" t="str">
         <f>Deposits!E11</f>
-        <v>obj_00239#0000</v>
+        <v>obj_00234#0004</v>
       </c>
       <c r="D10" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4869,7 +4880,7 @@
       </c>
       <c r="E10" s="112">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
-        <v>-5.8960000000000002E-3</v>
+        <v>-5.8659999999999997E-3</v>
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="113" t="b">
@@ -4883,11 +4894,11 @@
       </c>
       <c r="J10" s="114">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K10" s="115">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>42499</v>
+        <v>42501</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4900,7 +4911,7 @@
       </c>
       <c r="C11" s="107" t="str">
         <f>Futures!H3</f>
-        <v>obj_0023b#0000</v>
+        <v>obj_00279#0000</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4941,7 +4952,7 @@
       </c>
       <c r="C12" s="107" t="str">
         <f>Futures!H4</f>
-        <v>obj_00269#0000</v>
+        <v>obj_00252#0000</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -4949,7 +4960,7 @@
       </c>
       <c r="E12" s="116">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>0</v>
+        <v>100.795</v>
       </c>
       <c r="F12" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C12,Trigger)</f>
@@ -4982,7 +4993,7 @@
       </c>
       <c r="C13" s="107" t="str">
         <f>Futures!H5</f>
-        <v>obj_0026a#0000</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5023,7 +5034,7 @@
       </c>
       <c r="C14" s="107" t="str">
         <f>Futures!H6</f>
-        <v>obj_00248#0000</v>
+        <v>obj_00288#0000</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5064,7 +5075,7 @@
       </c>
       <c r="C15" s="107" t="str">
         <f>Futures!H7</f>
-        <v>obj_00287#0000</v>
+        <v>obj_0026e#0000</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5072,7 +5083,7 @@
       </c>
       <c r="E15" s="116">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>0</v>
+        <v>100.785</v>
       </c>
       <c r="F15" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C15,Trigger)</f>
@@ -5105,7 +5116,7 @@
       </c>
       <c r="C16" s="107" t="str">
         <f>Futures!H8</f>
-        <v>obj_00243#0000</v>
+        <v>obj_00276#0000</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5146,7 +5157,7 @@
       </c>
       <c r="C17" s="107" t="str">
         <f>Futures!H9</f>
-        <v>obj_00260#0000</v>
+        <v>obj_00263#0000</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5187,7 +5198,7 @@
       </c>
       <c r="C18" s="107" t="str">
         <f>Futures!H10</f>
-        <v>obj_0026d#0000</v>
+        <v>obj_0023b#0000</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5195,7 +5206,7 @@
       </c>
       <c r="E18" s="116">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>0</v>
+        <v>100.745</v>
       </c>
       <c r="F18" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C18,Trigger)</f>
@@ -5228,7 +5239,7 @@
       </c>
       <c r="C19" s="107" t="str">
         <f>Futures!H11</f>
-        <v>obj_00259#0000</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5269,7 +5280,7 @@
       </c>
       <c r="C20" s="107" t="str">
         <f>Futures!H12</f>
-        <v>obj_00245#0000</v>
+        <v>obj_0025e#0000</v>
       </c>
       <c r="D20" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5310,7 +5321,7 @@
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!H13</f>
-        <v>obj_00289#0000</v>
+        <v>obj_0025a#0000</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5318,7 +5329,7 @@
       </c>
       <c r="E21" s="116">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>0</v>
+        <v>100.67500000000001</v>
       </c>
       <c r="F21" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5351,7 +5362,7 @@
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!H14</f>
-        <v>obj_0027e#0000</v>
+        <v>obj_00265#0000</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5392,7 +5403,7 @@
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!H15</f>
-        <v>obj_0025f#0000</v>
+        <v>obj_0026d#0000</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5400,7 +5411,7 @@
       </c>
       <c r="E23" s="116">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>0</v>
+        <v>100.605</v>
       </c>
       <c r="F23" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5433,7 +5444,7 @@
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!H16</f>
-        <v>obj_00247#0000</v>
+        <v>obj_0026a#0000</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5441,7 +5452,7 @@
       </c>
       <c r="E24" s="116">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>0</v>
+        <v>100.545</v>
       </c>
       <c r="F24" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5474,7 +5485,7 @@
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!H17</f>
-        <v>obj_00249#0000</v>
+        <v>obj_0023f#0000</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5482,7 +5493,7 @@
       </c>
       <c r="E25" s="116">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>0</v>
+        <v>100.47499999999999</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5515,7 +5526,7 @@
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!H18</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_00281#0000</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5523,7 +5534,7 @@
       </c>
       <c r="E26" s="116">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>0</v>
+        <v>100.405</v>
       </c>
       <c r="F26" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5556,7 +5567,7 @@
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!H19</f>
-        <v>obj_00278#0000</v>
+        <v>obj_0024a#0000</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5564,7 +5575,7 @@
       </c>
       <c r="E27" s="116">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
-        <v>0</v>
+        <v>100.32</v>
       </c>
       <c r="F27" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger)</f>
@@ -5597,7 +5608,7 @@
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!H20</f>
-        <v>obj_00283#0000</v>
+        <v>obj_00277#0000</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5605,7 +5616,7 @@
       </c>
       <c r="E28" s="116">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>0</v>
+        <v>100.23500000000001</v>
       </c>
       <c r="F28" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
@@ -5638,7 +5649,7 @@
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!H21</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00262#0000</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5646,7 +5657,7 @@
       </c>
       <c r="E29" s="116">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>0</v>
+        <v>100.14000000000001</v>
       </c>
       <c r="F29" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
@@ -5679,7 +5690,7 @@
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!H22</f>
-        <v>obj_0025e#0000</v>
+        <v>obj_00267#0000</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5687,7 +5698,7 @@
       </c>
       <c r="E30" s="116">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
-        <v>0</v>
+        <v>100.04500000000002</v>
       </c>
       <c r="F30" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger)</f>
@@ -5720,7 +5731,7 @@
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!H23</f>
-        <v>obj_0026e#0000</v>
+        <v>obj_00259#0000</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5728,7 +5739,7 @@
       </c>
       <c r="E31" s="116">
         <f>_xll.qlRateHelperQuoteValue($C31,Trigger)</f>
-        <v>0</v>
+        <v>99.93</v>
       </c>
       <c r="F31" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger)</f>
@@ -5761,7 +5772,7 @@
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!H24</f>
-        <v>obj_00240#0000</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5769,7 +5780,7 @@
       </c>
       <c r="E32" s="116">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>0</v>
+        <v>49.97</v>
       </c>
       <c r="F32" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
@@ -5802,7 +5813,7 @@
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!H25</f>
-        <v>obj_00257#0000</v>
+        <v>obj_00246#0000</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5810,7 +5821,7 @@
       </c>
       <c r="E33" s="116">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>0</v>
+        <v>49.965000000000003</v>
       </c>
       <c r="F33" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
@@ -5843,7 +5854,7 @@
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!H26</f>
-        <v>obj_0024a#0000</v>
+        <v>obj_0027a#0000</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5851,7 +5862,7 @@
       </c>
       <c r="E34" s="116">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>0</v>
+        <v>49.965000000000003</v>
       </c>
       <c r="F34" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
@@ -5884,7 +5895,7 @@
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!H27</f>
-        <v>obj_00279#0000</v>
+        <v>obj_0026c#0000</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5892,7 +5903,7 @@
       </c>
       <c r="E35" s="116">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>0</v>
+        <v>49.97</v>
       </c>
       <c r="F35" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
@@ -5925,7 +5936,7 @@
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!H28</f>
-        <v>obj_00273#0000</v>
+        <v>obj_0023e#0000</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -5966,7 +5977,7 @@
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!H29</f>
-        <v>obj_0025c#0000</v>
+        <v>obj_00271#0000</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -6007,7 +6018,7 @@
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!H30</f>
-        <v>obj_00251#0000</v>
+        <v>obj_0025b#0000</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -6048,7 +6059,7 @@
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!H31</f>
-        <v>obj_00271#0000</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6089,7 +6100,7 @@
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!H32</f>
-        <v>obj_00262#0000</v>
+        <v>obj_00269#0000</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6130,7 +6141,7 @@
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!H33</f>
-        <v>obj_0024e#0000</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6171,7 +6182,7 @@
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!H34</f>
-        <v>obj_0023e#0000</v>
+        <v>obj_00286#0000</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6212,7 +6223,7 @@
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!H35</f>
-        <v>obj_0023c#0000</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6253,7 +6264,7 @@
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!H36</f>
-        <v>obj_00272#0000</v>
+        <v>obj_0026f#0000</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6294,7 +6305,7 @@
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!H37</f>
-        <v>obj_00266#0000</v>
+        <v>obj_0026b#0000</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6335,7 +6346,7 @@
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!H38</f>
-        <v>obj_0024d#0000</v>
+        <v>obj_00255#0000</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6376,7 +6387,7 @@
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!H39</f>
-        <v>obj_00270#0000</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6417,7 +6428,7 @@
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!H40</f>
-        <v>obj_0025a#0000</v>
+        <v>obj_0024c#0000</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6458,7 +6469,7 @@
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!H41</f>
-        <v>obj_00267#0000</v>
+        <v>obj_0027d#0000</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6499,7 +6510,7 @@
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!H42</f>
-        <v>obj_00246#0000</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6540,7 +6551,7 @@
       </c>
       <c r="C51" s="107" t="str">
         <f>Futures!H43</f>
-        <v>obj_00281#0000</v>
+        <v>obj_0025c#0000</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6581,7 +6592,7 @@
       </c>
       <c r="C52" s="111" t="str">
         <f>Futures!H44</f>
-        <v>obj_00244#0000</v>
+        <v>obj_0023d#0000</v>
       </c>
       <c r="D52" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6633,7 +6644,7 @@
         <f>_xll.qlSwapRateHelperSpread($C53,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="158" t="b">
+      <c r="G53" s="210" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="158">
@@ -6644,11 +6655,11 @@
       </c>
       <c r="J53" s="159">
         <f>_xll.qlRateHelperEarliestDate($C53,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K53" s="160">
         <f>_xll.qlRateHelperLatestDate($C53,Trigger)</f>
-        <v>42317</v>
+        <v>42319</v>
       </c>
       <c r="M53" s="119"/>
     </row>
@@ -6657,7 +6668,7 @@
       <c r="B54" s="107"/>
       <c r="C54" s="107" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00241#0000</v>
+        <v>obj_00261#0000</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6665,13 +6676,13 @@
       </c>
       <c r="E54" s="108">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>-7.1999999999999998E-3</v>
+        <v>-6.8000000000000005E-3</v>
       </c>
       <c r="F54" s="108">
         <f>_xll.qlSwapRateHelperSpread($C54,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="58" t="b">
+      <c r="G54" s="211" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="58">
@@ -6682,11 +6693,11 @@
       </c>
       <c r="J54" s="109">
         <f>_xll.qlRateHelperEarliestDate($C54,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K54" s="110">
         <f>_xll.qlRateHelperLatestDate($C54,Trigger)</f>
-        <v>42499</v>
+        <v>42501</v>
       </c>
       <c r="M54" s="119"/>
     </row>
@@ -6695,7 +6706,7 @@
       <c r="B55" s="107"/>
       <c r="C55" s="107" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00284#0000</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6709,7 +6720,7 @@
         <f>_xll.qlSwapRateHelperSpread($C55,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="58" t="b">
+      <c r="G55" s="211" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="58">
@@ -6720,11 +6731,11 @@
       </c>
       <c r="J55" s="109">
         <f>_xll.qlRateHelperEarliestDate($C55,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K55" s="110">
         <f>_xll.qlRateHelperLatestDate($C55,Trigger)</f>
-        <v>42590</v>
+        <v>42593</v>
       </c>
       <c r="M55" s="119"/>
     </row>
@@ -6733,7 +6744,7 @@
       <c r="B56" s="107"/>
       <c r="C56" s="107" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00255#0000</v>
+        <v>obj_00257#0000</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6747,7 +6758,7 @@
         <f>_xll.qlSwapRateHelperSpread($C56,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="58" t="b">
+      <c r="G56" s="211" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="58">
@@ -6758,11 +6769,11 @@
       </c>
       <c r="J56" s="109">
         <f>_xll.qlRateHelperEarliestDate($C56,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K56" s="110">
         <f>_xll.qlRateHelperLatestDate($C56,Trigger)</f>
-        <v>42682</v>
+        <v>42685</v>
       </c>
       <c r="M56" s="119"/>
     </row>
@@ -6771,7 +6782,7 @@
       <c r="B57" s="107"/>
       <c r="C57" s="107" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6785,7 +6796,7 @@
         <f>_xll.qlSwapRateHelperSpread($C57,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="58" t="b">
+      <c r="G57" s="211" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="58">
@@ -6796,11 +6807,11 @@
       </c>
       <c r="J57" s="109">
         <f>_xll.qlRateHelperEarliestDate($C57,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K57" s="110">
         <f>_xll.qlRateHelperLatestDate($C57,Trigger)</f>
-        <v>42774</v>
+        <v>42779</v>
       </c>
       <c r="M57" s="119"/>
     </row>
@@ -6809,7 +6820,7 @@
       <c r="B58" s="107"/>
       <c r="C58" s="107" t="str">
         <f>Swaps!K10</f>
-        <v>obj_0024c#0000</v>
+        <v>obj_00264#0000</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6817,7 +6828,7 @@
       </c>
       <c r="E58" s="108">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>-6.4000000000000003E-3</v>
+        <v>-5.6000000000000008E-3</v>
       </c>
       <c r="F58" s="108">
         <f>_xll.qlSwapRateHelperSpread($C58,Trigger)</f>
@@ -6835,11 +6846,11 @@
       </c>
       <c r="J58" s="109">
         <f>_xll.qlRateHelperEarliestDate($C58,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K58" s="110">
         <f>_xll.qlRateHelperLatestDate($C58,Trigger)</f>
-        <v>42863</v>
+        <v>42866</v>
       </c>
       <c r="M58" s="119"/>
       <c r="O58" s="162"/>
@@ -6849,7 +6860,7 @@
       <c r="B59" s="107"/>
       <c r="C59" s="107" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0026c#0000</v>
+        <v>obj_00273#0000</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6857,7 +6868,7 @@
       </c>
       <c r="E59" s="108">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>-5.1999999999999998E-3</v>
+        <v>-4.2000000000000006E-3</v>
       </c>
       <c r="F59" s="108">
         <f>_xll.qlSwapRateHelperSpread($C59,Trigger)</f>
@@ -6875,11 +6886,11 @@
       </c>
       <c r="J59" s="109">
         <f>_xll.qlRateHelperEarliestDate($C59,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K59" s="110">
         <f>_xll.qlRateHelperLatestDate($C59,Trigger)</f>
-        <v>43228</v>
+        <v>43231</v>
       </c>
       <c r="M59" s="119"/>
       <c r="O59" s="162"/>
@@ -6889,7 +6900,7 @@
       <c r="B60" s="107"/>
       <c r="C60" s="107" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00275#0000</v>
+        <v>obj_00245#0000</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6897,7 +6908,7 @@
       </c>
       <c r="E60" s="108">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>-3.7499999999999999E-3</v>
+        <v>-2.575E-3</v>
       </c>
       <c r="F60" s="108">
         <f>_xll.qlSwapRateHelperSpread($C60,Trigger)</f>
@@ -6915,11 +6926,11 @@
       </c>
       <c r="J60" s="109">
         <f>_xll.qlRateHelperEarliestDate($C60,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K60" s="110">
         <f>_xll.qlRateHelperLatestDate($C60,Trigger)</f>
-        <v>43593</v>
+        <v>43598</v>
       </c>
       <c r="M60" s="119"/>
       <c r="O60" s="162"/>
@@ -6929,7 +6940,7 @@
       <c r="B61" s="107"/>
       <c r="C61" s="107" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00265#0000</v>
+        <v>obj_00284#0000</v>
       </c>
       <c r="D61" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6937,7 +6948,7 @@
       </c>
       <c r="E61" s="108">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>-2.2750000000000001E-3</v>
+        <v>-8.5000000000000006E-4</v>
       </c>
       <c r="F61" s="108">
         <f>_xll.qlSwapRateHelperSpread($C61,Trigger)</f>
@@ -6955,11 +6966,11 @@
       </c>
       <c r="J61" s="109">
         <f>_xll.qlRateHelperEarliestDate($C61,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K61" s="110">
         <f>_xll.qlRateHelperLatestDate($C61,Trigger)</f>
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="M61" s="119"/>
       <c r="O61" s="162"/>
@@ -6969,7 +6980,7 @@
       <c r="B62" s="107"/>
       <c r="C62" s="107" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00277#0000</v>
+        <v>obj_00282#0000</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -6977,7 +6988,7 @@
       </c>
       <c r="E62" s="108">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>-8.7499999999999991E-4</v>
+        <v>7.2500000000000006E-4</v>
       </c>
       <c r="F62" s="108">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -6995,11 +7006,11 @@
       </c>
       <c r="J62" s="109">
         <f>_xll.qlRateHelperEarliestDate($C62,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K62" s="110">
         <f>_xll.qlRateHelperLatestDate($C62,Trigger)</f>
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="M62" s="119"/>
       <c r="O62" s="162"/>
@@ -7009,7 +7020,7 @@
       <c r="B63" s="107"/>
       <c r="C63" s="107" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00250#0000</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7017,7 +7028,7 @@
       </c>
       <c r="E63" s="108">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>3.4999999999999994E-4</v>
+        <v>2.1000000000000003E-3</v>
       </c>
       <c r="F63" s="108">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7035,11 +7046,11 @@
       </c>
       <c r="J63" s="109">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K63" s="110">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>44690</v>
+        <v>44692</v>
       </c>
       <c r="M63" s="119"/>
       <c r="O63" s="162"/>
@@ -7049,7 +7060,7 @@
       <c r="B64" s="107"/>
       <c r="C64" s="107" t="str">
         <f>Swaps!K16</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_00274#0000</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7057,7 +7068,7 @@
       </c>
       <c r="E64" s="108">
         <f>_xll.qlRateHelperQuoteValue($C64,Trigger)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>3.2750000000000001E-3</v>
       </c>
       <c r="F64" s="108">
         <f>_xll.qlSwapRateHelperSpread($C64,Trigger)</f>
@@ -7075,11 +7086,11 @@
       </c>
       <c r="J64" s="109">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K64" s="110">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>45054</v>
+        <v>45057</v>
       </c>
       <c r="M64" s="119"/>
       <c r="O64" s="162"/>
@@ -7089,7 +7100,7 @@
       <c r="B65" s="107"/>
       <c r="C65" s="107" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00256#0000</v>
+        <v>obj_0025d#0000</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7097,7 +7108,7 @@
       </c>
       <c r="E65" s="108">
         <f>_xll.qlRateHelperQuoteValue($C65,Trigger)</f>
-        <v>2.2750000000000001E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
       <c r="F65" s="108">
         <f>_xll.qlSwapRateHelperSpread($C65,Trigger)</f>
@@ -7115,11 +7126,11 @@
       </c>
       <c r="J65" s="109">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K65" s="110">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>45420</v>
+        <v>45425</v>
       </c>
       <c r="M65" s="119"/>
       <c r="O65" s="162"/>
@@ -7129,7 +7140,7 @@
       <c r="B66" s="107"/>
       <c r="C66" s="107" t="str">
         <f>Swaps!K18</f>
-        <v>obj_0023d#0000</v>
+        <v>obj_00272#0000</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7137,7 +7148,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>3.0000000000000005E-3</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -7155,11 +7166,11 @@
       </c>
       <c r="J66" s="109">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K66" s="110">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>45785</v>
+        <v>45789</v>
       </c>
       <c r="M66" s="119"/>
       <c r="O66" s="162"/>
@@ -7169,7 +7180,7 @@
       <c r="B67" s="107"/>
       <c r="C67" s="107" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00242#0000</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7177,7 +7188,7 @@
       </c>
       <c r="E67" s="108">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>3.5750000000000005E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F67" s="108">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7195,11 +7206,11 @@
       </c>
       <c r="J67" s="109">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K67" s="110">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>46150</v>
+        <v>46153</v>
       </c>
       <c r="M67" s="119"/>
       <c r="O67" s="162"/>
@@ -7209,7 +7220,7 @@
       <c r="B68" s="107"/>
       <c r="C68" s="107" t="str">
         <f>Swaps!K20</f>
-        <v>obj_00282#0000</v>
+        <v>obj_0024d#0000</v>
       </c>
       <c r="D68" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7217,7 +7228,7 @@
       </c>
       <c r="E68" s="108">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>4.1000000000000003E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="F68" s="108">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7235,11 +7246,11 @@
       </c>
       <c r="J68" s="109">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K68" s="110">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>46517</v>
+        <v>46518</v>
       </c>
       <c r="M68" s="119"/>
       <c r="O68" s="162"/>
@@ -7249,7 +7260,7 @@
       <c r="B69" s="107"/>
       <c r="C69" s="107" t="str">
         <f>Swaps!K21</f>
-        <v>obj_0026b#0000</v>
+        <v>obj_00244#0000</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7275,11 +7286,11 @@
       </c>
       <c r="J69" s="109">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K69" s="110">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>46881</v>
+        <v>46884</v>
       </c>
       <c r="M69" s="119"/>
       <c r="O69" s="162"/>
@@ -7289,7 +7300,7 @@
       <c r="B70" s="107"/>
       <c r="C70" s="107" t="str">
         <f>Swaps!K22</f>
-        <v>obj_0023f#0000</v>
+        <v>obj_00280#0000</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7315,11 +7326,11 @@
       </c>
       <c r="J70" s="109">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K70" s="110">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>47246</v>
+        <v>47249</v>
       </c>
       <c r="M70" s="119"/>
       <c r="O70" s="162"/>
@@ -7329,7 +7340,7 @@
       <c r="B71" s="107"/>
       <c r="C71" s="107" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00285#0000</v>
+        <v>obj_0027b#0000</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7337,7 +7348,7 @@
       </c>
       <c r="E71" s="108">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>5.3E-3</v>
+        <v>7.575000000000001E-3</v>
       </c>
       <c r="F71" s="108">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7355,11 +7366,11 @@
       </c>
       <c r="J71" s="109">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K71" s="110">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>47611</v>
+        <v>47616</v>
       </c>
       <c r="M71" s="119"/>
       <c r="O71" s="162"/>
@@ -7369,7 +7380,7 @@
       <c r="B72" s="107"/>
       <c r="C72" s="107" t="str">
         <f>Swaps!K24</f>
-        <v>obj_0024f#0000</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7395,11 +7406,11 @@
       </c>
       <c r="J72" s="109">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K72" s="110">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>47976</v>
+        <v>47980</v>
       </c>
       <c r="M72" s="119"/>
       <c r="O72" s="162"/>
@@ -7409,7 +7420,7 @@
       <c r="B73" s="107"/>
       <c r="C73" s="107" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00261#0000</v>
+        <v>obj_0024b#0000</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7435,11 +7446,11 @@
       </c>
       <c r="J73" s="109">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K73" s="110">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>48344</v>
+        <v>48345</v>
       </c>
       <c r="M73" s="119"/>
       <c r="O73" s="162"/>
@@ -7449,7 +7460,7 @@
       <c r="B74" s="107"/>
       <c r="C74" s="107" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0026f#0000</v>
+        <v>obj_0025f#0000</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7475,11 +7486,11 @@
       </c>
       <c r="J74" s="109">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K74" s="110">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>48708</v>
+        <v>48710</v>
       </c>
       <c r="M74" s="119"/>
       <c r="O74" s="162"/>
@@ -7489,7 +7500,7 @@
       <c r="B75" s="107"/>
       <c r="C75" s="107" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00288#0000</v>
+        <v>obj_00283#0000</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7515,11 +7526,11 @@
       </c>
       <c r="J75" s="109">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K75" s="110">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>49072</v>
+        <v>49075</v>
       </c>
       <c r="M75" s="119"/>
       <c r="O75" s="162"/>
@@ -7529,7 +7540,7 @@
       <c r="B76" s="107"/>
       <c r="C76" s="107" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00253#0000</v>
+        <v>obj_00266#0000</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7537,7 +7548,7 @@
       </c>
       <c r="E76" s="108">
         <f>_xll.qlRateHelperQuoteValue($C76,Trigger)</f>
-        <v>6.5000000000000006E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F76" s="108">
         <f>_xll.qlSwapRateHelperSpread($C76,Trigger)</f>
@@ -7555,11 +7566,11 @@
       </c>
       <c r="J76" s="109">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K76" s="110">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>49437</v>
+        <v>49440</v>
       </c>
       <c r="M76" s="119"/>
       <c r="O76" s="162"/>
@@ -7569,7 +7580,7 @@
       <c r="B77" s="107"/>
       <c r="C77" s="107" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00274#0000</v>
+        <v>obj_00275#0000</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7595,11 +7606,11 @@
       </c>
       <c r="J77" s="109">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K77" s="110">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>49803</v>
+        <v>49807</v>
       </c>
       <c r="M77" s="119"/>
       <c r="O77" s="162"/>
@@ -7609,7 +7620,7 @@
       <c r="B78" s="107"/>
       <c r="C78" s="107" t="str">
         <f>Swaps!K30</f>
-        <v>obj_0027f#0000</v>
+        <v>obj_00268#0000</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7635,11 +7646,11 @@
       </c>
       <c r="J78" s="109">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K78" s="110">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>50168</v>
+        <v>50171</v>
       </c>
       <c r="M78" s="119"/>
       <c r="O78" s="162"/>
@@ -7649,7 +7660,7 @@
       <c r="B79" s="107"/>
       <c r="C79" s="107" t="str">
         <f>Swaps!K31</f>
-        <v>obj_0024b#0000</v>
+        <v>obj_00243#0000</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7675,11 +7686,11 @@
       </c>
       <c r="J79" s="109">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K79" s="110">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>50535</v>
+        <v>50536</v>
       </c>
       <c r="M79" s="119"/>
       <c r="O79" s="162"/>
@@ -7689,7 +7700,7 @@
       <c r="B80" s="107"/>
       <c r="C80" s="107" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00252#0000</v>
+        <v>obj_0027c#0000</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7715,11 +7726,11 @@
       </c>
       <c r="J80" s="109">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K80" s="110">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>50899</v>
+        <v>50901</v>
       </c>
       <c r="M80" s="119"/>
       <c r="O80" s="162"/>
@@ -7729,7 +7740,7 @@
       <c r="B81" s="107"/>
       <c r="C81" s="107" t="str">
         <f>Swaps!K33</f>
-        <v>obj_00280#0000</v>
+        <v>obj_00260#0000</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7737,7 +7748,7 @@
       </c>
       <c r="E81" s="108">
         <f>_xll.qlRateHelperQuoteValue($C81,Trigger)</f>
-        <v>7.2250000000000005E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="F81" s="108">
         <f>_xll.qlSwapRateHelperSpread($C81,Trigger)</f>
@@ -7755,11 +7766,11 @@
       </c>
       <c r="J81" s="109">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K81" s="110">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>51264</v>
+        <v>51267</v>
       </c>
       <c r="M81" s="119"/>
       <c r="O81" s="162"/>
@@ -7769,7 +7780,7 @@
       <c r="B82" s="107"/>
       <c r="C82" s="107" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0025b#0000</v>
+        <v>obj_00289#0000</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7795,11 +7806,11 @@
       </c>
       <c r="J82" s="109">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K82" s="110">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>51629</v>
+        <v>51634</v>
       </c>
       <c r="M82" s="119"/>
       <c r="O82" s="162"/>
@@ -7809,7 +7820,7 @@
       <c r="B83" s="107"/>
       <c r="C83" s="107" t="str">
         <f>Swaps!K35</f>
-        <v>obj_00264#0000</v>
+        <v>obj_00270#0000</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7835,11 +7846,11 @@
       </c>
       <c r="J83" s="109">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K83" s="110">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>51994</v>
+        <v>51998</v>
       </c>
       <c r="M83" s="119"/>
       <c r="O83" s="162"/>
@@ -7849,7 +7860,7 @@
       <c r="B84" s="107"/>
       <c r="C84" s="107" t="str">
         <f>Swaps!K36</f>
-        <v>obj_00263#0000</v>
+        <v>obj_00287#0000</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7875,11 +7886,11 @@
       </c>
       <c r="J84" s="109">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K84" s="110">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>52359</v>
+        <v>52362</v>
       </c>
       <c r="M84" s="119"/>
       <c r="O84" s="162"/>
@@ -7889,7 +7900,7 @@
       <c r="B85" s="107"/>
       <c r="C85" s="107" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00276#0000</v>
+        <v>obj_0027e#0000</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7915,11 +7926,11 @@
       </c>
       <c r="J85" s="109">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K85" s="110">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>52726</v>
+        <v>52728</v>
       </c>
       <c r="M85" s="119"/>
       <c r="O85" s="162"/>
@@ -7929,7 +7940,7 @@
       <c r="B86" s="107"/>
       <c r="C86" s="107" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00268#0000</v>
+        <v>obj_00285#0000</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -7937,7 +7948,7 @@
       </c>
       <c r="E86" s="108">
         <f>_xll.qlRateHelperQuoteValue($C86,Trigger)</f>
-        <v>7.6E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="F86" s="108">
         <f>_xll.qlSwapRateHelperSpread($C86,Trigger)</f>
@@ -7955,11 +7966,11 @@
       </c>
       <c r="J86" s="109">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K86" s="110">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>53090</v>
+        <v>53093</v>
       </c>
       <c r="M86" s="119"/>
       <c r="O86" s="162"/>
@@ -7969,7 +7980,7 @@
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00258#0000</v>
+        <v>obj_0027f#0000</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -7977,7 +7988,7 @@
       </c>
       <c r="E87" s="108">
         <f>_xll.qlRateHelperQuoteValue($C87,Trigger)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F87" s="108">
         <f>_xll.qlSwapRateHelperSpread($C87,Trigger)</f>
@@ -7995,11 +8006,11 @@
       </c>
       <c r="J87" s="109">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K87" s="110">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>54917</v>
+        <v>54919</v>
       </c>
       <c r="M87" s="119"/>
       <c r="O87" s="162"/>
@@ -8009,7 +8020,7 @@
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0025d#0000</v>
+        <v>obj_00278#0000</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8017,7 +8028,7 @@
       </c>
       <c r="E88" s="108">
         <f>_xll.qlRateHelperQuoteValue($C88,Trigger)</f>
-        <v>7.6500000000000014E-3</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="F88" s="108">
         <f>_xll.qlSwapRateHelperSpread($C88,Trigger)</f>
@@ -8035,11 +8046,11 @@
       </c>
       <c r="J88" s="109">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K88" s="110">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>56744</v>
+        <v>56745</v>
       </c>
       <c r="M88" s="119"/>
       <c r="O88" s="162"/>
@@ -8049,7 +8060,7 @@
       <c r="B89" s="107"/>
       <c r="C89" s="107" t="str">
         <f>Swaps!K41</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="D89" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8057,7 +8068,7 @@
       </c>
       <c r="E89" s="108">
         <f>_xll.qlRateHelperQuoteValue($C89,Trigger)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F89" s="108">
         <f>_xll.qlSwapRateHelperSpread($C89,Trigger)</f>
@@ -8075,11 +8086,11 @@
       </c>
       <c r="J89" s="109">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K89" s="110">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>60395</v>
+        <v>60398</v>
       </c>
       <c r="M89" s="119"/>
     </row>
@@ -8088,7 +8099,7 @@
       <c r="B90" s="204"/>
       <c r="C90" s="111" t="str">
         <f>Swaps!K42</f>
-        <v>obj_00286#0000</v>
+        <v>obj_00240#0000</v>
       </c>
       <c r="D90" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8114,11 +8125,11 @@
       </c>
       <c r="J90" s="114">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="K90" s="115">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>64047</v>
+        <v>64052</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8234,8 +8245,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8284,7 +8295,7 @@
       </c>
       <c r="J1" s="68">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>-7.756497240968694E-3</v>
+        <v>-7.604245877810562E-3</v>
       </c>
       <c r="O1" s="151"/>
     </row>
@@ -8297,15 +8308,15 @@
       </c>
       <c r="D2" s="69" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0023a</v>
+        <v>obj_00235</v>
       </c>
       <c r="E2" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
-        <v>CHFSND_Quote</v>
+        <v>CHFOND_Quote</v>
       </c>
       <c r="F2" s="70">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>-7.6500000000000005E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8313,14 +8324,14 @@
       </c>
       <c r="H2" s="78">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42132</v>
+        <v>42131</v>
       </c>
       <c r="I2" s="79">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42135</v>
+        <v>42132</v>
       </c>
       <c r="J2" s="68">
-        <v>-7.756497240968694E-3</v>
+        <v>-7.604245877810562E-3</v>
       </c>
       <c r="M2" s="154"/>
       <c r="O2" s="154"/>
@@ -8336,15 +8347,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="69" t="str">
-        <v>obj_00236</v>
+        <v>obj_00230</v>
       </c>
       <c r="E3" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
-        <v>CHFSWD_Quote</v>
+        <v>CHFTND_Quote</v>
       </c>
       <c r="F3" s="70">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>-8.0800000000000004E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="G3" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8356,10 +8367,10 @@
       </c>
       <c r="I3" s="79">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42139</v>
+        <v>42135</v>
       </c>
       <c r="J3" s="68">
-        <v>-8.0958950357108827E-3</v>
+        <v>-7.604364699535706E-3</v>
       </c>
       <c r="M3" s="154"/>
       <c r="O3" s="154"/>
@@ -8375,15 +8386,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="69" t="str">
-        <v>obj_00234</v>
+        <v>obj_00237</v>
       </c>
       <c r="E4" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
-        <v>CHF1MD_Quote</v>
+        <v>CHFSND_Quote</v>
       </c>
       <c r="F4" s="70">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>-8.1700000000000002E-3</v>
+        <v>-7.6500000000000005E-3</v>
       </c>
       <c r="G4" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8391,14 +8402,14 @@
       </c>
       <c r="H4" s="78">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I4" s="79">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42163</v>
+        <v>42136</v>
       </c>
       <c r="J4" s="68">
-        <v>-8.2542728599243123E-3</v>
+        <v>-7.6347582419343807E-3</v>
       </c>
       <c r="M4" s="154"/>
       <c r="V4" s="119"/>
@@ -8413,15 +8424,15 @@
         <v>46</v>
       </c>
       <c r="D5" s="69" t="str">
-        <v>obj_00235</v>
+        <v>obj_00236</v>
       </c>
       <c r="E5" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
-        <v>CHF2MD_Quote</v>
+        <v>CHFSWD_Quote</v>
       </c>
       <c r="F5" s="70">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>-8.09E-3</v>
+        <v>-8.0600000000000012E-3</v>
       </c>
       <c r="G5" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8429,14 +8440,14 @@
       </c>
       <c r="H5" s="78">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I5" s="79">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42193</v>
+        <v>42142</v>
       </c>
       <c r="J5" s="68">
-        <v>-8.1936551296653889E-3</v>
+        <v>-7.9659593560215975E-3</v>
       </c>
       <c r="M5" s="154"/>
       <c r="V5" s="119"/>
@@ -8452,30 +8463,30 @@
         <v/>
       </c>
       <c r="D6" s="69" t="str">
-        <v>obj_00269</v>
+        <v>obj_00238</v>
       </c>
       <c r="E6" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
-        <v>CHFFUT3MM5_Quote</v>
+        <v>CHF1MD_Quote</v>
       </c>
       <c r="F6" s="70">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="70">
+        <v>-8.1700000000000002E-3</v>
+      </c>
+      <c r="G6" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="H6" s="78">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42172</v>
+        <v>42135</v>
       </c>
       <c r="I6" s="79">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42264</v>
+        <v>42166</v>
       </c>
       <c r="J6" s="68">
-        <v>0.61731424240852228</v>
+        <v>-8.2084419626768292E-3</v>
       </c>
       <c r="M6" s="154"/>
       <c r="V6" s="119"/>
@@ -8484,30 +8495,30 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="69" t="str">
-        <v>obj_00287</v>
+        <v>obj_0023a</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
-        <v>CHFFUT3MU5_Quote</v>
+        <v>CHF2MD_Quote</v>
       </c>
       <c r="F7" s="70">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="70">
+        <v>-8.09E-3</v>
+      </c>
+      <c r="G7" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="H7" s="78">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42263</v>
+        <v>42135</v>
       </c>
       <c r="I7" s="79">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42354</v>
+        <v>42198</v>
       </c>
       <c r="J7" s="68">
-        <v>0.72852087329427939</v>
+        <v>-8.172124596040253E-3</v>
       </c>
       <c r="M7" s="154"/>
       <c r="V7" s="119"/>
@@ -8516,15 +8527,15 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="str">
-        <v>obj_0026d</v>
+        <v>obj_00252</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
-        <v>CHFFUT3MZ5_Quote</v>
+        <v>CHFFUT3MM5_Quote</v>
       </c>
       <c r="F8" s="70">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1</v>
+        <v>-8.0500000000001126E-3</v>
       </c>
       <c r="G8" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8532,14 +8543,14 @@
       </c>
       <c r="H8" s="78">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42354</v>
+        <v>42172</v>
       </c>
       <c r="I8" s="79">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42445</v>
+        <v>42264</v>
       </c>
       <c r="J8" s="68">
-        <v>0.77919454938758481</v>
+        <v>-8.179898289848532E-3</v>
       </c>
       <c r="M8" s="154"/>
       <c r="O8" s="154"/>
@@ -8549,15 +8560,15 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="69" t="str">
-        <v>obj_00289</v>
+        <v>obj_0026e</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
-        <v>CHFFUT3MH6_Quote</v>
+        <v>CHFFUT3MU5_Quote</v>
       </c>
       <c r="F9" s="70">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1</v>
+        <v>-8.0500000000001126E-3</v>
       </c>
       <c r="G9" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8565,14 +8576,14 @@
       </c>
       <c r="H9" s="78">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42445</v>
+        <v>42263</v>
       </c>
       <c r="I9" s="79">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42537</v>
+        <v>42354</v>
       </c>
       <c r="J9" s="68">
-        <v>0.80715554598660133</v>
+        <v>-8.1758386974023316E-3</v>
       </c>
       <c r="M9" s="154"/>
       <c r="O9" s="154"/>
@@ -8582,15 +8593,15 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="69" t="str">
-        <v>obj_0025f</v>
+        <v>obj_0023b</v>
       </c>
       <c r="E10" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
-        <v>CHFFUT3MM6_Quote</v>
+        <v>CHFFUT3MZ5_Quote</v>
       </c>
       <c r="F10" s="70">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1</v>
+        <v>-7.6499999999999346E-3</v>
       </c>
       <c r="G10" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8598,14 +8609,14 @@
       </c>
       <c r="H10" s="78">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42536</v>
+        <v>42354</v>
       </c>
       <c r="I10" s="79">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42628</v>
+        <v>42445</v>
       </c>
       <c r="J10" s="68">
-        <v>0.82459394123761198</v>
+        <v>-8.0564143282969396E-3</v>
       </c>
       <c r="M10" s="154"/>
       <c r="O10" s="154"/>
@@ -8615,15 +8626,15 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="69" t="str">
-        <v>obj_00247</v>
+        <v>obj_0025a</v>
       </c>
       <c r="E11" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
-        <v>CHFFUT3MU6_Quote</v>
+        <v>CHFFUT3MH6_Quote</v>
       </c>
       <c r="F11" s="70">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1</v>
+        <v>-7.1000000000001062E-3</v>
       </c>
       <c r="G11" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8631,14 +8642,14 @@
       </c>
       <c r="H11" s="78">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42634</v>
+        <v>42445</v>
       </c>
       <c r="I11" s="79">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42725</v>
+        <v>42537</v>
       </c>
       <c r="J11" s="68">
-        <v>0.83739855629855786</v>
+        <v>-7.863516938817856E-3</v>
       </c>
       <c r="M11" s="154"/>
       <c r="O11" s="154"/>
@@ -8648,15 +8659,15 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="69" t="str">
-        <v>obj_0024c</v>
+        <v>obj_0026d</v>
       </c>
       <c r="E12" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
-        <v>CHFAB6L2Y_Quote</v>
+        <v>CHFFUT3MM6_Quote</v>
       </c>
       <c r="F12" s="70">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>-6.4000000000000003E-3</v>
+        <v>-6.4500000000000668E-3</v>
       </c>
       <c r="G12" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8664,14 +8675,14 @@
       </c>
       <c r="H12" s="78">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42132</v>
+        <v>42536</v>
       </c>
       <c r="I12" s="79">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42863</v>
+        <v>42628</v>
       </c>
       <c r="J12" s="68">
-        <v>-4.637037881941114E-3</v>
+        <v>-7.6211500871597249E-3</v>
       </c>
       <c r="M12" s="154"/>
       <c r="O12" s="154"/>
@@ -8681,15 +8692,15 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="69" t="str">
-        <v>obj_0026c</v>
+        <v>obj_0026a</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>CHFAB6L3Y_Quote</v>
+        <v>CHFFUT3MU6_Quote</v>
       </c>
       <c r="F13" s="70">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>-5.1999999999999998E-3</v>
+        <v>-5.8000000000000274E-3</v>
       </c>
       <c r="G13" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8697,14 +8708,14 @@
       </c>
       <c r="H13" s="78">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42132</v>
+        <v>42634</v>
       </c>
       <c r="I13" s="79">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43228</v>
+        <v>42725</v>
       </c>
       <c r="J13" s="68">
-        <v>-4.2530882791292461E-3</v>
+        <v>-7.3404515615824312E-3</v>
       </c>
       <c r="M13" s="154"/>
       <c r="O13" s="154"/>
@@ -8714,15 +8725,15 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="str">
-        <v>obj_00275</v>
+        <v>obj_00264</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>CHFAB6L4Y_Quote</v>
+        <v>CHFAB6L2Y_Quote</v>
       </c>
       <c r="F14" s="70">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>-3.7499999999999999E-3</v>
+        <v>-5.9000000000000007E-3</v>
       </c>
       <c r="G14" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8730,14 +8741,14 @@
       </c>
       <c r="H14" s="78">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I14" s="79">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>43593</v>
+        <v>42866</v>
       </c>
       <c r="J14" s="68">
-        <v>-3.2462847963328134E-3</v>
+        <v>-5.9246066469831838E-3</v>
       </c>
       <c r="M14" s="154"/>
       <c r="O14" s="154"/>
@@ -8747,15 +8758,15 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="69" t="str">
-        <v>obj_00265</v>
+        <v>obj_00273</v>
       </c>
       <c r="E15" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>CHFAB6L5Y_Quote</v>
+        <v>CHFAB6L3Y_Quote</v>
       </c>
       <c r="F15" s="70">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>-2.2750000000000001E-3</v>
+        <v>-4.5750000000000001E-3</v>
       </c>
       <c r="G15" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8763,14 +8774,14 @@
       </c>
       <c r="H15" s="78">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I15" s="79">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43959</v>
+        <v>43231</v>
       </c>
       <c r="J15" s="68">
-        <v>-2.0371743385366602E-3</v>
+        <v>-4.6014887333829966E-3</v>
       </c>
       <c r="M15" s="154"/>
       <c r="O15" s="154"/>
@@ -8780,15 +8791,15 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="69" t="str">
-        <v>obj_00277</v>
+        <v>obj_00245</v>
       </c>
       <c r="E16" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>CHFAB6L6Y_Quote</v>
+        <v>CHFAB6L4Y_Quote</v>
       </c>
       <c r="F16" s="70">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>-8.7499999999999991E-4</v>
+        <v>-2.9500000000000004E-3</v>
       </c>
       <c r="G16" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8796,14 +8807,14 @@
       </c>
       <c r="H16" s="78">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I16" s="79">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>44326</v>
+        <v>43598</v>
       </c>
       <c r="J16" s="68">
-        <v>-8.0527243003075232E-4</v>
+        <v>-2.9767310000426051E-3</v>
       </c>
       <c r="M16" s="154"/>
       <c r="V16" s="119"/>
@@ -8812,15 +8823,15 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="str">
-        <v>obj_00250</v>
+        <v>obj_00284</v>
       </c>
       <c r="E17" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>CHFAB6L7Y_Quote</v>
+        <v>CHFAB6L5Y_Quote</v>
       </c>
       <c r="F17" s="70">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>3.4999999999999994E-4</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="G17" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8828,14 +8839,14 @@
       </c>
       <c r="H17" s="78">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I17" s="79">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>44690</v>
+        <v>43962</v>
       </c>
       <c r="J17" s="68">
-        <v>3.1850384689562588E-4</v>
+        <v>-1.3216359979824667E-3</v>
       </c>
       <c r="M17" s="154"/>
       <c r="O17" s="154"/>
@@ -8846,15 +8857,15 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="str">
-        <v>obj_0027b</v>
+        <v>obj_00282</v>
       </c>
       <c r="E18" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>CHFAB6L8Y_Quote</v>
+        <v>CHFAB6L6Y_Quote</v>
       </c>
       <c r="F18" s="70">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G18" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8862,14 +8873,14 @@
       </c>
       <c r="H18" s="78">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I18" s="79">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45054</v>
+        <v>44327</v>
       </c>
       <c r="J18" s="68">
-        <v>1.3093887386317171E-3</v>
+        <v>2.3776813316206622E-4</v>
       </c>
       <c r="M18" s="154"/>
       <c r="O18" s="154"/>
@@ -8880,15 +8891,15 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="69" t="str">
-        <v>obj_00256</v>
+        <v>obj_00248</v>
       </c>
       <c r="E19" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>CHFAB6L9Y_Quote</v>
+        <v>CHFAB6L7Y_Quote</v>
       </c>
       <c r="F19" s="70">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.2750000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G19" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8896,14 +8907,14 @@
       </c>
       <c r="H19" s="78">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I19" s="79">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>45420</v>
+        <v>44692</v>
       </c>
       <c r="J19" s="68">
-        <v>2.1524046972604058E-3</v>
+        <v>1.6025057409084016E-3</v>
       </c>
       <c r="M19" s="154"/>
       <c r="O19" s="154"/>
@@ -8914,15 +8925,15 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="str">
-        <v>obj_0023d</v>
+        <v>obj_00274</v>
       </c>
       <c r="E20" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>CHFAB6L10Y_Quote</v>
+        <v>CHFAB6L8Y_Quote</v>
       </c>
       <c r="F20" s="70">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>3.0000000000000005E-3</v>
+        <v>2.7750000000000001E-3</v>
       </c>
       <c r="G20" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8930,14 +8941,14 @@
       </c>
       <c r="H20" s="78">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I20" s="79">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45785</v>
+        <v>45057</v>
       </c>
       <c r="J20" s="68">
-        <v>2.8634021355880097E-3</v>
+        <v>2.79624742922572E-3</v>
       </c>
       <c r="M20" s="154"/>
       <c r="O20" s="154"/>
@@ -8948,15 +8959,15 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="69" t="str">
-        <v>obj_00242</v>
+        <v>obj_0025d</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>CHFAB6L11Y_Quote</v>
+        <v>CHFAB6L9Y_Quote</v>
       </c>
       <c r="F21" s="70">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>3.5750000000000005E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="G21" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8964,14 +8975,14 @@
       </c>
       <c r="H21" s="78">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I21" s="79">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>46150</v>
+        <v>45425</v>
       </c>
       <c r="J21" s="68">
-        <v>3.4358262398558027E-3</v>
+        <v>3.7903454493869036E-3</v>
       </c>
       <c r="M21" s="154"/>
       <c r="O21" s="154"/>
@@ -8982,15 +8993,15 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="str">
-        <v>obj_00282</v>
+        <v>obj_00272</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>CHFAB6L12Y_Quote</v>
+        <v>CHFAB6L10Y_Quote</v>
       </c>
       <c r="F22" s="70">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.1000000000000003E-3</v>
+        <v>4.5500000000000011E-3</v>
       </c>
       <c r="G22" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -8998,14 +9009,14 @@
       </c>
       <c r="H22" s="78">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I22" s="79">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46517</v>
+        <v>45789</v>
       </c>
       <c r="J22" s="68">
-        <v>3.9638026737529621E-3</v>
+        <v>4.6102495615001063E-3</v>
       </c>
       <c r="M22" s="154"/>
       <c r="O22" s="154"/>
@@ -9016,15 +9027,15 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="str">
-        <v>obj_00285</v>
+        <v>obj_00251</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>CHFAB6L15Y_Quote</v>
+        <v>CHFAB6L11Y_Quote</v>
       </c>
       <c r="F23" s="70">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>5.3E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="G23" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -9032,14 +9043,14 @@
       </c>
       <c r="H23" s="78">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I23" s="79">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47611</v>
+        <v>46153</v>
       </c>
       <c r="J23" s="68">
-        <v>5.191166410214553E-3</v>
+        <v>5.2786639815969082E-3</v>
       </c>
       <c r="M23" s="154"/>
       <c r="O23" s="154"/>
@@ -9049,15 +9060,15 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="69" t="str">
-        <v>obj_00253</v>
+        <v>obj_0024d</v>
       </c>
       <c r="E24" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>CHFAB6L20Y_Quote</v>
+        <v>CHFAB6L12Y_Quote</v>
       </c>
       <c r="F24" s="70">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>6.5000000000000006E-3</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="G24" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -9065,14 +9076,14 @@
       </c>
       <c r="H24" s="78">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I24" s="79">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>49437</v>
+        <v>46518</v>
       </c>
       <c r="J24" s="68">
-        <v>6.4518054341542678E-3</v>
+        <v>5.8460152988804217E-3</v>
       </c>
       <c r="M24" s="154"/>
       <c r="O24" s="154"/>
@@ -9082,15 +9093,15 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="69" t="str">
-        <v>obj_00280</v>
+        <v>obj_0027b</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>CHFAB6L25Y_Quote</v>
+        <v>CHFAB6L15Y_Quote</v>
       </c>
       <c r="F25" s="70">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>7.2250000000000005E-3</v>
+        <v>7.0500000000000007E-3</v>
       </c>
       <c r="G25" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -9098,14 +9109,14 @@
       </c>
       <c r="H25" s="78">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I25" s="79">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>51264</v>
+        <v>47616</v>
       </c>
       <c r="J25" s="68">
-        <v>7.2290947412320568E-3</v>
+        <v>7.1951164065095895E-3</v>
       </c>
       <c r="M25" s="154"/>
       <c r="O25" s="154"/>
@@ -9115,15 +9126,15 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="69" t="str">
-        <v>obj_00268</v>
+        <v>obj_00266</v>
       </c>
       <c r="E26" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>CHFAB6L30Y_Quote</v>
+        <v>CHFAB6L20Y_Quote</v>
       </c>
       <c r="F26" s="70">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.6E-3</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="G26" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -9131,14 +9142,14 @@
       </c>
       <c r="H26" s="78">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I26" s="79">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>53090</v>
+        <v>49440</v>
       </c>
       <c r="J26" s="68">
-        <v>7.6357209346565678E-3</v>
+        <v>8.4480572586407513E-3</v>
       </c>
       <c r="M26" s="154"/>
       <c r="O26" s="154"/>
@@ -9148,15 +9159,15 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="str">
-        <v>obj_00258</v>
+        <v>obj_00260</v>
       </c>
       <c r="E27" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>CHFAB6L35Y_Quote</v>
+        <v>CHFAB6L25Y_Quote</v>
       </c>
       <c r="F27" s="70">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>8.9499999999999996E-3</v>
       </c>
       <c r="G27" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -9164,14 +9175,14 @@
       </c>
       <c r="H27" s="78">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I27" s="79">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>54917</v>
+        <v>51267</v>
       </c>
       <c r="J27" s="68">
-        <v>7.7386548826515831E-3</v>
+        <v>9.1810064553431454E-3</v>
       </c>
       <c r="M27" s="154"/>
       <c r="O27" s="154"/>
@@ -9181,15 +9192,15 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="69" t="str">
-        <v>obj_0025d</v>
+        <v>obj_00285</v>
       </c>
       <c r="E28" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>CHFAB6L40Y_Quote</v>
+        <v>CHFAB6L30Y_Quote</v>
       </c>
       <c r="F28" s="70">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>7.6500000000000014E-3</v>
+        <v>9.3250000000000017E-3</v>
       </c>
       <c r="G28" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -9197,14 +9208,14 @@
       </c>
       <c r="H28" s="78">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I28" s="79">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56744</v>
+        <v>53093</v>
       </c>
       <c r="J28" s="68">
-        <v>7.6721248616938749E-3</v>
+        <v>9.5667641637422109E-3</v>
       </c>
       <c r="M28" s="154"/>
       <c r="O28" s="154"/>
@@ -9214,15 +9225,15 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="69" t="str">
-        <v>obj_0027a</v>
+        <v>obj_0027f</v>
       </c>
       <c r="E29" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>CHFAB6L50Y_Quote</v>
+        <v>CHFAB6L35Y_Quote</v>
       </c>
       <c r="F29" s="70">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>9.4250000000000011E-3</v>
       </c>
       <c r="G29" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9230,14 +9241,14 @@
       </c>
       <c r="H29" s="78">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="I29" s="79">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60395</v>
+        <v>54919</v>
       </c>
       <c r="J29" s="68">
-        <v>7.2533850281748065E-3</v>
+        <v>9.6435905033565063E-3</v>
       </c>
       <c r="M29" s="154"/>
       <c r="O29" s="154"/>
@@ -9245,31 +9256,31 @@
       <c r="Y29" s="163"/>
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D30" s="69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="69" t="e">
+      <c r="D30" s="69" t="str">
+        <v>obj_00278</v>
+      </c>
+      <c r="E30" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="70" t="e">
+        <v>CHFAB6L40Y_Quote</v>
+      </c>
+      <c r="F30" s="70">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="70" t="str">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="G30" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>--</v>
-      </c>
-      <c r="H30" s="78" t="e">
+        <v>0</v>
+      </c>
+      <c r="H30" s="78">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="79" t="e">
+        <v>42135</v>
+      </c>
+      <c r="I30" s="79">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="68" t="e">
-        <v>#N/A</v>
+        <v>56745</v>
+      </c>
+      <c r="J30" s="68">
+        <v>9.5496272577922214E-3</v>
       </c>
       <c r="M30" s="154"/>
       <c r="O30" s="154"/>
@@ -9277,31 +9288,31 @@
       <c r="Y30" s="163"/>
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D31" s="69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="69" t="e">
+      <c r="D31" s="69" t="str">
+        <v>obj_00247</v>
+      </c>
+      <c r="E31" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="70" t="e">
+        <v>CHFAB6L50Y_Quote</v>
+      </c>
+      <c r="F31" s="70">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="70" t="str">
+        <v>9.025E-3</v>
+      </c>
+      <c r="G31" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
-        <v>--</v>
-      </c>
-      <c r="H31" s="78" t="e">
+        <v>0</v>
+      </c>
+      <c r="H31" s="78">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="79" t="e">
+        <v>42135</v>
+      </c>
+      <c r="I31" s="79">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="68" t="e">
-        <v>#N/A</v>
+        <v>60398</v>
+      </c>
+      <c r="J31" s="68">
+        <v>9.0752036881841247E-3</v>
       </c>
       <c r="M31" s="154"/>
       <c r="O31" s="154"/>
@@ -12132,7 +12143,7 @@
       </c>
       <c r="C3" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0000</v>
+        <v>obj_0022f#0004</v>
       </c>
       <c r="D3" s="197" t="str">
         <f t="shared" ref="D3:D11" si="0">UPPER(Currency)&amp;B3&amp;"D"&amp;QuoteSuffix</f>
@@ -12140,7 +12151,7 @@
       </c>
       <c r="E3" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00233#0000</v>
+        <v>obj_00235#0004</v>
       </c>
       <c r="F3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12155,7 +12166,7 @@
       </c>
       <c r="C4" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0000</v>
+        <v>obj_0022a#0004</v>
       </c>
       <c r="D4" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12163,7 +12174,7 @@
       </c>
       <c r="E4" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0022c#0000</v>
+        <v>obj_00230#0004</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="192"/>
@@ -12175,7 +12186,7 @@
       </c>
       <c r="C5" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00230#0000</v>
+        <v>obj_00229#0004</v>
       </c>
       <c r="D5" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12183,7 +12194,7 @@
       </c>
       <c r="E5" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0023a#0000</v>
+        <v>obj_00237#0004</v>
       </c>
       <c r="F5" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12198,7 +12209,7 @@
       </c>
       <c r="C6" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022f#0000</v>
+        <v>obj_00228#0004</v>
       </c>
       <c r="D6" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12206,7 +12217,7 @@
       </c>
       <c r="E6" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00236#0000</v>
+        <v>obj_00236#0004</v>
       </c>
       <c r="F6" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -12221,7 +12232,7 @@
       </c>
       <c r="C7" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022e#0000</v>
+        <v>obj_00227#0004</v>
       </c>
       <c r="D7" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12229,7 +12240,7 @@
       </c>
       <c r="E7" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00234#0000</v>
+        <v>obj_00238#0004</v>
       </c>
       <c r="F7" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -12244,7 +12255,7 @@
       </c>
       <c r="C8" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0000</v>
+        <v>obj_0022d#0004</v>
       </c>
       <c r="D8" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12252,7 +12263,7 @@
       </c>
       <c r="E8" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00235#0000</v>
+        <v>obj_0023a#0004</v>
       </c>
       <c r="F8" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12267,7 +12278,7 @@
       </c>
       <c r="C9" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022d#0000</v>
+        <v>obj_0022b#0004</v>
       </c>
       <c r="D9" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12275,7 +12286,7 @@
       </c>
       <c r="E9" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00237#0000</v>
+        <v>obj_00239#0004</v>
       </c>
       <c r="F9" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12290,7 +12301,7 @@
       </c>
       <c r="C10" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0000</v>
+        <v>obj_0022c#0004</v>
       </c>
       <c r="D10" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12298,7 +12309,7 @@
       </c>
       <c r="E10" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00238#0000</v>
+        <v>obj_00233#0004</v>
       </c>
       <c r="F10" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12313,7 +12324,7 @@
       </c>
       <c r="C11" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0000</v>
+        <v>obj_0022e#0004</v>
       </c>
       <c r="D11" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12321,7 +12332,7 @@
       </c>
       <c r="E11" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00239#0000</v>
+        <v>obj_00234#0004</v>
       </c>
       <c r="F11" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -12438,7 +12449,7 @@
       </c>
       <c r="H3" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023b#0000</v>
+        <v>obj_00279#0000</v>
       </c>
       <c r="I3" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -12475,7 +12486,7 @@
       </c>
       <c r="H4" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00269#0000</v>
+        <v>obj_00252#0000</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -12512,7 +12523,7 @@
       </c>
       <c r="H5" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026a#0000</v>
+        <v>obj_0024f#0000</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -12546,7 +12557,7 @@
       </c>
       <c r="H6" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00248#0000</v>
+        <v>obj_00288#0000</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -12580,7 +12591,7 @@
       </c>
       <c r="H7" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00287#0000</v>
+        <v>obj_0026e#0000</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -12614,7 +12625,7 @@
       </c>
       <c r="H8" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00243#0000</v>
+        <v>obj_00276#0000</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -12648,7 +12659,7 @@
       </c>
       <c r="H9" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00260#0000</v>
+        <v>obj_00263#0000</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -12682,7 +12693,7 @@
       </c>
       <c r="H10" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026d#0000</v>
+        <v>obj_0023b#0000</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -12716,7 +12727,7 @@
       </c>
       <c r="H11" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00259#0000</v>
+        <v>obj_00242#0000</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -12750,7 +12761,7 @@
       </c>
       <c r="H12" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00245#0000</v>
+        <v>obj_0025e#0000</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -12784,7 +12795,7 @@
       </c>
       <c r="H13" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00289#0000</v>
+        <v>obj_0025a#0000</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -12818,7 +12829,7 @@
       </c>
       <c r="H14" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027e#0000</v>
+        <v>obj_00265#0000</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -12852,7 +12863,7 @@
       </c>
       <c r="H15" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025f#0000</v>
+        <v>obj_0026d#0000</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -12886,7 +12897,7 @@
       </c>
       <c r="H16" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00247#0000</v>
+        <v>obj_0026a#0000</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -12920,7 +12931,7 @@
       </c>
       <c r="H17" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00249#0000</v>
+        <v>obj_0023f#0000</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -12954,7 +12965,7 @@
       </c>
       <c r="H18" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027d#0000</v>
+        <v>obj_00281#0000</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -12988,7 +12999,7 @@
       </c>
       <c r="H19" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00278#0000</v>
+        <v>obj_0024a#0000</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -13022,7 +13033,7 @@
       </c>
       <c r="H20" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00283#0000</v>
+        <v>obj_00277#0000</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -13056,7 +13067,7 @@
       </c>
       <c r="H21" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00254#0000</v>
+        <v>obj_00262#0000</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -13090,7 +13101,7 @@
       </c>
       <c r="H22" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025e#0000</v>
+        <v>obj_00267#0000</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -13124,7 +13135,7 @@
       </c>
       <c r="H23" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026e#0000</v>
+        <v>obj_00259#0000</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -13158,7 +13169,7 @@
       </c>
       <c r="H24" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00240#0000</v>
+        <v>obj_00250#0000</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -13192,7 +13203,7 @@
       </c>
       <c r="H25" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00257#0000</v>
+        <v>obj_00246#0000</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -13226,7 +13237,7 @@
       </c>
       <c r="H26" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024a#0000</v>
+        <v>obj_0027a#0000</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -13260,7 +13271,7 @@
       </c>
       <c r="H27" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00279#0000</v>
+        <v>obj_0026c#0000</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -13294,7 +13305,7 @@
       </c>
       <c r="H28" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00273#0000</v>
+        <v>obj_0023e#0000</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -13328,7 +13339,7 @@
       </c>
       <c r="H29" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025c#0000</v>
+        <v>obj_00271#0000</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -13362,7 +13373,7 @@
       </c>
       <c r="H30" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00251#0000</v>
+        <v>obj_0025b#0000</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -13396,7 +13407,7 @@
       </c>
       <c r="H31" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00271#0000</v>
+        <v>obj_00256#0000</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -13430,7 +13441,7 @@
       </c>
       <c r="H32" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00262#0000</v>
+        <v>obj_00269#0000</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -13464,7 +13475,7 @@
       </c>
       <c r="H33" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024e#0000</v>
+        <v>obj_00258#0000</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -13498,7 +13509,7 @@
       </c>
       <c r="H34" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023e#0000</v>
+        <v>obj_00286#0000</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -13532,7 +13543,7 @@
       </c>
       <c r="H35" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023c#0000</v>
+        <v>obj_00249#0000</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -13566,7 +13577,7 @@
       </c>
       <c r="H36" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00272#0000</v>
+        <v>obj_0026f#0000</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -13600,7 +13611,7 @@
       </c>
       <c r="H37" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00266#0000</v>
+        <v>obj_0026b#0000</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -13634,7 +13645,7 @@
       </c>
       <c r="H38" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024d#0000</v>
+        <v>obj_00255#0000</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -13668,7 +13679,7 @@
       </c>
       <c r="H39" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00270#0000</v>
+        <v>obj_00241#0000</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -13702,7 +13713,7 @@
       </c>
       <c r="H40" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025a#0000</v>
+        <v>obj_0024c#0000</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -13735,7 +13746,7 @@
       </c>
       <c r="H41" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00267#0000</v>
+        <v>obj_0027d#0000</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -13768,7 +13779,7 @@
       </c>
       <c r="H42" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00246#0000</v>
+        <v>obj_00253#0000</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -13801,7 +13812,7 @@
       </c>
       <c r="H43" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00281#0000</v>
+        <v>obj_0025c#0000</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -13834,7 +13845,7 @@
       </c>
       <c r="H44" s="131" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00244#0000</v>
+        <v>obj_0023d#0000</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -14060,7 +14071,7 @@
       </c>
       <c r="K6" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00241#0000</v>
+        <v>obj_00261#0000</v>
       </c>
       <c r="L6" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14104,7 +14115,7 @@
       </c>
       <c r="K7" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00284#0000</v>
+        <v>obj_00254#0000</v>
       </c>
       <c r="L7" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14148,7 +14159,7 @@
       </c>
       <c r="K8" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00255#0000</v>
+        <v>obj_00257#0000</v>
       </c>
       <c r="L8" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14192,7 +14203,7 @@
       </c>
       <c r="K9" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027c#0000</v>
+        <v>obj_0024e#0000</v>
       </c>
       <c r="L9" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14236,7 +14247,7 @@
       </c>
       <c r="K10" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024c#0000</v>
+        <v>obj_00264#0000</v>
       </c>
       <c r="L10" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14280,7 +14291,7 @@
       </c>
       <c r="K11" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026c#0000</v>
+        <v>obj_00273#0000</v>
       </c>
       <c r="L11" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14324,7 +14335,7 @@
       </c>
       <c r="K12" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00275#0000</v>
+        <v>obj_00245#0000</v>
       </c>
       <c r="L12" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -14368,7 +14379,7 @@
       </c>
       <c r="K13" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00265#0000</v>
+        <v>obj_00284#0000</v>
       </c>
       <c r="L13" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -14411,7 +14422,7 @@
       </c>
       <c r="K14" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00277#0000</v>
+        <v>obj_00282#0000</v>
       </c>
       <c r="L14" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -14454,7 +14465,7 @@
       </c>
       <c r="K15" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00250#0000</v>
+        <v>obj_00248#0000</v>
       </c>
       <c r="L15" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -14497,7 +14508,7 @@
       </c>
       <c r="K16" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027b#0000</v>
+        <v>obj_00274#0000</v>
       </c>
       <c r="L16" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -14540,7 +14551,7 @@
       </c>
       <c r="K17" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00256#0000</v>
+        <v>obj_0025d#0000</v>
       </c>
       <c r="L17" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -14583,7 +14594,7 @@
       </c>
       <c r="K18" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023d#0000</v>
+        <v>obj_00272#0000</v>
       </c>
       <c r="L18" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -14626,7 +14637,7 @@
       </c>
       <c r="K19" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00242#0000</v>
+        <v>obj_00251#0000</v>
       </c>
       <c r="L19" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -14669,7 +14680,7 @@
       </c>
       <c r="K20" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00282#0000</v>
+        <v>obj_0024d#0000</v>
       </c>
       <c r="L20" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -14712,7 +14723,7 @@
       </c>
       <c r="K21" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026b#0000</v>
+        <v>obj_00244#0000</v>
       </c>
       <c r="L21" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -14755,7 +14766,7 @@
       </c>
       <c r="K22" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023f#0000</v>
+        <v>obj_00280#0000</v>
       </c>
       <c r="L22" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -14798,7 +14809,7 @@
       </c>
       <c r="K23" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00285#0000</v>
+        <v>obj_0027b#0000</v>
       </c>
       <c r="L23" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -14841,7 +14852,7 @@
       </c>
       <c r="K24" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024f#0000</v>
+        <v>obj_0023c#0000</v>
       </c>
       <c r="L24" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -14884,7 +14895,7 @@
       </c>
       <c r="K25" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00261#0000</v>
+        <v>obj_0024b#0000</v>
       </c>
       <c r="L25" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -14927,7 +14938,7 @@
       </c>
       <c r="K26" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026f#0000</v>
+        <v>obj_0025f#0000</v>
       </c>
       <c r="L26" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -14970,7 +14981,7 @@
       </c>
       <c r="K27" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00288#0000</v>
+        <v>obj_00283#0000</v>
       </c>
       <c r="L27" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15013,7 +15024,7 @@
       </c>
       <c r="K28" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00253#0000</v>
+        <v>obj_00266#0000</v>
       </c>
       <c r="L28" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15056,7 +15067,7 @@
       </c>
       <c r="K29" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00274#0000</v>
+        <v>obj_00275#0000</v>
       </c>
       <c r="L29" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15099,7 +15110,7 @@
       </c>
       <c r="K30" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027f#0000</v>
+        <v>obj_00268#0000</v>
       </c>
       <c r="L30" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15142,7 +15153,7 @@
       </c>
       <c r="K31" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024b#0000</v>
+        <v>obj_00243#0000</v>
       </c>
       <c r="L31" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15185,7 +15196,7 @@
       </c>
       <c r="K32" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00252#0000</v>
+        <v>obj_0027c#0000</v>
       </c>
       <c r="L32" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15228,7 +15239,7 @@
       </c>
       <c r="K33" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00280#0000</v>
+        <v>obj_00260#0000</v>
       </c>
       <c r="L33" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15271,7 +15282,7 @@
       </c>
       <c r="K34" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025b#0000</v>
+        <v>obj_00289#0000</v>
       </c>
       <c r="L34" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -15314,7 +15325,7 @@
       </c>
       <c r="K35" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00264#0000</v>
+        <v>obj_00270#0000</v>
       </c>
       <c r="L35" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -15357,7 +15368,7 @@
       </c>
       <c r="K36" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00263#0000</v>
+        <v>obj_00287#0000</v>
       </c>
       <c r="L36" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -15400,7 +15411,7 @@
       </c>
       <c r="K37" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00276#0000</v>
+        <v>obj_0027e#0000</v>
       </c>
       <c r="L37" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -15443,7 +15454,7 @@
       </c>
       <c r="K38" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00268#0000</v>
+        <v>obj_00285#0000</v>
       </c>
       <c r="L38" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -15486,7 +15497,7 @@
       </c>
       <c r="K39" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00258#0000</v>
+        <v>obj_0027f#0000</v>
       </c>
       <c r="L39" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -15529,7 +15540,7 @@
       </c>
       <c r="K40" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025d#0000</v>
+        <v>obj_00278#0000</v>
       </c>
       <c r="L40" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -15572,7 +15583,7 @@
       </c>
       <c r="K41" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027a#0000</v>
+        <v>obj_00247#0000</v>
       </c>
       <c r="L41" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -15615,7 +15626,7 @@
       </c>
       <c r="K42" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$3,$I42,B42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00286#0000</v>
+        <v>obj_00240#0000</v>
       </c>
       <c r="L42" s="137" t="str">
         <f>_xll.ohRangeRetrieveError(K42)</f>

--- a/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/CHF/CHF_YCSTDBootstrapping.xlsx
@@ -24,7 +24,7 @@
     <definedName name="Conventions">'General Settings'!$H$4:$I$8</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
-    <definedName name="DiscountingCurve" localSheetId="5">Swaps!$K$1</definedName>
+    <definedName name="DiscountingCurve" localSheetId="5">Swaps!$L$1</definedName>
     <definedName name="FamilyName">'General Settings'!$M$11</definedName>
     <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
   <si>
     <t>60Y</t>
   </si>
@@ -605,12 +605,24 @@
   <si>
     <t>TN</t>
   </si>
+  <si>
+    <t>Future Type</t>
+  </si>
+  <si>
+    <t>IMM</t>
+  </si>
+  <si>
+    <t>Future Date</t>
+  </si>
+  <si>
+    <t>Settl Days</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
@@ -626,6 +638,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="177" formatCode="0.0E+00"/>
     <numFmt numFmtId="178" formatCode="0.E+00"/>
+    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1284,7 +1297,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1729,16 +1742,19 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1792,7 +1808,7 @@
       <sheetData sheetId="1">
         <row r="14">
           <cell r="D14" t="str">
-            <v>CHFSTD#0000</v>
+            <v>CHFSTD#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -2130,7 +2146,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  6 2015 11:54:37</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2494,9 +2510,7 @@
       <c r="C11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="24">
-        <v>42131.492037037038</v>
-      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="27"/>
@@ -2621,7 +2635,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_CHFYCSTD#0019</v>
+        <v>_CHFYCSTD#0004</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2788,7 +2802,7 @@
       </c>
       <c r="D18" s="16" t="str">
         <f>IF(HolidayCheck,JoinCalendar,LiborCalendar)</f>
-        <v>UnitedKingdom::Exchange</v>
+        <v>JoinHolidays(Switzerland,UnitedKingdom::Exchange)</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2928,7 +2942,7 @@
       </c>
       <c r="M21" s="169" t="b">
         <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),2&amp;"D","f",FALSE,Trigger))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="170"/>
       <c r="O21" s="3"/>
@@ -2995,11 +3009,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42131</v>
+        <v>42136</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>9.6435905033565063E-3</v>
+        <v>8.4198547550992896E-3</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3041,11 +3055,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>60398</v>
+        <v>60402</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-8.2084419626768292E-3</v>
+        <v>-8.3763996870769852E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3122,7 +3136,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
         <f>[1]Libor!$D$14</f>
-        <v>CHFSTD#0000</v>
+        <v>CHFSTD#0001</v>
       </c>
       <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -4598,7 +4612,7 @@
       <c r="B2" s="156"/>
       <c r="C2" s="156" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00235#0004</v>
+        <v>obj_001f8#0001</v>
       </c>
       <c r="D2" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4606,7 +4620,7 @@
       </c>
       <c r="E2" s="157">
         <f>_xll.qlRateHelperQuoteValue($C2,Trigger)</f>
-        <v>-7.4999999999999997E-3</v>
+        <v>-7.000000000000001E-3</v>
       </c>
       <c r="F2" s="157"/>
       <c r="G2" s="58" t="b">
@@ -4620,11 +4634,11 @@
       </c>
       <c r="J2" s="159">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>42131</v>
+        <v>42136</v>
       </c>
       <c r="K2" s="160">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>42132</v>
+        <v>42137</v>
       </c>
       <c r="L2" s="57"/>
     </row>
@@ -4633,7 +4647,7 @@
       <c r="B3" s="107"/>
       <c r="C3" s="107" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00230#0004</v>
+        <v>obj_001f6#0001</v>
       </c>
       <c r="D3" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4641,7 +4655,7 @@
       </c>
       <c r="E3" s="108">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>-7.4999999999999997E-3</v>
+        <v>-3.725E-3</v>
       </c>
       <c r="F3" s="108"/>
       <c r="G3" s="58" t="b">
@@ -4655,11 +4669,11 @@
       </c>
       <c r="J3" s="109">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>42132</v>
+        <v>42137</v>
       </c>
       <c r="K3" s="110">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="L3" s="57"/>
     </row>
@@ -4668,7 +4682,7 @@
       <c r="B4" s="107"/>
       <c r="C4" s="107" t="str">
         <f>Deposits!E5</f>
-        <v>obj_00237#0004</v>
+        <v>obj_001fb#0001</v>
       </c>
       <c r="D4" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4690,11 +4704,11 @@
       </c>
       <c r="J4" s="109">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K4" s="110">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>42136</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4702,7 +4716,7 @@
       <c r="B5" s="107"/>
       <c r="C5" s="107" t="str">
         <f>Deposits!E6</f>
-        <v>obj_00236#0004</v>
+        <v>obj_001fa#0001</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4724,11 +4738,11 @@
       </c>
       <c r="J5" s="109">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="K5" s="110">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>42142</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,7 +4750,7 @@
       <c r="B6" s="107"/>
       <c r="C6" s="107" t="str">
         <f>Deposits!E7</f>
-        <v>obj_00238#0004</v>
+        <v>obj_001fc#0001</v>
       </c>
       <c r="D6" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4744,7 +4758,7 @@
       </c>
       <c r="E6" s="108">
         <f>_xll.qlRateHelperQuoteValue($C6,Trigger)</f>
-        <v>-8.1700000000000002E-3</v>
+        <v>-8.1600000000000006E-3</v>
       </c>
       <c r="F6" s="108"/>
       <c r="G6" s="58" t="b">
@@ -4758,11 +4772,11 @@
       </c>
       <c r="J6" s="109">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="K6" s="110">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>42166</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,7 +4784,7 @@
       <c r="B7" s="107"/>
       <c r="C7" s="107" t="str">
         <f>Deposits!E8</f>
-        <v>obj_0023a#0004</v>
+        <v>obj_001f9#0001</v>
       </c>
       <c r="D7" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4778,7 +4792,7 @@
       </c>
       <c r="E7" s="108">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>-8.09E-3</v>
+        <v>-8.0700000000000008E-3</v>
       </c>
       <c r="F7" s="108"/>
       <c r="G7" s="58" t="b">
@@ -4792,11 +4806,11 @@
       </c>
       <c r="J7" s="109">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="K7" s="110">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4804,7 +4818,7 @@
       <c r="B8" s="107"/>
       <c r="C8" s="107" t="str">
         <f>Deposits!E9</f>
-        <v>obj_00239#0004</v>
+        <v>obj_001fe#0001</v>
       </c>
       <c r="D8" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4812,7 +4826,7 @@
       </c>
       <c r="E8" s="108">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>-7.9299999999999995E-3</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="F8" s="108"/>
       <c r="G8" s="58" t="b">
@@ -4826,11 +4840,11 @@
       </c>
       <c r="J8" s="109">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="K8" s="110">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>42227</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,7 +4852,7 @@
       <c r="B9" s="107"/>
       <c r="C9" s="107" t="str">
         <f>Deposits!E10</f>
-        <v>obj_00233#0004</v>
+        <v>obj_001fd#0001</v>
       </c>
       <c r="D9" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -4846,7 +4860,7 @@
       </c>
       <c r="E9" s="108">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>-7.0759999999999998E-3</v>
+        <v>-7.0160000000000014E-3</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="58" t="b">
@@ -4860,11 +4874,11 @@
       </c>
       <c r="J9" s="109">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="K9" s="110">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>42319</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,7 +4886,7 @@
       <c r="B10" s="111"/>
       <c r="C10" s="111" t="str">
         <f>Deposits!E11</f>
-        <v>obj_00234#0004</v>
+        <v>obj_001ff#0001</v>
       </c>
       <c r="D10" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -4880,7 +4894,7 @@
       </c>
       <c r="E10" s="112">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
-        <v>-5.8659999999999997E-3</v>
+        <v>-5.836E-3</v>
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="113" t="b">
@@ -4894,11 +4908,11 @@
       </c>
       <c r="J10" s="114">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="K10" s="115">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>42501</v>
+        <v>42506</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4910,8 +4924,8 @@
         <v>K5</v>
       </c>
       <c r="C11" s="107" t="str">
-        <f>Futures!H3</f>
-        <v>obj_00279#0000</v>
+        <f>Futures!J3</f>
+        <v>obj_002b1#0001</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -4951,8 +4965,8 @@
         <v>M5</v>
       </c>
       <c r="C12" s="107" t="str">
-        <f>Futures!H4</f>
-        <v>obj_00252#0000</v>
+        <f>Futures!J4</f>
+        <v>obj_002b7#0001</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -4960,7 +4974,7 @@
       </c>
       <c r="E12" s="116">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>100.795</v>
+        <v>100.815</v>
       </c>
       <c r="F12" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C12,Trigger)</f>
@@ -4992,8 +5006,8 @@
         <v>N5</v>
       </c>
       <c r="C13" s="107" t="str">
-        <f>Futures!H5</f>
-        <v>obj_0024f#0000</v>
+        <f>Futures!J5</f>
+        <v>obj_002da#0001</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5033,8 +5047,8 @@
         <v>Q5</v>
       </c>
       <c r="C14" s="107" t="str">
-        <f>Futures!H6</f>
-        <v>obj_00288#0000</v>
+        <f>Futures!J6</f>
+        <v>obj_002d5#0001</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5074,8 +5088,8 @@
         <v>U5</v>
       </c>
       <c r="C15" s="107" t="str">
-        <f>Futures!H7</f>
-        <v>obj_0026e#0000</v>
+        <f>Futures!J7</f>
+        <v>obj_002d0#0001</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5083,7 +5097,7 @@
       </c>
       <c r="E15" s="116">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>100.785</v>
+        <v>100.845</v>
       </c>
       <c r="F15" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C15,Trigger)</f>
@@ -5115,8 +5129,8 @@
         <v>V5</v>
       </c>
       <c r="C16" s="107" t="str">
-        <f>Futures!H8</f>
-        <v>obj_00276#0000</v>
+        <f>Futures!J8</f>
+        <v>obj_002cb#0001</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5156,8 +5170,8 @@
         <v>X5</v>
       </c>
       <c r="C17" s="107" t="str">
-        <f>Futures!H9</f>
-        <v>obj_00263#0000</v>
+        <f>Futures!J9</f>
+        <v>obj_002c6#0001</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5197,8 +5211,8 @@
         <v>Z5</v>
       </c>
       <c r="C18" s="107" t="str">
-        <f>Futures!H10</f>
-        <v>obj_0023b#0000</v>
+        <f>Futures!J10</f>
+        <v>obj_002c1#0001</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5206,7 +5220,7 @@
       </c>
       <c r="E18" s="116">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>100.745</v>
+        <v>100.825</v>
       </c>
       <c r="F18" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C18,Trigger)</f>
@@ -5238,8 +5252,8 @@
         <v>F6</v>
       </c>
       <c r="C19" s="107" t="str">
-        <f>Futures!H11</f>
-        <v>obj_00242#0000</v>
+        <f>Futures!J11</f>
+        <v>obj_002bc#0001</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5279,8 +5293,8 @@
         <v>G6</v>
       </c>
       <c r="C20" s="107" t="str">
-        <f>Futures!H12</f>
-        <v>obj_0025e#0000</v>
+        <f>Futures!J12</f>
+        <v>obj_002b6#0001</v>
       </c>
       <c r="D20" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5320,8 +5334,8 @@
         <v>H6</v>
       </c>
       <c r="C21" s="107" t="str">
-        <f>Futures!H13</f>
-        <v>obj_0025a#0000</v>
+        <f>Futures!J13</f>
+        <v>obj_002d9#0001</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
@@ -5329,7 +5343,7 @@
       </c>
       <c r="E21" s="116">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>100.67500000000001</v>
+        <v>100.77000000000001</v>
       </c>
       <c r="F21" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5361,8 +5375,8 @@
         <v>J6</v>
       </c>
       <c r="C22" s="107" t="str">
-        <f>Futures!H14</f>
-        <v>obj_00265#0000</v>
+        <f>Futures!J14</f>
+        <v>obj_002d4#0001</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
@@ -5402,8 +5416,8 @@
         <v>M6</v>
       </c>
       <c r="C23" s="107" t="str">
-        <f>Futures!H15</f>
-        <v>obj_0026d#0000</v>
+        <f>Futures!J15</f>
+        <v>obj_002cf#0001</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
@@ -5411,7 +5425,7 @@
       </c>
       <c r="E23" s="116">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>100.605</v>
+        <v>100.71000000000001</v>
       </c>
       <c r="F23" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5443,8 +5457,8 @@
         <v>U6</v>
       </c>
       <c r="C24" s="107" t="str">
-        <f>Futures!H16</f>
-        <v>obj_0026a#0000</v>
+        <f>Futures!J16</f>
+        <v>obj_002ca#0001</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
@@ -5452,7 +5466,7 @@
       </c>
       <c r="E24" s="116">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>100.545</v>
+        <v>100.64500000000001</v>
       </c>
       <c r="F24" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5484,8 +5498,8 @@
         <v>Z6</v>
       </c>
       <c r="C25" s="107" t="str">
-        <f>Futures!H17</f>
-        <v>obj_0023f#0000</v>
+        <f>Futures!J17</f>
+        <v>obj_002c5#0001</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
@@ -5493,7 +5507,7 @@
       </c>
       <c r="E25" s="116">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>100.47499999999999</v>
+        <v>100.58000000000001</v>
       </c>
       <c r="F25" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5525,8 +5539,8 @@
         <v>H7</v>
       </c>
       <c r="C26" s="107" t="str">
-        <f>Futures!H18</f>
-        <v>obj_00281#0000</v>
+        <f>Futures!J18</f>
+        <v>obj_002c0#0001</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
@@ -5534,7 +5548,7 @@
       </c>
       <c r="E26" s="116">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>100.405</v>
+        <v>100.515</v>
       </c>
       <c r="F26" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5566,8 +5580,8 @@
         <v>M7</v>
       </c>
       <c r="C27" s="107" t="str">
-        <f>Futures!H19</f>
-        <v>obj_0024a#0000</v>
+        <f>Futures!J19</f>
+        <v>obj_002bb#0001</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
@@ -5575,7 +5589,7 @@
       </c>
       <c r="E27" s="116">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
-        <v>100.32</v>
+        <v>100.44</v>
       </c>
       <c r="F27" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger)</f>
@@ -5607,8 +5621,8 @@
         <v>U7</v>
       </c>
       <c r="C28" s="107" t="str">
-        <f>Futures!H20</f>
-        <v>obj_00277#0000</v>
+        <f>Futures!J20</f>
+        <v>obj_002b5#0001</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
@@ -5616,7 +5630,7 @@
       </c>
       <c r="E28" s="116">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>100.23500000000001</v>
+        <v>100.36500000000001</v>
       </c>
       <c r="F28" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
@@ -5648,8 +5662,8 @@
         <v>Z7</v>
       </c>
       <c r="C29" s="107" t="str">
-        <f>Futures!H21</f>
-        <v>obj_00262#0000</v>
+        <f>Futures!J21</f>
+        <v>obj_002d8#0001</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
@@ -5657,7 +5671,7 @@
       </c>
       <c r="E29" s="116">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
-        <v>100.14000000000001</v>
+        <v>100.28</v>
       </c>
       <c r="F29" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger)</f>
@@ -5689,8 +5703,8 @@
         <v>H8</v>
       </c>
       <c r="C30" s="107" t="str">
-        <f>Futures!H22</f>
-        <v>obj_00267#0000</v>
+        <f>Futures!J22</f>
+        <v>obj_002d3#0001</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
@@ -5698,7 +5712,7 @@
       </c>
       <c r="E30" s="116">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
-        <v>100.04500000000002</v>
+        <v>100.19</v>
       </c>
       <c r="F30" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger)</f>
@@ -5730,8 +5744,8 @@
         <v>M8</v>
       </c>
       <c r="C31" s="107" t="str">
-        <f>Futures!H23</f>
-        <v>obj_00259#0000</v>
+        <f>Futures!J23</f>
+        <v>obj_002ce#0001</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
@@ -5739,7 +5753,7 @@
       </c>
       <c r="E31" s="116">
         <f>_xll.qlRateHelperQuoteValue($C31,Trigger)</f>
-        <v>99.93</v>
+        <v>100.06</v>
       </c>
       <c r="F31" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger)</f>
@@ -5771,8 +5785,8 @@
         <v>U8</v>
       </c>
       <c r="C32" s="107" t="str">
-        <f>Futures!H24</f>
-        <v>obj_00250#0000</v>
+        <f>Futures!J24</f>
+        <v>obj_002c9#0001</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
@@ -5780,7 +5794,7 @@
       </c>
       <c r="E32" s="116">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
-        <v>49.97</v>
+        <v>100.05</v>
       </c>
       <c r="F32" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger)</f>
@@ -5812,8 +5826,8 @@
         <v>Z8</v>
       </c>
       <c r="C33" s="107" t="str">
-        <f>Futures!H25</f>
-        <v>obj_00246#0000</v>
+        <f>Futures!J25</f>
+        <v>obj_002c4#0001</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5821,7 +5835,7 @@
       </c>
       <c r="E33" s="116">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>49.965000000000003</v>
+        <v>100.09</v>
       </c>
       <c r="F33" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
@@ -5853,8 +5867,8 @@
         <v>H9</v>
       </c>
       <c r="C34" s="107" t="str">
-        <f>Futures!H26</f>
-        <v>obj_0027a#0000</v>
+        <f>Futures!J26</f>
+        <v>obj_002bf#0001</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5862,7 +5876,7 @@
       </c>
       <c r="E34" s="116">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>49.965000000000003</v>
+        <v>100.13</v>
       </c>
       <c r="F34" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
@@ -5894,8 +5908,8 @@
         <v>M9</v>
       </c>
       <c r="C35" s="107" t="str">
-        <f>Futures!H27</f>
-        <v>obj_0026c#0000</v>
+        <f>Futures!J27</f>
+        <v>obj_002ba#0001</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -5903,7 +5917,7 @@
       </c>
       <c r="E35" s="116">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>49.97</v>
+        <v>100.17</v>
       </c>
       <c r="F35" s="108">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
@@ -5935,20 +5949,20 @@
         <v>U9</v>
       </c>
       <c r="C36" s="107" t="str">
-        <f>Futures!H28</f>
-        <v>obj_0023e#0000</v>
+        <f>Futures!J28</f>
+        <v>obj_002b4#0001</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
         <v>CHFFUT3MU9_Quote</v>
       </c>
-      <c r="E36" s="116">
+      <c r="E36" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F36" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G36" s="58" t="b">
         <v>1</v>
@@ -5976,20 +5990,20 @@
         <v>Z9</v>
       </c>
       <c r="C37" s="107" t="str">
-        <f>Futures!H29</f>
-        <v>obj_00271#0000</v>
+        <f>Futures!J29</f>
+        <v>obj_002d7#0001</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
         <v>CHFFUT3MZ9_Quote</v>
       </c>
-      <c r="E37" s="116">
+      <c r="E37" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F37" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G37" s="58" t="b">
         <v>1</v>
@@ -6017,20 +6031,20 @@
         <v>H0</v>
       </c>
       <c r="C38" s="107" t="str">
-        <f>Futures!H30</f>
-        <v>obj_0025b#0000</v>
+        <f>Futures!J30</f>
+        <v>obj_002d2#0001</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
         <v>CHFFUT3MH0_Quote</v>
       </c>
-      <c r="E38" s="116">
+      <c r="E38" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F38" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G38" s="58" t="b">
         <v>1</v>
@@ -6058,20 +6072,20 @@
         <v>M0</v>
       </c>
       <c r="C39" s="107" t="str">
-        <f>Futures!H31</f>
-        <v>obj_00256#0000</v>
+        <f>Futures!J31</f>
+        <v>obj_002cd#0001</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
         <v>CHFFUT3MM0_Quote</v>
       </c>
-      <c r="E39" s="116">
+      <c r="E39" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F39" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G39" s="58" t="b">
         <v>1</v>
@@ -6099,20 +6113,20 @@
         <v>U0</v>
       </c>
       <c r="C40" s="107" t="str">
-        <f>Futures!H32</f>
-        <v>obj_00269#0000</v>
+        <f>Futures!J32</f>
+        <v>obj_002c8#0001</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
         <v>CHFFUT3MU0_Quote</v>
       </c>
-      <c r="E40" s="116">
+      <c r="E40" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F40" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G40" s="58" t="b">
         <v>1</v>
@@ -6140,20 +6154,20 @@
         <v>Z0</v>
       </c>
       <c r="C41" s="107" t="str">
-        <f>Futures!H33</f>
-        <v>obj_00258#0000</v>
+        <f>Futures!J33</f>
+        <v>obj_002c3#0001</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
         <v>CHFFUT3MZ0_Quote</v>
       </c>
-      <c r="E41" s="116">
+      <c r="E41" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F41" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G41" s="58" t="b">
         <v>1</v>
@@ -6181,20 +6195,20 @@
         <v>H1</v>
       </c>
       <c r="C42" s="107" t="str">
-        <f>Futures!H34</f>
-        <v>obj_00286#0000</v>
+        <f>Futures!J34</f>
+        <v>obj_002be#0001</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
         <v>CHFFUT3MH1_Quote</v>
       </c>
-      <c r="E42" s="116">
+      <c r="E42" s="116" t="e">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="108">
+        <v>#NUM!</v>
+      </c>
+      <c r="F42" s="108" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="G42" s="58" t="b">
         <v>1</v>
@@ -6222,8 +6236,8 @@
         <v>M1</v>
       </c>
       <c r="C43" s="107" t="str">
-        <f>Futures!H35</f>
-        <v>obj_00249#0000</v>
+        <f>Futures!J35</f>
+        <v>obj_002b9#0001</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6263,8 +6277,8 @@
         <v>U1</v>
       </c>
       <c r="C44" s="107" t="str">
-        <f>Futures!H36</f>
-        <v>obj_0026f#0000</v>
+        <f>Futures!J36</f>
+        <v>obj_002b3#0001</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6304,8 +6318,8 @@
         <v>Z1</v>
       </c>
       <c r="C45" s="107" t="str">
-        <f>Futures!H37</f>
-        <v>obj_0026b#0000</v>
+        <f>Futures!J37</f>
+        <v>obj_002d6#0001</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6345,8 +6359,8 @@
         <v>H2</v>
       </c>
       <c r="C46" s="107" t="str">
-        <f>Futures!H38</f>
-        <v>obj_00255#0000</v>
+        <f>Futures!J38</f>
+        <v>obj_002d1#0001</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6386,8 +6400,8 @@
         <v>M2</v>
       </c>
       <c r="C47" s="107" t="str">
-        <f>Futures!H39</f>
-        <v>obj_00241#0000</v>
+        <f>Futures!J39</f>
+        <v>obj_002cc#0001</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6427,8 +6441,8 @@
         <v>U2</v>
       </c>
       <c r="C48" s="107" t="str">
-        <f>Futures!H40</f>
-        <v>obj_0024c#0000</v>
+        <f>Futures!J40</f>
+        <v>obj_002c7#0001</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6468,8 +6482,8 @@
         <v>Z2</v>
       </c>
       <c r="C49" s="107" t="str">
-        <f>Futures!H41</f>
-        <v>obj_0027d#0000</v>
+        <f>Futures!J41</f>
+        <v>obj_002c2#0001</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6509,8 +6523,8 @@
         <v>H3</v>
       </c>
       <c r="C50" s="107" t="str">
-        <f>Futures!H42</f>
-        <v>obj_00253#0000</v>
+        <f>Futures!J42</f>
+        <v>obj_002bd#0001</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6550,8 +6564,8 @@
         <v>M3</v>
       </c>
       <c r="C51" s="107" t="str">
-        <f>Futures!H43</f>
-        <v>obj_0025c#0000</v>
+        <f>Futures!J43</f>
+        <v>obj_002b8#0001</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6591,8 +6605,8 @@
         <v>U3</v>
       </c>
       <c r="C52" s="111" t="str">
-        <f>Futures!H44</f>
-        <v>obj_0023d#0000</v>
+        <f>Futures!J44</f>
+        <v>obj_002b2#0001</v>
       </c>
       <c r="D52" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6629,8 +6643,8 @@
       <c r="A53" s="200"/>
       <c r="B53" s="156"/>
       <c r="C53" s="156" t="str">
-        <f>Swaps!K5</f>
-        <v>obj_00232#0000</v>
+        <f>Swaps!L5</f>
+        <v>obj_002dc#0001</v>
       </c>
       <c r="D53" s="156" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6644,7 +6658,7 @@
         <f>_xll.qlSwapRateHelperSpread($C53,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="210" t="b">
+      <c r="G53" s="208" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="158">
@@ -6655,11 +6669,11 @@
       </c>
       <c r="J53" s="159">
         <f>_xll.qlRateHelperEarliestDate($C53,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K53" s="160">
         <f>_xll.qlRateHelperLatestDate($C53,Trigger)</f>
-        <v>42319</v>
+        <v>42324</v>
       </c>
       <c r="M53" s="119"/>
     </row>
@@ -6667,8 +6681,8 @@
       <c r="A54" s="201"/>
       <c r="B54" s="107"/>
       <c r="C54" s="107" t="str">
-        <f>Swaps!K6</f>
-        <v>obj_00261#0000</v>
+        <f>Swaps!L6</f>
+        <v>obj_002f5#0001</v>
       </c>
       <c r="D54" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6676,13 +6690,13 @@
       </c>
       <c r="E54" s="108">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>-6.8000000000000005E-3</v>
+        <v>-7.1250000000000003E-3</v>
       </c>
       <c r="F54" s="108">
         <f>_xll.qlSwapRateHelperSpread($C54,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="211" t="b">
+      <c r="G54" s="209" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="58">
@@ -6693,11 +6707,11 @@
       </c>
       <c r="J54" s="109">
         <f>_xll.qlRateHelperEarliestDate($C54,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K54" s="110">
         <f>_xll.qlRateHelperLatestDate($C54,Trigger)</f>
-        <v>42501</v>
+        <v>42507</v>
       </c>
       <c r="M54" s="119"/>
     </row>
@@ -6705,8 +6719,8 @@
       <c r="A55" s="201"/>
       <c r="B55" s="107"/>
       <c r="C55" s="107" t="str">
-        <f>Swaps!K7</f>
-        <v>obj_00254#0000</v>
+        <f>Swaps!L7</f>
+        <v>obj_002f0#0001</v>
       </c>
       <c r="D55" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6720,7 +6734,7 @@
         <f>_xll.qlSwapRateHelperSpread($C55,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="211" t="b">
+      <c r="G55" s="209" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="58">
@@ -6731,11 +6745,11 @@
       </c>
       <c r="J55" s="109">
         <f>_xll.qlRateHelperEarliestDate($C55,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K55" s="110">
         <f>_xll.qlRateHelperLatestDate($C55,Trigger)</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="M55" s="119"/>
     </row>
@@ -6743,8 +6757,8 @@
       <c r="A56" s="201"/>
       <c r="B56" s="107"/>
       <c r="C56" s="107" t="str">
-        <f>Swaps!K8</f>
-        <v>obj_00257#0000</v>
+        <f>Swaps!L8</f>
+        <v>obj_002eb#0001</v>
       </c>
       <c r="D56" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6758,7 +6772,7 @@
         <f>_xll.qlSwapRateHelperSpread($C56,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G56" s="211" t="b">
+      <c r="G56" s="209" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="58">
@@ -6769,11 +6783,11 @@
       </c>
       <c r="J56" s="109">
         <f>_xll.qlRateHelperEarliestDate($C56,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K56" s="110">
         <f>_xll.qlRateHelperLatestDate($C56,Trigger)</f>
-        <v>42685</v>
+        <v>42689</v>
       </c>
       <c r="M56" s="119"/>
     </row>
@@ -6781,8 +6795,8 @@
       <c r="A57" s="201"/>
       <c r="B57" s="107"/>
       <c r="C57" s="107" t="str">
-        <f>Swaps!K9</f>
-        <v>obj_0024e#0000</v>
+        <f>Swaps!L9</f>
+        <v>obj_002e6#0001</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6796,7 +6810,7 @@
         <f>_xll.qlSwapRateHelperSpread($C57,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="211" t="b">
+      <c r="G57" s="209" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="58">
@@ -6807,11 +6821,11 @@
       </c>
       <c r="J57" s="109">
         <f>_xll.qlRateHelperEarliestDate($C57,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K57" s="110">
         <f>_xll.qlRateHelperLatestDate($C57,Trigger)</f>
-        <v>42779</v>
+        <v>42781</v>
       </c>
       <c r="M57" s="119"/>
     </row>
@@ -6819,8 +6833,8 @@
       <c r="A58" s="201"/>
       <c r="B58" s="107"/>
       <c r="C58" s="107" t="str">
-        <f>Swaps!K10</f>
-        <v>obj_00264#0000</v>
+        <f>Swaps!L10</f>
+        <v>obj_002e1#0001</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6828,7 +6842,7 @@
       </c>
       <c r="E58" s="108">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>-5.6000000000000008E-3</v>
+        <v>-6.3250000000000008E-3</v>
       </c>
       <c r="F58" s="108">
         <f>_xll.qlSwapRateHelperSpread($C58,Trigger)</f>
@@ -6846,11 +6860,11 @@
       </c>
       <c r="J58" s="109">
         <f>_xll.qlRateHelperEarliestDate($C58,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K58" s="110">
         <f>_xll.qlRateHelperLatestDate($C58,Trigger)</f>
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="M58" s="119"/>
       <c r="O58" s="162"/>
@@ -6859,8 +6873,8 @@
       <c r="A59" s="201"/>
       <c r="B59" s="107"/>
       <c r="C59" s="107" t="str">
-        <f>Swaps!K11</f>
-        <v>obj_00273#0000</v>
+        <f>Swaps!L11</f>
+        <v>obj_00300#0001</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6868,7 +6882,7 @@
       </c>
       <c r="E59" s="108">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>-4.2000000000000006E-3</v>
+        <v>-5.1750000000000008E-3</v>
       </c>
       <c r="F59" s="108">
         <f>_xll.qlSwapRateHelperSpread($C59,Trigger)</f>
@@ -6886,11 +6900,11 @@
       </c>
       <c r="J59" s="109">
         <f>_xll.qlRateHelperEarliestDate($C59,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K59" s="110">
         <f>_xll.qlRateHelperLatestDate($C59,Trigger)</f>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="M59" s="119"/>
       <c r="O59" s="162"/>
@@ -6899,8 +6913,8 @@
       <c r="A60" s="201"/>
       <c r="B60" s="107"/>
       <c r="C60" s="107" t="str">
-        <f>Swaps!K12</f>
-        <v>obj_00245#0000</v>
+        <f>Swaps!L12</f>
+        <v>obj_002fd#0001</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -6908,7 +6922,7 @@
       </c>
       <c r="E60" s="108">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>-2.575E-3</v>
+        <v>-3.7499999999999999E-3</v>
       </c>
       <c r="F60" s="108">
         <f>_xll.qlSwapRateHelperSpread($C60,Trigger)</f>
@@ -6926,11 +6940,11 @@
       </c>
       <c r="J60" s="109">
         <f>_xll.qlRateHelperEarliestDate($C60,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K60" s="110">
         <f>_xll.qlRateHelperLatestDate($C60,Trigger)</f>
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="M60" s="119"/>
       <c r="O60" s="162"/>
@@ -6939,8 +6953,8 @@
       <c r="A61" s="201"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107" t="str">
-        <f>Swaps!K13</f>
-        <v>obj_00284#0000</v>
+        <f>Swaps!L13</f>
+        <v>obj_002f9#0001</v>
       </c>
       <c r="D61" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -6948,7 +6962,7 @@
       </c>
       <c r="E61" s="108">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>-8.5000000000000006E-4</v>
+        <v>-2.225E-3</v>
       </c>
       <c r="F61" s="108">
         <f>_xll.qlSwapRateHelperSpread($C61,Trigger)</f>
@@ -6966,11 +6980,11 @@
       </c>
       <c r="J61" s="109">
         <f>_xll.qlRateHelperEarliestDate($C61,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K61" s="110">
         <f>_xll.qlRateHelperLatestDate($C61,Trigger)</f>
-        <v>43962</v>
+        <v>43966</v>
       </c>
       <c r="M61" s="119"/>
       <c r="O61" s="162"/>
@@ -6979,8 +6993,8 @@
       <c r="A62" s="201"/>
       <c r="B62" s="107"/>
       <c r="C62" s="107" t="str">
-        <f>Swaps!K14</f>
-        <v>obj_00282#0000</v>
+        <f>Swaps!L14</f>
+        <v>obj_002f4#0001</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -6988,7 +7002,7 @@
       </c>
       <c r="E62" s="108">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>7.2500000000000006E-4</v>
+        <v>-7.2500000000000006E-4</v>
       </c>
       <c r="F62" s="108">
         <f>_xll.qlSwapRateHelperSpread($C62,Trigger)</f>
@@ -7006,11 +7020,11 @@
       </c>
       <c r="J62" s="109">
         <f>_xll.qlRateHelperEarliestDate($C62,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K62" s="110">
         <f>_xll.qlRateHelperLatestDate($C62,Trigger)</f>
-        <v>44327</v>
+        <v>44333</v>
       </c>
       <c r="M62" s="119"/>
       <c r="O62" s="162"/>
@@ -7019,8 +7033,8 @@
       <c r="A63" s="201"/>
       <c r="B63" s="107"/>
       <c r="C63" s="107" t="str">
-        <f>Swaps!K15</f>
-        <v>obj_00248#0000</v>
+        <f>Swaps!L15</f>
+        <v>obj_002ef#0001</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7028,7 +7042,7 @@
       </c>
       <c r="E63" s="108">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>2.1000000000000003E-3</v>
+        <v>5.7499999999999999E-4</v>
       </c>
       <c r="F63" s="108">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7046,11 +7060,11 @@
       </c>
       <c r="J63" s="109">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K63" s="110">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>44692</v>
+        <v>44697</v>
       </c>
       <c r="M63" s="119"/>
       <c r="O63" s="162"/>
@@ -7059,8 +7073,8 @@
       <c r="A64" s="201"/>
       <c r="B64" s="107"/>
       <c r="C64" s="107" t="str">
-        <f>Swaps!K16</f>
-        <v>obj_00274#0000</v>
+        <f>Swaps!L16</f>
+        <v>obj_002ea#0001</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7068,7 +7082,7 @@
       </c>
       <c r="E64" s="108">
         <f>_xll.qlRateHelperQuoteValue($C64,Trigger)</f>
-        <v>3.2750000000000001E-3</v>
+        <v>1.6750000000000001E-3</v>
       </c>
       <c r="F64" s="108">
         <f>_xll.qlSwapRateHelperSpread($C64,Trigger)</f>
@@ -7086,11 +7100,11 @@
       </c>
       <c r="J64" s="109">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K64" s="110">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="M64" s="119"/>
       <c r="O64" s="162"/>
@@ -7099,8 +7113,8 @@
       <c r="A65" s="201"/>
       <c r="B65" s="107"/>
       <c r="C65" s="107" t="str">
-        <f>Swaps!K17</f>
-        <v>obj_0025d#0000</v>
+        <f>Swaps!L17</f>
+        <v>obj_002e5#0001</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7108,7 +7122,7 @@
       </c>
       <c r="E65" s="108">
         <f>_xll.qlRateHelperQuoteValue($C65,Trigger)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>2.6250000000000002E-3</v>
       </c>
       <c r="F65" s="108">
         <f>_xll.qlSwapRateHelperSpread($C65,Trigger)</f>
@@ -7126,11 +7140,11 @@
       </c>
       <c r="J65" s="109">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K65" s="110">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="M65" s="119"/>
       <c r="O65" s="162"/>
@@ -7139,8 +7153,8 @@
       <c r="A66" s="201"/>
       <c r="B66" s="107"/>
       <c r="C66" s="107" t="str">
-        <f>Swaps!K18</f>
-        <v>obj_00272#0000</v>
+        <f>Swaps!L18</f>
+        <v>obj_002e0#0001</v>
       </c>
       <c r="D66" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7148,7 +7162,7 @@
       </c>
       <c r="E66" s="108">
         <f>_xll.qlRateHelperQuoteValue($C66,Trigger)</f>
-        <v>5.0499999999999998E-3</v>
+        <v>3.4250000000000001E-3</v>
       </c>
       <c r="F66" s="108">
         <f>_xll.qlSwapRateHelperSpread($C66,Trigger)</f>
@@ -7166,11 +7180,11 @@
       </c>
       <c r="J66" s="109">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K66" s="110">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="M66" s="119"/>
       <c r="O66" s="162"/>
@@ -7179,8 +7193,8 @@
       <c r="A67" s="201"/>
       <c r="B67" s="107"/>
       <c r="C67" s="107" t="str">
-        <f>Swaps!K19</f>
-        <v>obj_00251#0000</v>
+        <f>Swaps!L19</f>
+        <v>obj_002ff#0001</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7188,7 +7202,7 @@
       </c>
       <c r="E67" s="108">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>5.7000000000000002E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="F67" s="108">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7206,11 +7220,11 @@
       </c>
       <c r="J67" s="109">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K67" s="110">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>46153</v>
+        <v>46157</v>
       </c>
       <c r="M67" s="119"/>
       <c r="O67" s="162"/>
@@ -7219,8 +7233,8 @@
       <c r="A68" s="201"/>
       <c r="B68" s="107"/>
       <c r="C68" s="107" t="str">
-        <f>Swaps!K20</f>
-        <v>obj_0024d#0000</v>
+        <f>Swaps!L20</f>
+        <v>obj_002fc#0001</v>
       </c>
       <c r="D68" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7228,7 +7242,7 @@
       </c>
       <c r="E68" s="108">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>6.2500000000000003E-3</v>
+        <v>4.5750000000000001E-3</v>
       </c>
       <c r="F68" s="108">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7246,11 +7260,11 @@
       </c>
       <c r="J68" s="109">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K68" s="110">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>46518</v>
+        <v>46525</v>
       </c>
       <c r="M68" s="119"/>
       <c r="O68" s="162"/>
@@ -7259,8 +7273,8 @@
       <c r="A69" s="201"/>
       <c r="B69" s="107"/>
       <c r="C69" s="107" t="str">
-        <f>Swaps!K21</f>
-        <v>obj_00244#0000</v>
+        <f>Swaps!L21</f>
+        <v>obj_002f8#0001</v>
       </c>
       <c r="D69" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7286,11 +7300,11 @@
       </c>
       <c r="J69" s="109">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K69" s="110">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>46884</v>
+        <v>46888</v>
       </c>
       <c r="M69" s="119"/>
       <c r="O69" s="162"/>
@@ -7299,8 +7313,8 @@
       <c r="A70" s="201"/>
       <c r="B70" s="107"/>
       <c r="C70" s="107" t="str">
-        <f>Swaps!K22</f>
-        <v>obj_00280#0000</v>
+        <f>Swaps!L22</f>
+        <v>obj_002f3#0001</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7326,11 +7340,11 @@
       </c>
       <c r="J70" s="109">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K70" s="110">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>47249</v>
+        <v>47253</v>
       </c>
       <c r="M70" s="119"/>
       <c r="O70" s="162"/>
@@ -7339,8 +7353,8 @@
       <c r="A71" s="201"/>
       <c r="B71" s="107"/>
       <c r="C71" s="107" t="str">
-        <f>Swaps!K23</f>
-        <v>obj_0027b#0000</v>
+        <f>Swaps!L23</f>
+        <v>obj_002ee#0001</v>
       </c>
       <c r="D71" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7348,7 +7362,7 @@
       </c>
       <c r="E71" s="108">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>7.575000000000001E-3</v>
+        <v>5.7750000000000015E-3</v>
       </c>
       <c r="F71" s="108">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7366,11 +7380,11 @@
       </c>
       <c r="J71" s="109">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K71" s="110">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>47616</v>
+        <v>47618</v>
       </c>
       <c r="M71" s="119"/>
       <c r="O71" s="162"/>
@@ -7379,8 +7393,8 @@
       <c r="A72" s="201"/>
       <c r="B72" s="107"/>
       <c r="C72" s="107" t="str">
-        <f>Swaps!K24</f>
-        <v>obj_0023c#0000</v>
+        <f>Swaps!L24</f>
+        <v>obj_002e9#0001</v>
       </c>
       <c r="D72" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7406,11 +7420,11 @@
       </c>
       <c r="J72" s="109">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K72" s="110">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>47980</v>
+        <v>47983</v>
       </c>
       <c r="M72" s="119"/>
       <c r="O72" s="162"/>
@@ -7419,8 +7433,8 @@
       <c r="A73" s="201"/>
       <c r="B73" s="107"/>
       <c r="C73" s="107" t="str">
-        <f>Swaps!K25</f>
-        <v>obj_0024b#0000</v>
+        <f>Swaps!L25</f>
+        <v>obj_002e4#0001</v>
       </c>
       <c r="D73" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7446,11 +7460,11 @@
       </c>
       <c r="J73" s="109">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K73" s="110">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>48345</v>
+        <v>48352</v>
       </c>
       <c r="M73" s="119"/>
       <c r="O73" s="162"/>
@@ -7459,8 +7473,8 @@
       <c r="A74" s="201"/>
       <c r="B74" s="107"/>
       <c r="C74" s="107" t="str">
-        <f>Swaps!K26</f>
-        <v>obj_0025f#0000</v>
+        <f>Swaps!L26</f>
+        <v>obj_002df#0001</v>
       </c>
       <c r="D74" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7486,11 +7500,11 @@
       </c>
       <c r="J74" s="109">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K74" s="110">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>48710</v>
+        <v>48715</v>
       </c>
       <c r="M74" s="119"/>
       <c r="O74" s="162"/>
@@ -7499,8 +7513,8 @@
       <c r="A75" s="201"/>
       <c r="B75" s="107"/>
       <c r="C75" s="107" t="str">
-        <f>Swaps!K27</f>
-        <v>obj_00283#0000</v>
+        <f>Swaps!L27</f>
+        <v>obj_00301#0001</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7526,11 +7540,11 @@
       </c>
       <c r="J75" s="109">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K75" s="110">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>49075</v>
+        <v>49079</v>
       </c>
       <c r="M75" s="119"/>
       <c r="O75" s="162"/>
@@ -7539,8 +7553,8 @@
       <c r="A76" s="201"/>
       <c r="B76" s="107"/>
       <c r="C76" s="107" t="str">
-        <f>Swaps!K28</f>
-        <v>obj_00266#0000</v>
+        <f>Swaps!L28</f>
+        <v>obj_002fb#0001</v>
       </c>
       <c r="D76" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7548,7 +7562,7 @@
       </c>
       <c r="E76" s="108">
         <f>_xll.qlRateHelperQuoteValue($C76,Trigger)</f>
-        <v>8.8000000000000005E-3</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="F76" s="108">
         <f>_xll.qlSwapRateHelperSpread($C76,Trigger)</f>
@@ -7566,11 +7580,11 @@
       </c>
       <c r="J76" s="109">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K76" s="110">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>49440</v>
+        <v>49444</v>
       </c>
       <c r="M76" s="119"/>
       <c r="O76" s="162"/>
@@ -7579,8 +7593,8 @@
       <c r="A77" s="201"/>
       <c r="B77" s="107"/>
       <c r="C77" s="107" t="str">
-        <f>Swaps!K29</f>
-        <v>obj_00275#0000</v>
+        <f>Swaps!L29</f>
+        <v>obj_002f7#0001</v>
       </c>
       <c r="D77" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7606,11 +7620,11 @@
       </c>
       <c r="J77" s="109">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K77" s="110">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>49807</v>
+        <v>49810</v>
       </c>
       <c r="M77" s="119"/>
       <c r="O77" s="162"/>
@@ -7619,8 +7633,8 @@
       <c r="A78" s="201"/>
       <c r="B78" s="107"/>
       <c r="C78" s="107" t="str">
-        <f>Swaps!K30</f>
-        <v>obj_00268#0000</v>
+        <f>Swaps!L30</f>
+        <v>obj_002f2#0001</v>
       </c>
       <c r="D78" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7646,11 +7660,11 @@
       </c>
       <c r="J78" s="109">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K78" s="110">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>50171</v>
+        <v>50175</v>
       </c>
       <c r="M78" s="119"/>
       <c r="O78" s="162"/>
@@ -7659,8 +7673,8 @@
       <c r="A79" s="201"/>
       <c r="B79" s="107"/>
       <c r="C79" s="107" t="str">
-        <f>Swaps!K31</f>
-        <v>obj_00243#0000</v>
+        <f>Swaps!L31</f>
+        <v>obj_002ed#0001</v>
       </c>
       <c r="D79" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7686,11 +7700,11 @@
       </c>
       <c r="J79" s="109">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K79" s="110">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>50536</v>
+        <v>50542</v>
       </c>
       <c r="M79" s="119"/>
       <c r="O79" s="162"/>
@@ -7699,8 +7713,8 @@
       <c r="A80" s="201"/>
       <c r="B80" s="107"/>
       <c r="C80" s="107" t="str">
-        <f>Swaps!K32</f>
-        <v>obj_0027c#0000</v>
+        <f>Swaps!L32</f>
+        <v>obj_002e8#0001</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7726,11 +7740,11 @@
       </c>
       <c r="J80" s="109">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K80" s="110">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>50901</v>
+        <v>50906</v>
       </c>
       <c r="M80" s="119"/>
       <c r="O80" s="162"/>
@@ -7739,8 +7753,8 @@
       <c r="A81" s="201"/>
       <c r="B81" s="107"/>
       <c r="C81" s="107" t="str">
-        <f>Swaps!K33</f>
-        <v>obj_00260#0000</v>
+        <f>Swaps!L33</f>
+        <v>obj_002e3#0001</v>
       </c>
       <c r="D81" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7748,7 +7762,7 @@
       </c>
       <c r="E81" s="108">
         <f>_xll.qlRateHelperQuoteValue($C81,Trigger)</f>
-        <v>9.4999999999999998E-3</v>
+        <v>7.7500000000000017E-3</v>
       </c>
       <c r="F81" s="108">
         <f>_xll.qlSwapRateHelperSpread($C81,Trigger)</f>
@@ -7766,11 +7780,11 @@
       </c>
       <c r="J81" s="109">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K81" s="110">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>51267</v>
+        <v>51271</v>
       </c>
       <c r="M81" s="119"/>
       <c r="O81" s="162"/>
@@ -7779,8 +7793,8 @@
       <c r="A82" s="201"/>
       <c r="B82" s="107"/>
       <c r="C82" s="107" t="str">
-        <f>Swaps!K34</f>
-        <v>obj_00289#0000</v>
+        <f>Swaps!L34</f>
+        <v>obj_002de#0001</v>
       </c>
       <c r="D82" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7806,11 +7820,11 @@
       </c>
       <c r="J82" s="109">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K82" s="110">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>51634</v>
+        <v>51636</v>
       </c>
       <c r="M82" s="119"/>
       <c r="O82" s="162"/>
@@ -7819,8 +7833,8 @@
       <c r="A83" s="201"/>
       <c r="B83" s="107"/>
       <c r="C83" s="107" t="str">
-        <f>Swaps!K35</f>
-        <v>obj_00270#0000</v>
+        <f>Swaps!L35</f>
+        <v>obj_002fe#0001</v>
       </c>
       <c r="D83" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -7846,11 +7860,11 @@
       </c>
       <c r="J83" s="109">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K83" s="110">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>51998</v>
+        <v>52002</v>
       </c>
       <c r="M83" s="119"/>
       <c r="O83" s="162"/>
@@ -7859,8 +7873,8 @@
       <c r="A84" s="201"/>
       <c r="B84" s="107"/>
       <c r="C84" s="107" t="str">
-        <f>Swaps!K36</f>
-        <v>obj_00287#0000</v>
+        <f>Swaps!L36</f>
+        <v>obj_002fa#0001</v>
       </c>
       <c r="D84" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -7886,11 +7900,11 @@
       </c>
       <c r="J84" s="109">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K84" s="110">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>52362</v>
+        <v>52366</v>
       </c>
       <c r="M84" s="119"/>
       <c r="O84" s="162"/>
@@ -7899,8 +7913,8 @@
       <c r="A85" s="201"/>
       <c r="B85" s="107"/>
       <c r="C85" s="107" t="str">
-        <f>Swaps!K37</f>
-        <v>obj_0027e#0000</v>
+        <f>Swaps!L37</f>
+        <v>obj_002f6#0001</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -7926,11 +7940,11 @@
       </c>
       <c r="J85" s="109">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K85" s="110">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>52728</v>
+        <v>52733</v>
       </c>
       <c r="M85" s="119"/>
       <c r="O85" s="162"/>
@@ -7939,8 +7953,8 @@
       <c r="A86" s="201"/>
       <c r="B86" s="107"/>
       <c r="C86" s="107" t="str">
-        <f>Swaps!K38</f>
-        <v>obj_00285#0000</v>
+        <f>Swaps!L38</f>
+        <v>obj_002f1#0001</v>
       </c>
       <c r="D86" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -7948,7 +7962,7 @@
       </c>
       <c r="E86" s="108">
         <f>_xll.qlRateHelperQuoteValue($C86,Trigger)</f>
-        <v>9.8999999999999991E-3</v>
+        <v>8.1250000000000003E-3</v>
       </c>
       <c r="F86" s="108">
         <f>_xll.qlSwapRateHelperSpread($C86,Trigger)</f>
@@ -7966,11 +7980,11 @@
       </c>
       <c r="J86" s="109">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K86" s="110">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>53093</v>
+        <v>53097</v>
       </c>
       <c r="M86" s="119"/>
       <c r="O86" s="162"/>
@@ -7979,8 +7993,8 @@
       <c r="A87" s="201"/>
       <c r="B87" s="107"/>
       <c r="C87" s="107" t="str">
-        <f>Swaps!K39</f>
-        <v>obj_0027f#0000</v>
+        <f>Swaps!L39</f>
+        <v>obj_002ec#0001</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -7988,7 +8002,7 @@
       </c>
       <c r="E87" s="108">
         <f>_xll.qlRateHelperQuoteValue($C87,Trigger)</f>
-        <v>0.01</v>
+        <v>8.2249999999999997E-3</v>
       </c>
       <c r="F87" s="108">
         <f>_xll.qlSwapRateHelperSpread($C87,Trigger)</f>
@@ -8006,11 +8020,11 @@
       </c>
       <c r="J87" s="109">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K87" s="110">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>54919</v>
+        <v>54924</v>
       </c>
       <c r="M87" s="119"/>
       <c r="O87" s="162"/>
@@ -8019,8 +8033,8 @@
       <c r="A88" s="201"/>
       <c r="B88" s="107"/>
       <c r="C88" s="107" t="str">
-        <f>Swaps!K40</f>
-        <v>obj_00278#0000</v>
+        <f>Swaps!L40</f>
+        <v>obj_002e7#0001</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8028,7 +8042,7 @@
       </c>
       <c r="E88" s="108">
         <f>_xll.qlRateHelperQuoteValue($C88,Trigger)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>8.1750000000000017E-3</v>
       </c>
       <c r="F88" s="108">
         <f>_xll.qlSwapRateHelperSpread($C88,Trigger)</f>
@@ -8046,11 +8060,11 @@
       </c>
       <c r="J88" s="109">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K88" s="110">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>56745</v>
+        <v>56751</v>
       </c>
       <c r="M88" s="119"/>
       <c r="O88" s="162"/>
@@ -8059,8 +8073,8 @@
       <c r="A89" s="201"/>
       <c r="B89" s="107"/>
       <c r="C89" s="107" t="str">
-        <f>Swaps!K41</f>
-        <v>obj_00247#0000</v>
+        <f>Swaps!L41</f>
+        <v>obj_002e2#0001</v>
       </c>
       <c r="D89" s="107" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8068,7 +8082,7 @@
       </c>
       <c r="E89" s="108">
         <f>_xll.qlRateHelperQuoteValue($C89,Trigger)</f>
-        <v>9.5999999999999992E-3</v>
+        <v>7.8250000000000004E-3</v>
       </c>
       <c r="F89" s="108">
         <f>_xll.qlSwapRateHelperSpread($C89,Trigger)</f>
@@ -8086,11 +8100,11 @@
       </c>
       <c r="J89" s="109">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K89" s="110">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>60398</v>
+        <v>60402</v>
       </c>
       <c r="M89" s="119"/>
     </row>
@@ -8098,8 +8112,8 @@
       <c r="A90" s="203"/>
       <c r="B90" s="204"/>
       <c r="C90" s="111" t="str">
-        <f>Swaps!K42</f>
-        <v>obj_00240#0000</v>
+        <f>Swaps!L42</f>
+        <v>obj_002dd#0001</v>
       </c>
       <c r="D90" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8125,11 +8139,11 @@
       </c>
       <c r="J90" s="114">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="K90" s="115">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>64052</v>
+        <v>64054</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8273,10 +8287,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="211"/>
       <c r="D1" s="150" t="s">
         <v>51</v>
       </c>
@@ -8295,7 +8309,7 @@
       </c>
       <c r="J1" s="68">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>-7.604245877810562E-3</v>
+        <v>-7.0972912239203063E-3</v>
       </c>
       <c r="O1" s="151"/>
     </row>
@@ -8308,7 +8322,7 @@
       </c>
       <c r="D2" s="69" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00235</v>
+        <v>obj_001f8</v>
       </c>
       <c r="E2" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -8316,7 +8330,7 @@
       </c>
       <c r="F2" s="70">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>-7.4999999999999997E-3</v>
+        <v>-7.000000000000001E-3</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8324,14 +8338,14 @@
       </c>
       <c r="H2" s="78">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42131</v>
+        <v>42136</v>
       </c>
       <c r="I2" s="79">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42132</v>
+        <v>42137</v>
       </c>
       <c r="J2" s="68">
-        <v>-7.604245877810562E-3</v>
+        <v>-7.0972912239203063E-3</v>
       </c>
       <c r="M2" s="154"/>
       <c r="O2" s="154"/>
@@ -8347,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="69" t="str">
-        <v>obj_00230</v>
+        <v>obj_001f6</v>
       </c>
       <c r="E3" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -8355,7 +8369,7 @@
       </c>
       <c r="F3" s="70">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>-7.4999999999999997E-3</v>
+        <v>-3.725E-3</v>
       </c>
       <c r="G3" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8363,14 +8377,14 @@
       </c>
       <c r="H3" s="78">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42132</v>
+        <v>42137</v>
       </c>
       <c r="I3" s="79">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="J3" s="68">
-        <v>-7.604364699535706E-3</v>
+        <v>-4.8836138682756885E-3</v>
       </c>
       <c r="M3" s="154"/>
       <c r="O3" s="154"/>
@@ -8386,7 +8400,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="69" t="str">
-        <v>obj_00237</v>
+        <v>obj_001fb</v>
       </c>
       <c r="E4" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -8402,14 +8416,14 @@
       </c>
       <c r="H4" s="78">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I4" s="79">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42136</v>
+        <v>42142</v>
       </c>
       <c r="J4" s="68">
-        <v>-7.6347582419343807E-3</v>
+        <v>-6.3200555546286995E-3</v>
       </c>
       <c r="M4" s="154"/>
       <c r="V4" s="119"/>
@@ -8424,7 +8438,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="69" t="str">
-        <v>obj_00236</v>
+        <v>obj_001fa</v>
       </c>
       <c r="E5" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -8440,14 +8454,14 @@
       </c>
       <c r="H5" s="78">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="I5" s="79">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42142</v>
+        <v>42145</v>
       </c>
       <c r="J5" s="68">
-        <v>-7.9659593560215975E-3</v>
+        <v>-7.6876665789016203E-3</v>
       </c>
       <c r="M5" s="154"/>
       <c r="V5" s="119"/>
@@ -8463,7 +8477,7 @@
         <v/>
       </c>
       <c r="D6" s="69" t="str">
-        <v>obj_00238</v>
+        <v>obj_001fc</v>
       </c>
       <c r="E6" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -8471,7 +8485,7 @@
       </c>
       <c r="F6" s="70">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>-8.1700000000000002E-3</v>
+        <v>-8.1600000000000006E-3</v>
       </c>
       <c r="G6" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8479,14 +8493,14 @@
       </c>
       <c r="H6" s="78">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="I6" s="79">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42166</v>
+        <v>42170</v>
       </c>
       <c r="J6" s="68">
-        <v>-8.2084419626768292E-3</v>
+        <v>-8.1418715588056686E-3</v>
       </c>
       <c r="M6" s="154"/>
       <c r="V6" s="119"/>
@@ -8495,7 +8509,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="69" t="str">
-        <v>obj_0023a</v>
+        <v>obj_001f9</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -8503,7 +8517,7 @@
       </c>
       <c r="F7" s="70">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>-8.09E-3</v>
+        <v>-8.0700000000000008E-3</v>
       </c>
       <c r="G7" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8511,14 +8525,14 @@
       </c>
       <c r="H7" s="78">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="I7" s="79">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
       <c r="J7" s="68">
-        <v>-8.172124596040253E-3</v>
+        <v>-8.1179292618834987E-3</v>
       </c>
       <c r="M7" s="154"/>
       <c r="V7" s="119"/>
@@ -8527,7 +8541,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="str">
-        <v>obj_00252</v>
+        <v>obj_002b7</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -8535,7 +8549,7 @@
       </c>
       <c r="F8" s="70">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>-8.0500000000001126E-3</v>
+        <v>-8.1499999999998796E-3</v>
       </c>
       <c r="G8" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8550,7 +8564,7 @@
         <v>42264</v>
       </c>
       <c r="J8" s="68">
-        <v>-8.179898289848532E-3</v>
+        <v>-8.2348015729594472E-3</v>
       </c>
       <c r="M8" s="154"/>
       <c r="O8" s="154"/>
@@ -8560,7 +8574,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="69" t="str">
-        <v>obj_0026e</v>
+        <v>obj_002d0</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -8568,7 +8582,7 @@
       </c>
       <c r="F9" s="70">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>-8.0500000000001126E-3</v>
+        <v>-8.4500000000000686E-3</v>
       </c>
       <c r="G9" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -8583,7 +8597,7 @@
         <v>42354</v>
       </c>
       <c r="J9" s="68">
-        <v>-8.1758386974023316E-3</v>
+        <v>-8.3763996870769852E-3</v>
       </c>
       <c r="M9" s="154"/>
       <c r="O9" s="154"/>
@@ -8593,7 +8607,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="69" t="str">
-        <v>obj_0023b</v>
+        <v>obj_002c1</v>
       </c>
       <c r="E10" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -8601,7 +8615,7 @@
       </c>
       <c r="F10" s="70">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>-7.6499999999999346E-3</v>
+        <v>-8.2500000000000906E-3</v>
       </c>
       <c r="G10" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -8616,7 +8630,7 @@
         <v>42445</v>
       </c>
       <c r="J10" s="68">
-        <v>-8.0564143282969396E-3</v>
+        <v>-8.3754919287590199E-3</v>
       </c>
       <c r="M10" s="154"/>
       <c r="O10" s="154"/>
@@ -8626,7 +8640,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="69" t="str">
-        <v>obj_0025a</v>
+        <v>obj_002d9</v>
       </c>
       <c r="E11" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -8634,7 +8648,7 @@
       </c>
       <c r="F11" s="70">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>-7.1000000000001062E-3</v>
+        <v>-7.7000000000000401E-3</v>
       </c>
       <c r="G11" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -8649,7 +8663,7 @@
         <v>42537</v>
       </c>
       <c r="J11" s="68">
-        <v>-7.863516938817856E-3</v>
+        <v>-8.2468166847369743E-3</v>
       </c>
       <c r="M11" s="154"/>
       <c r="O11" s="154"/>
@@ -8659,7 +8673,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="69" t="str">
-        <v>obj_0026d</v>
+        <v>obj_002cf</v>
       </c>
       <c r="E12" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -8667,7 +8681,7 @@
       </c>
       <c r="F12" s="70">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>-6.4500000000000668E-3</v>
+        <v>-7.1000000000001062E-3</v>
       </c>
       <c r="G12" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -8682,7 +8696,7 @@
         <v>42628</v>
       </c>
       <c r="J12" s="68">
-        <v>-7.6211500871597249E-3</v>
+        <v>-8.0531705478829024E-3</v>
       </c>
       <c r="M12" s="154"/>
       <c r="O12" s="154"/>
@@ -8692,7 +8706,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="69" t="str">
-        <v>obj_0026a</v>
+        <v>obj_002ca</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -8700,7 +8714,7 @@
       </c>
       <c r="F13" s="70">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>-5.8000000000000274E-3</v>
+        <v>-6.4500000000000668E-3</v>
       </c>
       <c r="G13" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -8715,7 +8729,7 @@
         <v>42725</v>
       </c>
       <c r="J13" s="68">
-        <v>-7.3404515615824312E-3</v>
+        <v>-7.8072877275062293E-3</v>
       </c>
       <c r="M13" s="154"/>
       <c r="O13" s="154"/>
@@ -8725,7 +8739,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="str">
-        <v>obj_00264</v>
+        <v>obj_002e1</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -8733,7 +8747,7 @@
       </c>
       <c r="F14" s="70">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>-5.9000000000000007E-3</v>
+        <v>-6.3250000000000008E-3</v>
       </c>
       <c r="G14" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -8741,14 +8755,14 @@
       </c>
       <c r="H14" s="78">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I14" s="79">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="J14" s="68">
-        <v>-5.9246066469831838E-3</v>
+        <v>-6.3368161605932075E-3</v>
       </c>
       <c r="M14" s="154"/>
       <c r="O14" s="154"/>
@@ -8758,7 +8772,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="69" t="str">
-        <v>obj_00273</v>
+        <v>obj_00300</v>
       </c>
       <c r="E15" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -8766,7 +8780,7 @@
       </c>
       <c r="F15" s="70">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>-4.5750000000000001E-3</v>
+        <v>-5.1750000000000008E-3</v>
       </c>
       <c r="G15" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8774,14 +8788,14 @@
       </c>
       <c r="H15" s="78">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I15" s="79">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="J15" s="68">
-        <v>-4.6014887333829966E-3</v>
+        <v>-5.1923188115240845E-3</v>
       </c>
       <c r="M15" s="154"/>
       <c r="O15" s="154"/>
@@ -8791,7 +8805,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="69" t="str">
-        <v>obj_00245</v>
+        <v>obj_002fd</v>
       </c>
       <c r="E16" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -8799,7 +8813,7 @@
       </c>
       <c r="F16" s="70">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>-2.9500000000000004E-3</v>
+        <v>-3.7499999999999999E-3</v>
       </c>
       <c r="G16" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8807,14 +8821,14 @@
       </c>
       <c r="H16" s="78">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I16" s="79">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="J16" s="68">
-        <v>-2.9767310000426051E-3</v>
+        <v>-3.7699683733922323E-3</v>
       </c>
       <c r="M16" s="154"/>
       <c r="V16" s="119"/>
@@ -8823,7 +8837,7 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="str">
-        <v>obj_00284</v>
+        <v>obj_002f9</v>
       </c>
       <c r="E17" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -8831,7 +8845,7 @@
       </c>
       <c r="F17" s="70">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>-1.2999999999999999E-3</v>
+        <v>-2.225E-3</v>
       </c>
       <c r="G17" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8839,14 +8853,14 @@
       </c>
       <c r="H17" s="78">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I17" s="79">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43962</v>
+        <v>43966</v>
       </c>
       <c r="J17" s="68">
-        <v>-1.3216359979824667E-3</v>
+        <v>-2.2424803113954722E-3</v>
       </c>
       <c r="M17" s="154"/>
       <c r="O17" s="154"/>
@@ -8857,7 +8871,7 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="str">
-        <v>obj_00282</v>
+        <v>obj_002f4</v>
       </c>
       <c r="E18" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -8865,7 +8879,7 @@
       </c>
       <c r="F18" s="70">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>2.5000000000000001E-4</v>
+        <v>-7.2500000000000006E-4</v>
       </c>
       <c r="G18" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8873,14 +8887,14 @@
       </c>
       <c r="H18" s="78">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I18" s="79">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44327</v>
+        <v>44333</v>
       </c>
       <c r="J18" s="68">
-        <v>2.3776813316206622E-4</v>
+        <v>-7.3658651552365839E-4</v>
       </c>
       <c r="M18" s="154"/>
       <c r="O18" s="154"/>
@@ -8891,7 +8905,7 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="69" t="str">
-        <v>obj_00248</v>
+        <v>obj_002ef</v>
       </c>
       <c r="E19" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -8899,7 +8913,7 @@
       </c>
       <c r="F19" s="70">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>5.7499999999999999E-4</v>
       </c>
       <c r="G19" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -8907,14 +8921,14 @@
       </c>
       <c r="H19" s="78">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I19" s="79">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44692</v>
+        <v>44697</v>
       </c>
       <c r="J19" s="68">
-        <v>1.6025057409084016E-3</v>
+        <v>5.7456240346311506E-4</v>
       </c>
       <c r="M19" s="154"/>
       <c r="O19" s="154"/>
@@ -8925,7 +8939,7 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="str">
-        <v>obj_00274</v>
+        <v>obj_002ea</v>
       </c>
       <c r="E20" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -8933,7 +8947,7 @@
       </c>
       <c r="F20" s="70">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.7750000000000001E-3</v>
+        <v>1.6750000000000001E-3</v>
       </c>
       <c r="G20" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -8941,14 +8955,14 @@
       </c>
       <c r="H20" s="78">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I20" s="79">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="J20" s="68">
-        <v>2.79624742922572E-3</v>
+        <v>1.6890861798091344E-3</v>
       </c>
       <c r="M20" s="154"/>
       <c r="O20" s="154"/>
@@ -8959,7 +8973,7 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="69" t="str">
-        <v>obj_0025d</v>
+        <v>obj_002e5</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -8967,7 +8981,7 @@
       </c>
       <c r="F21" s="70">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>3.7499999999999999E-3</v>
+        <v>2.6250000000000002E-3</v>
       </c>
       <c r="G21" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -8975,14 +8989,14 @@
       </c>
       <c r="H21" s="78">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I21" s="79">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="J21" s="68">
-        <v>3.7903454493869036E-3</v>
+        <v>2.6551392323953833E-3</v>
       </c>
       <c r="M21" s="154"/>
       <c r="O21" s="154"/>
@@ -8993,7 +9007,7 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="str">
-        <v>obj_00272</v>
+        <v>obj_002e0</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -9001,7 +9015,7 @@
       </c>
       <c r="F22" s="70">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.5500000000000011E-3</v>
+        <v>3.4250000000000001E-3</v>
       </c>
       <c r="G22" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -9009,14 +9023,14 @@
       </c>
       <c r="H22" s="78">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I22" s="79">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="J22" s="68">
-        <v>4.6102495615001063E-3</v>
+        <v>3.4725985769686893E-3</v>
       </c>
       <c r="M22" s="154"/>
       <c r="O22" s="154"/>
@@ -9027,7 +9041,7 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="str">
-        <v>obj_00251</v>
+        <v>obj_002ff</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -9035,7 +9049,7 @@
       </c>
       <c r="F23" s="70">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>5.1999999999999998E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="G23" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -9043,14 +9057,14 @@
       </c>
       <c r="H23" s="78">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I23" s="79">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46153</v>
+        <v>46157</v>
       </c>
       <c r="J23" s="68">
-        <v>5.2786639815969082E-3</v>
+        <v>4.1131649915133878E-3</v>
       </c>
       <c r="M23" s="154"/>
       <c r="O23" s="154"/>
@@ -9060,7 +9074,7 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="69" t="str">
-        <v>obj_0024d</v>
+        <v>obj_002fc</v>
       </c>
       <c r="E24" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -9068,7 +9082,7 @@
       </c>
       <c r="F24" s="70">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>5.7499999999999999E-3</v>
+        <v>4.5750000000000001E-3</v>
       </c>
       <c r="G24" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -9076,14 +9090,14 @@
       </c>
       <c r="H24" s="78">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I24" s="79">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46518</v>
+        <v>46525</v>
       </c>
       <c r="J24" s="68">
-        <v>5.8460152988804217E-3</v>
+        <v>4.6527308227134962E-3</v>
       </c>
       <c r="M24" s="154"/>
       <c r="O24" s="154"/>
@@ -9093,7 +9107,7 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="69" t="str">
-        <v>obj_0027b</v>
+        <v>obj_002ee</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -9101,7 +9115,7 @@
       </c>
       <c r="F25" s="70">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>7.0500000000000007E-3</v>
+        <v>5.7750000000000015E-3</v>
       </c>
       <c r="G25" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -9109,14 +9123,14 @@
       </c>
       <c r="H25" s="78">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I25" s="79">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>47616</v>
+        <v>47618</v>
       </c>
       <c r="J25" s="68">
-        <v>7.1951164065095895E-3</v>
+        <v>5.8918937794350803E-3</v>
       </c>
       <c r="M25" s="154"/>
       <c r="O25" s="154"/>
@@ -9126,7 +9140,7 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="69" t="str">
-        <v>obj_00266</v>
+        <v>obj_002fb</v>
       </c>
       <c r="E26" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -9134,7 +9148,7 @@
       </c>
       <c r="F26" s="70">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>8.2500000000000004E-3</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="G26" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -9142,14 +9156,14 @@
       </c>
       <c r="H26" s="78">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I26" s="79">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>49440</v>
+        <v>49444</v>
       </c>
       <c r="J26" s="68">
-        <v>8.4480572586407513E-3</v>
+        <v>7.1679303474036634E-3</v>
       </c>
       <c r="M26" s="154"/>
       <c r="O26" s="154"/>
@@ -9159,7 +9173,7 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="str">
-        <v>obj_00260</v>
+        <v>obj_002e3</v>
       </c>
       <c r="E27" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -9167,7 +9181,7 @@
       </c>
       <c r="F27" s="70">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>7.7500000000000017E-3</v>
       </c>
       <c r="G27" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -9175,14 +9189,14 @@
       </c>
       <c r="H27" s="78">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I27" s="79">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>51267</v>
+        <v>51271</v>
       </c>
       <c r="J27" s="68">
-        <v>9.1810064553431454E-3</v>
+        <v>7.954433981644464E-3</v>
       </c>
       <c r="M27" s="154"/>
       <c r="O27" s="154"/>
@@ -9192,7 +9206,7 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="69" t="str">
-        <v>obj_00285</v>
+        <v>obj_002f1</v>
       </c>
       <c r="E28" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -9200,7 +9214,7 @@
       </c>
       <c r="F28" s="70">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>9.3250000000000017E-3</v>
+        <v>8.1250000000000003E-3</v>
       </c>
       <c r="G28" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -9208,14 +9222,14 @@
       </c>
       <c r="H28" s="78">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I28" s="79">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>53093</v>
+        <v>53097</v>
       </c>
       <c r="J28" s="68">
-        <v>9.5667641637422109E-3</v>
+        <v>8.3398010503283569E-3</v>
       </c>
       <c r="M28" s="154"/>
       <c r="O28" s="154"/>
@@ -9225,7 +9239,7 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="69" t="str">
-        <v>obj_0027f</v>
+        <v>obj_002ec</v>
       </c>
       <c r="E29" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -9233,7 +9247,7 @@
       </c>
       <c r="F29" s="70">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>9.4250000000000011E-3</v>
+        <v>8.2249999999999997E-3</v>
       </c>
       <c r="G29" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9241,14 +9255,14 @@
       </c>
       <c r="H29" s="78">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I29" s="79">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>54919</v>
+        <v>54924</v>
       </c>
       <c r="J29" s="68">
-        <v>9.6435905033565063E-3</v>
+        <v>8.4198547550992896E-3</v>
       </c>
       <c r="M29" s="154"/>
       <c r="O29" s="154"/>
@@ -9257,7 +9271,7 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="69" t="str">
-        <v>obj_00278</v>
+        <v>obj_002e7</v>
       </c>
       <c r="E30" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -9265,7 +9279,7 @@
       </c>
       <c r="F30" s="70">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>9.3749999999999997E-3</v>
+        <v>8.1750000000000017E-3</v>
       </c>
       <c r="G30" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -9273,14 +9287,14 @@
       </c>
       <c r="H30" s="78">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I30" s="79">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56745</v>
+        <v>56751</v>
       </c>
       <c r="J30" s="68">
-        <v>9.5496272577922214E-3</v>
+        <v>8.3315662090289525E-3</v>
       </c>
       <c r="M30" s="154"/>
       <c r="O30" s="154"/>
@@ -9289,7 +9303,7 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="69" t="str">
-        <v>obj_00247</v>
+        <v>obj_002e2</v>
       </c>
       <c r="E31" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
@@ -9297,7 +9311,7 @@
       </c>
       <c r="F31" s="70">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>9.025E-3</v>
+        <v>7.8250000000000004E-3</v>
       </c>
       <c r="G31" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -9305,14 +9319,14 @@
       </c>
       <c r="H31" s="78">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>42135</v>
+        <v>42139</v>
       </c>
       <c r="I31" s="79">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>60398</v>
+        <v>60402</v>
       </c>
       <c r="J31" s="68">
-        <v>9.0752036881841247E-3</v>
+        <v>7.8739469042689737E-3</v>
       </c>
       <c r="M31" s="154"/>
       <c r="O31" s="154"/>
@@ -12097,7 +12111,7 @@
     <col min="3" max="3" width="15.85546875" style="44" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="44" customWidth="1"/>
     <col min="7" max="7" width="2.28515625" style="44" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="44" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="44"/>
@@ -12118,7 +12132,7 @@
       <c r="G1" s="191"/>
       <c r="H1" s="180"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="206"/>
       <c r="B2" s="56" t="s">
         <v>117</v>
@@ -12136,14 +12150,14 @@
       </c>
       <c r="G2" s="192"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="206"/>
       <c r="B3" s="196" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022f#0004</v>
+        <v>obj_001f3#0001</v>
       </c>
       <c r="D3" s="197" t="str">
         <f t="shared" ref="D3:D11" si="0">UPPER(Currency)&amp;B3&amp;"D"&amp;QuoteSuffix</f>
@@ -12151,7 +12165,7 @@
       </c>
       <c r="E3" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00235#0004</v>
+        <v>obj_001f8#0001</v>
       </c>
       <c r="F3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -12159,14 +12173,14 @@
       </c>
       <c r="G3" s="192"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="206"/>
       <c r="B4" s="196" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022a#0004</v>
+        <v>obj_001ed#0001</v>
       </c>
       <c r="D4" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12174,19 +12188,19 @@
       </c>
       <c r="E4" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00230#0004</v>
+        <v>obj_001f6#0001</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="192"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="206"/>
       <c r="B5" s="196" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00229#0004</v>
+        <v>obj_001f5#0001</v>
       </c>
       <c r="D5" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12194,7 +12208,7 @@
       </c>
       <c r="E5" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00237#0004</v>
+        <v>obj_001fb#0001</v>
       </c>
       <c r="F5" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -12202,14 +12216,14 @@
       </c>
       <c r="G5" s="192"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="206"/>
       <c r="B6" s="196" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00228#0004</v>
+        <v>obj_001f4#0001</v>
       </c>
       <c r="D6" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12217,7 +12231,7 @@
       </c>
       <c r="E6" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00236#0004</v>
+        <v>obj_001fa#0001</v>
       </c>
       <c r="F6" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -12225,14 +12239,14 @@
       </c>
       <c r="G6" s="192"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="206"/>
       <c r="B7" s="196" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00227#0004</v>
+        <v>obj_001f2#0001</v>
       </c>
       <c r="D7" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12240,7 +12254,7 @@
       </c>
       <c r="E7" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00238#0004</v>
+        <v>obj_001fc#0001</v>
       </c>
       <c r="F7" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -12248,14 +12262,14 @@
       </c>
       <c r="G7" s="192"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="206"/>
       <c r="B8" s="196" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022d#0004</v>
+        <v>obj_001f0#0001</v>
       </c>
       <c r="D8" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12263,7 +12277,7 @@
       </c>
       <c r="E8" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_0023a#0004</v>
+        <v>obj_001f9#0001</v>
       </c>
       <c r="F8" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -12271,14 +12285,14 @@
       </c>
       <c r="G8" s="192"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="206"/>
       <c r="B9" s="196" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022b#0004</v>
+        <v>obj_001ee#0001</v>
       </c>
       <c r="D9" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12286,7 +12300,7 @@
       </c>
       <c r="E9" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00239#0004</v>
+        <v>obj_001fe#0001</v>
       </c>
       <c r="F9" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -12294,14 +12308,14 @@
       </c>
       <c r="G9" s="192"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206"/>
       <c r="B10" s="196" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022c#0004</v>
+        <v>obj_001ef#0001</v>
       </c>
       <c r="D10" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12309,7 +12323,7 @@
       </c>
       <c r="E10" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00233#0004</v>
+        <v>obj_001fd#0001</v>
       </c>
       <c r="F10" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -12317,14 +12331,14 @@
       </c>
       <c r="G10" s="192"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="206"/>
       <c r="B11" s="196" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="197" t="str">
         <f>_xll.qlLibor(,Currency,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0022e#0004</v>
+        <v>obj_001f1#0001</v>
       </c>
       <c r="D11" s="197" t="str">
         <f t="shared" si="0"/>
@@ -12332,7 +12346,7 @@
       </c>
       <c r="E11" s="197" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,FileOverwrite)</f>
-        <v>obj_00234#0004</v>
+        <v>obj_001ff#0001</v>
       </c>
       <c r="F11" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -12359,7 +12373,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12367,1493 +12381,1797 @@
   <cols>
     <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="3" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="9" style="44" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="44"/>
+    <col min="3" max="3" width="7" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="9" style="44" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="44" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
       <c r="D1" s="123"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
       <c r="B2" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="E2" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="I2" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="54" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+      <c r="J2" s="121"/>
+      <c r="K2" s="54" t="str">
+        <f>_xll.ohRangeRetrieveError(J2)</f>
         <v/>
       </c>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="128"/>
       <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="129" t="b">
+      <c r="C3" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="129" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="129" t="str">
-        <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
+      <c r="E3" s="129" t="str">
+        <f t="array" ref="E3:E44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$D3:$D44)</f>
         <v>K5</v>
       </c>
-      <c r="E3" s="129" t="str">
-        <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+      <c r="F3" s="212">
+        <f>_xll.qlIMMdate(E3)</f>
+        <v>42144</v>
+      </c>
+      <c r="G3" s="129" t="str">
+        <f t="shared" ref="G3:G34" si="0">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F3" s="130" t="str">
-        <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
+      <c r="H3" s="130" t="str">
+        <f t="shared" ref="H3:H34" si="1">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;QuoteSuffix</f>
         <v>CHFFUT3MK5_Quote</v>
       </c>
-      <c r="G3" s="152" t="str">
-        <f t="shared" ref="G3:G44" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
+      <c r="I3" s="152" t="str">
+        <f t="shared" ref="I3:I44" si="2">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>CHFFUT3MK5ConvAdj_Quote</v>
       </c>
-      <c r="H3" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00279#0000</v>
-      </c>
-      <c r="I3" s="52" t="str">
-        <f>_xll.ohRangeRetrieveError(H3)</f>
+      <c r="J3" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H3,$C3,$F3,$G3,$I3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b1#0001</v>
+      </c>
+      <c r="K3" s="52" t="str">
+        <f>_xll.ohRangeRetrieveError(J3)</f>
         <v/>
       </c>
-      <c r="J3" s="48"/>
-      <c r="L3" s="153" t="str">
+      <c r="L3" s="48"/>
+      <c r="N3" s="153" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlSettingsEvaluationDate(Trigger),TRUE,Trigger)</f>
         <v>M5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="128"/>
       <c r="B4" s="50">
         <v>2</v>
       </c>
-      <c r="C4" s="133" t="b">
+      <c r="C4" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="133" t="str">
+      <c r="E4" s="133" t="str">
         <v>M5</v>
       </c>
-      <c r="E4" s="129" t="str">
+      <c r="F4" s="212">
+        <f>_xll.qlIMMdate(E4)</f>
+        <v>42172</v>
+      </c>
+      <c r="G4" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F4" s="130" t="str">
+      <c r="H4" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MM5_Quote</v>
       </c>
-      <c r="G4" s="152" t="str">
+      <c r="I4" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM5ConvAdj_Quote</v>
       </c>
-      <c r="H4" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00252#0000</v>
-      </c>
-      <c r="I4" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H4)</f>
+      <c r="J4" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H4,$C4,$F4,$G4,$I4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b7#0001</v>
+      </c>
+      <c r="K4" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J4)</f>
         <v/>
       </c>
-      <c r="J4" s="48"/>
-      <c r="L4" s="153" t="str">
-        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(L3,,Trigger),TRUE,Trigger)</f>
+      <c r="L4" s="48"/>
+      <c r="N4" s="153" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(N3,,Trigger),TRUE,Trigger)</f>
         <v>U5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="128"/>
       <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="133" t="b">
+      <c r="C5" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="133" t="str">
+      <c r="E5" s="133" t="str">
         <v>N5</v>
       </c>
-      <c r="E5" s="129" t="str">
+      <c r="F5" s="212">
+        <f>_xll.qlIMMdate(E5)</f>
+        <v>42200</v>
+      </c>
+      <c r="G5" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F5" s="130" t="str">
+      <c r="H5" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MN5_Quote</v>
       </c>
-      <c r="G5" s="152" t="str">
+      <c r="I5" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MN5ConvAdj_Quote</v>
       </c>
-      <c r="H5" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024f#0000</v>
-      </c>
-      <c r="I5" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H5)</f>
+      <c r="J5" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H5,$C5,$F5,$G5,$I5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002da#0001</v>
+      </c>
+      <c r="K5" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J5)</f>
         <v/>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="132"/>
-    </row>
-    <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="48"/>
+      <c r="M5" s="132"/>
+    </row>
+    <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="128"/>
       <c r="B6" s="50">
         <v>4</v>
       </c>
-      <c r="C6" s="133" t="b">
+      <c r="C6" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="133" t="str">
+      <c r="E6" s="133" t="str">
         <v>Q5</v>
       </c>
-      <c r="E6" s="129" t="str">
+      <c r="F6" s="212">
+        <f>_xll.qlIMMdate(E6)</f>
+        <v>42235</v>
+      </c>
+      <c r="G6" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F6" s="130" t="str">
+      <c r="H6" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MQ5_Quote</v>
       </c>
-      <c r="G6" s="152" t="str">
+      <c r="I6" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MQ5ConvAdj_Quote</v>
       </c>
-      <c r="H6" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00288#0000</v>
-      </c>
-      <c r="I6" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H6)</f>
+      <c r="J6" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H6,$C6,$F6,$G6,$I6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d5#0001</v>
+      </c>
+      <c r="K6" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J6)</f>
         <v/>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="132"/>
-    </row>
-    <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="48"/>
+      <c r="M6" s="132"/>
+    </row>
+    <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="128"/>
       <c r="B7" s="50">
         <v>5</v>
       </c>
-      <c r="C7" s="133" t="b">
+      <c r="C7" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="133" t="str">
+      <c r="E7" s="133" t="str">
         <v>U5</v>
       </c>
-      <c r="E7" s="129" t="str">
+      <c r="F7" s="212">
+        <f>_xll.qlIMMdate(E7)</f>
+        <v>42263</v>
+      </c>
+      <c r="G7" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F7" s="130" t="str">
+      <c r="H7" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MU5_Quote</v>
       </c>
-      <c r="G7" s="152" t="str">
+      <c r="I7" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU5ConvAdj_Quote</v>
       </c>
-      <c r="H7" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026e#0000</v>
-      </c>
-      <c r="I7" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H7)</f>
+      <c r="J7" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H7,$C7,$F7,$G7,$I7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d0#0001</v>
+      </c>
+      <c r="K7" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J7)</f>
         <v/>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="132"/>
-    </row>
-    <row r="8" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="48"/>
+      <c r="M7" s="132"/>
+    </row>
+    <row r="8" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="128"/>
       <c r="B8" s="50">
         <v>6</v>
       </c>
-      <c r="C8" s="133" t="b">
+      <c r="C8" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="133" t="str">
+      <c r="E8" s="133" t="str">
         <v>V5</v>
       </c>
-      <c r="E8" s="129" t="str">
+      <c r="F8" s="212">
+        <f>_xll.qlIMMdate(E8)</f>
+        <v>42298</v>
+      </c>
+      <c r="G8" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F8" s="130" t="str">
+      <c r="H8" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MV5_Quote</v>
       </c>
-      <c r="G8" s="152" t="str">
+      <c r="I8" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MV5ConvAdj_Quote</v>
       </c>
-      <c r="H8" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00276#0000</v>
-      </c>
-      <c r="I8" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H8)</f>
+      <c r="J8" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H8,$C8,$F8,$G8,$I8,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002cb#0001</v>
+      </c>
+      <c r="K8" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J8)</f>
         <v/>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="132"/>
-    </row>
-    <row r="9" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="48"/>
+      <c r="M8" s="132"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="128"/>
       <c r="B9" s="50">
         <v>7</v>
       </c>
-      <c r="C9" s="133" t="b">
+      <c r="C9" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="133" t="str">
+      <c r="E9" s="133" t="str">
         <v>X5</v>
       </c>
-      <c r="E9" s="129" t="str">
+      <c r="F9" s="212">
+        <f>_xll.qlIMMdate(E9)</f>
+        <v>42326</v>
+      </c>
+      <c r="G9" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F9" s="130" t="str">
+      <c r="H9" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MX5_Quote</v>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="I9" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MX5ConvAdj_Quote</v>
       </c>
-      <c r="H9" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00263#0000</v>
-      </c>
-      <c r="I9" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H9)</f>
+      <c r="J9" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H9,$C9,$F9,$G9,$I9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c6#0001</v>
+      </c>
+      <c r="K9" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J9)</f>
         <v/>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="132"/>
-    </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="48"/>
+      <c r="M9" s="132"/>
+    </row>
+    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="128"/>
       <c r="B10" s="50">
         <v>8</v>
       </c>
-      <c r="C10" s="133" t="b">
+      <c r="C10" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="133" t="str">
+      <c r="E10" s="133" t="str">
         <v>Z5</v>
       </c>
-      <c r="E10" s="129" t="str">
+      <c r="F10" s="212">
+        <f>_xll.qlIMMdate(E10)</f>
+        <v>42354</v>
+      </c>
+      <c r="G10" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F10" s="130" t="str">
+      <c r="H10" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MZ5_Quote</v>
       </c>
-      <c r="G10" s="152" t="str">
+      <c r="I10" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ5ConvAdj_Quote</v>
       </c>
-      <c r="H10" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023b#0000</v>
-      </c>
-      <c r="I10" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H10)</f>
+      <c r="J10" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H10,$C10,$F10,$G10,$I10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c1#0001</v>
+      </c>
+      <c r="K10" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J10)</f>
         <v/>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="132"/>
-    </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="48"/>
+      <c r="M10" s="132"/>
+    </row>
+    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="128"/>
       <c r="B11" s="50">
         <v>9</v>
       </c>
-      <c r="C11" s="133" t="b">
+      <c r="C11" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="133" t="str">
+      <c r="E11" s="133" t="str">
         <v>F6</v>
       </c>
-      <c r="E11" s="129" t="str">
+      <c r="F11" s="212">
+        <f>_xll.qlIMMdate(E11)</f>
+        <v>42389</v>
+      </c>
+      <c r="G11" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F11" s="130" t="str">
+      <c r="H11" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MF6_Quote</v>
       </c>
-      <c r="G11" s="152" t="str">
+      <c r="I11" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MF6ConvAdj_Quote</v>
       </c>
-      <c r="H11" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00242#0000</v>
-      </c>
-      <c r="I11" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H11)</f>
+      <c r="J11" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H11,$C11,$F11,$G11,$I11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002bc#0001</v>
+      </c>
+      <c r="K11" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J11)</f>
         <v/>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="132"/>
-    </row>
-    <row r="12" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="48"/>
+      <c r="M11" s="132"/>
+    </row>
+    <row r="12" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="128"/>
       <c r="B12" s="50">
         <v>10</v>
       </c>
-      <c r="C12" s="133" t="b">
+      <c r="C12" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="133" t="str">
+      <c r="E12" s="133" t="str">
         <v>G6</v>
       </c>
-      <c r="E12" s="129" t="str">
+      <c r="F12" s="212">
+        <f>_xll.qlIMMdate(E12)</f>
+        <v>42417</v>
+      </c>
+      <c r="G12" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F12" s="130" t="str">
+      <c r="H12" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MG6_Quote</v>
       </c>
-      <c r="G12" s="152" t="str">
+      <c r="I12" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MG6ConvAdj_Quote</v>
       </c>
-      <c r="H12" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025e#0000</v>
-      </c>
-      <c r="I12" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H12)</f>
+      <c r="J12" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H12,$C12,$F12,$G12,$I12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b6#0001</v>
+      </c>
+      <c r="K12" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J12)</f>
         <v/>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="132"/>
-    </row>
-    <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="48"/>
+      <c r="M12" s="132"/>
+    </row>
+    <row r="13" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="128"/>
       <c r="B13" s="50">
         <v>11</v>
       </c>
-      <c r="C13" s="133" t="b">
+      <c r="C13" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="133" t="str">
+      <c r="E13" s="133" t="str">
         <v>H6</v>
       </c>
-      <c r="E13" s="129" t="str">
+      <c r="F13" s="212">
+        <f>_xll.qlIMMdate(E13)</f>
+        <v>42445</v>
+      </c>
+      <c r="G13" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F13" s="130" t="str">
+      <c r="H13" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MH6_Quote</v>
       </c>
-      <c r="G13" s="152" t="str">
+      <c r="I13" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH6ConvAdj_Quote</v>
       </c>
-      <c r="H13" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025a#0000</v>
-      </c>
-      <c r="I13" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H13)</f>
+      <c r="J13" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H13,$C13,$F13,$G13,$I13,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d9#0001</v>
+      </c>
+      <c r="K13" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J13)</f>
         <v/>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="132"/>
-    </row>
-    <row r="14" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="48"/>
+      <c r="M13" s="132"/>
+    </row>
+    <row r="14" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="128"/>
       <c r="B14" s="50">
         <v>12</v>
       </c>
-      <c r="C14" s="133" t="b">
+      <c r="C14" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="133" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="133" t="str">
+      <c r="E14" s="133" t="str">
         <v>J6</v>
       </c>
-      <c r="E14" s="129" t="str">
+      <c r="F14" s="212">
+        <f>_xll.qlIMMdate(E14)</f>
+        <v>42480</v>
+      </c>
+      <c r="G14" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F14" s="130" t="str">
+      <c r="H14" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MJ6_Quote</v>
       </c>
-      <c r="G14" s="152" t="str">
+      <c r="I14" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MJ6ConvAdj_Quote</v>
       </c>
-      <c r="H14" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00265#0000</v>
-      </c>
-      <c r="I14" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H14)</f>
+      <c r="J14" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H14,$C14,$F14,$G14,$I14,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d4#0001</v>
+      </c>
+      <c r="K14" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J14)</f>
         <v/>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="132"/>
-    </row>
-    <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="48"/>
+      <c r="M14" s="132"/>
+    </row>
+    <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
       <c r="B15" s="50">
         <v>13</v>
       </c>
-      <c r="C15" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="133" t="str">
+      <c r="C15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="133" t="str">
         <v>M6</v>
       </c>
-      <c r="E15" s="129" t="str">
+      <c r="F15" s="212">
+        <f>_xll.qlIMMdate(E15)</f>
+        <v>42536</v>
+      </c>
+      <c r="G15" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F15" s="130" t="str">
+      <c r="H15" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MM6_Quote</v>
       </c>
-      <c r="G15" s="152" t="str">
+      <c r="I15" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM6ConvAdj_Quote</v>
       </c>
-      <c r="H15" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026d#0000</v>
-      </c>
-      <c r="I15" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H15)</f>
+      <c r="J15" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H15,$C15,$F15,$G15,$I15,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002cf#0001</v>
+      </c>
+      <c r="K15" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J15)</f>
         <v/>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="132"/>
-    </row>
-    <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="48"/>
+      <c r="M15" s="132"/>
+    </row>
+    <row r="16" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="128"/>
       <c r="B16" s="50">
         <v>14</v>
       </c>
-      <c r="C16" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="133" t="str">
+      <c r="C16" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="133" t="str">
         <v>U6</v>
       </c>
-      <c r="E16" s="129" t="str">
+      <c r="F16" s="212">
+        <f>_xll.qlIMMdate(E16)</f>
+        <v>42634</v>
+      </c>
+      <c r="G16" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F16" s="130" t="str">
+      <c r="H16" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MU6_Quote</v>
       </c>
-      <c r="G16" s="152" t="str">
+      <c r="I16" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU6ConvAdj_Quote</v>
       </c>
-      <c r="H16" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026a#0000</v>
-      </c>
-      <c r="I16" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H16)</f>
+      <c r="J16" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H16,$C16,$F16,$G16,$I16,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ca#0001</v>
+      </c>
+      <c r="K16" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J16)</f>
         <v/>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="132"/>
-    </row>
-    <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="48"/>
+      <c r="M16" s="132"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
       <c r="B17" s="50">
         <v>15</v>
       </c>
-      <c r="C17" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="133" t="str">
+      <c r="C17" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="133" t="str">
         <v>Z6</v>
       </c>
-      <c r="E17" s="129" t="str">
+      <c r="F17" s="212">
+        <f>_xll.qlIMMdate(E17)</f>
+        <v>42725</v>
+      </c>
+      <c r="G17" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F17" s="130" t="str">
+      <c r="H17" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MZ6_Quote</v>
       </c>
-      <c r="G17" s="152" t="str">
+      <c r="I17" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ6ConvAdj_Quote</v>
       </c>
-      <c r="H17" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023f#0000</v>
-      </c>
-      <c r="I17" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H17)</f>
+      <c r="J17" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H17,$C17,$F17,$G17,$I17,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c5#0001</v>
+      </c>
+      <c r="K17" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J17)</f>
         <v/>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="132"/>
-    </row>
-    <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="48"/>
+      <c r="M17" s="132"/>
+    </row>
+    <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="128"/>
       <c r="B18" s="50">
         <v>16</v>
       </c>
-      <c r="C18" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="133" t="str">
+      <c r="C18" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="133" t="str">
         <v>H7</v>
       </c>
-      <c r="E18" s="129" t="str">
+      <c r="F18" s="212">
+        <f>_xll.qlIMMdate(E18)</f>
+        <v>42809</v>
+      </c>
+      <c r="G18" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F18" s="130" t="str">
+      <c r="H18" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MH7_Quote</v>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH7ConvAdj_Quote</v>
       </c>
-      <c r="H18" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00281#0000</v>
-      </c>
-      <c r="I18" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H18)</f>
+      <c r="J18" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H18,$C18,$F18,$G18,$I18,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c0#0001</v>
+      </c>
+      <c r="K18" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J18)</f>
         <v/>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="132"/>
-    </row>
-    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="48"/>
+      <c r="M18" s="132"/>
+    </row>
+    <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="128"/>
       <c r="B19" s="50">
         <v>17</v>
       </c>
-      <c r="C19" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="133" t="str">
+      <c r="C19" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="133" t="str">
         <v>M7</v>
       </c>
-      <c r="E19" s="129" t="str">
+      <c r="F19" s="212">
+        <f>_xll.qlIMMdate(E19)</f>
+        <v>42907</v>
+      </c>
+      <c r="G19" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F19" s="130" t="str">
+      <c r="H19" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MM7_Quote</v>
       </c>
-      <c r="G19" s="152" t="str">
+      <c r="I19" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM7ConvAdj_Quote</v>
       </c>
-      <c r="H19" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024a#0000</v>
-      </c>
-      <c r="I19" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H19)</f>
+      <c r="J19" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H19,$C19,$F19,$G19,$I19,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002bb#0001</v>
+      </c>
+      <c r="K19" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J19)</f>
         <v/>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="132"/>
-    </row>
-    <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="48"/>
+      <c r="M19" s="132"/>
+    </row>
+    <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="128"/>
       <c r="B20" s="50">
         <v>18</v>
       </c>
-      <c r="C20" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="133" t="str">
+      <c r="C20" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="133" t="str">
         <v>U7</v>
       </c>
-      <c r="E20" s="129" t="str">
+      <c r="F20" s="212">
+        <f>_xll.qlIMMdate(E20)</f>
+        <v>42998</v>
+      </c>
+      <c r="G20" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F20" s="130" t="str">
+      <c r="H20" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MU7_Quote</v>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU7ConvAdj_Quote</v>
       </c>
-      <c r="H20" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00277#0000</v>
-      </c>
-      <c r="I20" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H20)</f>
+      <c r="J20" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H20,$C20,$F20,$G20,$I20,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b5#0001</v>
+      </c>
+      <c r="K20" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J20)</f>
         <v/>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="132"/>
-    </row>
-    <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="48"/>
+      <c r="M20" s="132"/>
+    </row>
+    <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="128"/>
       <c r="B21" s="50">
         <v>19</v>
       </c>
-      <c r="C21" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="133" t="str">
+      <c r="C21" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="133" t="str">
         <v>Z7</v>
       </c>
-      <c r="E21" s="129" t="str">
+      <c r="F21" s="212">
+        <f>_xll.qlIMMdate(E21)</f>
+        <v>43089</v>
+      </c>
+      <c r="G21" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F21" s="130" t="str">
+      <c r="H21" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MZ7_Quote</v>
       </c>
-      <c r="G21" s="152" t="str">
+      <c r="I21" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ7ConvAdj_Quote</v>
       </c>
-      <c r="H21" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00262#0000</v>
-      </c>
-      <c r="I21" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H21)</f>
+      <c r="J21" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H21,$C21,$F21,$G21,$I21,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d8#0001</v>
+      </c>
+      <c r="K21" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J21)</f>
         <v/>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="132"/>
-    </row>
-    <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="48"/>
+      <c r="M21" s="132"/>
+    </row>
+    <row r="22" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="128"/>
       <c r="B22" s="50">
         <v>20</v>
       </c>
-      <c r="C22" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="133" t="str">
+      <c r="C22" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="133" t="str">
         <v>H8</v>
       </c>
-      <c r="E22" s="129" t="str">
+      <c r="F22" s="212">
+        <f>_xll.qlIMMdate(E22)</f>
+        <v>43180</v>
+      </c>
+      <c r="G22" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F22" s="130" t="str">
+      <c r="H22" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MH8_Quote</v>
       </c>
-      <c r="G22" s="152" t="str">
+      <c r="I22" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH8ConvAdj_Quote</v>
       </c>
-      <c r="H22" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00267#0000</v>
-      </c>
-      <c r="I22" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H22)</f>
+      <c r="J22" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H22,$C22,$F22,$G22,$I22,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d3#0001</v>
+      </c>
+      <c r="K22" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J22)</f>
         <v/>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="132"/>
-    </row>
-    <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="48"/>
+      <c r="M22" s="132"/>
+    </row>
+    <row r="23" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="128"/>
       <c r="B23" s="50">
         <v>21</v>
       </c>
-      <c r="C23" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="133" t="str">
+      <c r="C23" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="133" t="str">
         <v>M8</v>
       </c>
-      <c r="E23" s="129" t="str">
+      <c r="F23" s="212">
+        <f>_xll.qlIMMdate(E23)</f>
+        <v>43271</v>
+      </c>
+      <c r="G23" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F23" s="130" t="str">
+      <c r="H23" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MM8_Quote</v>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM8ConvAdj_Quote</v>
       </c>
-      <c r="H23" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00259#0000</v>
-      </c>
-      <c r="I23" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H23)</f>
+      <c r="J23" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H23,$C23,$F23,$G23,$I23,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ce#0001</v>
+      </c>
+      <c r="K23" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J23)</f>
         <v/>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="132"/>
-    </row>
-    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="48"/>
+      <c r="M23" s="132"/>
+    </row>
+    <row r="24" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="128"/>
       <c r="B24" s="50">
         <v>22</v>
       </c>
-      <c r="C24" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="133" t="str">
+      <c r="C24" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="133" t="str">
         <v>U8</v>
       </c>
-      <c r="E24" s="129" t="str">
+      <c r="F24" s="212">
+        <f>_xll.qlIMMdate(E24)</f>
+        <v>43362</v>
+      </c>
+      <c r="G24" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F24" s="130" t="str">
+      <c r="H24" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MU8_Quote</v>
       </c>
-      <c r="G24" s="152" t="str">
+      <c r="I24" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU8ConvAdj_Quote</v>
       </c>
-      <c r="H24" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00250#0000</v>
-      </c>
-      <c r="I24" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H24)</f>
+      <c r="J24" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H24,$C24,$F24,$G24,$I24,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c9#0001</v>
+      </c>
+      <c r="K24" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J24)</f>
         <v/>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="132"/>
-    </row>
-    <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="48"/>
+      <c r="M24" s="132"/>
+    </row>
+    <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="128"/>
       <c r="B25" s="50">
         <v>23</v>
       </c>
-      <c r="C25" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="133" t="str">
+      <c r="C25" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="133" t="str">
         <v>Z8</v>
       </c>
-      <c r="E25" s="129" t="str">
+      <c r="F25" s="212">
+        <f>_xll.qlIMMdate(E25)</f>
+        <v>43453</v>
+      </c>
+      <c r="G25" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F25" s="130" t="str">
+      <c r="H25" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MZ8_Quote</v>
       </c>
-      <c r="G25" s="152" t="str">
+      <c r="I25" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ8ConvAdj_Quote</v>
       </c>
-      <c r="H25" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00246#0000</v>
-      </c>
-      <c r="I25" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H25)</f>
+      <c r="J25" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H25,$C25,$F25,$G25,$I25,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c4#0001</v>
+      </c>
+      <c r="K25" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J25)</f>
         <v/>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="132"/>
-    </row>
-    <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="48"/>
+      <c r="M25" s="132"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="128"/>
       <c r="B26" s="50">
         <v>24</v>
       </c>
-      <c r="C26" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="133" t="str">
+      <c r="C26" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="133" t="str">
         <v>H9</v>
       </c>
-      <c r="E26" s="129" t="str">
+      <c r="F26" s="212">
+        <f>_xll.qlIMMdate(E26)</f>
+        <v>43544</v>
+      </c>
+      <c r="G26" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F26" s="130" t="str">
+      <c r="H26" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MH9_Quote</v>
       </c>
-      <c r="G26" s="152" t="str">
+      <c r="I26" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH9ConvAdj_Quote</v>
       </c>
-      <c r="H26" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027a#0000</v>
-      </c>
-      <c r="I26" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H26)</f>
+      <c r="J26" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H26,$C26,$F26,$G26,$I26,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002bf#0001</v>
+      </c>
+      <c r="K26" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J26)</f>
         <v/>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="132"/>
-    </row>
-    <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="48"/>
+      <c r="M26" s="132"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="128"/>
       <c r="B27" s="50">
         <v>25</v>
       </c>
-      <c r="C27" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="133" t="str">
+      <c r="C27" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="133" t="str">
         <v>M9</v>
       </c>
-      <c r="E27" s="129" t="str">
+      <c r="F27" s="212">
+        <f>_xll.qlIMMdate(E27)</f>
+        <v>43635</v>
+      </c>
+      <c r="G27" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F27" s="130" t="str">
+      <c r="H27" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MM9_Quote</v>
       </c>
-      <c r="G27" s="152" t="str">
+      <c r="I27" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM9ConvAdj_Quote</v>
       </c>
-      <c r="H27" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026c#0000</v>
-      </c>
-      <c r="I27" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H27)</f>
+      <c r="J27" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H27,$C27,$F27,$G27,$I27,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ba#0001</v>
+      </c>
+      <c r="K27" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J27)</f>
         <v/>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="132"/>
-    </row>
-    <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="48"/>
+      <c r="M27" s="132"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="128"/>
       <c r="B28" s="50">
         <v>26</v>
       </c>
-      <c r="C28" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="133" t="str">
+      <c r="C28" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="133" t="str">
         <v>U9</v>
       </c>
-      <c r="E28" s="129" t="str">
+      <c r="F28" s="212">
+        <f>_xll.qlIMMdate(E28)</f>
+        <v>43726</v>
+      </c>
+      <c r="G28" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F28" s="130" t="str">
+      <c r="H28" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MU9_Quote</v>
       </c>
-      <c r="G28" s="152" t="str">
+      <c r="I28" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU9ConvAdj_Quote</v>
       </c>
-      <c r="H28" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023e#0000</v>
-      </c>
-      <c r="I28" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H28)</f>
+      <c r="J28" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H28,$C28,$F28,$G28,$I28,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b4#0001</v>
+      </c>
+      <c r="K28" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J28)</f>
         <v/>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="132"/>
-    </row>
-    <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="48"/>
+      <c r="M28" s="132"/>
+    </row>
+    <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="128"/>
       <c r="B29" s="50">
         <v>27</v>
       </c>
-      <c r="C29" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="133" t="str">
+      <c r="C29" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="133" t="str">
         <v>Z9</v>
       </c>
-      <c r="E29" s="129" t="str">
+      <c r="F29" s="212">
+        <f>_xll.qlIMMdate(E29)</f>
+        <v>43817</v>
+      </c>
+      <c r="G29" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F29" s="130" t="str">
+      <c r="H29" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MZ9_Quote</v>
       </c>
-      <c r="G29" s="152" t="str">
+      <c r="I29" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ9ConvAdj_Quote</v>
       </c>
-      <c r="H29" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00271#0000</v>
-      </c>
-      <c r="I29" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H29)</f>
+      <c r="J29" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H29,$C29,$F29,$G29,$I29,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d7#0001</v>
+      </c>
+      <c r="K29" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J29)</f>
         <v/>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="132"/>
-    </row>
-    <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="48"/>
+      <c r="M29" s="132"/>
+    </row>
+    <row r="30" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="128"/>
       <c r="B30" s="50">
         <v>28</v>
       </c>
-      <c r="C30" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="133" t="str">
+      <c r="C30" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="133" t="str">
         <v>H0</v>
       </c>
-      <c r="E30" s="129" t="str">
+      <c r="F30" s="212">
+        <f>_xll.qlIMMdate(E30)</f>
+        <v>43908</v>
+      </c>
+      <c r="G30" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F30" s="130" t="str">
+      <c r="H30" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MH0_Quote</v>
       </c>
-      <c r="G30" s="152" t="str">
+      <c r="I30" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH0ConvAdj_Quote</v>
       </c>
-      <c r="H30" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025b#0000</v>
-      </c>
-      <c r="I30" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H30)</f>
+      <c r="J30" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H30,$C30,$F30,$G30,$I30,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d2#0001</v>
+      </c>
+      <c r="K30" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J30)</f>
         <v/>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="132"/>
-    </row>
-    <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="48"/>
+      <c r="M30" s="132"/>
+    </row>
+    <row r="31" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="128"/>
       <c r="B31" s="50">
         <v>29</v>
       </c>
-      <c r="C31" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="133" t="str">
+      <c r="C31" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="133" t="str">
         <v>M0</v>
       </c>
-      <c r="E31" s="129" t="str">
+      <c r="F31" s="212">
+        <f>_xll.qlIMMdate(E31)</f>
+        <v>43999</v>
+      </c>
+      <c r="G31" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F31" s="130" t="str">
+      <c r="H31" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MM0_Quote</v>
       </c>
-      <c r="G31" s="152" t="str">
+      <c r="I31" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM0ConvAdj_Quote</v>
       </c>
-      <c r="H31" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00256#0000</v>
-      </c>
-      <c r="I31" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H31)</f>
+      <c r="J31" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H31,$C31,$F31,$G31,$I31,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002cd#0001</v>
+      </c>
+      <c r="K31" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J31)</f>
         <v/>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="132"/>
-    </row>
-    <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="48"/>
+      <c r="M31" s="132"/>
+    </row>
+    <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="128"/>
       <c r="B32" s="50">
         <v>30</v>
       </c>
-      <c r="C32" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="133" t="str">
+      <c r="C32" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="133" t="str">
         <v>U0</v>
       </c>
-      <c r="E32" s="129" t="str">
+      <c r="F32" s="212">
+        <f>_xll.qlIMMdate(E32)</f>
+        <v>44090</v>
+      </c>
+      <c r="G32" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F32" s="130" t="str">
+      <c r="H32" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MU0_Quote</v>
       </c>
-      <c r="G32" s="152" t="str">
+      <c r="I32" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU0ConvAdj_Quote</v>
       </c>
-      <c r="H32" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00269#0000</v>
-      </c>
-      <c r="I32" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H32)</f>
+      <c r="J32" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H32,$C32,$F32,$G32,$I32,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c8#0001</v>
+      </c>
+      <c r="K32" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J32)</f>
         <v/>
       </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="132"/>
-    </row>
-    <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="48"/>
+      <c r="M32" s="132"/>
+    </row>
+    <row r="33" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="128"/>
       <c r="B33" s="50">
         <v>31</v>
       </c>
-      <c r="C33" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="133" t="str">
+      <c r="C33" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="133" t="str">
         <v>Z0</v>
       </c>
-      <c r="E33" s="129" t="str">
+      <c r="F33" s="212">
+        <f>_xll.qlIMMdate(E33)</f>
+        <v>44181</v>
+      </c>
+      <c r="G33" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F33" s="130" t="str">
+      <c r="H33" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MZ0_Quote</v>
       </c>
-      <c r="G33" s="152" t="str">
+      <c r="I33" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ0ConvAdj_Quote</v>
       </c>
-      <c r="H33" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00258#0000</v>
-      </c>
-      <c r="I33" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H33)</f>
+      <c r="J33" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H33,$C33,$F33,$G33,$I33,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c3#0001</v>
+      </c>
+      <c r="K33" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J33)</f>
         <v/>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="132"/>
-    </row>
-    <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="48"/>
+      <c r="M33" s="132"/>
+    </row>
+    <row r="34" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="128"/>
       <c r="B34" s="50">
         <v>32</v>
       </c>
-      <c r="C34" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="133" t="str">
+      <c r="C34" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="133" t="str">
         <v>H1</v>
       </c>
-      <c r="E34" s="129" t="str">
+      <c r="F34" s="212">
+        <f>_xll.qlIMMdate(E34)</f>
+        <v>44272</v>
+      </c>
+      <c r="G34" s="129" t="str">
         <f t="shared" si="0"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F34" s="130" t="str">
+      <c r="H34" s="130" t="str">
         <f t="shared" si="1"/>
         <v>CHFFUT3MH1_Quote</v>
       </c>
-      <c r="G34" s="152" t="str">
+      <c r="I34" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH1ConvAdj_Quote</v>
       </c>
-      <c r="H34" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00286#0000</v>
-      </c>
-      <c r="I34" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H34)</f>
+      <c r="J34" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H34,$C34,$F34,$G34,$I34,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002be#0001</v>
+      </c>
+      <c r="K34" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J34)</f>
         <v/>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="132"/>
-    </row>
-    <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="48"/>
+      <c r="M34" s="132"/>
+    </row>
+    <row r="35" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="128"/>
       <c r="B35" s="50">
         <v>33</v>
       </c>
-      <c r="C35" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="133" t="str">
+      <c r="C35" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="133" t="str">
         <v>M1</v>
       </c>
-      <c r="E35" s="129" t="str">
-        <f t="shared" ref="E35:E44" si="3">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+      <c r="F35" s="212">
+        <f>_xll.qlIMMdate(E35)</f>
+        <v>44363</v>
+      </c>
+      <c r="G35" s="129" t="str">
+        <f t="shared" ref="G35:G44" si="3">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F35" s="130" t="str">
-        <f t="shared" ref="F35:F44" si="4">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
+      <c r="H35" s="130" t="str">
+        <f t="shared" ref="H35:H44" si="4">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;QuoteSuffix</f>
         <v>CHFFUT3MM1_Quote</v>
       </c>
-      <c r="G35" s="152" t="str">
+      <c r="I35" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM1ConvAdj_Quote</v>
       </c>
-      <c r="H35" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00249#0000</v>
-      </c>
-      <c r="I35" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H35)</f>
+      <c r="J35" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H35,$C35,$F35,$G35,$I35,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b9#0001</v>
+      </c>
+      <c r="K35" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J35)</f>
         <v/>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="132"/>
-    </row>
-    <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="48"/>
+      <c r="M35" s="132"/>
+    </row>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="128"/>
       <c r="B36" s="50">
         <v>34</v>
       </c>
-      <c r="C36" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="133" t="str">
+      <c r="C36" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="133" t="str">
         <v>U1</v>
       </c>
-      <c r="E36" s="129" t="str">
+      <c r="F36" s="212">
+        <f>_xll.qlIMMdate(E36)</f>
+        <v>44454</v>
+      </c>
+      <c r="G36" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F36" s="130" t="str">
+      <c r="H36" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MU1_Quote</v>
       </c>
-      <c r="G36" s="152" t="str">
+      <c r="I36" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU1ConvAdj_Quote</v>
       </c>
-      <c r="H36" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026f#0000</v>
-      </c>
-      <c r="I36" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H36)</f>
+      <c r="J36" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H36,$C36,$F36,$G36,$I36,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b3#0001</v>
+      </c>
+      <c r="K36" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J36)</f>
         <v/>
       </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="132"/>
-    </row>
-    <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="48"/>
+      <c r="M36" s="132"/>
+    </row>
+    <row r="37" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="128"/>
       <c r="B37" s="50">
         <v>35</v>
       </c>
-      <c r="C37" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="133" t="str">
+      <c r="C37" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="133" t="str">
         <v>Z1</v>
       </c>
-      <c r="E37" s="129" t="str">
+      <c r="F37" s="212">
+        <f>_xll.qlIMMdate(E37)</f>
+        <v>44545</v>
+      </c>
+      <c r="G37" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F37" s="130" t="str">
+      <c r="H37" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MZ1_Quote</v>
       </c>
-      <c r="G37" s="152" t="str">
+      <c r="I37" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ1ConvAdj_Quote</v>
       </c>
-      <c r="H37" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0026b#0000</v>
-      </c>
-      <c r="I37" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H37)</f>
+      <c r="J37" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H37,$C37,$F37,$G37,$I37,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d6#0001</v>
+      </c>
+      <c r="K37" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J37)</f>
         <v/>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="132"/>
-    </row>
-    <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="48"/>
+      <c r="M37" s="132"/>
+    </row>
+    <row r="38" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="128"/>
       <c r="B38" s="50">
         <v>36</v>
       </c>
-      <c r="C38" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="133" t="str">
+      <c r="C38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="133" t="str">
         <v>H2</v>
       </c>
-      <c r="E38" s="129" t="str">
+      <c r="F38" s="212">
+        <f>_xll.qlIMMdate(E38)</f>
+        <v>44636</v>
+      </c>
+      <c r="G38" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F38" s="130" t="str">
+      <c r="H38" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MH2_Quote</v>
       </c>
-      <c r="G38" s="152" t="str">
+      <c r="I38" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH2ConvAdj_Quote</v>
       </c>
-      <c r="H38" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00255#0000</v>
-      </c>
-      <c r="I38" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H38)</f>
+      <c r="J38" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H38,$C38,$F38,$G38,$I38,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002d1#0001</v>
+      </c>
+      <c r="K38" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J38)</f>
         <v/>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="132"/>
-    </row>
-    <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="48"/>
+      <c r="M38" s="132"/>
+    </row>
+    <row r="39" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="128"/>
       <c r="B39" s="50">
         <v>37</v>
       </c>
-      <c r="C39" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="133" t="str">
+      <c r="C39" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="133" t="str">
         <v>M2</v>
       </c>
-      <c r="E39" s="129" t="str">
+      <c r="F39" s="212">
+        <f>_xll.qlIMMdate(E39)</f>
+        <v>44727</v>
+      </c>
+      <c r="G39" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F39" s="130" t="str">
+      <c r="H39" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MM2_Quote</v>
       </c>
-      <c r="G39" s="152" t="str">
+      <c r="I39" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM2ConvAdj_Quote</v>
       </c>
-      <c r="H39" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00241#0000</v>
-      </c>
-      <c r="I39" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H39)</f>
+      <c r="J39" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H39,$C39,$F39,$G39,$I39,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002cc#0001</v>
+      </c>
+      <c r="K39" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J39)</f>
         <v/>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="132"/>
-    </row>
-    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="48"/>
+      <c r="M39" s="132"/>
+    </row>
+    <row r="40" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="128"/>
       <c r="B40" s="50">
         <v>38</v>
       </c>
-      <c r="C40" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="133" t="str">
+      <c r="C40" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="133" t="str">
         <v>U2</v>
       </c>
-      <c r="E40" s="129" t="str">
+      <c r="F40" s="212">
+        <f>_xll.qlIMMdate(E40)</f>
+        <v>44825</v>
+      </c>
+      <c r="G40" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F40" s="130" t="str">
+      <c r="H40" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MU2_Quote</v>
       </c>
-      <c r="G40" s="152" t="str">
+      <c r="I40" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU2ConvAdj_Quote</v>
       </c>
-      <c r="H40" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024c#0000</v>
-      </c>
-      <c r="I40" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H40)</f>
+      <c r="J40" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H40,$C40,$F40,$G40,$I40,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c7#0001</v>
+      </c>
+      <c r="K40" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J40)</f>
         <v/>
       </c>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="48"/>
+    </row>
+    <row r="41" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="128"/>
       <c r="B41" s="50">
         <v>39</v>
       </c>
-      <c r="C41" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="133" t="str">
+      <c r="C41" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="133" t="str">
         <v>Z2</v>
       </c>
-      <c r="E41" s="129" t="str">
+      <c r="F41" s="212">
+        <f>_xll.qlIMMdate(E41)</f>
+        <v>44916</v>
+      </c>
+      <c r="G41" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F41" s="130" t="str">
+      <c r="H41" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MZ2_Quote</v>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MZ2ConvAdj_Quote</v>
       </c>
-      <c r="H41" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027d#0000</v>
-      </c>
-      <c r="I41" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H41)</f>
+      <c r="J41" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H41,$C41,$F41,$G41,$I41,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002c2#0001</v>
+      </c>
+      <c r="K41" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J41)</f>
         <v/>
       </c>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="48"/>
+    </row>
+    <row r="42" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="128"/>
       <c r="B42" s="50">
         <v>40</v>
       </c>
-      <c r="C42" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="133" t="str">
+      <c r="C42" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="133" t="str">
         <v>H3</v>
       </c>
-      <c r="E42" s="129" t="str">
+      <c r="F42" s="212">
+        <f>_xll.qlIMMdate(E42)</f>
+        <v>45000</v>
+      </c>
+      <c r="G42" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F42" s="130" t="str">
+      <c r="H42" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MH3_Quote</v>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MH3ConvAdj_Quote</v>
       </c>
-      <c r="H42" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00253#0000</v>
-      </c>
-      <c r="I42" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H42)</f>
+      <c r="J42" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H42,$C42,$F42,$G42,$I42,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002bd#0001</v>
+      </c>
+      <c r="K42" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J42)</f>
         <v/>
       </c>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="48"/>
+    </row>
+    <row r="43" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="128"/>
       <c r="B43" s="50">
         <v>41</v>
       </c>
-      <c r="C43" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="133" t="str">
+      <c r="C43" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="133" t="str">
         <v>M3</v>
       </c>
-      <c r="E43" s="129" t="str">
+      <c r="F43" s="212">
+        <f>_xll.qlIMMdate(E43)</f>
+        <v>45098</v>
+      </c>
+      <c r="G43" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F43" s="130" t="str">
+      <c r="H43" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MM3_Quote</v>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MM3ConvAdj_Quote</v>
       </c>
-      <c r="H43" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025c#0000</v>
-      </c>
-      <c r="I43" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H43)</f>
+      <c r="J43" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H43,$C43,$F43,$G43,$I43,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b8#0001</v>
+      </c>
+      <c r="K43" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J43)</f>
         <v/>
       </c>
-      <c r="J43" s="48"/>
-    </row>
-    <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="48"/>
+    </row>
+    <row r="44" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="128"/>
       <c r="B44" s="50">
         <v>42</v>
       </c>
-      <c r="C44" s="133" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="133" t="str">
+      <c r="C44" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="133" t="str">
         <v>U3</v>
       </c>
-      <c r="E44" s="129" t="str">
+      <c r="F44" s="212">
+        <f>_xll.qlIMMdate(E44)</f>
+        <v>45189</v>
+      </c>
+      <c r="G44" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ChfLibor3M</v>
       </c>
-      <c r="F44" s="130" t="str">
+      <c r="H44" s="130" t="str">
         <f t="shared" si="4"/>
         <v>CHFFUT3MU3_Quote</v>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="2"/>
         <v>CHFFUT3MU3ConvAdj_Quote</v>
       </c>
-      <c r="H44" s="131" t="str">
-        <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023d#0000</v>
-      </c>
-      <c r="I44" s="49" t="str">
-        <f>_xll.ohRangeRetrieveError(H44)</f>
+      <c r="J44" s="131" t="str">
+        <f>_xll.qlFuturesRateHelper(,$H44,$C44,$F44,$G44,$I44,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002b2#0001</v>
+      </c>
+      <c r="K44" s="49" t="str">
+        <f>_xll.ohRangeRetrieveError(J44)</f>
         <v/>
       </c>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="48"/>
+    </row>
+    <row r="45" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="134"/>
       <c r="B45" s="135"/>
       <c r="C45" s="135"/>
@@ -13863,7 +14181,9 @@
       <c r="G45" s="135"/>
       <c r="H45" s="135"/>
       <c r="I45" s="135"/>
-      <c r="J45" s="45"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13875,32 +14195,32 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="7" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="148" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44" style="44" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="44" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="44"/>
+    <col min="2" max="3" width="7" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="148" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="44" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="183"/>
       <c r="B1" s="184"/>
       <c r="C1" s="184"/>
@@ -13908,47 +14228,51 @@
       <c r="E1" s="184"/>
       <c r="F1" s="184"/>
       <c r="G1" s="184"/>
-      <c r="H1" s="185" t="str">
+      <c r="H1" s="184"/>
+      <c r="I1" s="185" t="str">
         <f>IndexTenor</f>
         <v>6M</v>
       </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="184"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="198"/>
       <c r="L1" s="184"/>
-      <c r="M1" s="186"/>
-    </row>
-    <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="184"/>
+      <c r="N1" s="186"/>
+    </row>
+    <row r="2" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="J2" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="K2" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K2)</f>
+      <c r="L2" s="121"/>
+      <c r="M2" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L2)</f>
         <v/>
       </c>
-      <c r="M2" s="138"/>
-    </row>
-    <row r="3" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="138"/>
+    </row>
+    <row r="3" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -13959,19 +14283,20 @@
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
       <c r="J3" s="59"/>
-      <c r="K3" s="139" t="str">
-        <f>_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00231#0000</v>
-      </c>
-      <c r="L3" s="140" t="str">
-        <f>_xll.ohRangeRetrieveError(K3)</f>
+      <c r="K3" s="59"/>
+      <c r="L3" s="139" t="str">
+        <f>_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_001f7#0002</v>
+      </c>
+      <c r="M3" s="140" t="str">
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="M3" s="136"/>
-      <c r="O3" s="179"/>
-      <c r="Q3" s="171"/>
-    </row>
-    <row r="4" spans="1:17" s="57" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="136"/>
+      <c r="P3" s="179"/>
+      <c r="R3" s="171"/>
+    </row>
+    <row r="4" spans="1:18" s="57" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -13984,1658 +14309,1773 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
-      <c r="M4" s="136"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="187"/>
-    </row>
-    <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="59"/>
+      <c r="N4" s="136"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="187"/>
+    </row>
+    <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="141">
+        <v>2</v>
+      </c>
+      <c r="C5" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="D5" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="141" t="str">
-        <f t="array" ref="D5">VLOOKUP(Currency,Conventions,2)</f>
+      <c r="E5" s="141" t="str">
+        <f t="array" ref="E5">VLOOKUP(Currency,Conventions,2)</f>
         <v>AB</v>
       </c>
-      <c r="E5" s="141" t="str">
-        <f t="array" ref="E5">IborType</f>
+      <c r="F5" s="141" t="str">
+        <f t="array" ref="F5">IborType</f>
         <v>6L</v>
       </c>
-      <c r="F5" s="133" t="str">
-        <f t="shared" ref="F5:F42" si="0">IF(UPPER(LEFT($D5))="A","Annual",IF(UPPER(LEFT($D5))="S","Semiannual","--"))</f>
+      <c r="G5" s="133" t="str">
+        <f t="shared" ref="G5:G42" si="0">IF(UPPER(LEFT($E5))="A","Annual",IF(UPPER(LEFT($E5))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="H5" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="133" t="str">
-        <f t="shared" ref="H5:H42" si="1">IF(UPPER(RIGHT($D5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D5))="M",MoneyMarketDayCounter,"--"))</f>
+      <c r="I5" s="133" t="str">
+        <f t="shared" ref="I5:I42" si="1">IF(UPPER(RIGHT($E5))="B",BondBasisDayCounter,IF(UPPER(RIGHT($E5))="M",MoneyMarketDayCounter,"--"))</f>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I5" s="142">
+      <c r="J5" s="142">
         <v>0</v>
       </c>
-      <c r="J5" s="143" t="str">
-        <f t="shared" ref="J5:J42" si="2">Currency&amp;$D5&amp;$E5&amp;$C5&amp;QuoteSuffix</f>
+      <c r="K5" s="143" t="str">
+        <f t="shared" ref="K5:K42" si="2">Currency&amp;$E5&amp;$F5&amp;$D5&amp;QuoteSuffix</f>
         <v>CHFAB6L6M_Quote</v>
       </c>
-      <c r="K5" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00232#0000</v>
-      </c>
-      <c r="L5" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K5)</f>
+      <c r="L5" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K5,$B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002dc#0001</v>
+      </c>
+      <c r="M5" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L5)</f>
         <v/>
       </c>
-      <c r="M5" s="138"/>
-      <c r="O5" s="179"/>
-      <c r="Q5" s="146"/>
-    </row>
-    <row r="6" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="138"/>
+      <c r="P5" s="179"/>
+      <c r="R5" s="146"/>
+    </row>
+    <row r="6" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="141">
+        <v>2</v>
+      </c>
+      <c r="C6" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="D6" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="141" t="str">
-        <f t="array" ref="D6:D42">VLOOKUP(Currency,Conventions,2)</f>
+      <c r="E6" s="141" t="str">
+        <f t="array" ref="E6:E42">VLOOKUP(Currency,Conventions,2)</f>
         <v>AB</v>
       </c>
-      <c r="E6" s="141" t="str">
-        <f t="array" ref="E6:E42">IborType</f>
+      <c r="F6" s="141" t="str">
+        <f t="array" ref="F6:F42">IborType</f>
         <v>6L</v>
       </c>
-      <c r="F6" s="133" t="str">
+      <c r="G6" s="133" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="H6" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="133" t="str">
+      <c r="I6" s="133" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I6" s="142">
+      <c r="J6" s="142">
         <v>0</v>
       </c>
-      <c r="J6" s="143" t="str">
+      <c r="K6" s="143" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L1Y_Quote</v>
       </c>
-      <c r="K6" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00261#0000</v>
-      </c>
-      <c r="L6" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K6)</f>
+      <c r="L6" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K6,$B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f5#0001</v>
+      </c>
+      <c r="M6" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="M6" s="138"/>
-      <c r="O6" s="179"/>
-      <c r="Q6" s="146"/>
-    </row>
-    <row r="7" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="138"/>
+      <c r="P6" s="179"/>
+      <c r="R6" s="146"/>
+    </row>
+    <row r="7" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="141">
+        <v>2</v>
+      </c>
+      <c r="C7" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="D7" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="141" t="str">
+      <c r="E7" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E7" s="141" t="str">
+      <c r="F7" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F7" s="129" t="str">
+      <c r="G7" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="H7" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="129" t="str">
+      <c r="I7" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I7" s="142">
+      <c r="J7" s="142">
         <v>0</v>
       </c>
-      <c r="J7" s="145" t="str">
+      <c r="K7" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L15M_Quote</v>
       </c>
-      <c r="K7" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00254#0000</v>
-      </c>
-      <c r="L7" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K7)</f>
+      <c r="L7" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K7,$B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f0#0001</v>
+      </c>
+      <c r="M7" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="M7" s="138"/>
-      <c r="O7" s="179"/>
-      <c r="Q7" s="146"/>
-    </row>
-    <row r="8" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="138"/>
+      <c r="P7" s="179"/>
+      <c r="R7" s="146"/>
+    </row>
+    <row r="8" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="141">
+        <v>2</v>
+      </c>
+      <c r="C8" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="D8" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="141" t="str">
+      <c r="E8" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E8" s="141" t="str">
+      <c r="F8" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F8" s="129" t="str">
+      <c r="G8" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="H8" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="129" t="str">
+      <c r="I8" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I8" s="142">
+      <c r="J8" s="142">
         <v>0</v>
       </c>
-      <c r="J8" s="145" t="str">
+      <c r="K8" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L18M_Quote</v>
       </c>
-      <c r="K8" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00257#0000</v>
-      </c>
-      <c r="L8" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K8)</f>
+      <c r="L8" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K8,$B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002eb#0001</v>
+      </c>
+      <c r="M8" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="M8" s="138"/>
-      <c r="O8" s="179"/>
-      <c r="Q8" s="146"/>
-    </row>
-    <row r="9" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="138"/>
+      <c r="P8" s="179"/>
+      <c r="R8" s="146"/>
+    </row>
+    <row r="9" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="141">
+        <v>2</v>
+      </c>
+      <c r="C9" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="D9" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="141" t="str">
+      <c r="E9" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E9" s="141" t="str">
+      <c r="F9" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F9" s="129" t="str">
+      <c r="G9" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="H9" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="129" t="str">
+      <c r="I9" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I9" s="142">
+      <c r="J9" s="142">
         <v>0</v>
       </c>
-      <c r="J9" s="145" t="str">
+      <c r="K9" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L21M_Quote</v>
       </c>
-      <c r="K9" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024e#0000</v>
-      </c>
-      <c r="L9" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K9)</f>
+      <c r="L9" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K9,$B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e6#0001</v>
+      </c>
+      <c r="M9" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="M9" s="138"/>
-      <c r="O9" s="179"/>
-      <c r="Q9" s="146"/>
-    </row>
-    <row r="10" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="138"/>
+      <c r="P9" s="179"/>
+      <c r="R9" s="146"/>
+    </row>
+    <row r="10" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="141">
+        <v>2</v>
+      </c>
+      <c r="C10" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="D10" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="141" t="str">
+      <c r="E10" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E10" s="141" t="str">
+      <c r="F10" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F10" s="129" t="str">
+      <c r="G10" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="H10" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="129" t="str">
+      <c r="I10" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I10" s="142">
+      <c r="J10" s="142">
         <v>0</v>
       </c>
-      <c r="J10" s="145" t="str">
+      <c r="K10" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L2Y_Quote</v>
       </c>
-      <c r="K10" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00264#0000</v>
-      </c>
-      <c r="L10" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K10)</f>
+      <c r="L10" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K10,$B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e1#0001</v>
+      </c>
+      <c r="M10" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="M10" s="138"/>
-      <c r="O10" s="179"/>
-      <c r="Q10" s="171"/>
-    </row>
-    <row r="11" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="138"/>
+      <c r="P10" s="179"/>
+      <c r="R10" s="171"/>
+    </row>
+    <row r="11" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="141">
+        <v>2</v>
+      </c>
+      <c r="C11" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="D11" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="141" t="str">
+      <c r="E11" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E11" s="141" t="str">
+      <c r="F11" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F11" s="129" t="str">
+      <c r="G11" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="H11" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="129" t="str">
+      <c r="I11" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I11" s="142">
+      <c r="J11" s="142">
         <v>0</v>
       </c>
-      <c r="J11" s="145" t="str">
+      <c r="K11" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L3Y_Quote</v>
       </c>
-      <c r="K11" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00273#0000</v>
-      </c>
-      <c r="L11" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K11)</f>
+      <c r="L11" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K11,$B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00300#0001</v>
+      </c>
+      <c r="M11" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="M11" s="138"/>
-      <c r="O11" s="179"/>
-      <c r="Q11" s="171"/>
-    </row>
-    <row r="12" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="138"/>
+      <c r="P11" s="179"/>
+      <c r="R11" s="171"/>
+    </row>
+    <row r="12" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="141">
+        <v>2</v>
+      </c>
+      <c r="C12" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="D12" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="141" t="str">
+      <c r="E12" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E12" s="141" t="str">
+      <c r="F12" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F12" s="129" t="str">
+      <c r="G12" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="H12" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="129" t="str">
+      <c r="I12" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I12" s="142">
+      <c r="J12" s="142">
         <v>0</v>
       </c>
-      <c r="J12" s="145" t="str">
+      <c r="K12" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L4Y_Quote</v>
       </c>
-      <c r="K12" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00245#0000</v>
-      </c>
-      <c r="L12" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K12)</f>
+      <c r="L12" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K12,$B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002fd#0001</v>
+      </c>
+      <c r="M12" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="M12" s="138"/>
-      <c r="O12" s="179"/>
-      <c r="Q12" s="171"/>
-    </row>
-    <row r="13" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="138"/>
+      <c r="P12" s="179"/>
+      <c r="R12" s="171"/>
+    </row>
+    <row r="13" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="141">
+        <v>2</v>
+      </c>
+      <c r="C13" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="D13" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="141" t="str">
+      <c r="E13" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E13" s="141" t="str">
+      <c r="F13" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F13" s="129" t="str">
+      <c r="G13" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="H13" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="129" t="str">
+      <c r="I13" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I13" s="142">
+      <c r="J13" s="142">
         <v>0</v>
       </c>
-      <c r="J13" s="145" t="str">
+      <c r="K13" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L5Y_Quote</v>
       </c>
-      <c r="K13" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00284#0000</v>
-      </c>
-      <c r="L13" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K13)</f>
+      <c r="L13" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K13,$B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f9#0001</v>
+      </c>
+      <c r="M13" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="M13" s="138"/>
-      <c r="O13" s="179"/>
-    </row>
-    <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="138"/>
+      <c r="P13" s="179"/>
+    </row>
+    <row r="14" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="141">
+        <v>2</v>
+      </c>
+      <c r="C14" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="D14" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="141" t="str">
+      <c r="E14" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E14" s="141" t="str">
+      <c r="F14" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F14" s="129" t="str">
+      <c r="G14" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="H14" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="129" t="str">
+      <c r="I14" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I14" s="142">
+      <c r="J14" s="142">
         <v>0</v>
       </c>
-      <c r="J14" s="145" t="str">
+      <c r="K14" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L6Y_Quote</v>
       </c>
-      <c r="K14" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00282#0000</v>
-      </c>
-      <c r="L14" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K14)</f>
+      <c r="L14" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K14,$B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f4#0001</v>
+      </c>
+      <c r="M14" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="M14" s="138"/>
-      <c r="O14" s="179"/>
-    </row>
-    <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="138"/>
+      <c r="P14" s="179"/>
+    </row>
+    <row r="15" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="141">
+        <v>2</v>
+      </c>
+      <c r="C15" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="D15" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="141" t="str">
+      <c r="E15" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E15" s="141" t="str">
+      <c r="F15" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F15" s="129" t="str">
+      <c r="G15" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="H15" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="129" t="str">
+      <c r="I15" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I15" s="142">
+      <c r="J15" s="142">
         <v>0</v>
       </c>
-      <c r="J15" s="145" t="str">
+      <c r="K15" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L7Y_Quote</v>
       </c>
-      <c r="K15" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00248#0000</v>
-      </c>
-      <c r="L15" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K15)</f>
+      <c r="L15" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K15,$B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ef#0001</v>
+      </c>
+      <c r="M15" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="M15" s="138"/>
-      <c r="O15" s="179"/>
-    </row>
-    <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="138"/>
+      <c r="P15" s="179"/>
+    </row>
+    <row r="16" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="141">
+        <v>2</v>
+      </c>
+      <c r="C16" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="D16" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="141" t="str">
+      <c r="E16" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E16" s="141" t="str">
+      <c r="F16" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F16" s="129" t="str">
+      <c r="G16" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="H16" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="129" t="str">
+      <c r="I16" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I16" s="142">
+      <c r="J16" s="142">
         <v>0</v>
       </c>
-      <c r="J16" s="145" t="str">
+      <c r="K16" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L8Y_Quote</v>
       </c>
-      <c r="K16" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00274#0000</v>
-      </c>
-      <c r="L16" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K16)</f>
+      <c r="L16" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K16,$B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ea#0001</v>
+      </c>
+      <c r="M16" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="M16" s="138"/>
-      <c r="O16" s="179"/>
-    </row>
-    <row r="17" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="138"/>
+      <c r="P16" s="179"/>
+    </row>
+    <row r="17" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="141">
+        <v>2</v>
+      </c>
+      <c r="C17" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="D17" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="141" t="str">
+      <c r="E17" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E17" s="141" t="str">
+      <c r="F17" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F17" s="129" t="str">
+      <c r="G17" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="129" t="s">
+      <c r="H17" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="129" t="str">
+      <c r="I17" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I17" s="142">
+      <c r="J17" s="142">
         <v>0</v>
       </c>
-      <c r="J17" s="145" t="str">
+      <c r="K17" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L9Y_Quote</v>
       </c>
-      <c r="K17" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025d#0000</v>
-      </c>
-      <c r="L17" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K17)</f>
+      <c r="L17" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K17,$B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e5#0001</v>
+      </c>
+      <c r="M17" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="M17" s="138"/>
-      <c r="O17" s="179"/>
-    </row>
-    <row r="18" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="138"/>
+      <c r="P17" s="179"/>
+    </row>
+    <row r="18" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="141">
+        <v>2</v>
+      </c>
+      <c r="C18" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="D18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="141" t="str">
+      <c r="E18" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E18" s="141" t="str">
+      <c r="F18" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F18" s="129" t="str">
+      <c r="G18" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="129" t="s">
+      <c r="H18" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="129" t="str">
+      <c r="I18" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I18" s="142">
+      <c r="J18" s="142">
         <v>0</v>
       </c>
-      <c r="J18" s="145" t="str">
+      <c r="K18" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L10Y_Quote</v>
       </c>
-      <c r="K18" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00272#0000</v>
-      </c>
-      <c r="L18" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K18)</f>
+      <c r="L18" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K18,$B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e0#0001</v>
+      </c>
+      <c r="M18" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="M18" s="138"/>
-      <c r="O18" s="179"/>
-    </row>
-    <row r="19" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="138"/>
+      <c r="P18" s="179"/>
+    </row>
+    <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="141">
+        <v>2</v>
+      </c>
+      <c r="C19" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="D19" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="141" t="str">
+      <c r="E19" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E19" s="141" t="str">
+      <c r="F19" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F19" s="129" t="str">
+      <c r="G19" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="H19" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="129" t="str">
+      <c r="I19" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I19" s="142">
+      <c r="J19" s="142">
         <v>0</v>
       </c>
-      <c r="J19" s="145" t="str">
+      <c r="K19" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L11Y_Quote</v>
       </c>
-      <c r="K19" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00251#0000</v>
-      </c>
-      <c r="L19" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K19)</f>
+      <c r="L19" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K19,$B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ff#0001</v>
+      </c>
+      <c r="M19" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="M19" s="138"/>
-      <c r="O19" s="179"/>
-    </row>
-    <row r="20" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="138"/>
+      <c r="P19" s="179"/>
+    </row>
+    <row r="20" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="141">
+        <v>2</v>
+      </c>
+      <c r="C20" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="D20" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="141" t="str">
+      <c r="E20" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E20" s="141" t="str">
+      <c r="F20" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F20" s="129" t="str">
+      <c r="G20" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="129" t="s">
+      <c r="H20" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="129" t="str">
+      <c r="I20" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I20" s="142">
+      <c r="J20" s="142">
         <v>0</v>
       </c>
-      <c r="J20" s="145" t="str">
+      <c r="K20" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L12Y_Quote</v>
       </c>
-      <c r="K20" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024d#0000</v>
-      </c>
-      <c r="L20" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K20)</f>
+      <c r="L20" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K20,$B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002fc#0001</v>
+      </c>
+      <c r="M20" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="M20" s="138"/>
-      <c r="O20" s="179"/>
-    </row>
-    <row r="21" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="138"/>
+      <c r="P20" s="179"/>
+    </row>
+    <row r="21" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="141">
+        <v>2</v>
+      </c>
+      <c r="C21" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="D21" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="141" t="str">
+      <c r="E21" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E21" s="141" t="str">
+      <c r="F21" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F21" s="129" t="str">
+      <c r="G21" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="H21" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="129" t="str">
+      <c r="I21" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I21" s="142">
+      <c r="J21" s="142">
         <v>0</v>
       </c>
-      <c r="J21" s="145" t="str">
+      <c r="K21" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L13Y_Quote</v>
       </c>
-      <c r="K21" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00244#0000</v>
-      </c>
-      <c r="L21" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K21)</f>
+      <c r="L21" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K21,$B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f8#0001</v>
+      </c>
+      <c r="M21" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="M21" s="138"/>
-      <c r="O21" s="179"/>
-    </row>
-    <row r="22" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="138"/>
+      <c r="P21" s="179"/>
+    </row>
+    <row r="22" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="141">
+        <v>2</v>
+      </c>
+      <c r="C22" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="D22" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="141" t="str">
+      <c r="E22" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E22" s="141" t="str">
+      <c r="F22" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F22" s="129" t="str">
+      <c r="G22" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="129" t="s">
+      <c r="H22" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="129" t="str">
+      <c r="I22" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I22" s="142">
+      <c r="J22" s="142">
         <v>0</v>
       </c>
-      <c r="J22" s="145" t="str">
+      <c r="K22" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L14Y_Quote</v>
       </c>
-      <c r="K22" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00280#0000</v>
-      </c>
-      <c r="L22" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K22)</f>
+      <c r="L22" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K22,$B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f3#0001</v>
+      </c>
+      <c r="M22" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="M22" s="138"/>
-      <c r="O22" s="179"/>
-    </row>
-    <row r="23" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="138"/>
+      <c r="P22" s="179"/>
+    </row>
+    <row r="23" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="141">
+        <v>2</v>
+      </c>
+      <c r="C23" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="D23" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="141" t="str">
+      <c r="E23" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E23" s="141" t="str">
+      <c r="F23" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F23" s="129" t="str">
+      <c r="G23" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="H23" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="129" t="str">
+      <c r="I23" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I23" s="142">
+      <c r="J23" s="142">
         <v>0</v>
       </c>
-      <c r="J23" s="145" t="str">
+      <c r="K23" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L15Y_Quote</v>
       </c>
-      <c r="K23" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027b#0000</v>
-      </c>
-      <c r="L23" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K23)</f>
+      <c r="L23" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K23,$B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ee#0001</v>
+      </c>
+      <c r="M23" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="M23" s="138"/>
-      <c r="O23" s="179"/>
-    </row>
-    <row r="24" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="138"/>
+      <c r="P23" s="179"/>
+    </row>
+    <row r="24" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="141">
+        <v>2</v>
+      </c>
+      <c r="C24" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="D24" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="141" t="str">
+      <c r="E24" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E24" s="141" t="str">
+      <c r="F24" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F24" s="129" t="str">
+      <c r="G24" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="129" t="s">
+      <c r="H24" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="129" t="str">
+      <c r="I24" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I24" s="142">
+      <c r="J24" s="142">
         <v>0</v>
       </c>
-      <c r="J24" s="145" t="str">
+      <c r="K24" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L16Y_Quote</v>
       </c>
-      <c r="K24" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0023c#0000</v>
-      </c>
-      <c r="L24" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K24)</f>
+      <c r="L24" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K24,$B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e9#0001</v>
+      </c>
+      <c r="M24" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="M24" s="138"/>
-      <c r="O24" s="179"/>
-    </row>
-    <row r="25" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="138"/>
+      <c r="P24" s="179"/>
+    </row>
+    <row r="25" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="141">
+        <v>2</v>
+      </c>
+      <c r="C25" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="D25" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="141" t="str">
+      <c r="E25" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E25" s="141" t="str">
+      <c r="F25" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F25" s="129" t="str">
+      <c r="G25" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="129" t="s">
+      <c r="H25" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="129" t="str">
+      <c r="I25" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I25" s="142">
+      <c r="J25" s="142">
         <v>0</v>
       </c>
-      <c r="J25" s="145" t="str">
+      <c r="K25" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L17Y_Quote</v>
       </c>
-      <c r="K25" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0024b#0000</v>
-      </c>
-      <c r="L25" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K25)</f>
+      <c r="L25" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K25,$B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e4#0001</v>
+      </c>
+      <c r="M25" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="M25" s="138"/>
-      <c r="O25" s="179"/>
-    </row>
-    <row r="26" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="138"/>
+      <c r="P25" s="179"/>
+    </row>
+    <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="141">
+        <v>2</v>
+      </c>
+      <c r="C26" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="D26" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="141" t="str">
+      <c r="E26" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E26" s="141" t="str">
+      <c r="F26" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F26" s="129" t="str">
+      <c r="G26" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="129" t="s">
+      <c r="H26" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="129" t="str">
+      <c r="I26" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I26" s="142">
+      <c r="J26" s="142">
         <v>0</v>
       </c>
-      <c r="J26" s="145" t="str">
+      <c r="K26" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L18Y_Quote</v>
       </c>
-      <c r="K26" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0025f#0000</v>
-      </c>
-      <c r="L26" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K26)</f>
+      <c r="L26" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K26,$B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002df#0001</v>
+      </c>
+      <c r="M26" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="M26" s="138"/>
-      <c r="O26" s="179"/>
-    </row>
-    <row r="27" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="138"/>
+      <c r="P26" s="179"/>
+    </row>
+    <row r="27" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="141">
+        <v>2</v>
+      </c>
+      <c r="C27" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="D27" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="141" t="str">
+      <c r="E27" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E27" s="141" t="str">
+      <c r="F27" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F27" s="129" t="str">
+      <c r="G27" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="129" t="s">
+      <c r="H27" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="129" t="str">
+      <c r="I27" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I27" s="142">
+      <c r="J27" s="142">
         <v>0</v>
       </c>
-      <c r="J27" s="145" t="str">
+      <c r="K27" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L19Y_Quote</v>
       </c>
-      <c r="K27" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00283#0000</v>
-      </c>
-      <c r="L27" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K27)</f>
+      <c r="L27" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K27,$B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00301#0001</v>
+      </c>
+      <c r="M27" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="M27" s="138"/>
-      <c r="O27" s="179"/>
-    </row>
-    <row r="28" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="138"/>
+      <c r="P27" s="179"/>
+    </row>
+    <row r="28" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="141">
+        <v>2</v>
+      </c>
+      <c r="C28" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="D28" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="141" t="str">
+      <c r="E28" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E28" s="141" t="str">
+      <c r="F28" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F28" s="129" t="str">
+      <c r="G28" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="129" t="s">
+      <c r="H28" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="129" t="str">
+      <c r="I28" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I28" s="142">
+      <c r="J28" s="142">
         <v>0</v>
       </c>
-      <c r="J28" s="145" t="str">
+      <c r="K28" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L20Y_Quote</v>
       </c>
-      <c r="K28" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00266#0000</v>
-      </c>
-      <c r="L28" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K28)</f>
+      <c r="L28" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K28,$B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002fb#0001</v>
+      </c>
+      <c r="M28" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="M28" s="138"/>
-      <c r="O28" s="179"/>
-    </row>
-    <row r="29" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="138"/>
+      <c r="P28" s="179"/>
+    </row>
+    <row r="29" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="141">
+        <v>2</v>
+      </c>
+      <c r="C29" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="D29" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="141" t="str">
+      <c r="E29" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E29" s="141" t="str">
+      <c r="F29" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F29" s="129" t="str">
+      <c r="G29" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="129" t="s">
+      <c r="H29" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="129" t="str">
+      <c r="I29" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I29" s="142">
+      <c r="J29" s="142">
         <v>0</v>
       </c>
-      <c r="J29" s="145" t="str">
+      <c r="K29" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L21Y_Quote</v>
       </c>
-      <c r="K29" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00275#0000</v>
-      </c>
-      <c r="L29" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K29)</f>
+      <c r="L29" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K29,$B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f7#0001</v>
+      </c>
+      <c r="M29" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="M29" s="138"/>
-      <c r="O29" s="179"/>
-    </row>
-    <row r="30" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="138"/>
+      <c r="P29" s="179"/>
+    </row>
+    <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="141">
+        <v>2</v>
+      </c>
+      <c r="C30" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="D30" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="141" t="str">
+      <c r="E30" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E30" s="141" t="str">
+      <c r="F30" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F30" s="129" t="str">
+      <c r="G30" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="129" t="s">
+      <c r="H30" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="129" t="str">
+      <c r="I30" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I30" s="142">
+      <c r="J30" s="142">
         <v>0</v>
       </c>
-      <c r="J30" s="145" t="str">
+      <c r="K30" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L22Y_Quote</v>
       </c>
-      <c r="K30" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00268#0000</v>
-      </c>
-      <c r="L30" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K30)</f>
+      <c r="L30" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K30,$B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f2#0001</v>
+      </c>
+      <c r="M30" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="M30" s="138"/>
-      <c r="O30" s="179"/>
-    </row>
-    <row r="31" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="138"/>
+      <c r="P30" s="179"/>
+    </row>
+    <row r="31" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="141">
+        <v>2</v>
+      </c>
+      <c r="C31" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="D31" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="141" t="str">
+      <c r="E31" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E31" s="141" t="str">
+      <c r="F31" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F31" s="129" t="str">
+      <c r="G31" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="129" t="s">
+      <c r="H31" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="129" t="str">
+      <c r="I31" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I31" s="142">
+      <c r="J31" s="142">
         <v>0</v>
       </c>
-      <c r="J31" s="145" t="str">
+      <c r="K31" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L23Y_Quote</v>
       </c>
-      <c r="K31" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00243#0000</v>
-      </c>
-      <c r="L31" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K31)</f>
+      <c r="L31" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K31,$B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ed#0001</v>
+      </c>
+      <c r="M31" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="M31" s="138"/>
-      <c r="O31" s="179"/>
-    </row>
-    <row r="32" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="138"/>
+      <c r="P31" s="179"/>
+    </row>
+    <row r="32" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
-      <c r="B32" s="141" t="s">
+      <c r="B32" s="141">
+        <v>2</v>
+      </c>
+      <c r="C32" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="D32" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="141" t="str">
+      <c r="E32" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E32" s="141" t="str">
+      <c r="F32" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F32" s="129" t="str">
+      <c r="G32" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="129" t="s">
+      <c r="H32" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="129" t="str">
+      <c r="I32" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I32" s="142">
+      <c r="J32" s="142">
         <v>0</v>
       </c>
-      <c r="J32" s="145" t="str">
+      <c r="K32" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L24Y_Quote</v>
       </c>
-      <c r="K32" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027c#0000</v>
-      </c>
-      <c r="L32" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K32)</f>
+      <c r="L32" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K32,$B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e8#0001</v>
+      </c>
+      <c r="M32" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="M32" s="138"/>
-      <c r="O32" s="179"/>
-    </row>
-    <row r="33" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="138"/>
+      <c r="P32" s="179"/>
+    </row>
+    <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
-      <c r="B33" s="141" t="s">
+      <c r="B33" s="141">
+        <v>2</v>
+      </c>
+      <c r="C33" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="D33" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="141" t="str">
+      <c r="E33" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E33" s="141" t="str">
+      <c r="F33" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F33" s="129" t="str">
+      <c r="G33" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="H33" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="129" t="str">
+      <c r="I33" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I33" s="142">
+      <c r="J33" s="142">
         <v>0</v>
       </c>
-      <c r="J33" s="145" t="str">
+      <c r="K33" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L25Y_Quote</v>
       </c>
-      <c r="K33" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00260#0000</v>
-      </c>
-      <c r="L33" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K33)</f>
+      <c r="L33" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K33,$B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e3#0001</v>
+      </c>
+      <c r="M33" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="M33" s="138"/>
-      <c r="O33" s="179"/>
-    </row>
-    <row r="34" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="138"/>
+      <c r="P33" s="179"/>
+    </row>
+    <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="141">
+        <v>2</v>
+      </c>
+      <c r="C34" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="141" t="s">
+      <c r="D34" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="141" t="str">
+      <c r="E34" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E34" s="141" t="str">
+      <c r="F34" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F34" s="129" t="str">
+      <c r="G34" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="H34" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="129" t="str">
+      <c r="I34" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I34" s="142">
+      <c r="J34" s="142">
         <v>0</v>
       </c>
-      <c r="J34" s="145" t="str">
+      <c r="K34" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L26Y_Quote</v>
       </c>
-      <c r="K34" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00289#0000</v>
-      </c>
-      <c r="L34" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K34)</f>
+      <c r="L34" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K34,$B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002de#0001</v>
+      </c>
+      <c r="M34" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="M34" s="138"/>
-      <c r="O34" s="179"/>
-    </row>
-    <row r="35" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="138"/>
+      <c r="P34" s="179"/>
+    </row>
+    <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="141">
+        <v>2</v>
+      </c>
+      <c r="C35" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="141" t="s">
+      <c r="D35" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="141" t="str">
+      <c r="E35" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E35" s="141" t="str">
+      <c r="F35" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F35" s="129" t="str">
+      <c r="G35" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="129" t="s">
+      <c r="H35" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="129" t="str">
+      <c r="I35" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I35" s="142">
+      <c r="J35" s="142">
         <v>0</v>
       </c>
-      <c r="J35" s="145" t="str">
+      <c r="K35" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L27Y_Quote</v>
       </c>
-      <c r="K35" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00270#0000</v>
-      </c>
-      <c r="L35" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K35)</f>
+      <c r="L35" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K35,$B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002fe#0001</v>
+      </c>
+      <c r="M35" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="M35" s="138"/>
-      <c r="O35" s="179"/>
-    </row>
-    <row r="36" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="138"/>
+      <c r="P35" s="179"/>
+    </row>
+    <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="141">
+        <v>2</v>
+      </c>
+      <c r="C36" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="D36" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="141" t="str">
+      <c r="E36" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E36" s="141" t="str">
+      <c r="F36" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F36" s="129" t="str">
+      <c r="G36" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="129" t="s">
+      <c r="H36" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="129" t="str">
+      <c r="I36" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I36" s="142">
+      <c r="J36" s="142">
         <v>0</v>
       </c>
-      <c r="J36" s="145" t="str">
+      <c r="K36" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L28Y_Quote</v>
       </c>
-      <c r="K36" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00287#0000</v>
-      </c>
-      <c r="L36" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K36)</f>
+      <c r="L36" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K36,$B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002fa#0001</v>
+      </c>
+      <c r="M36" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="M36" s="138"/>
-      <c r="O36" s="179"/>
-    </row>
-    <row r="37" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="138"/>
+      <c r="P36" s="179"/>
+    </row>
+    <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
-      <c r="B37" s="141" t="s">
+      <c r="B37" s="141">
+        <v>2</v>
+      </c>
+      <c r="C37" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="D37" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="141" t="str">
+      <c r="E37" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E37" s="141" t="str">
+      <c r="F37" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F37" s="129" t="str">
+      <c r="G37" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="129" t="s">
+      <c r="H37" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="129" t="str">
+      <c r="I37" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I37" s="142">
+      <c r="J37" s="142">
         <v>0</v>
       </c>
-      <c r="J37" s="145" t="str">
+      <c r="K37" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L29Y_Quote</v>
       </c>
-      <c r="K37" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027e#0000</v>
-      </c>
-      <c r="L37" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K37)</f>
+      <c r="L37" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K37,$B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f6#0001</v>
+      </c>
+      <c r="M37" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="M37" s="138"/>
-      <c r="O37" s="179"/>
-    </row>
-    <row r="38" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="138"/>
+      <c r="P37" s="179"/>
+    </row>
+    <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
-      <c r="B38" s="141" t="s">
+      <c r="B38" s="141">
+        <v>2</v>
+      </c>
+      <c r="C38" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="141" t="s">
+      <c r="D38" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="141" t="str">
+      <c r="E38" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E38" s="141" t="str">
+      <c r="F38" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F38" s="129" t="str">
+      <c r="G38" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="129" t="s">
+      <c r="H38" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="129" t="str">
+      <c r="I38" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I38" s="142">
+      <c r="J38" s="142">
         <v>0</v>
       </c>
-      <c r="J38" s="145" t="str">
+      <c r="K38" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L30Y_Quote</v>
       </c>
-      <c r="K38" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00285#0000</v>
-      </c>
-      <c r="L38" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K38)</f>
+      <c r="L38" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K38,$B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002f1#0001</v>
+      </c>
+      <c r="M38" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="M38" s="138"/>
-      <c r="O38" s="179"/>
-    </row>
-    <row r="39" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="138"/>
+      <c r="P38" s="179"/>
+    </row>
+    <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
-      <c r="B39" s="141" t="s">
+      <c r="B39" s="141">
+        <v>2</v>
+      </c>
+      <c r="C39" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="141" t="s">
+      <c r="D39" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="141" t="str">
+      <c r="E39" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E39" s="141" t="str">
+      <c r="F39" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F39" s="129" t="str">
+      <c r="G39" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="129" t="s">
+      <c r="H39" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="129" t="str">
+      <c r="I39" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I39" s="142">
+      <c r="J39" s="142">
         <v>0</v>
       </c>
-      <c r="J39" s="145" t="str">
+      <c r="K39" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L35Y_Quote</v>
       </c>
-      <c r="K39" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0027f#0000</v>
-      </c>
-      <c r="L39" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K39)</f>
+      <c r="L39" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K39,$B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002ec#0001</v>
+      </c>
+      <c r="M39" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="M39" s="138"/>
-      <c r="O39" s="179"/>
-    </row>
-    <row r="40" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="138"/>
+      <c r="P39" s="179"/>
+    </row>
+    <row r="40" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="141">
+        <v>2</v>
+      </c>
+      <c r="C40" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="141" t="s">
+      <c r="D40" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="141" t="str">
+      <c r="E40" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E40" s="141" t="str">
+      <c r="F40" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F40" s="129" t="str">
+      <c r="G40" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="129" t="s">
+      <c r="H40" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="129" t="str">
+      <c r="I40" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I40" s="142">
+      <c r="J40" s="142">
         <v>0</v>
       </c>
-      <c r="J40" s="145" t="str">
+      <c r="K40" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L40Y_Quote</v>
       </c>
-      <c r="K40" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00278#0000</v>
-      </c>
-      <c r="L40" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K40)</f>
+      <c r="L40" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K40,$B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e7#0001</v>
+      </c>
+      <c r="M40" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="M40" s="138"/>
-      <c r="O40" s="179"/>
-    </row>
-    <row r="41" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="138"/>
+      <c r="P40" s="179"/>
+    </row>
+    <row r="41" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="141">
+        <v>2</v>
+      </c>
+      <c r="C41" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="141" t="str">
+      <c r="D41" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E41" s="141" t="str">
+      <c r="F41" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F41" s="129" t="str">
+      <c r="G41" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="129" t="s">
+      <c r="H41" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="129" t="str">
+      <c r="I41" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I41" s="142">
+      <c r="J41" s="142">
         <v>0</v>
       </c>
-      <c r="J41" s="145" t="str">
+      <c r="K41" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L50Y_Quote</v>
       </c>
-      <c r="K41" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00247#0000</v>
-      </c>
-      <c r="L41" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K41)</f>
+      <c r="L41" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K41,$B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002e2#0001</v>
+      </c>
+      <c r="M41" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="M41" s="138"/>
-      <c r="O41" s="179"/>
-    </row>
-    <row r="42" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="138"/>
+      <c r="P41" s="179"/>
+    </row>
+    <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
-      <c r="B42" s="141" t="s">
+      <c r="B42" s="141">
+        <v>2</v>
+      </c>
+      <c r="C42" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="141" t="s">
+      <c r="D42" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="141" t="str">
+      <c r="E42" s="141" t="str">
         <v>AB</v>
       </c>
-      <c r="E42" s="141" t="str">
+      <c r="F42" s="141" t="str">
         <v>6L</v>
       </c>
-      <c r="F42" s="129" t="str">
+      <c r="G42" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="129" t="s">
+      <c r="H42" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="129" t="str">
+      <c r="I42" s="129" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I42" s="142">
+      <c r="J42" s="142">
         <v>0</v>
       </c>
-      <c r="J42" s="145" t="str">
+      <c r="K42" s="145" t="str">
         <f t="shared" si="2"/>
         <v>CHFAB6L60Y_Quote</v>
       </c>
-      <c r="K42" s="144" t="str">
-        <f>_xll.qlSwapRateHelper2(,$J42,$C42,Calendar,$F42,$G42,$H42,$K$3,$I42,B42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00240#0000</v>
-      </c>
-      <c r="L42" s="137" t="str">
-        <f>_xll.ohRangeRetrieveError(K42)</f>
+      <c r="L42" s="144" t="str">
+        <f>_xll.qlSwapRateHelper2(,$K42,$B42,$D42,Calendar,$G42,$H42,$I42,$L$3,$J42,C42,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_002dd#0001</v>
+      </c>
+      <c r="M42" s="137" t="str">
+        <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="M42" s="138"/>
-      <c r="O42" s="179"/>
-    </row>
-    <row r="43" spans="1:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="138"/>
+      <c r="P42" s="179"/>
+    </row>
+    <row r="43" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -15646,642 +16086,680 @@
       <c r="H43" s="46"/>
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
-      <c r="K43" s="122"/>
+      <c r="K43" s="46"/>
       <c r="L43" s="122"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="179"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="147"/>
       <c r="O43" s="179"/>
-    </row>
-    <row r="44" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="179"/>
+    </row>
+    <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172"/>
       <c r="B44" s="173"/>
       <c r="C44" s="173"/>
       <c r="D44" s="173"/>
       <c r="E44" s="173"/>
-      <c r="F44" s="172"/>
+      <c r="F44" s="173"/>
       <c r="G44" s="172"/>
       <c r="H44" s="172"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="178"/>
-      <c r="N44" s="179"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="178"/>
       <c r="O44" s="179"/>
-    </row>
-    <row r="45" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="179"/>
+    </row>
+    <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172"/>
       <c r="B45" s="173"/>
       <c r="C45" s="173"/>
       <c r="D45" s="173"/>
       <c r="E45" s="173"/>
-      <c r="F45" s="172"/>
+      <c r="F45" s="173"/>
       <c r="G45" s="172"/>
       <c r="H45" s="172"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="179"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="175"/>
+      <c r="L45" s="176"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="178"/>
       <c r="O45" s="179"/>
-    </row>
-    <row r="46" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="179"/>
+    </row>
+    <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="172"/>
       <c r="B46" s="173"/>
       <c r="C46" s="173"/>
       <c r="D46" s="173"/>
       <c r="E46" s="173"/>
-      <c r="F46" s="172"/>
+      <c r="F46" s="173"/>
       <c r="G46" s="172"/>
       <c r="H46" s="172"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="175"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="179"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="174"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="176"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="178"/>
       <c r="O46" s="179"/>
-    </row>
-    <row r="47" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="179"/>
+    </row>
+    <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="172"/>
       <c r="B47" s="173"/>
       <c r="C47" s="173"/>
       <c r="D47" s="173"/>
       <c r="E47" s="173"/>
-      <c r="F47" s="172"/>
+      <c r="F47" s="173"/>
       <c r="G47" s="172"/>
       <c r="H47" s="172"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="177"/>
-      <c r="M47" s="178"/>
-      <c r="N47" s="179"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="177"/>
+      <c r="N47" s="178"/>
       <c r="O47" s="179"/>
-    </row>
-    <row r="48" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="179"/>
+    </row>
+    <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="172"/>
       <c r="B48" s="173"/>
       <c r="C48" s="173"/>
       <c r="D48" s="173"/>
       <c r="E48" s="173"/>
-      <c r="F48" s="172"/>
+      <c r="F48" s="173"/>
       <c r="G48" s="172"/>
       <c r="H48" s="172"/>
-      <c r="I48" s="174"/>
-      <c r="J48" s="175"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="177"/>
-      <c r="M48" s="178"/>
-      <c r="N48" s="179"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="174"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="176"/>
+      <c r="M48" s="177"/>
+      <c r="N48" s="178"/>
       <c r="O48" s="179"/>
-    </row>
-    <row r="49" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="179"/>
+    </row>
+    <row r="49" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="172"/>
       <c r="B49" s="173"/>
       <c r="C49" s="173"/>
       <c r="D49" s="173"/>
       <c r="E49" s="173"/>
-      <c r="F49" s="172"/>
+      <c r="F49" s="173"/>
       <c r="G49" s="172"/>
       <c r="H49" s="172"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="175"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="177"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="179"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="177"/>
+      <c r="N49" s="178"/>
       <c r="O49" s="179"/>
-    </row>
-    <row r="50" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="179"/>
+    </row>
+    <row r="50" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="172"/>
       <c r="B50" s="173"/>
       <c r="C50" s="173"/>
       <c r="D50" s="173"/>
       <c r="E50" s="173"/>
-      <c r="F50" s="172"/>
+      <c r="F50" s="173"/>
       <c r="G50" s="172"/>
       <c r="H50" s="172"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="177"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="179"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="177"/>
+      <c r="N50" s="178"/>
       <c r="O50" s="179"/>
-    </row>
-    <row r="51" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="179"/>
+    </row>
+    <row r="51" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="172"/>
       <c r="B51" s="173"/>
       <c r="C51" s="173"/>
       <c r="D51" s="173"/>
       <c r="E51" s="173"/>
-      <c r="F51" s="172"/>
+      <c r="F51" s="173"/>
       <c r="G51" s="172"/>
       <c r="H51" s="172"/>
-      <c r="I51" s="174"/>
-      <c r="J51" s="175"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="177"/>
-      <c r="M51" s="178"/>
-      <c r="N51" s="179"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="175"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="177"/>
+      <c r="N51" s="178"/>
       <c r="O51" s="179"/>
-    </row>
-    <row r="52" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="179"/>
+    </row>
+    <row r="52" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="172"/>
       <c r="B52" s="173"/>
       <c r="C52" s="173"/>
       <c r="D52" s="173"/>
       <c r="E52" s="173"/>
-      <c r="F52" s="172"/>
+      <c r="F52" s="173"/>
       <c r="G52" s="172"/>
       <c r="H52" s="172"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="177"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="179"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="177"/>
+      <c r="N52" s="178"/>
       <c r="O52" s="179"/>
-    </row>
-    <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="179"/>
+    </row>
+    <row r="53" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="172"/>
       <c r="B53" s="173"/>
       <c r="C53" s="173"/>
       <c r="D53" s="173"/>
       <c r="E53" s="173"/>
-      <c r="F53" s="172"/>
+      <c r="F53" s="173"/>
       <c r="G53" s="172"/>
       <c r="H53" s="172"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="179"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="177"/>
+      <c r="N53" s="178"/>
       <c r="O53" s="179"/>
-    </row>
-    <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="179"/>
+    </row>
+    <row r="54" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="172"/>
       <c r="B54" s="173"/>
       <c r="C54" s="173"/>
       <c r="D54" s="173"/>
       <c r="E54" s="173"/>
-      <c r="F54" s="172"/>
+      <c r="F54" s="173"/>
       <c r="G54" s="172"/>
       <c r="H54" s="172"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="175"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="179"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="177"/>
+      <c r="N54" s="178"/>
       <c r="O54" s="179"/>
-    </row>
-    <row r="55" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="179"/>
+    </row>
+    <row r="55" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="172"/>
       <c r="B55" s="173"/>
       <c r="C55" s="173"/>
       <c r="D55" s="173"/>
       <c r="E55" s="173"/>
-      <c r="F55" s="172"/>
+      <c r="F55" s="173"/>
       <c r="G55" s="172"/>
       <c r="H55" s="172"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="177"/>
-      <c r="M55" s="178"/>
-      <c r="N55" s="179"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="176"/>
+      <c r="M55" s="177"/>
+      <c r="N55" s="178"/>
       <c r="O55" s="179"/>
-    </row>
-    <row r="56" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="179"/>
+    </row>
+    <row r="56" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="172"/>
       <c r="B56" s="173"/>
       <c r="C56" s="173"/>
       <c r="D56" s="173"/>
       <c r="E56" s="173"/>
-      <c r="F56" s="172"/>
+      <c r="F56" s="173"/>
       <c r="G56" s="172"/>
       <c r="H56" s="172"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="175"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="177"/>
-      <c r="M56" s="178"/>
-      <c r="N56" s="179"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="174"/>
+      <c r="K56" s="175"/>
+      <c r="L56" s="176"/>
+      <c r="M56" s="177"/>
+      <c r="N56" s="178"/>
       <c r="O56" s="179"/>
-    </row>
-    <row r="57" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="179"/>
+    </row>
+    <row r="57" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="172"/>
       <c r="B57" s="173"/>
       <c r="C57" s="173"/>
       <c r="D57" s="173"/>
       <c r="E57" s="173"/>
-      <c r="F57" s="172"/>
+      <c r="F57" s="173"/>
       <c r="G57" s="172"/>
       <c r="H57" s="172"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="175"/>
-      <c r="K57" s="176"/>
-      <c r="L57" s="177"/>
-      <c r="M57" s="178"/>
-      <c r="N57" s="179"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="174"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="177"/>
+      <c r="N57" s="178"/>
       <c r="O57" s="179"/>
-    </row>
-    <row r="58" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="179"/>
+    </row>
+    <row r="58" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="172"/>
       <c r="B58" s="173"/>
       <c r="C58" s="173"/>
       <c r="D58" s="173"/>
       <c r="E58" s="173"/>
-      <c r="F58" s="172"/>
+      <c r="F58" s="173"/>
       <c r="G58" s="172"/>
       <c r="H58" s="172"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="175"/>
-      <c r="K58" s="176"/>
-      <c r="L58" s="177"/>
-      <c r="M58" s="178"/>
-      <c r="N58" s="179"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="174"/>
+      <c r="K58" s="175"/>
+      <c r="L58" s="176"/>
+      <c r="M58" s="177"/>
+      <c r="N58" s="178"/>
       <c r="O58" s="179"/>
-    </row>
-    <row r="59" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="179"/>
+    </row>
+    <row r="59" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="172"/>
       <c r="B59" s="173"/>
       <c r="C59" s="173"/>
       <c r="D59" s="173"/>
       <c r="E59" s="173"/>
-      <c r="F59" s="172"/>
+      <c r="F59" s="173"/>
       <c r="G59" s="172"/>
       <c r="H59" s="172"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="176"/>
-      <c r="L59" s="177"/>
-      <c r="M59" s="178"/>
-      <c r="N59" s="179"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="175"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="177"/>
+      <c r="N59" s="178"/>
       <c r="O59" s="179"/>
-    </row>
-    <row r="60" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="179"/>
+    </row>
+    <row r="60" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="172"/>
       <c r="B60" s="173"/>
       <c r="C60" s="173"/>
       <c r="D60" s="173"/>
       <c r="E60" s="173"/>
-      <c r="F60" s="172"/>
+      <c r="F60" s="173"/>
       <c r="G60" s="172"/>
       <c r="H60" s="172"/>
-      <c r="I60" s="174"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="177"/>
-      <c r="M60" s="178"/>
-      <c r="N60" s="179"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="174"/>
+      <c r="K60" s="175"/>
+      <c r="L60" s="176"/>
+      <c r="M60" s="177"/>
+      <c r="N60" s="178"/>
       <c r="O60" s="179"/>
-    </row>
-    <row r="61" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="179"/>
+    </row>
+    <row r="61" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="172"/>
       <c r="B61" s="173"/>
       <c r="C61" s="173"/>
       <c r="D61" s="173"/>
       <c r="E61" s="173"/>
-      <c r="F61" s="172"/>
+      <c r="F61" s="173"/>
       <c r="G61" s="172"/>
       <c r="H61" s="172"/>
-      <c r="I61" s="174"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="176"/>
-      <c r="L61" s="177"/>
-      <c r="M61" s="178"/>
-      <c r="N61" s="179"/>
+      <c r="I61" s="172"/>
+      <c r="J61" s="174"/>
+      <c r="K61" s="175"/>
+      <c r="L61" s="176"/>
+      <c r="M61" s="177"/>
+      <c r="N61" s="178"/>
       <c r="O61" s="179"/>
-    </row>
-    <row r="62" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="179"/>
+    </row>
+    <row r="62" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="172"/>
       <c r="B62" s="173"/>
       <c r="C62" s="173"/>
       <c r="D62" s="173"/>
       <c r="E62" s="173"/>
-      <c r="F62" s="172"/>
+      <c r="F62" s="173"/>
       <c r="G62" s="172"/>
       <c r="H62" s="172"/>
-      <c r="I62" s="174"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="176"/>
-      <c r="L62" s="177"/>
-      <c r="M62" s="178"/>
-      <c r="N62" s="179"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="174"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="176"/>
+      <c r="M62" s="177"/>
+      <c r="N62" s="178"/>
       <c r="O62" s="179"/>
-    </row>
-    <row r="63" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="179"/>
+    </row>
+    <row r="63" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="172"/>
       <c r="B63" s="173"/>
       <c r="C63" s="173"/>
       <c r="D63" s="173"/>
       <c r="E63" s="173"/>
-      <c r="F63" s="172"/>
+      <c r="F63" s="173"/>
       <c r="G63" s="172"/>
       <c r="H63" s="172"/>
-      <c r="I63" s="174"/>
-      <c r="J63" s="175"/>
-      <c r="K63" s="176"/>
-      <c r="L63" s="177"/>
-      <c r="M63" s="178"/>
-      <c r="N63" s="179"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="174"/>
+      <c r="K63" s="175"/>
+      <c r="L63" s="176"/>
+      <c r="M63" s="177"/>
+      <c r="N63" s="178"/>
       <c r="O63" s="179"/>
-    </row>
-    <row r="64" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="179"/>
+    </row>
+    <row r="64" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="172"/>
       <c r="B64" s="173"/>
       <c r="C64" s="173"/>
       <c r="D64" s="173"/>
       <c r="E64" s="173"/>
-      <c r="F64" s="172"/>
+      <c r="F64" s="173"/>
       <c r="G64" s="172"/>
       <c r="H64" s="172"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="176"/>
-      <c r="L64" s="177"/>
-      <c r="M64" s="178"/>
-      <c r="N64" s="179"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="174"/>
+      <c r="K64" s="175"/>
+      <c r="L64" s="176"/>
+      <c r="M64" s="177"/>
+      <c r="N64" s="178"/>
       <c r="O64" s="179"/>
-    </row>
-    <row r="65" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="179"/>
+    </row>
+    <row r="65" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="172"/>
       <c r="B65" s="173"/>
       <c r="C65" s="173"/>
       <c r="D65" s="173"/>
       <c r="E65" s="173"/>
-      <c r="F65" s="172"/>
+      <c r="F65" s="173"/>
       <c r="G65" s="172"/>
       <c r="H65" s="172"/>
-      <c r="I65" s="174"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="176"/>
-      <c r="L65" s="177"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="179"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="174"/>
+      <c r="K65" s="175"/>
+      <c r="L65" s="176"/>
+      <c r="M65" s="177"/>
+      <c r="N65" s="178"/>
       <c r="O65" s="179"/>
-    </row>
-    <row r="66" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="179"/>
+    </row>
+    <row r="66" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="172"/>
       <c r="B66" s="173"/>
       <c r="C66" s="173"/>
       <c r="D66" s="173"/>
       <c r="E66" s="173"/>
-      <c r="F66" s="172"/>
+      <c r="F66" s="173"/>
       <c r="G66" s="172"/>
       <c r="H66" s="172"/>
-      <c r="I66" s="174"/>
-      <c r="J66" s="175"/>
-      <c r="K66" s="176"/>
-      <c r="L66" s="177"/>
-      <c r="M66" s="178"/>
-      <c r="N66" s="179"/>
+      <c r="I66" s="172"/>
+      <c r="J66" s="174"/>
+      <c r="K66" s="175"/>
+      <c r="L66" s="176"/>
+      <c r="M66" s="177"/>
+      <c r="N66" s="178"/>
       <c r="O66" s="179"/>
-    </row>
-    <row r="67" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="179"/>
+    </row>
+    <row r="67" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="172"/>
       <c r="B67" s="173"/>
       <c r="C67" s="173"/>
       <c r="D67" s="173"/>
       <c r="E67" s="173"/>
-      <c r="F67" s="172"/>
+      <c r="F67" s="173"/>
       <c r="G67" s="172"/>
       <c r="H67" s="172"/>
-      <c r="I67" s="174"/>
-      <c r="J67" s="175"/>
-      <c r="K67" s="176"/>
-      <c r="L67" s="177"/>
-      <c r="M67" s="178"/>
-      <c r="N67" s="179"/>
+      <c r="I67" s="172"/>
+      <c r="J67" s="174"/>
+      <c r="K67" s="175"/>
+      <c r="L67" s="176"/>
+      <c r="M67" s="177"/>
+      <c r="N67" s="178"/>
       <c r="O67" s="179"/>
-    </row>
-    <row r="68" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="179"/>
+    </row>
+    <row r="68" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="172"/>
       <c r="B68" s="173"/>
       <c r="C68" s="173"/>
       <c r="D68" s="173"/>
       <c r="E68" s="173"/>
-      <c r="F68" s="172"/>
+      <c r="F68" s="173"/>
       <c r="G68" s="172"/>
       <c r="H68" s="172"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="175"/>
-      <c r="K68" s="176"/>
-      <c r="L68" s="177"/>
-      <c r="M68" s="178"/>
-      <c r="N68" s="179"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="174"/>
+      <c r="K68" s="175"/>
+      <c r="L68" s="176"/>
+      <c r="M68" s="177"/>
+      <c r="N68" s="178"/>
       <c r="O68" s="179"/>
-    </row>
-    <row r="69" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="179"/>
+    </row>
+    <row r="69" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="172"/>
       <c r="B69" s="173"/>
       <c r="C69" s="173"/>
       <c r="D69" s="173"/>
       <c r="E69" s="173"/>
-      <c r="F69" s="172"/>
+      <c r="F69" s="173"/>
       <c r="G69" s="172"/>
       <c r="H69" s="172"/>
-      <c r="I69" s="174"/>
-      <c r="J69" s="175"/>
-      <c r="K69" s="176"/>
-      <c r="L69" s="177"/>
-      <c r="M69" s="178"/>
-      <c r="N69" s="179"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="174"/>
+      <c r="K69" s="175"/>
+      <c r="L69" s="176"/>
+      <c r="M69" s="177"/>
+      <c r="N69" s="178"/>
       <c r="O69" s="179"/>
-    </row>
-    <row r="70" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="179"/>
+    </row>
+    <row r="70" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="172"/>
       <c r="B70" s="173"/>
       <c r="C70" s="173"/>
       <c r="D70" s="173"/>
       <c r="E70" s="173"/>
-      <c r="F70" s="172"/>
+      <c r="F70" s="173"/>
       <c r="G70" s="172"/>
       <c r="H70" s="172"/>
-      <c r="I70" s="174"/>
-      <c r="J70" s="175"/>
-      <c r="K70" s="176"/>
-      <c r="L70" s="177"/>
-      <c r="M70" s="178"/>
-      <c r="N70" s="179"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="174"/>
+      <c r="K70" s="175"/>
+      <c r="L70" s="176"/>
+      <c r="M70" s="177"/>
+      <c r="N70" s="178"/>
       <c r="O70" s="179"/>
-    </row>
-    <row r="71" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P70" s="179"/>
+    </row>
+    <row r="71" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="172"/>
       <c r="B71" s="173"/>
       <c r="C71" s="173"/>
       <c r="D71" s="173"/>
       <c r="E71" s="173"/>
-      <c r="F71" s="172"/>
+      <c r="F71" s="173"/>
       <c r="G71" s="172"/>
       <c r="H71" s="172"/>
-      <c r="I71" s="174"/>
-      <c r="J71" s="175"/>
-      <c r="K71" s="176"/>
-      <c r="L71" s="177"/>
-      <c r="M71" s="178"/>
-      <c r="N71" s="179"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="174"/>
+      <c r="K71" s="175"/>
+      <c r="L71" s="176"/>
+      <c r="M71" s="177"/>
+      <c r="N71" s="178"/>
       <c r="O71" s="179"/>
-    </row>
-    <row r="72" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="179"/>
+    </row>
+    <row r="72" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="172"/>
       <c r="B72" s="173"/>
       <c r="C72" s="173"/>
       <c r="D72" s="173"/>
       <c r="E72" s="173"/>
-      <c r="F72" s="172"/>
+      <c r="F72" s="173"/>
       <c r="G72" s="172"/>
       <c r="H72" s="172"/>
-      <c r="I72" s="174"/>
-      <c r="J72" s="175"/>
-      <c r="K72" s="176"/>
-      <c r="L72" s="177"/>
-      <c r="M72" s="178"/>
-      <c r="N72" s="179"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="174"/>
+      <c r="K72" s="175"/>
+      <c r="L72" s="176"/>
+      <c r="M72" s="177"/>
+      <c r="N72" s="178"/>
       <c r="O72" s="179"/>
-    </row>
-    <row r="73" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="179"/>
+    </row>
+    <row r="73" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="172"/>
       <c r="B73" s="173"/>
       <c r="C73" s="173"/>
       <c r="D73" s="173"/>
       <c r="E73" s="173"/>
-      <c r="F73" s="172"/>
+      <c r="F73" s="173"/>
       <c r="G73" s="172"/>
       <c r="H73" s="172"/>
-      <c r="I73" s="174"/>
-      <c r="J73" s="175"/>
-      <c r="K73" s="176"/>
-      <c r="L73" s="177"/>
-      <c r="M73" s="178"/>
-      <c r="N73" s="179"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="174"/>
+      <c r="K73" s="175"/>
+      <c r="L73" s="176"/>
+      <c r="M73" s="177"/>
+      <c r="N73" s="178"/>
       <c r="O73" s="179"/>
-    </row>
-    <row r="74" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="179"/>
+    </row>
+    <row r="74" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="172"/>
       <c r="B74" s="173"/>
       <c r="C74" s="173"/>
       <c r="D74" s="173"/>
       <c r="E74" s="173"/>
-      <c r="F74" s="172"/>
+      <c r="F74" s="173"/>
       <c r="G74" s="172"/>
       <c r="H74" s="172"/>
-      <c r="I74" s="174"/>
-      <c r="J74" s="175"/>
-      <c r="K74" s="176"/>
-      <c r="L74" s="177"/>
-      <c r="M74" s="178"/>
-      <c r="N74" s="179"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="174"/>
+      <c r="K74" s="175"/>
+      <c r="L74" s="176"/>
+      <c r="M74" s="177"/>
+      <c r="N74" s="178"/>
       <c r="O74" s="179"/>
-    </row>
-    <row r="75" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="179"/>
+    </row>
+    <row r="75" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="172"/>
       <c r="B75" s="173"/>
       <c r="C75" s="173"/>
       <c r="D75" s="173"/>
       <c r="E75" s="173"/>
-      <c r="F75" s="172"/>
+      <c r="F75" s="173"/>
       <c r="G75" s="172"/>
       <c r="H75" s="172"/>
-      <c r="I75" s="174"/>
-      <c r="J75" s="175"/>
-      <c r="K75" s="176"/>
-      <c r="L75" s="177"/>
-      <c r="M75" s="178"/>
-      <c r="N75" s="179"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="174"/>
+      <c r="K75" s="175"/>
+      <c r="L75" s="176"/>
+      <c r="M75" s="177"/>
+      <c r="N75" s="178"/>
       <c r="O75" s="179"/>
-    </row>
-    <row r="76" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="179"/>
+    </row>
+    <row r="76" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="172"/>
       <c r="B76" s="173"/>
       <c r="C76" s="173"/>
       <c r="D76" s="173"/>
       <c r="E76" s="173"/>
-      <c r="F76" s="172"/>
+      <c r="F76" s="173"/>
       <c r="G76" s="172"/>
       <c r="H76" s="172"/>
-      <c r="I76" s="174"/>
-      <c r="J76" s="175"/>
-      <c r="K76" s="176"/>
-      <c r="L76" s="177"/>
-      <c r="M76" s="178"/>
-      <c r="N76" s="179"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="174"/>
+      <c r="K76" s="175"/>
+      <c r="L76" s="176"/>
+      <c r="M76" s="177"/>
+      <c r="N76" s="178"/>
       <c r="O76" s="179"/>
-    </row>
-    <row r="77" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="179"/>
+    </row>
+    <row r="77" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="172"/>
       <c r="B77" s="173"/>
       <c r="C77" s="173"/>
       <c r="D77" s="173"/>
       <c r="E77" s="173"/>
-      <c r="F77" s="172"/>
+      <c r="F77" s="173"/>
       <c r="G77" s="172"/>
       <c r="H77" s="172"/>
-      <c r="I77" s="174"/>
-      <c r="J77" s="175"/>
-      <c r="K77" s="176"/>
-      <c r="L77" s="177"/>
-      <c r="M77" s="178"/>
-      <c r="N77" s="179"/>
+      <c r="I77" s="172"/>
+      <c r="J77" s="174"/>
+      <c r="K77" s="175"/>
+      <c r="L77" s="176"/>
+      <c r="M77" s="177"/>
+      <c r="N77" s="178"/>
       <c r="O77" s="179"/>
-    </row>
-    <row r="78" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P77" s="179"/>
+    </row>
+    <row r="78" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="172"/>
       <c r="B78" s="173"/>
       <c r="C78" s="173"/>
       <c r="D78" s="173"/>
       <c r="E78" s="173"/>
-      <c r="F78" s="172"/>
+      <c r="F78" s="173"/>
       <c r="G78" s="172"/>
       <c r="H78" s="172"/>
-      <c r="I78" s="174"/>
-      <c r="J78" s="175"/>
-      <c r="K78" s="176"/>
-      <c r="L78" s="177"/>
-      <c r="M78" s="178"/>
-      <c r="N78" s="179"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="174"/>
+      <c r="K78" s="175"/>
+      <c r="L78" s="176"/>
+      <c r="M78" s="177"/>
+      <c r="N78" s="178"/>
       <c r="O78" s="179"/>
-    </row>
-    <row r="79" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="179"/>
+    </row>
+    <row r="79" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="172"/>
       <c r="B79" s="173"/>
       <c r="C79" s="173"/>
       <c r="D79" s="173"/>
       <c r="E79" s="173"/>
-      <c r="F79" s="172"/>
+      <c r="F79" s="173"/>
       <c r="G79" s="172"/>
       <c r="H79" s="172"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="175"/>
-      <c r="K79" s="176"/>
-      <c r="L79" s="177"/>
-      <c r="M79" s="178"/>
-      <c r="N79" s="179"/>
+      <c r="I79" s="172"/>
+      <c r="J79" s="174"/>
+      <c r="K79" s="175"/>
+      <c r="L79" s="176"/>
+      <c r="M79" s="177"/>
+      <c r="N79" s="178"/>
       <c r="O79" s="179"/>
-    </row>
-    <row r="80" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="179"/>
+    </row>
+    <row r="80" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="172"/>
       <c r="B80" s="173"/>
       <c r="C80" s="173"/>
       <c r="D80" s="173"/>
       <c r="E80" s="173"/>
-      <c r="F80" s="172"/>
+      <c r="F80" s="173"/>
       <c r="G80" s="172"/>
       <c r="H80" s="172"/>
-      <c r="I80" s="174"/>
-      <c r="J80" s="175"/>
-      <c r="K80" s="176"/>
-      <c r="L80" s="177"/>
-      <c r="M80" s="178"/>
-      <c r="N80" s="179"/>
+      <c r="I80" s="172"/>
+      <c r="J80" s="174"/>
+      <c r="K80" s="175"/>
+      <c r="L80" s="176"/>
+      <c r="M80" s="177"/>
+      <c r="N80" s="178"/>
       <c r="O80" s="179"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="179"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="180"/>
       <c r="B81" s="180"/>
       <c r="C81" s="180"/>
@@ -16292,13 +16770,14 @@
       <c r="H81" s="180"/>
       <c r="I81" s="180"/>
       <c r="J81" s="180"/>
-      <c r="K81" s="181"/>
+      <c r="K81" s="180"/>
       <c r="L81" s="181"/>
       <c r="M81" s="181"/>
-      <c r="N81" s="179"/>
+      <c r="N81" s="181"/>
       <c r="O81" s="179"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="179"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="179"/>
       <c r="B82" s="179"/>
       <c r="C82" s="179"/>
@@ -16309,13 +16788,14 @@
       <c r="H82" s="179"/>
       <c r="I82" s="179"/>
       <c r="J82" s="179"/>
-      <c r="K82" s="182"/>
-      <c r="L82" s="179"/>
+      <c r="K82" s="179"/>
+      <c r="L82" s="182"/>
       <c r="M82" s="179"/>
       <c r="N82" s="179"/>
       <c r="O82" s="179"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="179"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="179"/>
       <c r="B83" s="179"/>
       <c r="C83" s="179"/>
@@ -16326,13 +16806,14 @@
       <c r="H83" s="179"/>
       <c r="I83" s="179"/>
       <c r="J83" s="179"/>
-      <c r="K83" s="182"/>
-      <c r="L83" s="179"/>
+      <c r="K83" s="179"/>
+      <c r="L83" s="182"/>
       <c r="M83" s="179"/>
+      <c r="N83" s="179"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G42 G44:G80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H42 H44:H80">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Month End Reference,Unadjusted Month End,Unadjusted"</formula1>
     </dataValidation>
   </dataValidations>
